--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="962">
   <si>
     <t>Sigla</t>
   </si>
@@ -466,10 +466,10 @@
     <t xml:space="preserve"> Solos I</t>
   </si>
   <si>
-    <t>LOB1207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Poluição Ambiental I</t>
+    <t>LOB1208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Analítica Ambiental I</t>
   </si>
   <si>
     <t>8855158</t>
@@ -478,12 +478,6 @@
     <t>Morun Bernardino Neto</t>
   </si>
   <si>
-    <t>LOB1208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Analítica Ambiental I</t>
-  </si>
-  <si>
     <t>LOB1209</t>
   </si>
   <si>
@@ -499,7 +493,7 @@
     <t>LOB1211</t>
   </si>
   <si>
-    <t xml:space="preserve"> Poluição Ambiental II</t>
+    <t xml:space="preserve"> Poluição Atmosférica</t>
   </si>
   <si>
     <t>LOB1212</t>
@@ -574,12 +568,6 @@
     <t xml:space="preserve"> Planejamento Ambiental e Urbanismo</t>
   </si>
   <si>
-    <t>LOB1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tratamento de Águas Residuárias</t>
-  </si>
-  <si>
     <t>LOB1226</t>
   </si>
   <si>
@@ -604,12 +592,6 @@
     <t xml:space="preserve"> Trabalho de Graduação II</t>
   </si>
   <si>
-    <t>LOB1230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ecossistemas Aquáticos e Terrestres</t>
-  </si>
-  <si>
     <t>LOB1231</t>
   </si>
   <si>
@@ -637,13 +619,7 @@
     <t>LOB1235</t>
   </si>
   <si>
-    <t xml:space="preserve"> Impactos e Adeqüação Ambiental</t>
-  </si>
-  <si>
-    <t>LOB1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ações Mitigadoras de Impactos Ambientais</t>
+    <t xml:space="preserve"> Avaliação de Impactos Ambientais</t>
   </si>
   <si>
     <t>LOB1237</t>
@@ -667,7 +643,7 @@
     <t>LOB1240</t>
   </si>
   <si>
-    <t xml:space="preserve"> Condicionantes Geológico-geotécnicos em Estudos Ambientais</t>
+    <t xml:space="preserve"> Geotecnia Ambiental</t>
   </si>
   <si>
     <t>LOB1241</t>
@@ -727,7 +703,7 @@
     <t>LOB1254</t>
   </si>
   <si>
-    <t xml:space="preserve"> Geologia para Engenharia Ambiental</t>
+    <t xml:space="preserve"> Geologia</t>
   </si>
   <si>
     <t>LOB1255</t>
@@ -790,6 +766,18 @@
     <t xml:space="preserve"> Introdução a Eco-Inovação Tecnológica</t>
   </si>
   <si>
+    <t>LOB1264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toxicologia Ambiental</t>
+  </si>
+  <si>
+    <t>LOB1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Epidemiologia Ambiental</t>
+  </si>
+  <si>
     <t>LOM3003</t>
   </si>
   <si>
@@ -805,127 +793,409 @@
     <t>LOM3004</t>
   </si>
   <si>
+    <t xml:space="preserve"> Processamento de Materiais Metálicos II</t>
+  </si>
+  <si>
+    <t>5840793</t>
+  </si>
+  <si>
+    <t>Sérgio Schneider</t>
+  </si>
+  <si>
+    <t>LOM3005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diagrama de Fases</t>
+  </si>
+  <si>
+    <t>5009972</t>
+  </si>
+  <si>
+    <t>Gilberto Carvalho Coelho</t>
+  </si>
+  <si>
+    <t>LOM3006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Degradação e Proteção de Materiais</t>
+  </si>
+  <si>
+    <t>5840747</t>
+  </si>
+  <si>
+    <t>Alain Laurent Marie Robin</t>
+  </si>
+  <si>
+    <t>7459752</t>
+  </si>
+  <si>
+    <t>Maria Ismenia Sodero Toledo Faria</t>
+  </si>
+  <si>
+    <t>LOM3008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eletrometalurgia</t>
+  </si>
+  <si>
+    <t>144651</t>
+  </si>
+  <si>
+    <t>Antonio Fernando Sartori</t>
+  </si>
+  <si>
+    <t>3577649</t>
+  </si>
+  <si>
+    <t>Carlos Angelo Nunes</t>
+  </si>
+  <si>
+    <t>LOM3011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ensaios Mecânicos</t>
+  </si>
+  <si>
+    <t>471420</t>
+  </si>
+  <si>
+    <t>Carlos Antonio Reis Pereira Baptista</t>
+  </si>
+  <si>
+    <t>3586455</t>
+  </si>
+  <si>
+    <t>Cassius Olivio Figueiredo Terra Ruchert</t>
+  </si>
+  <si>
+    <t>LOM3013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciência dos Materiais</t>
+  </si>
+  <si>
+    <t>6495737</t>
+  </si>
+  <si>
+    <t>Durval Rodrigues Junior</t>
+  </si>
+  <si>
+    <t>5983729</t>
+  </si>
+  <si>
+    <t>Fernando Vernilli Junior</t>
+  </si>
+  <si>
+    <t>LOM3015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Termodinâmica de Materiais</t>
+  </si>
+  <si>
+    <t>1176388</t>
+  </si>
+  <si>
+    <t>Luiz Tadeu Fernandes Eleno</t>
+  </si>
+  <si>
+    <t>LOM3016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução à  Ciência dos Materiais</t>
+  </si>
+  <si>
+    <t>LOM3018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução à Engenharia de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Materiais para a  Indústria Química</t>
+  </si>
+  <si>
+    <t>5840963</t>
+  </si>
+  <si>
+    <t>Daniela Camargo Vernilli</t>
+  </si>
+  <si>
+    <t>LOM3027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pirometalurgia</t>
+  </si>
+  <si>
+    <t>1922320</t>
+  </si>
+  <si>
+    <t>Sebastiao Ribeiro</t>
+  </si>
+  <si>
+    <t>LOM3032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produtos Cerâmicos</t>
+  </si>
+  <si>
+    <t>LOM3033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produtos Metálicos</t>
+  </si>
+  <si>
+    <t>LOM3036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propriedades Mecânicas</t>
+  </si>
+  <si>
+    <t>5840622</t>
+  </si>
+  <si>
+    <t>Miguel Justino Ribeiro Barboza</t>
+  </si>
+  <si>
+    <t>LOM3037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Inorgânica</t>
+  </si>
+  <si>
+    <t>LOM3043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seleção de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Técnicas de Análise Microestrutural</t>
+  </si>
+  <si>
+    <t>1643715</t>
+  </si>
+  <si>
+    <t>Paulo Atsushi Suzuki</t>
+  </si>
+  <si>
+    <t>LOM3047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Técnicas de Análise Química</t>
+  </si>
+  <si>
+    <t>5840712</t>
+  </si>
+  <si>
+    <t>Ângelo Capri Neto</t>
+  </si>
+  <si>
+    <t>LOM3048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologia de Vidros</t>
+  </si>
+  <si>
+    <t>LOM3049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Termodinâmica de Máquinas</t>
+  </si>
+  <si>
+    <t>5840521</t>
+  </si>
+  <si>
+    <t>Rosa Ana Conte</t>
+  </si>
+  <si>
+    <t>LOM3050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Materiais I</t>
+  </si>
+  <si>
+    <t>1062721</t>
+  </si>
+  <si>
+    <t>José Benedito Marcomini</t>
+  </si>
+  <si>
+    <t>LOM3056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Química Orgânica</t>
+  </si>
+  <si>
+    <t>1033242</t>
+  </si>
+  <si>
+    <t>Fábio Herbst Florenzano</t>
+  </si>
+  <si>
+    <t>LOM3057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução aos Materiais Poliméricos</t>
+  </si>
+  <si>
+    <t>5840897</t>
+  </si>
+  <si>
+    <t>Clodoaldo Saron</t>
+  </si>
+  <si>
+    <t>LOM3058</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química de Polímeros</t>
+  </si>
+  <si>
+    <t>LOM3059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processamentos de Polímeros</t>
+  </si>
+  <si>
+    <t>LOM3065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologia de Plásticos</t>
+  </si>
+  <si>
+    <t>519033</t>
+  </si>
+  <si>
+    <t>Carlos Yujiro Shigue</t>
+  </si>
+  <si>
+    <t>LOM3066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Materiais Compósitos</t>
+  </si>
+  <si>
+    <t>LOM3070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estágio Supervisionado</t>
+  </si>
+  <si>
+    <t>LOM3073</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processamento de Cerâmicas</t>
+  </si>
+  <si>
+    <t>LOM3075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cerâmicas Refratárias</t>
+  </si>
+  <si>
+    <t>LOM3077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usinagem de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução à Mecânica dos Sólidos</t>
+  </si>
+  <si>
+    <t>3480026</t>
+  </si>
+  <si>
+    <t>João Paulo Pascon</t>
+  </si>
+  <si>
+    <t>7797767</t>
+  </si>
+  <si>
+    <t>Viktor Pastoukhov</t>
+  </si>
+  <si>
+    <t>LOM3082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cerâmica Física</t>
+  </si>
+  <si>
+    <t>LOM3083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenômenos de Transporte em Engenharia de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3084</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inspeção e Ensaios Não Destrutivos</t>
+  </si>
+  <si>
+    <t>LOM3085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laboratório de Engenharia de Materiais I</t>
+  </si>
+  <si>
+    <t>LOM3086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laboratório de Engenharia de Materiais II</t>
+  </si>
+  <si>
+    <t>LOM3087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laboratório de Engenharia de Materiais III</t>
+  </si>
+  <si>
+    <t>LOM3088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laboratório de Engenharia de Materiais IV</t>
+  </si>
+  <si>
+    <t>LOM3089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mecânica dos Fluidos e Reologia</t>
+  </si>
+  <si>
+    <t>LOM3091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microscopia Eletrônica de Varredura</t>
+  </si>
+  <si>
+    <t>LOM3092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biomateriais</t>
+  </si>
+  <si>
+    <t>LOM3094</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Processamento de Materiais Metálicos I</t>
   </si>
   <si>
-    <t>5840793</t>
-  </si>
-  <si>
-    <t>Sérgio Schneider</t>
-  </si>
-  <si>
-    <t>LOM3005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diagrama de Fases</t>
-  </si>
-  <si>
-    <t>5009972</t>
-  </si>
-  <si>
-    <t>Gilberto Carvalho Coelho</t>
-  </si>
-  <si>
-    <t>LOM3006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Degradação e Proteção de Materiais</t>
-  </si>
-  <si>
-    <t>5840747</t>
-  </si>
-  <si>
-    <t>Alain Laurent Marie Robin</t>
-  </si>
-  <si>
-    <t>7459752</t>
-  </si>
-  <si>
-    <t>Maria Ismenia Sodero Toledo Faria</t>
-  </si>
-  <si>
-    <t>LOM3008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eletrometalurgia</t>
-  </si>
-  <si>
-    <t>144651</t>
-  </si>
-  <si>
-    <t>Antonio Fernando Sartori</t>
-  </si>
-  <si>
-    <t>3577649</t>
-  </si>
-  <si>
-    <t>Carlos Angelo Nunes</t>
-  </si>
-  <si>
-    <t>LOM3011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ensaios Mecânicos</t>
-  </si>
-  <si>
-    <t>471420</t>
-  </si>
-  <si>
-    <t>Carlos Antonio Reis Pereira Baptista</t>
-  </si>
-  <si>
-    <t>3586455</t>
-  </si>
-  <si>
-    <t>Cassius Olivio Figueiredo Terra Ruchert</t>
-  </si>
-  <si>
-    <t>LOM3013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ciência dos Materiais</t>
-  </si>
-  <si>
-    <t>6495737</t>
-  </si>
-  <si>
-    <t>Durval Rodrigues Junior</t>
-  </si>
-  <si>
-    <t>5983729</t>
-  </si>
-  <si>
-    <t>Fernando Vernilli Junior</t>
-  </si>
-  <si>
-    <t>LOM3015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Termodinâmica de Materiais</t>
-  </si>
-  <si>
-    <t>1176388</t>
-  </si>
-  <si>
-    <t>Luiz Tadeu Fernandes Eleno</t>
-  </si>
-  <si>
-    <t>LOM3016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à  Ciência dos Materiais</t>
-  </si>
-  <si>
-    <t>LOM3018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à Engenharia de Materiais</t>
-  </si>
-  <si>
-    <t>LOM3019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à Supercondutividade</t>
+    <t>LOM3095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologias Limpas para Geração de Energia</t>
+  </si>
+  <si>
+    <t>LOM3096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propriedades Elétricas, Magnéticas, Térmicas e Ópticas</t>
   </si>
   <si>
     <t>5840726</t>
@@ -934,336 +1204,6 @@
     <t>Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>LOM3022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais para a  Indústria Química</t>
-  </si>
-  <si>
-    <t>5840963</t>
-  </si>
-  <si>
-    <t>Daniela Camargo Vernilli</t>
-  </si>
-  <si>
-    <t>LOM3027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pirometalurgia</t>
-  </si>
-  <si>
-    <t>1922320</t>
-  </si>
-  <si>
-    <t>Sebastiao Ribeiro</t>
-  </si>
-  <si>
-    <t>LOM3032</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Produtos Cerâmicos</t>
-  </si>
-  <si>
-    <t>LOM3033</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Produtos Metálicos</t>
-  </si>
-  <si>
-    <t>LOM3036</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propriedades Mecânicas</t>
-  </si>
-  <si>
-    <t>5840622</t>
-  </si>
-  <si>
-    <t>Miguel Justino Ribeiro Barboza</t>
-  </si>
-  <si>
-    <t>LOM3037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Inorgânica</t>
-  </si>
-  <si>
-    <t>LOM3038</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recursos Naturais</t>
-  </si>
-  <si>
-    <t>LOM3043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seleção de Materiais</t>
-  </si>
-  <si>
-    <t>LOM3046</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas de Análise Microestrutural</t>
-  </si>
-  <si>
-    <t>1643715</t>
-  </si>
-  <si>
-    <t>Paulo Atsushi Suzuki</t>
-  </si>
-  <si>
-    <t>LOM3047</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas de Análise Química</t>
-  </si>
-  <si>
-    <t>5840712</t>
-  </si>
-  <si>
-    <t>Ângelo Capri Neto</t>
-  </si>
-  <si>
-    <t>LOM3048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologia de Vidros</t>
-  </si>
-  <si>
-    <t>LOM3049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Termodinâmica de Máquinas</t>
-  </si>
-  <si>
-    <t>5840521</t>
-  </si>
-  <si>
-    <t>Rosa Ana Conte</t>
-  </si>
-  <si>
-    <t>LOM3050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Materiais I</t>
-  </si>
-  <si>
-    <t>1062721</t>
-  </si>
-  <si>
-    <t>José Benedito Marcomini</t>
-  </si>
-  <si>
-    <t>LOM3051</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Materiais II</t>
-  </si>
-  <si>
-    <t>519033</t>
-  </si>
-  <si>
-    <t>Carlos Yujiro Shigue</t>
-  </si>
-  <si>
-    <t>LOM3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologias de Vácuo e Baixa Temperatura</t>
-  </si>
-  <si>
-    <t>LOM3056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fundamentos de Química Orgânica</t>
-  </si>
-  <si>
-    <t>1033242</t>
-  </si>
-  <si>
-    <t>Fábio Herbst Florenzano</t>
-  </si>
-  <si>
-    <t>LOM3057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução aos Materiais Poliméricos</t>
-  </si>
-  <si>
-    <t>5840897</t>
-  </si>
-  <si>
-    <t>Clodoaldo Saron</t>
-  </si>
-  <si>
-    <t>LOM3058</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química de Polímeros</t>
-  </si>
-  <si>
-    <t>LOM3059</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processamentos de Polímeros</t>
-  </si>
-  <si>
-    <t>LOM3062</t>
-  </si>
-  <si>
-    <t>LOM3063</t>
-  </si>
-  <si>
-    <t>LOM3065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologia de Plásticos</t>
-  </si>
-  <si>
-    <t>LOM3066</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais Compósitos</t>
-  </si>
-  <si>
-    <t>LOM3070</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Estágio Supervisionado</t>
-  </si>
-  <si>
-    <t>LOM3071</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tratamento de Minérios</t>
-  </si>
-  <si>
-    <t>LOM3072</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hidrometalurgia</t>
-  </si>
-  <si>
-    <t>LOM3073</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processamento de Cerâmicas I</t>
-  </si>
-  <si>
-    <t>LOM3074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processamento de Cerâmicas II</t>
-  </si>
-  <si>
-    <t>LOM3075</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cerâmicas Refratárias</t>
-  </si>
-  <si>
-    <t>LOM3077</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Usinagem de Materiais</t>
-  </si>
-  <si>
-    <t>LOM3081</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à Mecânica dos Sólidos</t>
-  </si>
-  <si>
-    <t>3480026</t>
-  </si>
-  <si>
-    <t>João Paulo Pascon</t>
-  </si>
-  <si>
-    <t>7797767</t>
-  </si>
-  <si>
-    <t>Viktor Pastoukhov</t>
-  </si>
-  <si>
-    <t>LOM3082</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cerâmica Física</t>
-  </si>
-  <si>
-    <t>LOM3083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte em Engenharia de Materiais</t>
-  </si>
-  <si>
-    <t>LOM3084</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inspeção e Ensaios Não Destrutivos</t>
-  </si>
-  <si>
-    <t>LOM3085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Engenharia de Materiais I</t>
-  </si>
-  <si>
-    <t>LOM3086</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Engenharia de Materiais II</t>
-  </si>
-  <si>
-    <t>LOM3087</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Engenharia de Materiais III</t>
-  </si>
-  <si>
-    <t>LOM3088</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Engenharia de Materiais IV</t>
-  </si>
-  <si>
-    <t>LOM3089</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mecânica dos Fluidos e Reologia</t>
-  </si>
-  <si>
-    <t>LOM3091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microscopia Eletrônica de Varredura</t>
-  </si>
-  <si>
-    <t>LOM3092</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biomateriais</t>
-  </si>
-  <si>
-    <t>LOM3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processamento de Materiais Metálicos II</t>
-  </si>
-  <si>
-    <t>LOM3095</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologias Limpas para Geração de Energia</t>
-  </si>
-  <si>
-    <t>LOM3096</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propriedades Elétricas, Magnéticas, Térmicas e Ópticas</t>
-  </si>
-  <si>
     <t>LOM3097</t>
   </si>
   <si>
@@ -1294,12 +1234,6 @@
     <t xml:space="preserve"> Dinâmica</t>
   </si>
   <si>
-    <t>LOM3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mecânica dos Materiais</t>
-  </si>
-  <si>
     <t>LOM3102</t>
   </si>
   <si>
@@ -1312,6 +1246,66 @@
     <t xml:space="preserve"> Processamento de Materiais Metálicos III</t>
   </si>
   <si>
+    <t>LOM3104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado em Engenharia de Materiais I</t>
+  </si>
+  <si>
+    <t>LOM3105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computação e análise de dados em Engenharia</t>
+  </si>
+  <si>
+    <t>LOM3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciência dos Materiais Computacional</t>
+  </si>
+  <si>
+    <t>LOM3107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mecânica dos Sólidos Deformáveis</t>
+  </si>
+  <si>
+    <t>LOM3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado em Engenharia de Materiais II</t>
+  </si>
+  <si>
+    <t>LOM3109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos da Física Moderna</t>
+  </si>
+  <si>
+    <t>LOM3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado em Engenharia de Materiais III</t>
+  </si>
+  <si>
+    <t>LOM3111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processamento de Cerâmicas Experimental</t>
+  </si>
+  <si>
+    <t>LOM3112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Final de Curso de Engenharia de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tratamentos de Minérios e Hidrometalurgia</t>
+  </si>
+  <si>
     <t>LOM3201</t>
   </si>
   <si>
@@ -1801,18 +1795,6 @@
     <t xml:space="preserve"> Processos Químicos Industriais II</t>
   </si>
   <si>
-    <t>5840855</t>
-  </si>
-  <si>
-    <t>Heizir Ferreira de Castro</t>
-  </si>
-  <si>
-    <t>LOQ4024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processos Químicos Industriais III</t>
-  </si>
-  <si>
     <t>1285870</t>
   </si>
   <si>
@@ -1825,10 +1807,103 @@
     <t xml:space="preserve"> Química Geral I</t>
   </si>
   <si>
-    <t>LOQ4033</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Inorgânica Experimental</t>
+    <t>LOQ4037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Orgânica I</t>
+  </si>
+  <si>
+    <t>210064</t>
+  </si>
+  <si>
+    <t>Eduardo Rezende Triboni</t>
+  </si>
+  <si>
+    <t>LOQ4038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Orgânica II</t>
+  </si>
+  <si>
+    <t>5840751</t>
+  </si>
+  <si>
+    <t>Jayne Carlos de Souza Barboza</t>
+  </si>
+  <si>
+    <t>LOQ4043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tubulações Industriais</t>
+  </si>
+  <si>
+    <t>6634418</t>
+  </si>
+  <si>
+    <t>Antonio Clelio Ribeiro</t>
+  </si>
+  <si>
+    <t>LOQ4047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trabalho de Conclusão de Curso I</t>
+  </si>
+  <si>
+    <t>LOQ4048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trabalho de  Conclusão do Curso II</t>
+  </si>
+  <si>
+    <t>LOQ4049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto na Industria Química</t>
+  </si>
+  <si>
+    <t>LOQ4050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia Econômica</t>
+  </si>
+  <si>
+    <t>LOQ4051</t>
+  </si>
+  <si>
+    <t>LOQ4052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tópicos Especiais de Gestão e Produção</t>
+  </si>
+  <si>
+    <t>LOQ4053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balanços de Massa e Energia</t>
+  </si>
+  <si>
+    <t>5817045</t>
+  </si>
+  <si>
+    <t>Elisângela de Jesus Cândido Moraes</t>
+  </si>
+  <si>
+    <t>LOQ4054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenômenos de Transporte III</t>
+  </si>
+  <si>
+    <t>5840841</t>
+  </si>
+  <si>
+    <t>Gilberto Garcia Cortez</t>
+  </si>
+  <si>
+    <t>LOQ4055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quimica Inorgânica</t>
   </si>
   <si>
     <t>5840705</t>
@@ -1837,117 +1912,6 @@
     <t>Maria Lúcia Caetano Pinto da Silva</t>
   </si>
   <si>
-    <t>LOQ4037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Orgânica I</t>
-  </si>
-  <si>
-    <t>210064</t>
-  </si>
-  <si>
-    <t>Eduardo Rezende Triboni</t>
-  </si>
-  <si>
-    <t>LOQ4038</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Orgânica II</t>
-  </si>
-  <si>
-    <t>5840751</t>
-  </si>
-  <si>
-    <t>Jayne Carlos de Souza Barboza</t>
-  </si>
-  <si>
-    <t>LOQ4043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tubulações Industriais</t>
-  </si>
-  <si>
-    <t>6634418</t>
-  </si>
-  <si>
-    <t>Antonio Clelio Ribeiro</t>
-  </si>
-  <si>
-    <t>LOQ4044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à Engenharia da Qualidade</t>
-  </si>
-  <si>
-    <t>LOQ4046</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão da Produção e Logística</t>
-  </si>
-  <si>
-    <t>LOQ4047</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trabalho de Conclusão de Curso I</t>
-  </si>
-  <si>
-    <t>LOQ4048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trabalho de  Conclusão do Curso II</t>
-  </si>
-  <si>
-    <t>LOQ4049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto na Industria Química</t>
-  </si>
-  <si>
-    <t>LOQ4050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia Econômica</t>
-  </si>
-  <si>
-    <t>LOQ4051</t>
-  </si>
-  <si>
-    <t>LOQ4052</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais de Gestão e Produção</t>
-  </si>
-  <si>
-    <t>LOQ4053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Balanços de Massa e Energia</t>
-  </si>
-  <si>
-    <t>5817045</t>
-  </si>
-  <si>
-    <t>Elisângela de Jesus Cândido Moraes</t>
-  </si>
-  <si>
-    <t>LOQ4054</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte III</t>
-  </si>
-  <si>
-    <t>5840841</t>
-  </si>
-  <si>
-    <t>Gilberto Garcia Cortez</t>
-  </si>
-  <si>
-    <t>LOQ4055</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quimica Inorgânica</t>
-  </si>
-  <si>
     <t>LOQ4056</t>
   </si>
   <si>
@@ -2092,10 +2056,124 @@
     <t xml:space="preserve"> Processos de Separação por Membranas</t>
   </si>
   <si>
-    <t>LOQ4073</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Geral II</t>
+    <t>LOQ4076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Termodinâmica Aplicada</t>
+  </si>
+  <si>
+    <t>8554681</t>
+  </si>
+  <si>
+    <t>Pedro Felipe Arce Castillo</t>
+  </si>
+  <si>
+    <t>LOQ4078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelagem e Simulação de Processos</t>
+  </si>
+  <si>
+    <t>5817066</t>
+  </si>
+  <si>
+    <t>Félix Monteiro Pereira</t>
+  </si>
+  <si>
+    <t>LOQ4079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cinética Aplicada e Reatores</t>
+  </si>
+  <si>
+    <t>LOQ4081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Orgânica</t>
+  </si>
+  <si>
+    <t>2346890</t>
+  </si>
+  <si>
+    <t>Eliane Corrêa Pedrozo</t>
+  </si>
+  <si>
+    <t>LOQ4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corrosão</t>
+  </si>
+  <si>
+    <t>5817344</t>
+  </si>
+  <si>
+    <t>Livia Melo Carneiro</t>
+  </si>
+  <si>
+    <t>LOQ4083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenômenos de Transporte I</t>
+  </si>
+  <si>
+    <t>LOQ4084</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenômenos de Transporte II</t>
+  </si>
+  <si>
+    <t>LOQ4085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operações Unitárias I</t>
+  </si>
+  <si>
+    <t>LOQ4086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operações Unitárias II</t>
+  </si>
+  <si>
+    <t>LOQ4087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Termodinâmica Química Aplicada I</t>
+  </si>
+  <si>
+    <t>LOQ4088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Termodinâmica Química Aplicada II</t>
+  </si>
+  <si>
+    <t>LOQ4091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrador em Engenharia Química I</t>
+  </si>
+  <si>
+    <t>LOQ4092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ecoeficiência na Indústria</t>
+  </si>
+  <si>
+    <t>LOQ4093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petróleo e Gás Natural</t>
+  </si>
+  <si>
+    <t>LOQ4094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petroquímica</t>
+  </si>
+  <si>
+    <t>LOQ4095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Geral Experimental</t>
   </si>
   <si>
     <t>5817330</t>
@@ -2104,132 +2182,6 @@
     <t>Larissa de Freitas</t>
   </si>
   <si>
-    <t>1506103</t>
-  </si>
-  <si>
-    <t>Pedro Carlos de Oliveira</t>
-  </si>
-  <si>
-    <t>LOQ4076</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Termodinâmica Aplicada</t>
-  </si>
-  <si>
-    <t>8554681</t>
-  </si>
-  <si>
-    <t>Pedro Felipe Arce Castillo</t>
-  </si>
-  <si>
-    <t>LOQ4078</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modelagem e Simulação de Processos</t>
-  </si>
-  <si>
-    <t>5817066</t>
-  </si>
-  <si>
-    <t>Félix Monteiro Pereira</t>
-  </si>
-  <si>
-    <t>LOQ4079</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cinética Aplicada e Reatores</t>
-  </si>
-  <si>
-    <t>LOQ4081</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Orgânica</t>
-  </si>
-  <si>
-    <t>2346890</t>
-  </si>
-  <si>
-    <t>Eliane Corrêa Pedrozo</t>
-  </si>
-  <si>
-    <t>LOQ4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Corrosão</t>
-  </si>
-  <si>
-    <t>5817344</t>
-  </si>
-  <si>
-    <t>Livia Melo Carneiro</t>
-  </si>
-  <si>
-    <t>LOQ4083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte I</t>
-  </si>
-  <si>
-    <t>LOQ4084</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte II</t>
-  </si>
-  <si>
-    <t>LOQ4085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operações Unitárias I</t>
-  </si>
-  <si>
-    <t>LOQ4086</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operações Unitárias II</t>
-  </si>
-  <si>
-    <t>LOQ4087</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Termodinâmica Química Aplicada I</t>
-  </si>
-  <si>
-    <t>LOQ4088</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Termodinâmica Química Aplicada II</t>
-  </si>
-  <si>
-    <t>LOQ4091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto Integrador em Engenharia Química I</t>
-  </si>
-  <si>
-    <t>LOQ4092</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ecoeficiência na Indústria</t>
-  </si>
-  <si>
-    <t>LOQ4093</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Petróleo e Gás Natural</t>
-  </si>
-  <si>
-    <t>LOQ4094</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Petroquímica</t>
-  </si>
-  <si>
-    <t>LOQ4095</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Geral Experimental</t>
-  </si>
-  <si>
     <t>6310296</t>
   </si>
   <si>
@@ -2242,6 +2194,30 @@
     <t xml:space="preserve"> Moléculas Funcionais e Dispositivos Tecnologicos</t>
   </si>
   <si>
+    <t>LOQ4097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Química para Engenharia I-A</t>
+  </si>
+  <si>
+    <t>LOQ4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Química para Engenharia II-A</t>
+  </si>
+  <si>
+    <t>LOQ4099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia de Cristais Moleculares</t>
+  </si>
+  <si>
+    <t>LOQ4100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Química para Engenharia I-B</t>
+  </si>
+  <si>
     <t>LOQ4201</t>
   </si>
   <si>
@@ -2287,7 +2263,7 @@
     <t>LOQ4209</t>
   </si>
   <si>
-    <t xml:space="preserve"> Engenharia da Qualidade I</t>
+    <t xml:space="preserve"> Engenharia da Qualidade</t>
   </si>
   <si>
     <t>LOQ4212</t>
@@ -2431,6 +2407,12 @@
     <t xml:space="preserve"> Lean Six Sigma</t>
   </si>
   <si>
+    <t>LOQ4246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia da Sustentabilidade</t>
+  </si>
+  <si>
     <t>LOQ4247</t>
   </si>
   <si>
@@ -2534,9 +2516,6 @@
   </si>
   <si>
     <t>LOQ4264</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia da Sustentabilidade</t>
   </si>
   <si>
     <t>LOQ4265</t>
@@ -3271,7 +3250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3951,10 +3930,10 @@
         <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3965,10 +3944,10 @@
         <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3979,10 +3958,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3993,10 +3972,10 @@
         <v>161</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4007,10 +3986,10 @@
         <v>163</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4035,52 +4014,52 @@
         <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4091,10 +4070,10 @@
         <v>181</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4105,10 +4084,10 @@
         <v>183</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4119,10 +4098,10 @@
         <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4133,80 +4112,80 @@
         <v>187</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4217,10 +4196,10 @@
         <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4231,10 +4210,10 @@
         <v>205</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4245,10 +4224,10 @@
         <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4273,66 +4252,66 @@
         <v>211</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4343,10 +4322,10 @@
         <v>223</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4357,10 +4336,10 @@
         <v>225</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4371,10 +4350,10 @@
         <v>227</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4385,10 +4364,10 @@
         <v>229</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4399,96 +4378,90 @@
         <v>231</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>49</v>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>136</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="C88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4499,10 +4472,10 @@
         <v>243</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4513,260 +4486,248 @@
         <v>245</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="C91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" t="s">
-        <v>179</v>
+      <c r="A91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>249</v>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="C96" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" t="s">
-        <v>193</v>
+      <c r="C96" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>269</v>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="C101" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="D101" t="s">
         <v>271</v>
       </c>
-      <c r="C101" s="2" t="s">
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="C102" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" t="s">
-        <v>141</v>
+      <c r="C102" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="C103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D103" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="C105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>285</v>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="C107" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" s="2" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="C108" t="s">
-        <v>274</v>
-      </c>
-      <c r="D108" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="C109" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>291</v>
+      <c r="C110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="C111" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D111" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="C112" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" t="s">
-        <v>261</v>
+      <c r="A112" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="C113" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4777,62 +4738,62 @@
         <v>295</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="C115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="C116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D115" t="s">
+      <c r="B117" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="C117" t="s">
-        <v>292</v>
-      </c>
-      <c r="D117" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="C118" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" t="s">
-        <v>275</v>
+      <c r="C118" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>261</v>
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4843,18 +4804,18 @@
         <v>303</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="C121" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4865,18 +4826,24 @@
         <v>307</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="C123" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" t="s">
-        <v>49</v>
+      <c r="C123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4887,10 +4854,10 @@
         <v>311</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4909,96 +4876,90 @@
         <v>315</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>261</v>
+      <c r="C127" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="C130" t="s">
         <v>320</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="C131" t="s">
-        <v>312</v>
-      </c>
-      <c r="D131" t="s">
-        <v>313</v>
+      <c r="C131" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>321</v>
+      <c r="C133" t="s">
+        <v>304</v>
+      </c>
+      <c r="D133" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5009,31 +4970,31 @@
         <v>329</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="C135" t="s">
-        <v>330</v>
-      </c>
-      <c r="D135" t="s">
-        <v>331</v>
+      <c r="A135" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" t="s">
         <v>334</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5045,422 +5006,398 @@
         <v>337</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="C138" t="s">
-        <v>312</v>
-      </c>
-      <c r="D138" t="s">
-        <v>313</v>
+      <c r="A138" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="C141" t="s">
-        <v>344</v>
-      </c>
-      <c r="D141" t="s">
-        <v>345</v>
+      <c r="A141" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="C144" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>359</v>
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="C150" t="s">
         <v>364</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2" t="s">
+      <c r="D150" t="s">
         <v>365</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="2" t="s">
+      <c r="C151" t="s">
+        <v>260</v>
+      </c>
+      <c r="D151" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="C152" t="s">
         <v>366</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="D152" t="s">
         <v>367</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="C154" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="D154" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="C156" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" t="s">
-        <v>313</v>
+      <c r="C156" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="2" t="s">
+      <c r="C157" t="s">
+        <v>260</v>
+      </c>
+      <c r="D157" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="C158" t="s">
-        <v>312</v>
-      </c>
-      <c r="D158" t="s">
-        <v>313</v>
+      <c r="C158" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>293</v>
+      <c r="C159" t="s">
+        <v>300</v>
+      </c>
+      <c r="D159" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="C160" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D160" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="2" t="s">
+      <c r="C161" t="s">
+        <v>256</v>
+      </c>
+      <c r="D161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="C163" t="s">
+        <v>342</v>
+      </c>
+      <c r="D163" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="C165" t="s">
+        <v>260</v>
+      </c>
+      <c r="D165" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="C162" t="s">
-        <v>312</v>
-      </c>
-      <c r="D162" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="C166" t="s">
-        <v>386</v>
-      </c>
-      <c r="D166" t="s">
-        <v>387</v>
+      <c r="C166" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D167" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="C168" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="D168" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="C170" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>286</v>
@@ -5470,175 +5407,193 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="C173" t="s">
-        <v>264</v>
-      </c>
-      <c r="D173" t="s">
-        <v>265</v>
+      <c r="A173" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="C175" t="s">
-        <v>308</v>
-      </c>
-      <c r="D175" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="C176" t="s">
-        <v>290</v>
-      </c>
-      <c r="D176" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="C177" t="s">
-        <v>260</v>
-      </c>
-      <c r="D177" t="s">
-        <v>261</v>
+      <c r="C177" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2" t="s">
+      <c r="C178" t="s">
+        <v>350</v>
+      </c>
+      <c r="D178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="C179" t="s">
-        <v>358</v>
-      </c>
-      <c r="D179" t="s">
-        <v>359</v>
+      <c r="C179" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="C180" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="D180" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="C181" t="s">
-        <v>264</v>
-      </c>
-      <c r="D181" t="s">
-        <v>265</v>
+      <c r="A181" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>279</v>
+      <c r="C182" t="s">
+        <v>260</v>
+      </c>
+      <c r="D182" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="C183" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="D183" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="C184" t="s">
-        <v>268</v>
-      </c>
-      <c r="D184" t="s">
-        <v>269</v>
+      <c r="A184" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="C186" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D186" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>349</v>
+      <c r="C187" t="s">
+        <v>366</v>
+      </c>
+      <c r="D187" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>409</v>
+      <c r="C189" t="s">
+        <v>270</v>
+      </c>
+      <c r="D189" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5648,12 +5603,6 @@
       <c r="B190" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
@@ -5662,12 +5611,6 @@
       <c r="B191" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
@@ -5676,12 +5619,6 @@
       <c r="B192" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
@@ -5690,1837 +5627,1837 @@
       <c r="B193" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="C194" t="s">
-        <v>348</v>
-      </c>
-      <c r="D194" t="s">
-        <v>349</v>
+      <c r="A194" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="C196" t="s">
-        <v>420</v>
-      </c>
-      <c r="D196" t="s">
-        <v>421</v>
+      <c r="A196" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>285</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="C198" t="s">
-        <v>264</v>
-      </c>
-      <c r="D198" t="s">
-        <v>265</v>
+      <c r="A198" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="C199" t="s">
-        <v>388</v>
-      </c>
-      <c r="D199" t="s">
-        <v>389</v>
+      <c r="A199" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="C202" t="s">
-        <v>386</v>
-      </c>
-      <c r="D202" t="s">
-        <v>387</v>
+      <c r="A202" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="C203" t="s">
-        <v>388</v>
-      </c>
-      <c r="D203" t="s">
-        <v>389</v>
+      <c r="A203" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>285</v>
+      <c r="C204" t="s">
+        <v>400</v>
+      </c>
+      <c r="D204" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="C205" t="s">
-        <v>386</v>
-      </c>
-      <c r="D205" t="s">
-        <v>387</v>
+      <c r="A205" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="C206" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="D206" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>261</v>
+      <c r="C207" t="s">
+        <v>444</v>
+      </c>
+      <c r="D207" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="C208" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="D208" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>438</v>
+        <v>274</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>439</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="C213" t="s">
-        <v>420</v>
-      </c>
-      <c r="D213" t="s">
-        <v>421</v>
+      <c r="A213" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="C218" t="s">
+        <v>286</v>
+      </c>
+      <c r="D218" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="C219" t="s">
         <v>444</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="D219" t="s">
         <v>445</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="C215" t="s">
-        <v>290</v>
-      </c>
-      <c r="D215" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="C216" t="s">
-        <v>446</v>
-      </c>
-      <c r="D216" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="C217" t="s">
-        <v>330</v>
-      </c>
-      <c r="D217" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>371</v>
+        <v>466</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>305</v>
+      <c r="C226" t="s">
+        <v>394</v>
+      </c>
+      <c r="D226" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="C227" t="s">
-        <v>290</v>
-      </c>
-      <c r="D227" t="s">
-        <v>291</v>
+      <c r="A227" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="C228" t="s">
-        <v>446</v>
-      </c>
-      <c r="D228" t="s">
-        <v>447</v>
+      <c r="A228" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>349</v>
+      <c r="C231" t="s">
+        <v>485</v>
+      </c>
+      <c r="D231" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>349</v>
+      <c r="C232" t="s">
+        <v>286</v>
+      </c>
+      <c r="D232" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>439</v>
+      <c r="C233" t="s">
+        <v>292</v>
+      </c>
+      <c r="D233" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>478</v>
+      <c r="C234" t="s">
+        <v>444</v>
+      </c>
+      <c r="D234" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="C235" t="s">
-        <v>304</v>
-      </c>
-      <c r="D235" t="s">
-        <v>305</v>
+      <c r="A235" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>305</v>
+      <c r="C236" t="s">
+        <v>292</v>
+      </c>
+      <c r="D236" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>349</v>
+      <c r="C237" t="s">
+        <v>366</v>
+      </c>
+      <c r="D237" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>477</v>
+        <v>286</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>478</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="C240" t="s">
-        <v>487</v>
+        <v>320</v>
       </c>
       <c r="D240" t="s">
-        <v>488</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="C241" t="s">
-        <v>290</v>
-      </c>
-      <c r="D241" t="s">
-        <v>291</v>
+      <c r="A241" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="C242" t="s">
-        <v>296</v>
-      </c>
-      <c r="D242" t="s">
-        <v>297</v>
+      <c r="A242" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="C243" t="s">
-        <v>446</v>
-      </c>
-      <c r="D243" t="s">
-        <v>447</v>
+      <c r="A243" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="C245" t="s">
-        <v>296</v>
-      </c>
-      <c r="D245" t="s">
-        <v>297</v>
+      <c r="A245" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="C246" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="D246" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>291</v>
+      <c r="C247" t="s">
+        <v>320</v>
+      </c>
+      <c r="D247" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="C249" t="s">
-        <v>330</v>
-      </c>
-      <c r="D249" t="s">
-        <v>331</v>
+      <c r="A249" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>305</v>
+      <c r="C250" t="s">
+        <v>400</v>
+      </c>
+      <c r="D250" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="C255" t="s">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="D255" t="s">
-        <v>447</v>
+        <v>343</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="C256" t="s">
-        <v>330</v>
-      </c>
-      <c r="D256" t="s">
-        <v>331</v>
+      <c r="A256" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="C259" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="D259" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>349</v>
+      <c r="C261" t="s">
+        <v>320</v>
+      </c>
+      <c r="D261" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>477</v>
+        <v>350</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>478</v>
+        <v>351</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="C264" t="s">
-        <v>358</v>
-      </c>
-      <c r="D264" t="s">
-        <v>359</v>
+      <c r="A264" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="C268" t="s">
-        <v>304</v>
-      </c>
-      <c r="D268" t="s">
-        <v>305</v>
+      <c r="A268" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>291</v>
+      <c r="C269" t="s">
+        <v>286</v>
+      </c>
+      <c r="D269" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="C270" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="D270" t="s">
-        <v>331</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>291</v>
+      <c r="C271" t="s">
+        <v>320</v>
+      </c>
+      <c r="D271" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>477</v>
+        <v>292</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>478</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>349</v>
+        <v>476</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>349</v>
+      <c r="C276" t="s">
+        <v>545</v>
+      </c>
+      <c r="D276" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>305</v>
+      <c r="C277" t="s">
+        <v>366</v>
+      </c>
+      <c r="D277" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="C278" t="s">
-        <v>290</v>
+        <v>547</v>
       </c>
       <c r="D278" t="s">
-        <v>291</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="C279" t="s">
-        <v>446</v>
-      </c>
-      <c r="D279" t="s">
-        <v>447</v>
+      <c r="A279" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="C280" t="s">
-        <v>330</v>
-      </c>
-      <c r="D280" t="s">
-        <v>331</v>
+      <c r="A280" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>439</v>
+      <c r="C281" t="s">
+        <v>475</v>
+      </c>
+      <c r="D281" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>542</v>
+      <c r="C282" t="s">
+        <v>350</v>
+      </c>
+      <c r="D282" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>478</v>
+      <c r="C284" t="s">
+        <v>292</v>
+      </c>
+      <c r="D284" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="C285" t="s">
-        <v>547</v>
-      </c>
-      <c r="D285" t="s">
-        <v>548</v>
+      <c r="A285" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="C286" t="s">
-        <v>388</v>
-      </c>
-      <c r="D286" t="s">
-        <v>389</v>
+      <c r="A286" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="C287" t="s">
-        <v>549</v>
-      </c>
-      <c r="D287" t="s">
-        <v>550</v>
+      <c r="A287" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>278</v>
+        <v>573</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>279</v>
+        <v>574</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="C290" t="s">
-        <v>477</v>
-      </c>
-      <c r="D290" t="s">
-        <v>478</v>
+      <c r="A290" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="C291" t="s">
-        <v>348</v>
-      </c>
-      <c r="D291" t="s">
-        <v>349</v>
+      <c r="A291" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>348</v>
+        <v>583</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>349</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="C293" t="s">
-        <v>296</v>
-      </c>
-      <c r="D293" t="s">
-        <v>297</v>
+      <c r="A293" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>567</v>
+        <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>28</v>
+        <v>607</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>29</v>
+        <v>608</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>582</v>
+      <c r="C300" t="s">
+        <v>593</v>
+      </c>
+      <c r="D300" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>586</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>591</v>
+        <v>110</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>592</v>
+        <v>111</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>595</v>
+        <v>110</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>596</v>
+        <v>111</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>598</v>
+        <v>355</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>599</v>
+        <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>600</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="C311" t="s">
-        <v>599</v>
-      </c>
-      <c r="D311" t="s">
-        <v>600</v>
+      <c r="A311" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>6</v>
+        <v>646</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>7</v>
+        <v>647</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>12</v>
+        <v>589</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>13</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>110</v>
+        <v>656</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>111</v>
+        <v>657</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>111</v>
+      <c r="C317" t="s">
+        <v>638</v>
+      </c>
+      <c r="D317" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>371</v>
+        <v>659</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>12</v>
+        <v>660</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>13</v>
+        <v>661</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>6</v>
+        <v>660</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>7</v>
+        <v>661</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>654</v>
+        <v>561</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>655</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>658</v>
+        <v>573</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>659</v>
+        <v>574</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="C330" t="s">
-        <v>650</v>
-      </c>
-      <c r="D330" t="s">
-        <v>651</v>
+      <c r="A330" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>669</v>
+      <c r="C337" t="s">
+        <v>638</v>
+      </c>
+      <c r="D337" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>563</v>
+        <v>682</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>564</v>
+        <v>683</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>575</v>
+        <v>682</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>576</v>
+        <v>683</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>586</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>695</v>
+      <c r="C341" t="s">
+        <v>622</v>
+      </c>
+      <c r="D341" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7532,415 +7469,409 @@
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>701</v>
+      <c r="C343" t="s">
+        <v>583</v>
+      </c>
+      <c r="D343" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>710</v>
+        <v>593</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>711</v>
+        <v>594</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>673</v>
+      <c r="C348" t="s">
+        <v>722</v>
+      </c>
+      <c r="D348" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>664</v>
+        <v>599</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>665</v>
+        <v>600</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="C352" t="s">
-        <v>650</v>
-      </c>
-      <c r="D352" t="s">
-        <v>651</v>
+      <c r="A352" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>12</v>
+        <v>573</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>13</v>
+        <v>574</v>
       </c>
     </row>
     <row r="356" spans="1:4">
-      <c r="C356" t="s">
-        <v>636</v>
-      </c>
-      <c r="D356" t="s">
-        <v>637</v>
+      <c r="A356" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="C357" t="s">
-        <v>714</v>
-      </c>
-      <c r="D357" t="s">
-        <v>715</v>
+      <c r="A357" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="358" spans="1:4">
-      <c r="C358" t="s">
-        <v>585</v>
-      </c>
-      <c r="D358" t="s">
-        <v>586</v>
+      <c r="A358" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>710</v>
+        <v>573</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>711</v>
+        <v>574</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>599</v>
+        <v>746</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>600</v>
+        <v>747</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>599</v>
+        <v>736</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>600</v>
+        <v>737</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
     </row>
     <row r="363" spans="1:4">
-      <c r="C363" t="s">
-        <v>738</v>
-      </c>
-      <c r="D363" t="s">
-        <v>739</v>
+      <c r="A363" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>609</v>
+        <v>756</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>610</v>
+        <v>757</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="D366" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>749</v>
+        <v>586</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>744</v>
+        <v>573</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>745</v>
+        <v>574</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>576</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>754</v>
+        <v>6</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>575</v>
+        <v>110</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>576</v>
+        <v>111</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>754</v>
+        <v>573</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>755</v>
+        <v>574</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>744</v>
+        <v>28</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>745</v>
+        <v>29</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>764</v>
+        <v>6</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>765</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>6</v>
@@ -7951,178 +7882,172 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>764</v>
+        <v>6</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>765</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>744</v>
+        <v>6</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>745</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>754</v>
+        <v>6</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>575</v>
+        <v>736</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>576</v>
+        <v>737</v>
       </c>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>13</v>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>110</v>
+        <v>746</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>111</v>
+        <v>747</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>575</v>
+        <v>124</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>576</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>28</v>
+        <v>573</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>29</v>
+        <v>574</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>6</v>
+        <v>573</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>7</v>
+        <v>574</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>6</v>
@@ -8133,10 +8058,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>6</v>
@@ -8147,116 +8072,122 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>744</v>
+        <v>12</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>745</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="C390" t="s">
-        <v>6</v>
-      </c>
-      <c r="D390" t="s">
-        <v>7</v>
+      <c r="A390" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>744</v>
+        <v>593</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>754</v>
+        <v>6</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>124</v>
+        <v>756</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>125</v>
+        <v>757</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>575</v>
+        <v>756</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>576</v>
+        <v>757</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>124</v>
+        <v>746</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>125</v>
+        <v>747</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>6</v>
@@ -8267,944 +8198,804 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>6</v>
+        <v>746</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>7</v>
+        <v>747</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>12</v>
+        <v>756</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>13</v>
+        <v>757</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>591</v>
+        <v>124</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>592</v>
+        <v>125</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>6</v>
+        <v>573</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>7</v>
+        <v>574</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>764</v>
+        <v>6</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>765</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>765</v>
+      <c r="C404" t="s">
+        <v>593</v>
+      </c>
+      <c r="D404" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>125</v>
+      <c r="C410" t="s">
+        <v>848</v>
+      </c>
+      <c r="D410" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>575</v>
+        <v>852</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>576</v>
+        <v>853</v>
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>576</v>
+      <c r="C412" t="s">
+        <v>854</v>
+      </c>
+      <c r="D412" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>6</v>
+        <v>858</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>7</v>
+        <v>859</v>
       </c>
     </row>
     <row r="414" spans="1:4">
-      <c r="C414" t="s">
-        <v>599</v>
-      </c>
-      <c r="D414" t="s">
-        <v>600</v>
+      <c r="A414" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>744</v>
+        <v>858</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>745</v>
+        <v>859</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>744</v>
+        <v>868</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>745</v>
+        <v>869</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>744</v>
+        <v>240</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>745</v>
+        <v>241</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>744</v>
+        <v>874</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>745</v>
+        <v>875</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
     </row>
     <row r="420" spans="1:4">
-      <c r="C420" t="s">
-        <v>855</v>
-      </c>
-      <c r="D420" t="s">
-        <v>856</v>
+      <c r="A420" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="422" spans="1:4">
-      <c r="C422" t="s">
-        <v>861</v>
-      </c>
-      <c r="D422" t="s">
-        <v>862</v>
+      <c r="A422" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2" t="s">
-        <v>877</v>
+        <v>904</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>878</v>
+        <v>905</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2" t="s">
-        <v>879</v>
+        <v>906</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>890</v>
+      <c r="C430" t="s">
+        <v>910</v>
+      </c>
+      <c r="D430" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>899</v>
+        <v>852</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>900</v>
+        <v>853</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>904</v>
+      <c r="C435" t="s">
+        <v>914</v>
+      </c>
+      <c r="D435" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>248</v>
+        <v>878</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>249</v>
+        <v>879</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>914</v>
+        <v>355</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
     </row>
     <row r="440" spans="1:4">
-      <c r="C440" t="s">
-        <v>917</v>
-      </c>
-      <c r="D440" t="s">
-        <v>918</v>
+      <c r="A440" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>925</v>
+        <v>852</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>926</v>
+        <v>853</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>859</v>
+        <v>939</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>860</v>
+        <v>940</v>
       </c>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>900</v>
+      <c r="C444" t="s">
+        <v>848</v>
+      </c>
+      <c r="D444" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="C445" t="s">
-        <v>921</v>
-      </c>
-      <c r="D445" t="s">
-        <v>922</v>
+      <c r="A445" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>886</v>
+      <c r="C448" t="s">
+        <v>939</v>
+      </c>
+      <c r="D448" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>853</v>
+        <v>951</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>854</v>
+        <v>952</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>941</v>
+        <v>610</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>917</v>
+        <v>846</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>918</v>
+        <v>847</v>
       </c>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>860</v>
+      <c r="C452" t="s">
+        <v>848</v>
+      </c>
+      <c r="D452" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>946</v>
+        <v>846</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>947</v>
+        <v>847</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="C454" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D454" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="B456" s="2" t="s">
+      <c r="C456" t="s">
         <v>951</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>922</v>
+      <c r="D456" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="C458" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
       <c r="D458" t="s">
-        <v>947</v>
+        <v>919</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C459" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D459" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="C462" t="s">
-        <v>855</v>
-      </c>
-      <c r="D462" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="C464" t="s">
-        <v>855</v>
-      </c>
-      <c r="D464" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="C466" t="s">
-        <v>958</v>
-      </c>
-      <c r="D466" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="C468" t="s">
-        <v>925</v>
-      </c>
-      <c r="D468" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="963">
   <si>
     <t>Sigla</t>
   </si>
@@ -475,36 +475,42 @@
     <t xml:space="preserve"> Química Analítica Ambiental I</t>
   </si>
   <si>
+    <t>7455355</t>
+  </si>
+  <si>
+    <t>Robson da Silva Rocha</t>
+  </si>
+  <si>
+    <t>LOB1209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão de Resíduos Sólidos</t>
+  </si>
+  <si>
+    <t>LOB1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solos II</t>
+  </si>
+  <si>
+    <t>LOB1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poluição Atmosférica</t>
+  </si>
+  <si>
+    <t>LOB1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Analítica Ambiental II</t>
+  </si>
+  <si>
     <t>8855158</t>
   </si>
   <si>
     <t>Morun Bernardino Neto</t>
   </si>
   <si>
-    <t>LOB1209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão de Resíduos Sólidos</t>
-  </si>
-  <si>
-    <t>LOB1210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Solos II</t>
-  </si>
-  <si>
-    <t>LOB1211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Poluição Atmosférica</t>
-  </si>
-  <si>
-    <t>LOB1212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Analítica Ambiental II</t>
-  </si>
-  <si>
     <t>LOB1213</t>
   </si>
   <si>
@@ -547,12 +553,6 @@
     <t xml:space="preserve"> Recursos Hídricos</t>
   </si>
   <si>
-    <t>7455355</t>
-  </si>
-  <si>
-    <t>Robson da Silva Rocha</t>
-  </si>
-  <si>
     <t>LOB1221</t>
   </si>
   <si>
@@ -1021,10 +1021,10 @@
     <t xml:space="preserve"> Tópicos Especiais em Engenharia de Materiais I</t>
   </si>
   <si>
-    <t>1062721</t>
-  </si>
-  <si>
-    <t>José Benedito Marcomini</t>
+    <t>519033</t>
+  </si>
+  <si>
+    <t>Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>LOM3056</t>
@@ -1069,12 +1069,6 @@
     <t xml:space="preserve"> Tecnologia de Plásticos</t>
   </si>
   <si>
-    <t>519033</t>
-  </si>
-  <si>
-    <t>Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>LOM3066</t>
   </si>
   <si>
@@ -1255,6 +1249,12 @@
     <t xml:space="preserve"> Projeto Integrado em Engenharia de Materiais I</t>
   </si>
   <si>
+    <t>2166002</t>
+  </si>
+  <si>
+    <t>Sandra Giacomin Schneider</t>
+  </si>
+  <si>
     <t>LOM3105</t>
   </si>
   <si>
@@ -1285,6 +1285,12 @@
     <t xml:space="preserve"> Fundamentos da Física Moderna</t>
   </si>
   <si>
+    <t>1341653</t>
+  </si>
+  <si>
+    <t>Maria José Ramos Sandim</t>
+  </si>
+  <si>
     <t>LOM3110</t>
   </si>
   <si>
@@ -1315,12 +1321,6 @@
     <t xml:space="preserve"> Biofísica Molecular</t>
   </si>
   <si>
-    <t>2166002</t>
-  </si>
-  <si>
-    <t>Sandra Giacomin Schneider</t>
-  </si>
-  <si>
     <t>LOM3202</t>
   </si>
   <si>
@@ -1351,12 +1351,6 @@
     <t xml:space="preserve"> Eletromagnetismo</t>
   </si>
   <si>
-    <t>1341653</t>
-  </si>
-  <si>
-    <t>Maria José Ramos Sandim</t>
-  </si>
-  <si>
     <t>LOM3206</t>
   </si>
   <si>
@@ -2203,6 +2197,12 @@
     <t xml:space="preserve"> Fundamentos de Química para Engenharia I-A</t>
   </si>
   <si>
+    <t>1506103</t>
+  </si>
+  <si>
+    <t>Pedro Carlos de Oliveira</t>
+  </si>
+  <si>
     <t>LOQ4098</t>
   </si>
   <si>
@@ -2803,6 +2803,12 @@
     <t xml:space="preserve"> Introdução à Engenharia Bioquímica</t>
   </si>
   <si>
+    <t>5817181</t>
+  </si>
+  <si>
+    <t>Valdeir Arantes</t>
+  </si>
+  <si>
     <t>LOT2044</t>
   </si>
   <si>
@@ -2870,12 +2876,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Estatística em Bioprocessos</t>
-  </si>
-  <si>
-    <t>5817181</t>
-  </si>
-  <si>
-    <t>Valdeir Arantes</t>
   </si>
   <si>
     <t>LOT2056</t>
@@ -3253,7 +3253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E820"/>
+  <dimension ref="A1:E845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4012,10 +4012,10 @@
         <v>160</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -4027,19 +4027,19 @@
         <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>135</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>135</v>
@@ -4066,46 +4066,46 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -4132,10 +4132,10 @@
         <v>182</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -4192,1525 +4192,1535 @@
         <v>192</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E122" s="2"/>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2" t="s">
+    <row r="123" spans="1:5">
+      <c r="C123" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2" t="s">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2" t="s">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2" t="s">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2" t="s">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2" t="s">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2" t="s">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2" t="s">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2" t="s">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2" t="s">
+      <c r="E153" s="2"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2" t="s">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2" t="s">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="C159" t="s">
-        <v>177</v>
-      </c>
-      <c r="D159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2" t="s">
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="C160" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="C162" t="s">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="C163" t="s">
         <v>137</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="C167" t="s">
-        <v>177</v>
-      </c>
-      <c r="D167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="C168" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2" t="s">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2" t="s">
+      <c r="E172" s="2"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2" t="s">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="C176" t="s">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="C177" t="s">
         <v>189</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="2" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2" t="s">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2" t="s">
+      <c r="E185" s="2"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2" t="s">
+      <c r="E187" s="2"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2" t="s">
+      <c r="E189" s="2"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="C191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D191" t="s">
-        <v>142</v>
-      </c>
+      <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5">
       <c r="C192" t="s">
+        <v>141</v>
+      </c>
+      <c r="D192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="C193" t="s">
         <v>271</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="C195" t="s">
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="C196" t="s">
         <v>277</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="2" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="C198" t="s">
-        <v>283</v>
-      </c>
-      <c r="D198" t="s">
-        <v>284</v>
-      </c>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5">
       <c r="C199" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D199" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="C200" t="s">
+        <v>271</v>
+      </c>
+      <c r="D200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="C201" t="s">
         <v>261</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="C203" t="s">
-        <v>289</v>
-      </c>
-      <c r="D203" t="s">
-        <v>290</v>
-      </c>
+      <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5">
       <c r="C204" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="D204" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="C205" t="s">
+        <v>257</v>
+      </c>
+      <c r="D205" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="C206" t="s">
         <v>271</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D206" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="C208" t="s">
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="C209" t="s">
         <v>293</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:5">
+      <c r="A211" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="C211" t="s">
-        <v>289</v>
-      </c>
-      <c r="D211" t="s">
-        <v>290</v>
-      </c>
+      <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5">
       <c r="C212" t="s">
+        <v>289</v>
+      </c>
+      <c r="D212" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="C213" t="s">
         <v>271</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="2" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="2" t="s">
+      <c r="C216" t="s">
+        <v>271</v>
+      </c>
+      <c r="D216" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="C217" t="s">
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="C219" t="s">
         <v>49</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D219" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="C220" t="s">
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="C222" t="s">
         <v>305</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D222" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E222" s="2"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="E224" s="2"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="C227" t="s">
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="C229" t="s">
         <v>313</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D229" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="2" t="s">
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="C230" t="s">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="C232" t="s">
         <v>305</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D232" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E232" s="2"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="C235" t="s">
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="C237" t="s">
         <v>321</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D237" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E237" s="2"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="C240" t="s">
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="C242" t="s">
         <v>305</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D242" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E242" s="2"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="C245" t="s">
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="C247" t="s">
         <v>335</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D247" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E247" s="2"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E249" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E253" s="2"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E255" s="2"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="C258" t="s">
+        <v>339</v>
+      </c>
+      <c r="D258" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="C261" t="s">
+        <v>339</v>
+      </c>
+      <c r="D261" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="C262" t="s">
+        <v>305</v>
+      </c>
+      <c r="D262" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C259" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D264" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="C260" t="s">
-        <v>351</v>
-      </c>
-      <c r="D260" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="C263" t="s">
-        <v>305</v>
-      </c>
-      <c r="D263" t="s">
-        <v>306</v>
-      </c>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E265" s="2"/>
+      <c r="C265" t="s">
+        <v>335</v>
+      </c>
+      <c r="D265" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C267" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="C268" t="s">
+        <v>305</v>
+      </c>
+      <c r="D268" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D272" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="C270" t="s">
-        <v>365</v>
-      </c>
-      <c r="D270" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="C271" t="s">
-        <v>261</v>
-      </c>
-      <c r="D271" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="C272" t="s">
-        <v>367</v>
-      </c>
-      <c r="D272" t="s">
-        <v>368</v>
-      </c>
+      <c r="E272" s="2"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5">
       <c r="C275" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="D275" t="s">
-        <v>306</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="C276" t="s">
+        <v>261</v>
+      </c>
+      <c r="D276" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E277" s="2"/>
+      <c r="C277" t="s">
+        <v>365</v>
+      </c>
+      <c r="D277" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5">
       <c r="C280" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="D280" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="1:5">
-      <c r="C283" t="s">
-        <v>301</v>
-      </c>
-      <c r="D283" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="284" spans="1:5">
-      <c r="C284" t="s">
-        <v>287</v>
-      </c>
-      <c r="D284" t="s">
-        <v>288</v>
-      </c>
+      <c r="A284" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5">
       <c r="C285" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D285" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5">
       <c r="C288" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="D288" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="C289" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="D289" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="C290" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D290" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5">
       <c r="C293" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="D293" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="C294" t="s">
+        <v>339</v>
+      </c>
+      <c r="D294" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="C295" t="s">
+        <v>261</v>
+      </c>
+      <c r="D295" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="C298" t="s">
+        <v>277</v>
+      </c>
+      <c r="D298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="C299" t="s">
         <v>265</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D299" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="C297" t="s">
-        <v>339</v>
-      </c>
-      <c r="D297" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E299" s="2"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="C302" t="s">
+        <v>339</v>
+      </c>
+      <c r="D302" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B308" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="2" t="s">
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="2" t="s">
+      <c r="C310" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B312" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E305" s="2"/>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C307" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D312" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E307" s="2"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="C312" t="s">
-        <v>351</v>
-      </c>
-      <c r="D312" t="s">
-        <v>352</v>
-      </c>
+      <c r="E312" s="2"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="C317" t="s">
+        <v>335</v>
+      </c>
+      <c r="D317" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="C320" t="s">
         <v>399</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="D320" t="s">
         <v>400</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="C315" t="s">
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D315" t="s">
+      <c r="B322" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C317" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D317" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="C318" t="s">
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="C323" t="s">
         <v>261</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D323" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="C319" t="s">
-        <v>367</v>
-      </c>
-      <c r="D319" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E321" s="2"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5">
       <c r="C324" t="s">
@@ -5720,386 +5730,433 @@
         <v>366</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="C325" t="s">
-        <v>367</v>
-      </c>
-      <c r="D325" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E327" s="2"/>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E326" s="2"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="C328" t="s">
-        <v>271</v>
-      </c>
-      <c r="D328" t="s">
-        <v>272</v>
+      <c r="A328" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="C329" t="s">
+        <v>363</v>
+      </c>
+      <c r="D329" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
+      <c r="C330" t="s">
+        <v>365</v>
+      </c>
+      <c r="D330" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="C333" t="s">
+        <v>271</v>
+      </c>
+      <c r="D333" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="C336" t="s">
+        <v>411</v>
+      </c>
+      <c r="D336" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="C337" t="s">
+        <v>305</v>
+      </c>
+      <c r="D337" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B339" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
+      <c r="C339" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
+      <c r="C340" t="s">
+        <v>365</v>
+      </c>
+      <c r="D340" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="E342" s="2"/>
     </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
+    <row r="343" spans="1:5">
+      <c r="C343" t="s">
+        <v>293</v>
+      </c>
+      <c r="D343" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
+      <c r="C346" t="s">
+        <v>363</v>
+      </c>
+      <c r="D346" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="C347" t="s">
+        <v>261</v>
+      </c>
+      <c r="D347" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
+      <c r="C348" t="s">
+        <v>365</v>
+      </c>
+      <c r="D348" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>433</v>
+        <v>271</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="E350" s="2"/>
     </row>
+    <row r="351" spans="1:5">
+      <c r="C351" t="s">
+        <v>411</v>
+      </c>
+      <c r="D351" t="s">
+        <v>412</v>
+      </c>
+    </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E352" s="2"/>
+      <c r="C352" t="s">
+        <v>305</v>
+      </c>
+      <c r="D352" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="E354" s="2"/>
     </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E356" s="2"/>
+    <row r="355" spans="1:5">
+      <c r="C355" t="s">
+        <v>423</v>
+      </c>
+      <c r="D355" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="C357" t="s">
-        <v>401</v>
-      </c>
-      <c r="D357" t="s">
-        <v>402</v>
+      <c r="A357" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="C358" t="s">
+        <v>411</v>
+      </c>
+      <c r="D358" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="C360" t="s">
-        <v>287</v>
-      </c>
-      <c r="D360" t="s">
-        <v>288</v>
+      <c r="C359" t="s">
+        <v>305</v>
+      </c>
+      <c r="D359" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="C361" t="s">
-        <v>445</v>
-      </c>
-      <c r="D361" t="s">
-        <v>446</v>
-      </c>
+      <c r="A361" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5">
       <c r="C362" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D362" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>437</v>
+        <v>271</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>438</v>
+        <v>272</v>
       </c>
       <c r="E364" s="2"/>
     </row>
+    <row r="365" spans="1:5">
+      <c r="C365" t="s">
+        <v>411</v>
+      </c>
+      <c r="D365" t="s">
+        <v>412</v>
+      </c>
+    </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E366" s="2"/>
+      <c r="C366" t="s">
+        <v>305</v>
+      </c>
+      <c r="D366" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E368" s="2"/>
     </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E370" s="2"/>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E374" s="2"/>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E376" s="2"/>
+    <row r="369" spans="1:5">
+      <c r="C369" t="s">
+        <v>305</v>
+      </c>
+      <c r="D369" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E378" s="2"/>
+      <c r="C378" t="s">
+        <v>399</v>
+      </c>
+      <c r="D378" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E380" s="2"/>
     </row>
@@ -6113,2113 +6170,2132 @@
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
+        <v>423</v>
+      </c>
+      <c r="D382" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="C383" t="s">
+        <v>321</v>
+      </c>
+      <c r="D383" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D382" t="s">
+      <c r="B385" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E384" s="2"/>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E386" s="2"/>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E388" s="2"/>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C392" s="2" t="s">
+      <c r="C385" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D385" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E392" s="2"/>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E394" s="2"/>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E393" s="2"/>
     </row>
     <row r="395" spans="1:5">
-      <c r="C395" t="s">
-        <v>395</v>
-      </c>
-      <c r="D395" t="s">
-        <v>396</v>
-      </c>
+      <c r="A395" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E395" s="2"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="E397" s="2"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E399" s="2"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="E401" s="2"/>
     </row>
+    <row r="402" spans="1:5">
+      <c r="C402" t="s">
+        <v>287</v>
+      </c>
+      <c r="D402" t="s">
+        <v>288</v>
+      </c>
+    </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="C404" t="s">
-        <v>486</v>
-      </c>
-      <c r="D404" t="s">
-        <v>487</v>
+      <c r="C403" t="s">
+        <v>423</v>
+      </c>
+      <c r="D403" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="C405" t="s">
-        <v>287</v>
-      </c>
-      <c r="D405" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="C406" t="s">
-        <v>293</v>
-      </c>
-      <c r="D406" t="s">
-        <v>294</v>
-      </c>
+      <c r="A405" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E405" s="2"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="C407" t="s">
-        <v>445</v>
-      </c>
-      <c r="D407" t="s">
-        <v>446</v>
-      </c>
+      <c r="A407" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E407" s="2"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="1:5">
-      <c r="C410" t="s">
-        <v>293</v>
-      </c>
-      <c r="D410" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="411" spans="1:5">
-      <c r="C411" t="s">
-        <v>367</v>
-      </c>
-      <c r="D411" t="s">
-        <v>368</v>
-      </c>
+      <c r="A411" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E411" s="2"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="E413" s="2"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5">
       <c r="C416" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D416" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E418" s="2"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E420" s="2"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="E422" s="2"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="E424" s="2"/>
     </row>
+    <row r="425" spans="1:5">
+      <c r="C425" t="s">
+        <v>484</v>
+      </c>
+      <c r="D425" t="s">
+        <v>485</v>
+      </c>
+    </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E426" s="2"/>
+      <c r="C426" t="s">
+        <v>287</v>
+      </c>
+      <c r="D426" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="427" spans="1:5">
       <c r="C427" t="s">
-        <v>445</v>
+        <v>293</v>
       </c>
       <c r="D427" t="s">
-        <v>446</v>
+        <v>294</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="C428" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="D428" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="E430" s="2"/>
     </row>
+    <row r="431" spans="1:5">
+      <c r="C431" t="s">
+        <v>293</v>
+      </c>
+      <c r="D431" t="s">
+        <v>294</v>
+      </c>
+    </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E432" s="2"/>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="C433" t="s">
-        <v>401</v>
-      </c>
-      <c r="D433" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E435" s="2"/>
+      <c r="C432" t="s">
+        <v>365</v>
+      </c>
+      <c r="D432" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E434" s="2"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E436" s="2"/>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E437" s="2"/>
+      <c r="C437" t="s">
+        <v>321</v>
+      </c>
+      <c r="D437" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="E439" s="2"/>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>477</v>
+        <v>336</v>
       </c>
       <c r="E441" s="2"/>
     </row>
-    <row r="442" spans="1:5">
-      <c r="C442" t="s">
-        <v>343</v>
-      </c>
-      <c r="D442" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E444" s="2"/>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E446" s="2"/>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E447" s="2"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E448" s="2"/>
+      <c r="C448" t="s">
+        <v>423</v>
+      </c>
+      <c r="D448" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="449" spans="1:5">
       <c r="C449" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="D449" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="E451" s="2"/>
     </row>
-    <row r="452" spans="1:5">
-      <c r="C452" t="s">
-        <v>321</v>
-      </c>
-      <c r="D452" t="s">
-        <v>322</v>
-      </c>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E454" s="2"/>
+      <c r="C454" t="s">
+        <v>399</v>
+      </c>
+      <c r="D454" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E456" s="2"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E458" s="2"/>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="2" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>476</v>
+        <v>301</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>477</v>
+        <v>302</v>
       </c>
       <c r="E460" s="2"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="E462" s="2"/>
     </row>
-    <row r="464" spans="1:5">
-      <c r="A464" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E464" s="2"/>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E466" s="2"/>
+    <row r="463" spans="1:5">
+      <c r="C463" t="s">
+        <v>343</v>
+      </c>
+      <c r="D463" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E465" s="2"/>
     </row>
     <row r="467" spans="1:5">
-      <c r="C467" t="s">
+      <c r="A467" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E467" s="2"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="C470" t="s">
+        <v>393</v>
+      </c>
+      <c r="D470" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D472" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="C468" t="s">
-        <v>445</v>
-      </c>
-      <c r="D468" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="C469" t="s">
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="C473" t="s">
         <v>321</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D473" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="A471" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E471" s="2"/>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E475" s="2"/>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>477</v>
+        <v>336</v>
       </c>
       <c r="E477" s="2"/>
     </row>
-    <row r="478" spans="1:5">
-      <c r="C478" t="s">
-        <v>546</v>
-      </c>
-      <c r="D478" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="479" spans="1:5">
-      <c r="C479" t="s">
-        <v>367</v>
-      </c>
-      <c r="D479" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
-      <c r="C480" t="s">
-        <v>548</v>
-      </c>
-      <c r="D480" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E482" s="2"/>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E484" s="2"/>
+      <c r="A479" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E479" s="2"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E481" s="2"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E483" s="2"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="C485" t="s">
-        <v>476</v>
-      </c>
-      <c r="D485" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="C486" t="s">
-        <v>351</v>
-      </c>
-      <c r="D486" t="s">
-        <v>352</v>
-      </c>
+      <c r="A485" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E485" s="2"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E487" s="2"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E488" s="2"/>
+      <c r="C488" t="s">
+        <v>287</v>
+      </c>
+      <c r="D488" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="489" spans="1:5">
       <c r="C489" t="s">
+        <v>423</v>
+      </c>
+      <c r="D489" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="C490" t="s">
+        <v>321</v>
+      </c>
+      <c r="D490" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E492" s="2"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D496" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E491" s="2"/>
-    </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D493" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E493" s="2"/>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="A495" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E495" s="2"/>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E497" s="2"/>
+      <c r="E496" s="2"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E498" s="2"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E499" s="2"/>
+      <c r="C499" t="s">
+        <v>544</v>
+      </c>
+      <c r="D499" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="C500" t="s">
+        <v>365</v>
+      </c>
+      <c r="D500" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E501" s="2"/>
+      <c r="C501" t="s">
+        <v>546</v>
+      </c>
+      <c r="D501" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>580</v>
+        <v>335</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>581</v>
+        <v>336</v>
       </c>
       <c r="E503" s="2"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="2" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>584</v>
+        <v>275</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>585</v>
+        <v>276</v>
       </c>
       <c r="E505" s="2"/>
     </row>
+    <row r="506" spans="1:5">
+      <c r="C506" t="s">
+        <v>474</v>
+      </c>
+      <c r="D506" t="s">
+        <v>475</v>
+      </c>
+    </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E507" s="2"/>
+      <c r="C507" t="s">
+        <v>335</v>
+      </c>
+      <c r="D507" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="2" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>590</v>
+        <v>335</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
       <c r="E509" s="2"/>
     </row>
-    <row r="511" spans="1:5">
-      <c r="A511" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E515" s="2"/>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E517" s="2"/>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="A519" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="E519" s="2"/>
+    <row r="510" spans="1:5">
+      <c r="C510" t="s">
+        <v>293</v>
+      </c>
+      <c r="D510" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E512" s="2"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E514" s="2"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E516" s="2"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E518" s="2"/>
     </row>
     <row r="520" spans="1:5">
-      <c r="C520" t="s">
-        <v>594</v>
-      </c>
-      <c r="D520" t="s">
-        <v>595</v>
-      </c>
+      <c r="A520" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E520" s="2"/>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E522" s="2"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E524" s="2"/>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>112</v>
+        <v>583</v>
       </c>
       <c r="E526" s="2"/>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>111</v>
+        <v>572</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>112</v>
+        <v>573</v>
       </c>
       <c r="E528" s="2"/>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>356</v>
+        <v>587</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>13</v>
+        <v>588</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>14</v>
+        <v>589</v>
       </c>
       <c r="E530" s="2"/>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>7</v>
+        <v>592</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>8</v>
+        <v>593</v>
       </c>
       <c r="E532" s="2"/>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>623</v>
+        <v>13</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>624</v>
+        <v>14</v>
       </c>
       <c r="E534" s="2"/>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="E536" s="2"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="E538" s="2"/>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="E540" s="2"/>
     </row>
-    <row r="542" spans="1:5">
-      <c r="A542" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E542" s="2"/>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="A544" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E544" s="2"/>
-    </row>
-    <row r="546" spans="1:5">
-      <c r="A546" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B546" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E546" s="2"/>
-    </row>
-    <row r="548" spans="1:5">
-      <c r="A548" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E548" s="2"/>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="A550" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E550" s="2"/>
-    </row>
-    <row r="552" spans="1:5">
-      <c r="A552" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D552" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E552" s="2"/>
+    <row r="541" spans="1:5">
+      <c r="C541" t="s">
+        <v>592</v>
+      </c>
+      <c r="D541" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E543" s="2"/>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E545" s="2"/>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E547" s="2"/>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E549" s="2"/>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E551" s="2"/>
     </row>
     <row r="553" spans="1:5">
-      <c r="C553" t="s">
-        <v>639</v>
-      </c>
-      <c r="D553" t="s">
-        <v>640</v>
-      </c>
+      <c r="A553" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" s="2"/>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="2" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="E555" s="2"/>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="2" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="E557" s="2"/>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="E559" s="2"/>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="E561" s="2"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="E563" s="2"/>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="E565" s="2"/>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E567" s="2"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="E569" s="2"/>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="E571" s="2"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="E573" s="2"/>
     </row>
-    <row r="575" spans="1:5">
-      <c r="A575" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E575" s="2"/>
-    </row>
-    <row r="577" spans="1:5">
-      <c r="A577" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E577" s="2"/>
-    </row>
-    <row r="579" spans="1:5">
-      <c r="A579" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D579" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E579" s="2"/>
-    </row>
-    <row r="581" spans="1:5">
-      <c r="A581" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D581" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="E581" s="2"/>
-    </row>
-    <row r="583" spans="1:5">
-      <c r="A583" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B583" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E583" s="2"/>
-    </row>
-    <row r="585" spans="1:5">
-      <c r="A585" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B585" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C585" s="2" t="s">
+    <row r="574" spans="1:5">
+      <c r="C574" t="s">
+        <v>637</v>
+      </c>
+      <c r="D574" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E576" s="2"/>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D585" s="2" t="s">
+      <c r="B578" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E585" s="2"/>
-    </row>
-    <row r="587" spans="1:5">
-      <c r="A587" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B587" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D587" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E587" s="2"/>
-    </row>
-    <row r="589" spans="1:5">
-      <c r="A589" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E589" s="2"/>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="A591" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E591" s="2"/>
+      <c r="C578" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E578" s="2"/>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E580" s="2"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E582" s="2"/>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E584" s="2"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E586" s="2"/>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E588" s="2"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E590" s="2"/>
     </row>
     <row r="592" spans="1:5">
-      <c r="C592" t="s">
-        <v>639</v>
-      </c>
-      <c r="D592" t="s">
-        <v>640</v>
-      </c>
+      <c r="A592" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E592" s="2"/>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>683</v>
+        <v>582</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>684</v>
+        <v>583</v>
       </c>
       <c r="E594" s="2"/>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E596" s="2"/>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>13</v>
+        <v>685</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>14</v>
+        <v>686</v>
       </c>
       <c r="E598" s="2"/>
     </row>
-    <row r="599" spans="1:5">
-      <c r="C599" t="s">
-        <v>623</v>
-      </c>
-      <c r="D599" t="s">
-        <v>624</v>
-      </c>
-    </row>
     <row r="600" spans="1:5">
-      <c r="C600" t="s">
+      <c r="A600" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E600" s="2"/>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E602" s="2"/>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E604" s="2"/>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D600" t="s">
+      <c r="B606" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="601" spans="1:5">
-      <c r="C601" t="s">
-        <v>584</v>
-      </c>
-      <c r="D601" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="603" spans="1:5">
-      <c r="A603" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B603" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="605" spans="1:5">
-      <c r="A605" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="607" spans="1:5">
-      <c r="A607" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E607" s="2"/>
-    </row>
-    <row r="609" spans="1:5">
-      <c r="A609" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B609" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C609" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D609" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E609" s="2"/>
+      <c r="C606" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E606" s="2"/>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E608" s="2"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="C610" t="s">
-        <v>723</v>
-      </c>
-      <c r="D610" t="s">
-        <v>724</v>
-      </c>
+      <c r="A610" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E610" s="2"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="E612" s="2"/>
     </row>
-    <row r="614" spans="1:5">
-      <c r="A614" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B614" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
-      <c r="E614" s="2"/>
-    </row>
-    <row r="616" spans="1:5">
-      <c r="A616" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B616" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
-      <c r="E616" s="2"/>
-    </row>
-    <row r="618" spans="1:5">
-      <c r="A618" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B618" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-      <c r="E618" s="2"/>
+    <row r="613" spans="1:5">
+      <c r="C613" t="s">
+        <v>637</v>
+      </c>
+      <c r="D613" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E615" s="2"/>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E617" s="2"/>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E619" s="2"/>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B620" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
-      <c r="E620" s="2"/>
+      <c r="C620" t="s">
+        <v>621</v>
+      </c>
+      <c r="D620" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="C621" t="s">
+        <v>695</v>
+      </c>
+      <c r="D621" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B622" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C622" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D622" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E622" s="2"/>
+      <c r="C622" t="s">
+        <v>582</v>
+      </c>
+      <c r="D622" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>574</v>
+        <v>691</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>575</v>
+        <v>692</v>
       </c>
       <c r="E624" s="2"/>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>737</v>
+        <v>592</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>738</v>
+        <v>593</v>
       </c>
       <c r="E626" s="2"/>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="E628" s="2"/>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="E630" s="2"/>
     </row>
-    <row r="632" spans="1:5">
-      <c r="A632" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B632" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D632" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E632" s="2"/>
-    </row>
-    <row r="634" spans="1:5">
-      <c r="A634" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D634" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E634" s="2"/>
+    <row r="631" spans="1:5">
+      <c r="C631" t="s">
+        <v>721</v>
+      </c>
+      <c r="D631" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E633" s="2"/>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E635" s="2"/>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B636" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C636" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D636" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E636" s="2"/>
+      <c r="C636" t="s">
+        <v>727</v>
+      </c>
+      <c r="D636" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="2" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
       <c r="E638" s="2"/>
     </row>
-    <row r="640" spans="1:5">
-      <c r="A640" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B640" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C640" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D640" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E640" s="2"/>
-    </row>
-    <row r="642" spans="1:5">
-      <c r="A642" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B642" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C642" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D642" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="E642" s="2"/>
+    <row r="639" spans="1:5">
+      <c r="C639" t="s">
+        <v>727</v>
+      </c>
+      <c r="D639" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E641" s="2"/>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E643" s="2"/>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B644" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C644" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D644" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E644" s="2"/>
+      <c r="C644" t="s">
+        <v>721</v>
+      </c>
+      <c r="D644" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E646" s="2"/>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="2" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>587</v>
+        <v>740</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E648" s="2"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="2" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>13</v>
+        <v>737</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>14</v>
+        <v>738</v>
       </c>
       <c r="E650" s="2"/>
     </row>
     <row r="652" spans="1:5">
       <c r="A652" s="2" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>7</v>
+        <v>572</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>8</v>
+        <v>573</v>
       </c>
       <c r="E652" s="2"/>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="2" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>111</v>
+        <v>747</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>112</v>
+        <v>748</v>
       </c>
       <c r="E654" s="2"/>
     </row>
     <row r="656" spans="1:5">
       <c r="A656" s="2" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E656" s="2"/>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="2" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>29</v>
+        <v>747</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>30</v>
+        <v>748</v>
       </c>
       <c r="E658" s="2"/>
     </row>
     <row r="660" spans="1:5">
       <c r="A660" s="2" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="E660" s="2"/>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="2" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>7</v>
+        <v>757</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>8</v>
+        <v>758</v>
       </c>
       <c r="E662" s="2"/>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="2" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>7</v>
@@ -8231,1102 +8307,1101 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="2" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>7</v>
+        <v>757</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>8</v>
+        <v>758</v>
       </c>
       <c r="E666" s="2"/>
     </row>
     <row r="668" spans="1:5">
       <c r="A668" s="2" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="E668" s="2"/>
     </row>
     <row r="670" spans="1:5">
       <c r="A670" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E670" s="2"/>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E672" s="2"/>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E674" s="2"/>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E676" s="2"/>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E678" s="2"/>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E680" s="2"/>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E682" s="2"/>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E684" s="2"/>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E686" s="2"/>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E688" s="2"/>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E690" s="2"/>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E692" s="2"/>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B694" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C670" s="2" t="s">
+      <c r="C694" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D670" s="2" t="s">
+      <c r="D694" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E670" s="2"/>
-    </row>
-    <row r="671" spans="1:5">
-      <c r="C671" t="s">
+      <c r="E694" s="2"/>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="C695" t="s">
         <v>7</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D695" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="673" spans="1:5">
-      <c r="A673" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B673" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D673" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E673" s="2"/>
-    </row>
-    <row r="675" spans="1:5">
-      <c r="A675" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B675" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D675" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E675" s="2"/>
-    </row>
-    <row r="677" spans="1:5">
-      <c r="A677" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D677" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E677" s="2"/>
-    </row>
-    <row r="679" spans="1:5">
-      <c r="A679" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B679" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D679" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E679" s="2"/>
-    </row>
-    <row r="681" spans="1:5">
-      <c r="A681" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B681" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D681" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E681" s="2"/>
-    </row>
-    <row r="683" spans="1:5">
-      <c r="A683" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B683" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D683" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E683" s="2"/>
-    </row>
-    <row r="685" spans="1:5">
-      <c r="A685" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B685" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D685" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E685" s="2"/>
-    </row>
-    <row r="687" spans="1:5">
-      <c r="A687" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B687" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D687" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E687" s="2"/>
-    </row>
-    <row r="689" spans="1:5">
-      <c r="A689" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B689" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E689" s="2"/>
-    </row>
-    <row r="691" spans="1:5">
-      <c r="A691" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B691" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C691" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D691" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E691" s="2"/>
-    </row>
-    <row r="693" spans="1:5">
-      <c r="A693" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B693" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C693" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D693" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E693" s="2"/>
-    </row>
-    <row r="695" spans="1:5">
-      <c r="A695" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="B695" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C695" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D695" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E695" s="2"/>
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="2" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>7</v>
+        <v>737</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>8</v>
+        <v>738</v>
       </c>
       <c r="E697" s="2"/>
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E699" s="2"/>
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="2" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>757</v>
+        <v>125</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>758</v>
+        <v>126</v>
       </c>
       <c r="E701" s="2"/>
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>747</v>
+        <v>572</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>748</v>
+        <v>573</v>
       </c>
       <c r="E703" s="2"/>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="2" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>747</v>
+        <v>572</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>748</v>
+        <v>573</v>
       </c>
       <c r="E705" s="2"/>
     </row>
     <row r="707" spans="1:5">
       <c r="A707" s="2" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E707" s="2"/>
     </row>
     <row r="709" spans="1:5">
       <c r="A709" s="2" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E709" s="2"/>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="2" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>757</v>
+        <v>7</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>758</v>
+        <v>8</v>
       </c>
       <c r="E711" s="2"/>
     </row>
     <row r="713" spans="1:5">
       <c r="A713" s="2" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="E713" s="2"/>
     </row>
     <row r="715" spans="1:5">
       <c r="A715" s="2" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>574</v>
+        <v>13</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="E715" s="2"/>
     </row>
     <row r="717" spans="1:5">
       <c r="A717" s="2" t="s">
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="E717" s="2"/>
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="2" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="C719" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E719" s="2"/>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C721" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D719" s="2" t="s">
+      <c r="D721" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E719" s="2"/>
-    </row>
-    <row r="720" spans="1:5">
-      <c r="C720" t="s">
-        <v>594</v>
-      </c>
-      <c r="D720" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="722" spans="1:5">
-      <c r="A722" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C722" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D722" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E722" s="2"/>
-    </row>
-    <row r="724" spans="1:5">
-      <c r="A724" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C724" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D724" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="726" spans="1:5">
-      <c r="A726" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D726" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E726" s="2"/>
-    </row>
-    <row r="728" spans="1:5">
-      <c r="A728" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D728" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E728" s="2"/>
-    </row>
-    <row r="730" spans="1:5">
-      <c r="A730" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B730" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D730" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E730" s="2"/>
+      <c r="E721" s="2"/>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E723" s="2"/>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E725" s="2"/>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E727" s="2"/>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E729" s="2"/>
     </row>
     <row r="731" spans="1:5">
-      <c r="C731" t="s">
-        <v>849</v>
-      </c>
-      <c r="D731" t="s">
-        <v>850</v>
-      </c>
+      <c r="A731" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E731" s="2"/>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="2" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>853</v>
+        <v>747</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="E733" s="2"/>
     </row>
-    <row r="734" spans="1:5">
-      <c r="C734" t="s">
-        <v>855</v>
-      </c>
-      <c r="D734" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="736" spans="1:5">
-      <c r="A736" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B736" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D736" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="738" spans="1:5">
-      <c r="A738" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D738" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E738" s="2"/>
-    </row>
-    <row r="740" spans="1:5">
-      <c r="A740" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C740" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D740" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E740" s="2"/>
-    </row>
-    <row r="742" spans="1:5">
-      <c r="A742" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B742" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C742" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="D742" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="E742" s="2"/>
+    <row r="735" spans="1:5">
+      <c r="A735" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E735" s="2"/>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E737" s="2"/>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E739" s="2"/>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E741" s="2"/>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E743" s="2"/>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C744" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D744" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E744" s="2"/>
+      <c r="C744" t="s">
+        <v>592</v>
+      </c>
+      <c r="D744" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>875</v>
+        <v>737</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>876</v>
+        <v>738</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>879</v>
+        <v>737</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>880</v>
+        <v>738</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>883</v>
+        <v>737</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>884</v>
+        <v>738</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>863</v>
+        <v>737</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>864</v>
+        <v>738</v>
       </c>
       <c r="E752" s="2"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="E754" s="2"/>
     </row>
-    <row r="756" spans="1:5">
-      <c r="A756" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D756" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E756" s="2"/>
+    <row r="755" spans="1:5">
+      <c r="C755" t="s">
+        <v>849</v>
+      </c>
+      <c r="D755" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E757" s="2"/>
     </row>
     <row r="758" spans="1:5">
-      <c r="A758" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="B758" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C758" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D758" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="E758" s="2"/>
+      <c r="C758" t="s">
+        <v>855</v>
+      </c>
+      <c r="D758" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
-        <v>899</v>
+        <v>857</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="E760" s="2"/>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="E762" s="2"/>
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>906</v>
+        <v>866</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>241</v>
+        <v>859</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>242</v>
+        <v>860</v>
       </c>
       <c r="E764" s="2"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>904</v>
+        <v>870</v>
       </c>
       <c r="E766" s="2"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>909</v>
+        <v>871</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>910</v>
+        <v>872</v>
       </c>
       <c r="C768" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E768" s="2"/>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E770" s="2"/>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C772" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D768" s="2" t="s">
+      <c r="D772" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="769" spans="1:5">
-      <c r="C769" t="s">
-        <v>911</v>
-      </c>
-      <c r="D769" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="771" spans="1:5">
-      <c r="A771" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C771" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D771" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="E771" s="2"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="A773" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C773" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D773" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="E773" s="2"/>
-    </row>
-    <row r="775" spans="1:5">
-      <c r="A775" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="C775" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D775" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="E775" s="2"/>
-    </row>
-    <row r="777" spans="1:5">
-      <c r="A777" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C777" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D777" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E777" s="2"/>
+      <c r="E772" s="2"/>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E774" s="2"/>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E776" s="2"/>
     </row>
     <row r="778" spans="1:5">
-      <c r="C778" t="s">
-        <v>915</v>
-      </c>
-      <c r="D778" t="s">
-        <v>916</v>
-      </c>
+      <c r="A778" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E778" s="2"/>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E780" s="2"/>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E782" s="2"/>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>929</v>
+        <v>899</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>356</v>
+        <v>900</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E784" s="2"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="2" t="s">
-        <v>930</v>
+        <v>901</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>931</v>
+        <v>902</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>847</v>
+        <v>903</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>848</v>
+        <v>904</v>
       </c>
       <c r="E786" s="2"/>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="2" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>847</v>
+        <v>241</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>848</v>
+        <v>242</v>
       </c>
       <c r="E788" s="2"/>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="2" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E790" s="2"/>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="2" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="E792" s="2"/>
     </row>
-    <row r="794" spans="1:5">
-      <c r="A794" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C794" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="E794" s="2"/>
+    <row r="793" spans="1:5">
+      <c r="C793" t="s">
+        <v>911</v>
+      </c>
+      <c r="D793" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="795" spans="1:5">
-      <c r="C795" t="s">
-        <v>849</v>
-      </c>
-      <c r="D795" t="s">
-        <v>850</v>
-      </c>
+      <c r="A795" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E795" s="2"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="E797" s="2"/>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="2" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>915</v>
+        <v>853</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>916</v>
+        <v>854</v>
       </c>
       <c r="E799" s="2"/>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="1:5">
       <c r="C802" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="D802" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="E804" s="2"/>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="2" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>953</v>
+        <v>880</v>
       </c>
       <c r="E806" s="2"/>
     </row>
-    <row r="808" spans="1:5">
-      <c r="A808" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C808" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D808" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E808" s="2"/>
+    <row r="807" spans="1:5">
+      <c r="C807" t="s">
+        <v>929</v>
+      </c>
+      <c r="D807" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="809" spans="1:5">
-      <c r="C809" t="s">
-        <v>849</v>
-      </c>
-      <c r="D809" t="s">
-        <v>850</v>
-      </c>
+      <c r="A809" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E809" s="2"/>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="2" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>847</v>
@@ -9336,74 +9411,263 @@
       </c>
       <c r="E811" s="2"/>
     </row>
-    <row r="812" spans="1:5">
-      <c r="C812" t="s">
-        <v>849</v>
-      </c>
-      <c r="D812" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="814" spans="1:5">
-      <c r="A814" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="B814" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="C814" s="2" t="s">
+    <row r="813" spans="1:5">
+      <c r="A813" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E813" s="2"/>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C815" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D814" s="2" t="s">
+      <c r="D815" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="E814" s="2"/>
-    </row>
-    <row r="815" spans="1:5">
-      <c r="C815" t="s">
-        <v>952</v>
-      </c>
-      <c r="D815" t="s">
-        <v>953</v>
-      </c>
+      <c r="E815" s="2"/>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E817" s="2"/>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E819" s="2"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="C820" t="s">
+        <v>849</v>
+      </c>
+      <c r="D820" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E822" s="2"/>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E824" s="2"/>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E826" s="2"/>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="C827" t="s">
+        <v>942</v>
+      </c>
+      <c r="D827" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E829" s="2"/>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E831" s="2"/>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E833" s="2"/>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="C834" t="s">
+        <v>849</v>
+      </c>
+      <c r="D834" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E836" s="2"/>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="C837" t="s">
+        <v>849</v>
+      </c>
+      <c r="D837" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E839" s="2"/>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="C840" t="s">
+        <v>929</v>
+      </c>
+      <c r="D840" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B817" s="2" t="s">
+      <c r="B842" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C817" s="2" t="s">
+      <c r="C842" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D817" s="2" t="s">
+      <c r="D842" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E817" s="2"/>
-    </row>
-    <row r="818" spans="1:5">
-      <c r="C818" t="s">
+      <c r="E842" s="2"/>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="C843" t="s">
         <v>919</v>
       </c>
-      <c r="D818" t="s">
+      <c r="D843" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
-      <c r="A820" s="2" t="s">
+    <row r="845" spans="1:5">
+      <c r="A845" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="B845" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C820" s="2" t="s">
+      <c r="C845" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D820" s="2" t="s">
+      <c r="D845" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E820" s="2"/>
+      <c r="E845" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -6403,10 +6403,10 @@
         <v>471</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>437</v>
+        <v>57</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>438</v>
+        <v>58</v>
       </c>
       <c r="E413" s="2"/>
     </row>
@@ -6814,10 +6814,10 @@
         <v>517</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="E467" s="2"/>
     </row>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -256,7 +256,7 @@
     <t>5840650</t>
   </si>
   <si>
-    <t>Janaína Ferreira Batista Leal</t>
+    <t>Janaína Ferreira Batista</t>
   </si>
   <si>
     <t>LOB1031</t>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="961">
   <si>
     <t>Sigla</t>
   </si>
@@ -277,10 +277,10 @@
     <t xml:space="preserve"> Geometria Analítica</t>
   </si>
   <si>
-    <t>8884940</t>
-  </si>
-  <si>
-    <t>Paula Cristiane Pinto Mesquita Pardal</t>
+    <t>3682251</t>
+  </si>
+  <si>
+    <t>Gabrielle Weber Martins</t>
   </si>
   <si>
     <t>LOB1037</t>
@@ -1646,12 +1646,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Mecânica Clássica</t>
-  </si>
-  <si>
-    <t>3682251</t>
-  </si>
-  <si>
-    <t>Gabrielle Weber Martins</t>
   </si>
   <si>
     <t>5729033</t>
@@ -7054,10 +7048,10 @@
     </row>
     <row r="499" spans="1:5">
       <c r="C499" t="s">
-        <v>544</v>
+        <v>87</v>
       </c>
       <c r="D499" t="s">
-        <v>545</v>
+        <v>88</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -7070,18 +7064,18 @@
     </row>
     <row r="501" spans="1:5">
       <c r="C501" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D501" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>335</v>
@@ -7093,10 +7087,10 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>275</v>
@@ -7124,10 +7118,10 @@
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>335</v>
@@ -7147,85 +7141,85 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="D512" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="E512" s="2"/>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="E514" s="2"/>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E516" s="2"/>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C518" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="E518" s="2"/>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C520" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="D520" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="E520" s="2"/>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>29</v>
@@ -7237,85 +7231,85 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="D524" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="E524" s="2"/>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="E526" s="2"/>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E528" s="2"/>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="E530" s="2"/>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="E532" s="2"/>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>13</v>
@@ -7327,63 +7321,63 @@
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="E536" s="2"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="E538" s="2"/>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="E540" s="2"/>
     </row>
     <row r="541" spans="1:5">
       <c r="C541" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D541" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>13</v>
@@ -7395,25 +7389,25 @@
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E545" s="2"/>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>111</v>
@@ -7425,10 +7419,10 @@
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>111</v>
@@ -7440,7 +7434,7 @@
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>354</v>
@@ -7455,10 +7449,10 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>7</v>
@@ -7470,491 +7464,491 @@
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C555" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="D555" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="E555" s="2"/>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C557" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="D557" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="E557" s="2"/>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="D559" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="E559" s="2"/>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="D561" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="E561" s="2"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="E563" s="2"/>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="E565" s="2"/>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="D567" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="E567" s="2"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E569" s="2"/>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="D571" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="E571" s="2"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="D573" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="E573" s="2"/>
     </row>
     <row r="574" spans="1:5">
       <c r="C574" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D574" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="E576" s="2"/>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E578" s="2"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E580" s="2"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E582" s="2"/>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E584" s="2"/>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E586" s="2"/>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E588" s="2"/>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E590" s="2"/>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E592" s="2"/>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E594" s="2"/>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="D596" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="C596" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="E596" s="2"/>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="D598" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D598" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="E598" s="2"/>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E600" s="2"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C602" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="C602" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="E602" s="2"/>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="C604" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="E604" s="2"/>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E606" s="2"/>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E608" s="2"/>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E610" s="2"/>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E612" s="2"/>
     </row>
     <row r="613" spans="1:5">
       <c r="C613" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D613" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E615" s="2"/>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E617" s="2"/>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>13</v>
@@ -7966,117 +7960,117 @@
     </row>
     <row r="620" spans="1:5">
       <c r="C620" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D620" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="C621" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D621" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="C622" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D622" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E624" s="2"/>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E626" s="2"/>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E628" s="2"/>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C630" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="D630" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="E630" s="2"/>
     </row>
     <row r="631" spans="1:5">
       <c r="C631" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D631" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E633" s="2"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>13</v>
@@ -8088,214 +8082,214 @@
     </row>
     <row r="636" spans="1:5">
       <c r="C636" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D636" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E638" s="2"/>
     </row>
     <row r="639" spans="1:5">
       <c r="C639" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D639" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="641" spans="1:5">
       <c r="A641" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E641" s="2"/>
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E643" s="2"/>
     </row>
     <row r="644" spans="1:5">
       <c r="C644" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D644" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C646" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="D646" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="C646" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D646" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="E646" s="2"/>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E648" s="2"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E650" s="2"/>
     </row>
     <row r="652" spans="1:5">
       <c r="A652" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E652" s="2"/>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C654" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="D654" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C654" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D654" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="E654" s="2"/>
     </row>
     <row r="656" spans="1:5">
       <c r="A656" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E656" s="2"/>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E658" s="2"/>
     </row>
     <row r="660" spans="1:5">
       <c r="A660" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E660" s="2"/>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C662" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="D662" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D662" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="E662" s="2"/>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>7</v>
@@ -8307,70 +8301,70 @@
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E666" s="2"/>
     </row>
     <row r="668" spans="1:5">
       <c r="A668" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E668" s="2"/>
     </row>
     <row r="670" spans="1:5">
       <c r="A670" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E670" s="2"/>
     </row>
     <row r="672" spans="1:5">
       <c r="A672" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E672" s="2"/>
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>13</v>
@@ -8382,10 +8376,10 @@
     </row>
     <row r="676" spans="1:5">
       <c r="A676" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>7</v>
@@ -8397,10 +8391,10 @@
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>111</v>
@@ -8412,25 +8406,25 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E680" s="2"/>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>29</v>
@@ -8442,10 +8436,10 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>7</v>
@@ -8457,10 +8451,10 @@
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>7</v>
@@ -8472,10 +8466,10 @@
     </row>
     <row r="688" spans="1:5">
       <c r="A688" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>7</v>
@@ -8487,10 +8481,10 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>7</v>
@@ -8502,10 +8496,10 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>7</v>
@@ -8517,16 +8511,16 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E694" s="2"/>
     </row>
@@ -8540,40 +8534,40 @@
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E697" s="2"/>
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E699" s="2"/>
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>125</v>
@@ -8585,40 +8579,40 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E703" s="2"/>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E705" s="2"/>
     </row>
     <row r="707" spans="1:5">
       <c r="A707" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>125</v>
@@ -8630,25 +8624,25 @@
     </row>
     <row r="709" spans="1:5">
       <c r="A709" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E709" s="2"/>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>7</v>
@@ -8660,10 +8654,10 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>7</v>
@@ -8675,10 +8669,10 @@
     </row>
     <row r="715" spans="1:5">
       <c r="A715" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>13</v>
@@ -8690,40 +8684,40 @@
     </row>
     <row r="717" spans="1:5">
       <c r="A717" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E717" s="2"/>
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E719" s="2"/>
     </row>
     <row r="721" spans="1:5">
       <c r="A721" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>7</v>
@@ -8735,70 +8729,70 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E723" s="2"/>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E725" s="2"/>
     </row>
     <row r="727" spans="1:5">
       <c r="A727" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E727" s="2"/>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E729" s="2"/>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>7</v>
@@ -8810,40 +8804,40 @@
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E733" s="2"/>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E735" s="2"/>
     </row>
     <row r="737" spans="1:5">
       <c r="A737" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>125</v>
@@ -8855,40 +8849,40 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E739" s="2"/>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E741" s="2"/>
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>7</v>
@@ -8900,184 +8894,184 @@
     </row>
     <row r="744" spans="1:5">
       <c r="C744" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D744" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E752" s="2"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C754" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="D754" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="E754" s="2"/>
     </row>
     <row r="755" spans="1:5">
       <c r="C755" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D755" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C757" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="D757" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D757" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="E757" s="2"/>
     </row>
     <row r="758" spans="1:5">
       <c r="C758" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D758" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C760" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="D760" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="C760" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D760" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="E760" s="2"/>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C762" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="B762" s="2" t="s">
+      <c r="D762" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D762" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="E762" s="2"/>
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E764" s="2"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C766" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="D766" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="C766" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="E766" s="2"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>241</v>
@@ -9089,145 +9083,145 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C770" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="D770" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="C770" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D770" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="E770" s="2"/>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C772" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="D772" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="C772" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D772" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="E772" s="2"/>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C774" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="D774" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="C774" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D774" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="E774" s="2"/>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E776" s="2"/>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C778" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="D778" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="C778" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D778" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="E778" s="2"/>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C780" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="D780" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="C780" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D780" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="E780" s="2"/>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C782" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B782" s="2" t="s">
+      <c r="D782" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="C782" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D782" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="E782" s="2"/>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E784" s="2"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C786" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="D786" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="C786" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="E786" s="2"/>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>241</v>
@@ -9239,433 +9233,433 @@
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E790" s="2"/>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E792" s="2"/>
     </row>
     <row r="793" spans="1:5">
       <c r="C793" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D793" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C795" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B795" s="2" t="s">
+      <c r="D795" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="C795" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D795" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="E795" s="2"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C797" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B797" s="2" t="s">
+      <c r="D797" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="C797" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D797" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="E797" s="2"/>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E799" s="2"/>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="1:5">
       <c r="C802" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D802" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E804" s="2"/>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E806" s="2"/>
     </row>
     <row r="807" spans="1:5">
       <c r="C807" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D807" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B809" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E809" s="2"/>
     </row>
     <row r="811" spans="1:5">
       <c r="A811" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E811" s="2"/>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E813" s="2"/>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E815" s="2"/>
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C817" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E817" s="2"/>
     </row>
     <row r="819" spans="1:5">
       <c r="A819" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C819" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B819" s="2" t="s">
+      <c r="D819" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="C819" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="D819" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="E819" s="2"/>
     </row>
     <row r="820" spans="1:5">
       <c r="C820" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D820" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="822" spans="1:5">
       <c r="A822" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C822" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E822" s="2"/>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E824" s="2"/>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E826" s="2"/>
     </row>
     <row r="827" spans="1:5">
       <c r="C827" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D827" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="829" spans="1:5">
       <c r="A829" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E829" s="2"/>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E831" s="2"/>
     </row>
     <row r="833" spans="1:5">
       <c r="A833" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E833" s="2"/>
     </row>
     <row r="834" spans="1:5">
       <c r="C834" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D834" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="836" spans="1:5">
       <c r="A836" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E836" s="2"/>
     </row>
     <row r="837" spans="1:5">
       <c r="C837" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D837" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="839" spans="1:5">
       <c r="A839" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E839" s="2"/>
     </row>
     <row r="840" spans="1:5">
       <c r="C840" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D840" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="842" spans="1:5">
       <c r="A842" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E842" s="2"/>
     </row>
     <row r="843" spans="1:5">
       <c r="C843" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D843" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="845" spans="1:5">
       <c r="A845" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E845" s="2"/>
     </row>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="961">
   <si>
     <t>Sigla</t>
   </si>
@@ -1201,6 +1201,12 @@
     <t>Cristina Bormio Nunes</t>
   </si>
   <si>
+    <t>1341653</t>
+  </si>
+  <si>
+    <t>Maria José Ramos Sandim</t>
+  </si>
+  <si>
     <t>LOM3097</t>
   </si>
   <si>
@@ -1283,12 +1289,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Fundamentos da Física Moderna</t>
-  </si>
-  <si>
-    <t>1341653</t>
-  </si>
-  <si>
-    <t>Maria José Ramos Sandim</t>
   </si>
   <si>
     <t>LOM3110</t>
@@ -3247,7 +3247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E845"/>
+  <dimension ref="A1:E846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5647,4021 +5647,4029 @@
       </c>
       <c r="E314" s="2"/>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="2" t="s">
+    <row r="315" spans="1:5">
+      <c r="C315" t="s">
         <v>395</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="D315" t="s">
         <v>396</v>
       </c>
-      <c r="C316" s="2" t="s">
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="D317" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="C317" t="s">
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="C318" t="s">
         <v>335</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D318" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C319" s="2" t="s">
+    <row r="320" spans="1:5">
+      <c r="A320" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D319" s="2" t="s">
+      <c r="D320" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="C320" t="s">
-        <v>399</v>
-      </c>
-      <c r="D320" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="2" t="s">
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="C321" t="s">
         <v>401</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="D321" t="s">
         <v>402</v>
       </c>
-      <c r="C322" s="2" t="s">
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D323" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="C323" t="s">
-        <v>261</v>
-      </c>
-      <c r="D323" t="s">
-        <v>262</v>
-      </c>
+      <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5">
       <c r="C324" t="s">
+        <v>261</v>
+      </c>
+      <c r="D324" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="C325" t="s">
         <v>365</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D325" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C326" s="2" t="s">
+    <row r="327" spans="1:5">
+      <c r="A327" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D327" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C328" s="2" t="s">
+      <c r="E327" s="2"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D329" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="C329" t="s">
-        <v>363</v>
-      </c>
-      <c r="D329" t="s">
-        <v>364</v>
-      </c>
+      <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
+        <v>363</v>
+      </c>
+      <c r="D330" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="C331" t="s">
         <v>365</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C332" s="2" t="s">
+    <row r="333" spans="1:5">
+      <c r="A333" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="C333" t="s">
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="C334" t="s">
         <v>271</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C335" s="2" t="s">
+    <row r="336" spans="1:5">
+      <c r="A336" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D336" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="C336" t="s">
-        <v>411</v>
-      </c>
-      <c r="D336" t="s">
-        <v>412</v>
-      </c>
+      <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5">
       <c r="C337" t="s">
+        <v>413</v>
+      </c>
+      <c r="D337" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="C338" t="s">
         <v>305</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C339" s="2" t="s">
+    <row r="340" spans="1:5">
+      <c r="A340" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D340" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="C340" t="s">
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="C341" t="s">
         <v>365</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D341" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C342" s="2" t="s">
+    <row r="343" spans="1:5">
+      <c r="A343" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D343" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="C343" t="s">
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="C344" t="s">
         <v>293</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D344" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C345" s="2" t="s">
+    <row r="346" spans="1:5">
+      <c r="A346" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D346" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="C346" t="s">
-        <v>363</v>
-      </c>
-      <c r="D346" t="s">
-        <v>364</v>
-      </c>
+      <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5">
       <c r="C347" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="D347" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="C348" t="s">
+        <v>261</v>
+      </c>
+      <c r="D348" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="C349" t="s">
         <v>365</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D349" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C350" s="2" t="s">
+    <row r="351" spans="1:5">
+      <c r="A351" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D351" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="C351" t="s">
-        <v>411</v>
-      </c>
-      <c r="D351" t="s">
-        <v>412</v>
-      </c>
+      <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5">
       <c r="C352" t="s">
+        <v>413</v>
+      </c>
+      <c r="D352" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="C353" t="s">
         <v>305</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C354" s="2" t="s">
+    <row r="355" spans="1:5">
+      <c r="A355" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D355" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="C355" t="s">
-        <v>423</v>
-      </c>
-      <c r="D355" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="2" t="s">
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="C356" t="s">
+        <v>395</v>
+      </c>
+      <c r="D356" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B358" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E357" s="2"/>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="C358" t="s">
-        <v>411</v>
-      </c>
-      <c r="D358" t="s">
-        <v>412</v>
-      </c>
+      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5">
       <c r="C359" t="s">
+        <v>413</v>
+      </c>
+      <c r="D359" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="C360" t="s">
         <v>305</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D360" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="2" t="s">
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B362" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C362" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D362" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E361" s="2"/>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="C362" t="s">
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="C363" t="s">
         <v>305</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D363" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="2" t="s">
+    <row r="365" spans="1:5">
+      <c r="A365" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B365" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C365" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D365" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E364" s="2"/>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="C365" t="s">
-        <v>411</v>
-      </c>
-      <c r="D365" t="s">
-        <v>412</v>
-      </c>
+      <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
+        <v>413</v>
+      </c>
+      <c r="D366" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="C367" t="s">
         <v>305</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D367" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="2" t="s">
+    <row r="369" spans="1:5">
+      <c r="A369" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B369" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C369" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D369" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E368" s="2"/>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="C369" t="s">
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="C370" t="s">
         <v>305</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D370" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="2" t="s">
+    <row r="372" spans="1:5">
+      <c r="A372" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B372" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E371" s="2"/>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="2" t="s">
+      <c r="C372" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C374" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E373" s="2"/>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="2" t="s">
+      <c r="E374" s="2"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C376" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D376" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E375" s="2"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="2" t="s">
+      <c r="E376" s="2"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C378" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D378" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="C378" t="s">
-        <v>399</v>
-      </c>
-      <c r="D378" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="2" t="s">
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="C379" t="s">
+        <v>401</v>
+      </c>
+      <c r="D379" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B381" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C381" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D381" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E380" s="2"/>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="C381" t="s">
-        <v>287</v>
-      </c>
-      <c r="D381" t="s">
-        <v>288</v>
-      </c>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="D382" t="s">
-        <v>424</v>
+        <v>288</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="C383" t="s">
+        <v>395</v>
+      </c>
+      <c r="D383" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="C384" t="s">
         <v>321</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D384" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="2" t="s">
+    <row r="386" spans="1:5">
+      <c r="A386" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B386" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C386" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="D386" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E385" s="2"/>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="2" t="s">
+      <c r="E386" s="2"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B388" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C388" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E387" s="2"/>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="2" t="s">
+      <c r="E388" s="2"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B390" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C390" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D389" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E389" s="2"/>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391" s="2" t="s">
+      <c r="E390" s="2"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B392" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C392" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="D392" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E391" s="2"/>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393" s="2" t="s">
+      <c r="E392" s="2"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B394" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C394" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D394" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E393" s="2"/>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="2" t="s">
+      <c r="E394" s="2"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B396" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C396" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D395" s="2" t="s">
+      <c r="D396" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E395" s="2"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
+      <c r="E396" s="2"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C398" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D398" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E397" s="2"/>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="2" t="s">
+      <c r="E398" s="2"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C400" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D400" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E399" s="2"/>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="2" t="s">
+      <c r="E400" s="2"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B402" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C402" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D401" s="2" t="s">
+      <c r="D402" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="C402" t="s">
-        <v>287</v>
-      </c>
-      <c r="D402" t="s">
-        <v>288</v>
-      </c>
+      <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
       <c r="C403" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="D403" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="C404" t="s">
+        <v>395</v>
+      </c>
+      <c r="D404" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B406" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D405" s="2" t="s">
+      <c r="D406" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E405" s="2"/>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="2" t="s">
+      <c r="E406" s="2"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B408" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C408" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D407" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E407" s="2"/>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="2" t="s">
+      <c r="E408" s="2"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B410" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C410" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="D410" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E409" s="2"/>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="2" t="s">
+      <c r="E410" s="2"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B412" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C412" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D411" s="2" t="s">
+      <c r="D412" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E411" s="2"/>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="2" t="s">
+      <c r="E412" s="2"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D413" s="2" t="s">
+      <c r="D414" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E413" s="2"/>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="2" t="s">
+      <c r="E414" s="2"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C416" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D416" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="C416" t="s">
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="C417" t="s">
         <v>393</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D417" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="2" t="s">
+    <row r="419" spans="1:5">
+      <c r="A419" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B419" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C419" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D418" s="2" t="s">
+      <c r="D419" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E418" s="2"/>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="2" t="s">
+      <c r="E419" s="2"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B421" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C421" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D420" s="2" t="s">
+      <c r="D421" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E420" s="2"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="2" t="s">
+      <c r="E421" s="2"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B423" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="C423" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D422" s="2" t="s">
+      <c r="D423" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E422" s="2"/>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424" s="2" t="s">
+      <c r="E423" s="2"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B425" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C425" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D424" s="2" t="s">
+      <c r="D425" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="C425" t="s">
-        <v>484</v>
-      </c>
-      <c r="D425" t="s">
-        <v>485</v>
-      </c>
+      <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5">
       <c r="C426" t="s">
-        <v>287</v>
+        <v>484</v>
       </c>
       <c r="D426" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="C427" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D427" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="C428" t="s">
-        <v>423</v>
+        <v>293</v>
       </c>
       <c r="D428" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="C429" t="s">
+        <v>395</v>
+      </c>
+      <c r="D429" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B431" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="C431" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D430" s="2" t="s">
+      <c r="D431" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E430" s="2"/>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="C431" t="s">
-        <v>293</v>
-      </c>
-      <c r="D431" t="s">
-        <v>294</v>
-      </c>
+      <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5">
       <c r="C432" t="s">
+        <v>293</v>
+      </c>
+      <c r="D432" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="C433" t="s">
         <v>365</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D433" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:5">
+      <c r="A435" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B435" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C435" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D434" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E434" s="2"/>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="2" t="s">
+      <c r="E435" s="2"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B437" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C437" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D436" s="2" t="s">
+      <c r="D437" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E436" s="2"/>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="C437" t="s">
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="C438" t="s">
         <v>321</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D438" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="2" t="s">
+    <row r="440" spans="1:5">
+      <c r="A440" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B440" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C440" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E439" s="2"/>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="2" t="s">
+      <c r="E440" s="2"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B442" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="C442" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D441" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E441" s="2"/>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="2" t="s">
+      <c r="E442" s="2"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B444" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C444" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="D444" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E443" s="2"/>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="A445" s="2" t="s">
+      <c r="E444" s="2"/>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B446" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C446" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D445" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E445" s="2"/>
-    </row>
-    <row r="447" spans="1:5">
-      <c r="A447" s="2" t="s">
+      <c r="E446" s="2"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B448" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="C448" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D447" s="2" t="s">
+      <c r="D448" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E447" s="2"/>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="C448" t="s">
-        <v>423</v>
-      </c>
-      <c r="D448" t="s">
-        <v>424</v>
-      </c>
+      <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5">
       <c r="C449" t="s">
+        <v>395</v>
+      </c>
+      <c r="D449" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="C450" t="s">
         <v>321</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D450" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="2" t="s">
+    <row r="452" spans="1:5">
+      <c r="A452" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B452" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="C452" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D451" s="2" t="s">
+      <c r="D452" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E451" s="2"/>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="2" t="s">
+      <c r="E452" s="2"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B454" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C454" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E453" s="2"/>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="C454" t="s">
-        <v>399</v>
-      </c>
-      <c r="D454" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="2" t="s">
+      <c r="E454" s="2"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="C455" t="s">
+        <v>401</v>
+      </c>
+      <c r="D455" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B457" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C457" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D456" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E456" s="2"/>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="2" t="s">
+      <c r="E457" s="2"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B459" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="C459" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D458" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E458" s="2"/>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="2" t="s">
+      <c r="E459" s="2"/>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B461" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="C461" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D460" s="2" t="s">
+      <c r="D461" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E460" s="2"/>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="2" t="s">
+      <c r="E461" s="2"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B463" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="C463" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D462" s="2" t="s">
+      <c r="D463" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E462" s="2"/>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="C463" t="s">
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="C464" t="s">
         <v>343</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D464" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
-      <c r="A465" s="2" t="s">
+    <row r="466" spans="1:5">
+      <c r="A466" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B466" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="C466" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D465" s="2" t="s">
+      <c r="D466" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E465" s="2"/>
-    </row>
-    <row r="467" spans="1:5">
-      <c r="A467" s="2" t="s">
+      <c r="E466" s="2"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B468" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="C468" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D468" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E467" s="2"/>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="A469" s="2" t="s">
+      <c r="E468" s="2"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B470" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="C470" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="D470" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E469" s="2"/>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="C470" t="s">
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="C471" t="s">
         <v>393</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D471" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
-      <c r="A472" s="2" t="s">
+    <row r="473" spans="1:5">
+      <c r="A473" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B473" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C473" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="D473" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E472" s="2"/>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="C473" t="s">
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="C474" t="s">
         <v>321</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D474" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
-      <c r="A475" s="2" t="s">
+    <row r="476" spans="1:5">
+      <c r="A476" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C475" s="2" t="s">
+      <c r="C476" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D475" s="2" t="s">
+      <c r="D476" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E475" s="2"/>
-    </row>
-    <row r="477" spans="1:5">
-      <c r="A477" s="2" t="s">
+      <c r="E476" s="2"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B478" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="C478" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D478" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E477" s="2"/>
-    </row>
-    <row r="479" spans="1:5">
-      <c r="A479" s="2" t="s">
+      <c r="E478" s="2"/>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B480" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C479" s="2" t="s">
+      <c r="C480" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D479" s="2" t="s">
+      <c r="D480" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E479" s="2"/>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="A481" s="2" t="s">
+      <c r="E480" s="2"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B482" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C481" s="2" t="s">
+      <c r="C482" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D481" s="2" t="s">
+      <c r="D482" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E481" s="2"/>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483" s="2" t="s">
+      <c r="E482" s="2"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B484" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C483" s="2" t="s">
+      <c r="C484" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D483" s="2" t="s">
+      <c r="D484" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E483" s="2"/>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="2" t="s">
+      <c r="E484" s="2"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B486" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="C486" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D485" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E485" s="2"/>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="A487" s="2" t="s">
+      <c r="E486" s="2"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B488" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C488" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="D488" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E487" s="2"/>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="C488" t="s">
-        <v>287</v>
-      </c>
-      <c r="D488" t="s">
-        <v>288</v>
-      </c>
+      <c r="E488" s="2"/>
     </row>
     <row r="489" spans="1:5">
       <c r="C489" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="D489" t="s">
-        <v>424</v>
+        <v>288</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="C490" t="s">
+        <v>395</v>
+      </c>
+      <c r="D490" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="C491" t="s">
         <v>321</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D491" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
-      <c r="A492" s="2" t="s">
+    <row r="493" spans="1:5">
+      <c r="A493" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B493" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C492" s="2" t="s">
+      <c r="C493" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D492" s="2" t="s">
+      <c r="D493" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E492" s="2"/>
-    </row>
-    <row r="494" spans="1:5">
-      <c r="A494" s="2" t="s">
+      <c r="E493" s="2"/>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B495" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-    </row>
-    <row r="496" spans="1:5">
-      <c r="A496" s="2" t="s">
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B497" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C496" s="2" t="s">
+      <c r="C497" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D496" s="2" t="s">
+      <c r="D497" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E496" s="2"/>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="A498" s="2" t="s">
+      <c r="E497" s="2"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B499" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C498" s="2" t="s">
+      <c r="C499" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D498" s="2" t="s">
+      <c r="D499" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E498" s="2"/>
-    </row>
-    <row r="499" spans="1:5">
-      <c r="C499" t="s">
-        <v>87</v>
-      </c>
-      <c r="D499" t="s">
-        <v>88</v>
-      </c>
+      <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:5">
       <c r="C500" t="s">
-        <v>365</v>
+        <v>87</v>
       </c>
       <c r="D500" t="s">
-        <v>366</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="C501" t="s">
+        <v>365</v>
+      </c>
+      <c r="D501" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="C502" t="s">
         <v>544</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D502" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
-      <c r="A503" s="2" t="s">
+    <row r="504" spans="1:5">
+      <c r="A504" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C503" s="2" t="s">
+      <c r="C504" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D503" s="2" t="s">
+      <c r="D504" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E503" s="2"/>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="2" t="s">
+      <c r="E504" s="2"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B506" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C505" s="2" t="s">
+      <c r="C506" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="D506" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E505" s="2"/>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="C506" t="s">
-        <v>474</v>
-      </c>
-      <c r="D506" t="s">
-        <v>475</v>
-      </c>
+      <c r="E506" s="2"/>
     </row>
     <row r="507" spans="1:5">
       <c r="C507" t="s">
+        <v>474</v>
+      </c>
+      <c r="D507" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="C508" t="s">
         <v>335</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D508" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
-      <c r="A509" s="2" t="s">
+    <row r="510" spans="1:5">
+      <c r="A510" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B510" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C509" s="2" t="s">
+      <c r="C510" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="D510" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E509" s="2"/>
-    </row>
-    <row r="510" spans="1:5">
-      <c r="C510" t="s">
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="C511" t="s">
         <v>293</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D511" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
-      <c r="A512" s="2" t="s">
+    <row r="513" spans="1:5">
+      <c r="A513" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="C513" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="D513" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E512" s="2"/>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="2" t="s">
+      <c r="E513" s="2"/>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B515" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C514" s="2" t="s">
+      <c r="C515" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="D515" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E514" s="2"/>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="2" t="s">
+      <c r="E515" s="2"/>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B517" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C516" s="2" t="s">
+      <c r="C517" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="D517" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E516" s="2"/>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="2" t="s">
+      <c r="E517" s="2"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B519" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C518" s="2" t="s">
+      <c r="C519" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="D519" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E518" s="2"/>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="2" t="s">
+      <c r="E519" s="2"/>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B521" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C520" s="2" t="s">
+      <c r="C521" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="D521" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E520" s="2"/>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="2" t="s">
+      <c r="E521" s="2"/>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B523" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C522" s="2" t="s">
+      <c r="C523" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="D523" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E522" s="2"/>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="2" t="s">
+      <c r="E523" s="2"/>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B525" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C524" s="2" t="s">
+      <c r="C525" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="D525" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E524" s="2"/>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="2" t="s">
+      <c r="E525" s="2"/>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B527" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="C527" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E526" s="2"/>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="2" t="s">
+      <c r="E527" s="2"/>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B529" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="C529" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="D529" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E528" s="2"/>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="2" t="s">
+      <c r="E529" s="2"/>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B531" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="C531" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E530" s="2"/>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="2" t="s">
+      <c r="E531" s="2"/>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B533" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="C533" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E532" s="2"/>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="A534" s="2" t="s">
+      <c r="E533" s="2"/>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B535" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="C535" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E534" s="2"/>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="2" t="s">
+      <c r="E535" s="2"/>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="C537" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D536" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E536" s="2"/>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="2" t="s">
+      <c r="E537" s="2"/>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B539" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="C539" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D538" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="2" t="s">
+      <c r="E539" s="2"/>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B541" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="C541" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E540" s="2"/>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="C541" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="C542" t="s">
         <v>590</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D542" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
-      <c r="A543" s="2" t="s">
+    <row r="544" spans="1:5">
+      <c r="A544" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B544" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C543" s="2" t="s">
+      <c r="C544" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D543" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E543" s="2"/>
-    </row>
-    <row r="545" spans="1:5">
-      <c r="A545" s="2" t="s">
+      <c r="E544" s="2"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B546" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="C546" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D545" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E545" s="2"/>
-    </row>
-    <row r="547" spans="1:5">
-      <c r="A547" s="2" t="s">
+      <c r="E546" s="2"/>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B548" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C547" s="2" t="s">
+      <c r="C548" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D547" s="2" t="s">
+      <c r="D548" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E547" s="2"/>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="A549" s="2" t="s">
+      <c r="E548" s="2"/>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B550" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C549" s="2" t="s">
+      <c r="C550" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D549" s="2" t="s">
+      <c r="D550" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E549" s="2"/>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="A551" s="2" t="s">
+      <c r="E550" s="2"/>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B552" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C551" s="2" t="s">
+      <c r="C552" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D551" s="2" t="s">
+      <c r="D552" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E551" s="2"/>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="A553" s="2" t="s">
+      <c r="E552" s="2"/>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B554" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C553" s="2" t="s">
+      <c r="C554" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D553" s="2" t="s">
+      <c r="D554" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E553" s="2"/>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="A555" s="2" t="s">
+      <c r="E554" s="2"/>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B556" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C555" s="2" t="s">
+      <c r="C556" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D555" s="2" t="s">
+      <c r="D556" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E555" s="2"/>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="A557" s="2" t="s">
+      <c r="E556" s="2"/>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B558" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C557" s="2" t="s">
+      <c r="C558" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D557" s="2" t="s">
+      <c r="D558" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E557" s="2"/>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="2" t="s">
+      <c r="E558" s="2"/>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B560" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="C560" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D559" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E559" s="2"/>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="2" t="s">
+      <c r="E560" s="2"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B562" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="C562" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D561" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E561" s="2"/>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="A563" s="2" t="s">
+      <c r="E562" s="2"/>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="B564" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="C564" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D563" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E563" s="2"/>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="A565" s="2" t="s">
+      <c r="E564" s="2"/>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B566" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="C566" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D565" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E565" s="2"/>
-    </row>
-    <row r="567" spans="1:5">
-      <c r="A567" s="2" t="s">
+      <c r="E566" s="2"/>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B568" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="C568" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D567" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E567" s="2"/>
-    </row>
-    <row r="569" spans="1:5">
-      <c r="A569" s="2" t="s">
+      <c r="E568" s="2"/>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="B570" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="C570" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D569" s="2" t="s">
+      <c r="D570" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E569" s="2"/>
-    </row>
-    <row r="571" spans="1:5">
-      <c r="A571" s="2" t="s">
+      <c r="E570" s="2"/>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B572" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C571" s="2" t="s">
+      <c r="C572" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D571" s="2" t="s">
+      <c r="D572" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E571" s="2"/>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="2" t="s">
+      <c r="E572" s="2"/>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B574" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="C574" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D573" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E573" s="2"/>
-    </row>
-    <row r="574" spans="1:5">
-      <c r="C574" t="s">
+      <c r="E574" s="2"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="C575" t="s">
         <v>635</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D575" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
-      <c r="A576" s="2" t="s">
+    <row r="577" spans="1:5">
+      <c r="A577" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B577" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C576" s="2" t="s">
+      <c r="C577" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D576" s="2" t="s">
+      <c r="D577" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E576" s="2"/>
-    </row>
-    <row r="578" spans="1:5">
-      <c r="A578" s="2" t="s">
+      <c r="E577" s="2"/>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B579" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C578" s="2" t="s">
+      <c r="C579" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D578" s="2" t="s">
+      <c r="D579" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E578" s="2"/>
-    </row>
-    <row r="580" spans="1:5">
-      <c r="A580" s="2" t="s">
+      <c r="E579" s="2"/>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B581" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C580" s="2" t="s">
+      <c r="C581" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D580" s="2" t="s">
+      <c r="D581" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E580" s="2"/>
-    </row>
-    <row r="582" spans="1:5">
-      <c r="A582" s="2" t="s">
+      <c r="E581" s="2"/>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B583" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C582" s="2" t="s">
+      <c r="C583" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D582" s="2" t="s">
+      <c r="D583" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E582" s="2"/>
-    </row>
-    <row r="584" spans="1:5">
-      <c r="A584" s="2" t="s">
+      <c r="E583" s="2"/>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B585" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C584" s="2" t="s">
+      <c r="C585" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D584" s="2" t="s">
+      <c r="D585" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E584" s="2"/>
-    </row>
-    <row r="586" spans="1:5">
-      <c r="A586" s="2" t="s">
+      <c r="E585" s="2"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B587" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="C587" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D586" s="2" t="s">
+      <c r="D587" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E586" s="2"/>
-    </row>
-    <row r="588" spans="1:5">
-      <c r="A588" s="2" t="s">
+      <c r="E587" s="2"/>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B589" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C588" s="2" t="s">
+      <c r="C589" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D588" s="2" t="s">
+      <c r="D589" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E588" s="2"/>
-    </row>
-    <row r="590" spans="1:5">
-      <c r="A590" s="2" t="s">
+      <c r="E589" s="2"/>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B591" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C590" s="2" t="s">
+      <c r="C591" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D590" s="2" t="s">
+      <c r="D591" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E590" s="2"/>
-    </row>
-    <row r="592" spans="1:5">
-      <c r="A592" s="2" t="s">
+      <c r="E591" s="2"/>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B593" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C592" s="2" t="s">
+      <c r="C593" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D592" s="2" t="s">
+      <c r="D593" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E592" s="2"/>
-    </row>
-    <row r="594" spans="1:5">
-      <c r="A594" s="2" t="s">
+      <c r="E593" s="2"/>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B595" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="C595" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D594" s="2" t="s">
+      <c r="D595" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E594" s="2"/>
-    </row>
-    <row r="596" spans="1:5">
-      <c r="A596" s="2" t="s">
+      <c r="E595" s="2"/>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B597" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="C597" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D596" s="2" t="s">
+      <c r="D597" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E596" s="2"/>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="A598" s="2" t="s">
+      <c r="E597" s="2"/>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="C599" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="D598" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="E598" s="2"/>
-    </row>
-    <row r="600" spans="1:5">
-      <c r="A600" s="2" t="s">
+      <c r="E599" s="2"/>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B601" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="C601" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D600" s="2" t="s">
+      <c r="D601" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E600" s="2"/>
-    </row>
-    <row r="602" spans="1:5">
-      <c r="A602" s="2" t="s">
+      <c r="E601" s="2"/>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="B603" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C602" s="2" t="s">
+      <c r="C603" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D602" s="2" t="s">
+      <c r="D603" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E602" s="2"/>
-    </row>
-    <row r="604" spans="1:5">
-      <c r="A604" s="2" t="s">
+      <c r="E603" s="2"/>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B605" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="C605" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D604" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E604" s="2"/>
-    </row>
-    <row r="606" spans="1:5">
-      <c r="A606" s="2" t="s">
+      <c r="E605" s="2"/>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B607" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="C607" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D606" s="2" t="s">
+      <c r="D607" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E606" s="2"/>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="A608" s="2" t="s">
+      <c r="E607" s="2"/>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B609" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="C609" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D608" s="2" t="s">
+      <c r="D609" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E608" s="2"/>
-    </row>
-    <row r="610" spans="1:5">
-      <c r="A610" s="2" t="s">
+      <c r="E609" s="2"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B611" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C610" s="2" t="s">
+      <c r="C611" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D610" s="2" t="s">
+      <c r="D611" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="612" spans="1:5">
-      <c r="A612" s="2" t="s">
+      <c r="E611" s="2"/>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B613" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C612" s="2" t="s">
+      <c r="C613" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D612" s="2" t="s">
+      <c r="D613" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E612" s="2"/>
-    </row>
-    <row r="613" spans="1:5">
-      <c r="C613" t="s">
+      <c r="E613" s="2"/>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="C614" t="s">
         <v>635</v>
       </c>
-      <c r="D613" t="s">
+      <c r="D614" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
-      <c r="A615" s="2" t="s">
+    <row r="616" spans="1:5">
+      <c r="A616" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B616" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C615" s="2" t="s">
+      <c r="C616" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D615" s="2" t="s">
+      <c r="D616" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E615" s="2"/>
-    </row>
-    <row r="617" spans="1:5">
-      <c r="A617" s="2" t="s">
+      <c r="E616" s="2"/>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B618" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C617" s="2" t="s">
+      <c r="C618" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D617" s="2" t="s">
+      <c r="D618" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E617" s="2"/>
-    </row>
-    <row r="619" spans="1:5">
-      <c r="A619" s="2" t="s">
+      <c r="E618" s="2"/>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B620" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C619" s="2" t="s">
+      <c r="C620" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D619" s="2" t="s">
+      <c r="D620" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E619" s="2"/>
-    </row>
-    <row r="620" spans="1:5">
-      <c r="C620" t="s">
-        <v>619</v>
-      </c>
-      <c r="D620" t="s">
-        <v>620</v>
-      </c>
+      <c r="E620" s="2"/>
     </row>
     <row r="621" spans="1:5">
       <c r="C621" t="s">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="D621" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="C622" t="s">
+        <v>693</v>
+      </c>
+      <c r="D622" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="C623" t="s">
         <v>580</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D623" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
-      <c r="A624" s="2" t="s">
+    <row r="625" spans="1:5">
+      <c r="A625" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B625" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C624" s="2" t="s">
+      <c r="C625" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D624" s="2" t="s">
+      <c r="D625" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E624" s="2"/>
-    </row>
-    <row r="626" spans="1:5">
-      <c r="A626" s="2" t="s">
+      <c r="E625" s="2"/>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B626" s="2" t="s">
+      <c r="B627" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C626" s="2" t="s">
+      <c r="C627" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D626" s="2" t="s">
+      <c r="D627" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E626" s="2"/>
-    </row>
-    <row r="628" spans="1:5">
-      <c r="A628" s="2" t="s">
+      <c r="E627" s="2"/>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B628" s="2" t="s">
+      <c r="B629" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C628" s="2" t="s">
+      <c r="C629" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D628" s="2" t="s">
+      <c r="D629" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E628" s="2"/>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="A630" s="2" t="s">
+      <c r="E629" s="2"/>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="B631" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C630" s="2" t="s">
+      <c r="C631" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D630" s="2" t="s">
+      <c r="D631" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E630" s="2"/>
-    </row>
-    <row r="631" spans="1:5">
-      <c r="C631" t="s">
+      <c r="E631" s="2"/>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="C632" t="s">
         <v>719</v>
       </c>
-      <c r="D631" t="s">
+      <c r="D632" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
-      <c r="A633" s="2" t="s">
+    <row r="634" spans="1:5">
+      <c r="A634" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B634" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C633" s="2" t="s">
+      <c r="C634" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D633" s="2" t="s">
+      <c r="D634" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E633" s="2"/>
-    </row>
-    <row r="635" spans="1:5">
-      <c r="A635" s="2" t="s">
+      <c r="E634" s="2"/>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B636" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C635" s="2" t="s">
+      <c r="C636" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D635" s="2" t="s">
+      <c r="D636" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E635" s="2"/>
-    </row>
-    <row r="636" spans="1:5">
-      <c r="C636" t="s">
+      <c r="E636" s="2"/>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="C637" t="s">
         <v>725</v>
       </c>
-      <c r="D636" t="s">
+      <c r="D637" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
-      <c r="A638" s="2" t="s">
+    <row r="639" spans="1:5">
+      <c r="A639" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B638" s="2" t="s">
+      <c r="B639" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C638" s="2" t="s">
+      <c r="C639" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D638" s="2" t="s">
+      <c r="D639" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E638" s="2"/>
-    </row>
-    <row r="639" spans="1:5">
-      <c r="C639" t="s">
+      <c r="E639" s="2"/>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="C640" t="s">
         <v>725</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D640" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
-      <c r="A641" s="2" t="s">
+    <row r="642" spans="1:5">
+      <c r="A642" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C641" s="2" t="s">
+      <c r="C642" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D641" s="2" t="s">
+      <c r="D642" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E641" s="2"/>
-    </row>
-    <row r="643" spans="1:5">
-      <c r="A643" s="2" t="s">
+      <c r="E642" s="2"/>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B644" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C643" s="2" t="s">
+      <c r="C644" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D643" s="2" t="s">
+      <c r="D644" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E643" s="2"/>
-    </row>
-    <row r="644" spans="1:5">
-      <c r="C644" t="s">
+      <c r="E644" s="2"/>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="C645" t="s">
         <v>719</v>
       </c>
-      <c r="D644" t="s">
+      <c r="D645" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
-      <c r="A646" s="2" t="s">
+    <row r="647" spans="1:5">
+      <c r="A647" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="B647" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C646" s="2" t="s">
+      <c r="C647" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D646" s="2" t="s">
+      <c r="D647" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E646" s="2"/>
-    </row>
-    <row r="648" spans="1:5">
-      <c r="A648" s="2" t="s">
+      <c r="E647" s="2"/>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B648" s="2" t="s">
+      <c r="B649" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C648" s="2" t="s">
+      <c r="C649" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D648" s="2" t="s">
+      <c r="D649" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E648" s="2"/>
-    </row>
-    <row r="650" spans="1:5">
-      <c r="A650" s="2" t="s">
+      <c r="E649" s="2"/>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B650" s="2" t="s">
+      <c r="B651" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C650" s="2" t="s">
+      <c r="C651" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D650" s="2" t="s">
+      <c r="D651" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E650" s="2"/>
-    </row>
-    <row r="652" spans="1:5">
-      <c r="A652" s="2" t="s">
+      <c r="E651" s="2"/>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="B653" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C652" s="2" t="s">
+      <c r="C653" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D652" s="2" t="s">
+      <c r="D653" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E652" s="2"/>
-    </row>
-    <row r="654" spans="1:5">
-      <c r="A654" s="2" t="s">
+      <c r="E653" s="2"/>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B655" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C654" s="2" t="s">
+      <c r="C655" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D654" s="2" t="s">
+      <c r="D655" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E654" s="2"/>
-    </row>
-    <row r="656" spans="1:5">
-      <c r="A656" s="2" t="s">
+      <c r="E655" s="2"/>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B657" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C656" s="2" t="s">
+      <c r="C657" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D656" s="2" t="s">
+      <c r="D657" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E656" s="2"/>
-    </row>
-    <row r="658" spans="1:5">
-      <c r="A658" s="2" t="s">
+      <c r="E657" s="2"/>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="B659" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C658" s="2" t="s">
+      <c r="C659" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D658" s="2" t="s">
+      <c r="D659" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E658" s="2"/>
-    </row>
-    <row r="660" spans="1:5">
-      <c r="A660" s="2" t="s">
+      <c r="E659" s="2"/>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B660" s="2" t="s">
+      <c r="B661" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C660" s="2" t="s">
+      <c r="C661" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D660" s="2" t="s">
+      <c r="D661" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E660" s="2"/>
-    </row>
-    <row r="662" spans="1:5">
-      <c r="A662" s="2" t="s">
+      <c r="E661" s="2"/>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B663" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C662" s="2" t="s">
+      <c r="C663" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D662" s="2" t="s">
+      <c r="D663" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E662" s="2"/>
-    </row>
-    <row r="664" spans="1:5">
-      <c r="A664" s="2" t="s">
+      <c r="E663" s="2"/>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B665" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C664" s="2" t="s">
+      <c r="C665" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D664" s="2" t="s">
+      <c r="D665" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E664" s="2"/>
-    </row>
-    <row r="666" spans="1:5">
-      <c r="A666" s="2" t="s">
+      <c r="E665" s="2"/>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="B667" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C666" s="2" t="s">
+      <c r="C667" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D666" s="2" t="s">
+      <c r="D667" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E666" s="2"/>
-    </row>
-    <row r="668" spans="1:5">
-      <c r="A668" s="2" t="s">
+      <c r="E667" s="2"/>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B669" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C668" s="2" t="s">
+      <c r="C669" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D668" s="2" t="s">
+      <c r="D669" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E668" s="2"/>
-    </row>
-    <row r="670" spans="1:5">
-      <c r="A670" s="2" t="s">
+      <c r="E669" s="2"/>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B671" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C670" s="2" t="s">
+      <c r="C671" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D670" s="2" t="s">
+      <c r="D671" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E670" s="2"/>
-    </row>
-    <row r="672" spans="1:5">
-      <c r="A672" s="2" t="s">
+      <c r="E671" s="2"/>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B673" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C672" s="2" t="s">
+      <c r="C673" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D672" s="2" t="s">
+      <c r="D673" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E672" s="2"/>
-    </row>
-    <row r="674" spans="1:5">
-      <c r="A674" s="2" t="s">
+      <c r="E673" s="2"/>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B675" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C674" s="2" t="s">
+      <c r="C675" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D674" s="2" t="s">
+      <c r="D675" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E674" s="2"/>
-    </row>
-    <row r="676" spans="1:5">
-      <c r="A676" s="2" t="s">
+      <c r="E675" s="2"/>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B677" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C676" s="2" t="s">
+      <c r="C677" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D676" s="2" t="s">
+      <c r="D677" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E676" s="2"/>
-    </row>
-    <row r="678" spans="1:5">
-      <c r="A678" s="2" t="s">
+      <c r="E677" s="2"/>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B679" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C678" s="2" t="s">
+      <c r="C679" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D678" s="2" t="s">
+      <c r="D679" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E678" s="2"/>
-    </row>
-    <row r="680" spans="1:5">
-      <c r="A680" s="2" t="s">
+      <c r="E679" s="2"/>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B681" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C680" s="2" t="s">
+      <c r="C681" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D680" s="2" t="s">
+      <c r="D681" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E680" s="2"/>
-    </row>
-    <row r="682" spans="1:5">
-      <c r="A682" s="2" t="s">
+      <c r="E681" s="2"/>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B683" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C682" s="2" t="s">
+      <c r="C683" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D682" s="2" t="s">
+      <c r="D683" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E682" s="2"/>
-    </row>
-    <row r="684" spans="1:5">
-      <c r="A684" s="2" t="s">
+      <c r="E683" s="2"/>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B685" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C684" s="2" t="s">
+      <c r="C685" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D684" s="2" t="s">
+      <c r="D685" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E684" s="2"/>
-    </row>
-    <row r="686" spans="1:5">
-      <c r="A686" s="2" t="s">
+      <c r="E685" s="2"/>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B686" s="2" t="s">
+      <c r="B687" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C686" s="2" t="s">
+      <c r="C687" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D686" s="2" t="s">
+      <c r="D687" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E686" s="2"/>
-    </row>
-    <row r="688" spans="1:5">
-      <c r="A688" s="2" t="s">
+      <c r="E687" s="2"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B689" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C688" s="2" t="s">
+      <c r="C689" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D688" s="2" t="s">
+      <c r="D689" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E688" s="2"/>
-    </row>
-    <row r="690" spans="1:5">
-      <c r="A690" s="2" t="s">
+      <c r="E689" s="2"/>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B691" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C690" s="2" t="s">
+      <c r="C691" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D690" s="2" t="s">
+      <c r="D691" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E690" s="2"/>
-    </row>
-    <row r="692" spans="1:5">
-      <c r="A692" s="2" t="s">
+      <c r="E691" s="2"/>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B693" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C692" s="2" t="s">
+      <c r="C693" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D692" s="2" t="s">
+      <c r="D693" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E692" s="2"/>
-    </row>
-    <row r="694" spans="1:5">
-      <c r="A694" s="2" t="s">
+      <c r="E693" s="2"/>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B695" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C694" s="2" t="s">
+      <c r="C695" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D694" s="2" t="s">
+      <c r="D695" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E694" s="2"/>
-    </row>
-    <row r="695" spans="1:5">
-      <c r="C695" t="s">
+      <c r="E695" s="2"/>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="C696" t="s">
         <v>7</v>
       </c>
-      <c r="D695" t="s">
+      <c r="D696" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
-      <c r="A697" s="2" t="s">
+    <row r="698" spans="1:5">
+      <c r="A698" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B698" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C697" s="2" t="s">
+      <c r="C698" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D697" s="2" t="s">
+      <c r="D698" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E697" s="2"/>
-    </row>
-    <row r="699" spans="1:5">
-      <c r="A699" s="2" t="s">
+      <c r="E698" s="2"/>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C699" s="2" t="s">
+      <c r="C700" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D699" s="2" t="s">
+      <c r="D700" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E699" s="2"/>
-    </row>
-    <row r="701" spans="1:5">
-      <c r="A701" s="2" t="s">
+      <c r="E700" s="2"/>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C701" s="2" t="s">
+      <c r="C702" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D701" s="2" t="s">
+      <c r="D702" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E701" s="2"/>
-    </row>
-    <row r="703" spans="1:5">
-      <c r="A703" s="2" t="s">
+      <c r="E702" s="2"/>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C703" s="2" t="s">
+      <c r="C704" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D703" s="2" t="s">
+      <c r="D704" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E703" s="2"/>
-    </row>
-    <row r="705" spans="1:5">
-      <c r="A705" s="2" t="s">
+      <c r="E704" s="2"/>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C705" s="2" t="s">
+      <c r="C706" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D705" s="2" t="s">
+      <c r="D706" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E705" s="2"/>
-    </row>
-    <row r="707" spans="1:5">
-      <c r="A707" s="2" t="s">
+      <c r="E706" s="2"/>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B708" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C707" s="2" t="s">
+      <c r="C708" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D707" s="2" t="s">
+      <c r="D708" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E707" s="2"/>
-    </row>
-    <row r="709" spans="1:5">
-      <c r="A709" s="2" t="s">
+      <c r="E708" s="2"/>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B710" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C709" s="2" t="s">
+      <c r="C710" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D709" s="2" t="s">
+      <c r="D710" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E709" s="2"/>
-    </row>
-    <row r="711" spans="1:5">
-      <c r="A711" s="2" t="s">
+      <c r="E710" s="2"/>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B711" s="2" t="s">
+      <c r="B712" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C711" s="2" t="s">
+      <c r="C712" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D711" s="2" t="s">
+      <c r="D712" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E711" s="2"/>
-    </row>
-    <row r="713" spans="1:5">
-      <c r="A713" s="2" t="s">
+      <c r="E712" s="2"/>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B713" s="2" t="s">
+      <c r="B714" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C713" s="2" t="s">
+      <c r="C714" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D713" s="2" t="s">
+      <c r="D714" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E713" s="2"/>
-    </row>
-    <row r="715" spans="1:5">
-      <c r="A715" s="2" t="s">
+      <c r="E714" s="2"/>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B715" s="2" t="s">
+      <c r="B716" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C715" s="2" t="s">
+      <c r="C716" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D715" s="2" t="s">
+      <c r="D716" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E715" s="2"/>
-    </row>
-    <row r="717" spans="1:5">
-      <c r="A717" s="2" t="s">
+      <c r="E716" s="2"/>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="B718" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C717" s="2" t="s">
+      <c r="C718" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D717" s="2" t="s">
+      <c r="D718" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E717" s="2"/>
-    </row>
-    <row r="719" spans="1:5">
-      <c r="A719" s="2" t="s">
+      <c r="E718" s="2"/>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B719" s="2" t="s">
+      <c r="B720" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C719" s="2" t="s">
+      <c r="C720" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D719" s="2" t="s">
+      <c r="D720" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E719" s="2"/>
-    </row>
-    <row r="721" spans="1:5">
-      <c r="A721" s="2" t="s">
+      <c r="E720" s="2"/>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="B722" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C721" s="2" t="s">
+      <c r="C722" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D721" s="2" t="s">
+      <c r="D722" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E721" s="2"/>
-    </row>
-    <row r="723" spans="1:5">
-      <c r="A723" s="2" t="s">
+      <c r="E722" s="2"/>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B723" s="2" t="s">
+      <c r="B724" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C723" s="2" t="s">
+      <c r="C724" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D723" s="2" t="s">
+      <c r="D724" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E723" s="2"/>
-    </row>
-    <row r="725" spans="1:5">
-      <c r="A725" s="2" t="s">
+      <c r="E724" s="2"/>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B725" s="2" t="s">
+      <c r="B726" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C725" s="2" t="s">
+      <c r="C726" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D725" s="2" t="s">
+      <c r="D726" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E725" s="2"/>
-    </row>
-    <row r="727" spans="1:5">
-      <c r="A727" s="2" t="s">
+      <c r="E726" s="2"/>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B728" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C727" s="2" t="s">
+      <c r="C728" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D727" s="2" t="s">
+      <c r="D728" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E727" s="2"/>
-    </row>
-    <row r="729" spans="1:5">
-      <c r="A729" s="2" t="s">
+      <c r="E728" s="2"/>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="B730" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C729" s="2" t="s">
+      <c r="C730" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D729" s="2" t="s">
+      <c r="D730" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E729" s="2"/>
-    </row>
-    <row r="731" spans="1:5">
-      <c r="A731" s="2" t="s">
+      <c r="E730" s="2"/>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="B732" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C731" s="2" t="s">
+      <c r="C732" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D731" s="2" t="s">
+      <c r="D732" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E731" s="2"/>
-    </row>
-    <row r="733" spans="1:5">
-      <c r="A733" s="2" t="s">
+      <c r="E732" s="2"/>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B734" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C733" s="2" t="s">
+      <c r="C734" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D733" s="2" t="s">
+      <c r="D734" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="735" spans="1:5">
-      <c r="A735" s="2" t="s">
+      <c r="E734" s="2"/>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B736" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C735" s="2" t="s">
+      <c r="C736" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D735" s="2" t="s">
+      <c r="D736" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E735" s="2"/>
-    </row>
-    <row r="737" spans="1:5">
-      <c r="A737" s="2" t="s">
+      <c r="E736" s="2"/>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B738" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C737" s="2" t="s">
+      <c r="C738" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D737" s="2" t="s">
+      <c r="D738" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E737" s="2"/>
-    </row>
-    <row r="739" spans="1:5">
-      <c r="A739" s="2" t="s">
+      <c r="E738" s="2"/>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="B740" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C739" s="2" t="s">
+      <c r="C740" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D739" s="2" t="s">
+      <c r="D740" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E739" s="2"/>
-    </row>
-    <row r="741" spans="1:5">
-      <c r="A741" s="2" t="s">
+      <c r="E740" s="2"/>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B742" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C741" s="2" t="s">
+      <c r="C742" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D741" s="2" t="s">
+      <c r="D742" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E741" s="2"/>
-    </row>
-    <row r="743" spans="1:5">
-      <c r="A743" s="2" t="s">
+      <c r="E742" s="2"/>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B743" s="2" t="s">
+      <c r="B744" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C743" s="2" t="s">
+      <c r="C744" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D743" s="2" t="s">
+      <c r="D744" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E743" s="2"/>
-    </row>
-    <row r="744" spans="1:5">
-      <c r="C744" t="s">
+      <c r="E744" s="2"/>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="C745" t="s">
         <v>590</v>
       </c>
-      <c r="D744" t="s">
+      <c r="D745" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
-      <c r="A746" s="2" t="s">
+    <row r="747" spans="1:5">
+      <c r="A747" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="B747" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C746" s="2" t="s">
+      <c r="C747" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D746" s="2" t="s">
+      <c r="D747" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E746" s="2"/>
-    </row>
-    <row r="748" spans="1:5">
-      <c r="A748" s="2" t="s">
+      <c r="E747" s="2"/>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="B748" s="2" t="s">
+      <c r="B749" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C748" s="2" t="s">
+      <c r="C749" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D748" s="2" t="s">
+      <c r="D749" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E748" s="2"/>
-    </row>
-    <row r="750" spans="1:5">
-      <c r="A750" s="2" t="s">
+      <c r="E749" s="2"/>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B751" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C750" s="2" t="s">
+      <c r="C751" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D750" s="2" t="s">
+      <c r="D751" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E750" s="2"/>
-    </row>
-    <row r="752" spans="1:5">
-      <c r="A752" s="2" t="s">
+      <c r="E751" s="2"/>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="B753" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C752" s="2" t="s">
+      <c r="C753" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D752" s="2" t="s">
+      <c r="D753" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E752" s="2"/>
-    </row>
-    <row r="754" spans="1:5">
-      <c r="A754" s="2" t="s">
+      <c r="E753" s="2"/>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="B755" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C754" s="2" t="s">
+      <c r="C755" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D754" s="2" t="s">
+      <c r="D755" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E754" s="2"/>
-    </row>
-    <row r="755" spans="1:5">
-      <c r="C755" t="s">
+      <c r="E755" s="2"/>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="C756" t="s">
         <v>847</v>
       </c>
-      <c r="D755" t="s">
+      <c r="D756" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
-      <c r="A757" s="2" t="s">
+    <row r="758" spans="1:5">
+      <c r="A758" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="B758" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C757" s="2" t="s">
+      <c r="C758" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D757" s="2" t="s">
+      <c r="D758" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E757" s="2"/>
-    </row>
-    <row r="758" spans="1:5">
-      <c r="C758" t="s">
+      <c r="E758" s="2"/>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="C759" t="s">
         <v>853</v>
       </c>
-      <c r="D758" t="s">
+      <c r="D759" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
-      <c r="A760" s="2" t="s">
+    <row r="761" spans="1:5">
+      <c r="A761" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="B761" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C760" s="2" t="s">
+      <c r="C761" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D760" s="2" t="s">
+      <c r="D761" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E760" s="2"/>
-    </row>
-    <row r="762" spans="1:5">
-      <c r="A762" s="2" t="s">
+      <c r="E761" s="2"/>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B762" s="2" t="s">
+      <c r="B763" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C762" s="2" t="s">
+      <c r="C763" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D762" s="2" t="s">
+      <c r="D763" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="E762" s="2"/>
-    </row>
-    <row r="764" spans="1:5">
-      <c r="A764" s="2" t="s">
+      <c r="E763" s="2"/>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B764" s="2" t="s">
+      <c r="B765" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C764" s="2" t="s">
+      <c r="C765" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D764" s="2" t="s">
+      <c r="D765" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E764" s="2"/>
-    </row>
-    <row r="766" spans="1:5">
-      <c r="A766" s="2" t="s">
+      <c r="E765" s="2"/>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="B767" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C766" s="2" t="s">
+      <c r="C767" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D766" s="2" t="s">
+      <c r="D767" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="E766" s="2"/>
-    </row>
-    <row r="768" spans="1:5">
-      <c r="A768" s="2" t="s">
+      <c r="E767" s="2"/>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B769" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="C768" s="2" t="s">
+      <c r="C769" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D768" s="2" t="s">
+      <c r="D769" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="770" spans="1:5">
-      <c r="A770" s="2" t="s">
+      <c r="E769" s="2"/>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B771" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="C770" s="2" t="s">
+      <c r="C771" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D770" s="2" t="s">
+      <c r="D771" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="E770" s="2"/>
-    </row>
-    <row r="772" spans="1:5">
-      <c r="A772" s="2" t="s">
+      <c r="E771" s="2"/>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B773" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C772" s="2" t="s">
+      <c r="C773" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D772" s="2" t="s">
+      <c r="D773" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E772" s="2"/>
-    </row>
-    <row r="774" spans="1:5">
-      <c r="A774" s="2" t="s">
+      <c r="E773" s="2"/>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B775" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C774" s="2" t="s">
+      <c r="C775" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D774" s="2" t="s">
+      <c r="D775" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="E774" s="2"/>
-    </row>
-    <row r="776" spans="1:5">
-      <c r="A776" s="2" t="s">
+      <c r="E775" s="2"/>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B776" s="2" t="s">
+      <c r="B777" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C776" s="2" t="s">
+      <c r="C777" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D776" s="2" t="s">
+      <c r="D777" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="E776" s="2"/>
-    </row>
-    <row r="778" spans="1:5">
-      <c r="A778" s="2" t="s">
+      <c r="E777" s="2"/>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="B779" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C778" s="2" t="s">
+      <c r="C779" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D778" s="2" t="s">
+      <c r="D779" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="E778" s="2"/>
-    </row>
-    <row r="780" spans="1:5">
-      <c r="A780" s="2" t="s">
+      <c r="E779" s="2"/>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B781" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C780" s="2" t="s">
+      <c r="C781" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D780" s="2" t="s">
+      <c r="D781" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="E780" s="2"/>
-    </row>
-    <row r="782" spans="1:5">
-      <c r="A782" s="2" t="s">
+      <c r="E781" s="2"/>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B782" s="2" t="s">
+      <c r="B783" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C782" s="2" t="s">
+      <c r="C783" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D782" s="2" t="s">
+      <c r="D783" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="E782" s="2"/>
-    </row>
-    <row r="784" spans="1:5">
-      <c r="A784" s="2" t="s">
+      <c r="E783" s="2"/>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B785" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C784" s="2" t="s">
+      <c r="C785" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D784" s="2" t="s">
+      <c r="D785" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="E784" s="2"/>
-    </row>
-    <row r="786" spans="1:5">
-      <c r="A786" s="2" t="s">
+      <c r="E785" s="2"/>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="B787" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C786" s="2" t="s">
+      <c r="C787" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D786" s="2" t="s">
+      <c r="D787" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="E786" s="2"/>
-    </row>
-    <row r="788" spans="1:5">
-      <c r="A788" s="2" t="s">
+      <c r="E787" s="2"/>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="B789" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C788" s="2" t="s">
+      <c r="C789" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D788" s="2" t="s">
+      <c r="D789" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E788" s="2"/>
-    </row>
-    <row r="790" spans="1:5">
-      <c r="A790" s="2" t="s">
+      <c r="E789" s="2"/>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B790" s="2" t="s">
+      <c r="B791" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C790" s="2" t="s">
+      <c r="C791" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D790" s="2" t="s">
+      <c r="D791" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="E790" s="2"/>
-    </row>
-    <row r="792" spans="1:5">
-      <c r="A792" s="2" t="s">
+      <c r="E791" s="2"/>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B792" s="2" t="s">
+      <c r="B793" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C792" s="2" t="s">
+      <c r="C793" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D792" s="2" t="s">
+      <c r="D793" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E792" s="2"/>
-    </row>
-    <row r="793" spans="1:5">
-      <c r="C793" t="s">
+      <c r="E793" s="2"/>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="C794" t="s">
         <v>909</v>
       </c>
-      <c r="D793" t="s">
+      <c r="D794" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
-      <c r="A795" s="2" t="s">
+    <row r="796" spans="1:5">
+      <c r="A796" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B795" s="2" t="s">
+      <c r="B796" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C795" s="2" t="s">
+      <c r="C796" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D795" s="2" t="s">
+      <c r="D796" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="E795" s="2"/>
-    </row>
-    <row r="797" spans="1:5">
-      <c r="A797" s="2" t="s">
+      <c r="E796" s="2"/>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B797" s="2" t="s">
+      <c r="B798" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C797" s="2" t="s">
+      <c r="C798" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D797" s="2" t="s">
+      <c r="D798" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="E797" s="2"/>
-    </row>
-    <row r="799" spans="1:5">
-      <c r="A799" s="2" t="s">
+      <c r="E798" s="2"/>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B799" s="2" t="s">
+      <c r="B800" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C799" s="2" t="s">
+      <c r="C800" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D799" s="2" t="s">
+      <c r="D800" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E799" s="2"/>
-    </row>
-    <row r="801" spans="1:5">
-      <c r="A801" s="2" t="s">
+      <c r="E800" s="2"/>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B801" s="2" t="s">
+      <c r="B802" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C801" s="2" t="s">
+      <c r="C802" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D801" s="2" t="s">
+      <c r="D802" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="E801" s="2"/>
-    </row>
-    <row r="802" spans="1:5">
-      <c r="C802" t="s">
+      <c r="E802" s="2"/>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="C803" t="s">
         <v>913</v>
       </c>
-      <c r="D802" t="s">
+      <c r="D803" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
-      <c r="A804" s="2" t="s">
+    <row r="805" spans="1:5">
+      <c r="A805" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B804" s="2" t="s">
+      <c r="B805" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C804" s="2" t="s">
+      <c r="C805" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D804" s="2" t="s">
+      <c r="D805" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="E804" s="2"/>
-    </row>
-    <row r="806" spans="1:5">
-      <c r="A806" s="2" t="s">
+      <c r="E805" s="2"/>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B806" s="2" t="s">
+      <c r="B807" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C806" s="2" t="s">
+      <c r="C807" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D806" s="2" t="s">
+      <c r="D807" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E806" s="2"/>
-    </row>
-    <row r="807" spans="1:5">
-      <c r="C807" t="s">
+      <c r="E807" s="2"/>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="C808" t="s">
         <v>927</v>
       </c>
-      <c r="D807" t="s">
+      <c r="D808" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
-      <c r="A809" s="2" t="s">
+    <row r="810" spans="1:5">
+      <c r="A810" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B809" s="2" t="s">
+      <c r="B810" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C809" s="2" t="s">
+      <c r="C810" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D809" s="2" t="s">
+      <c r="D810" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E809" s="2"/>
-    </row>
-    <row r="811" spans="1:5">
-      <c r="A811" s="2" t="s">
+      <c r="E810" s="2"/>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B811" s="2" t="s">
+      <c r="B812" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C811" s="2" t="s">
+      <c r="C812" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D811" s="2" t="s">
+      <c r="D812" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E811" s="2"/>
-    </row>
-    <row r="813" spans="1:5">
-      <c r="A813" s="2" t="s">
+      <c r="E812" s="2"/>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B813" s="2" t="s">
+      <c r="B814" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C813" s="2" t="s">
+      <c r="C814" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D813" s="2" t="s">
+      <c r="D814" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E813" s="2"/>
-    </row>
-    <row r="815" spans="1:5">
-      <c r="A815" s="2" t="s">
+      <c r="E814" s="2"/>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="B815" s="2" t="s">
+      <c r="B816" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C815" s="2" t="s">
+      <c r="C816" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D815" s="2" t="s">
+      <c r="D816" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="E815" s="2"/>
-    </row>
-    <row r="817" spans="1:5">
-      <c r="A817" s="2" t="s">
+      <c r="E816" s="2"/>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B817" s="2" t="s">
+      <c r="B818" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C817" s="2" t="s">
+      <c r="C818" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D817" s="2" t="s">
+      <c r="D818" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E817" s="2"/>
-    </row>
-    <row r="819" spans="1:5">
-      <c r="A819" s="2" t="s">
+      <c r="E818" s="2"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B819" s="2" t="s">
+      <c r="B820" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C819" s="2" t="s">
+      <c r="C820" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="D819" s="2" t="s">
+      <c r="D820" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E819" s="2"/>
-    </row>
-    <row r="820" spans="1:5">
-      <c r="C820" t="s">
+      <c r="E820" s="2"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="C821" t="s">
         <v>847</v>
       </c>
-      <c r="D820" t="s">
+      <c r="D821" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
-      <c r="A822" s="2" t="s">
+    <row r="823" spans="1:5">
+      <c r="A823" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B822" s="2" t="s">
+      <c r="B823" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C822" s="2" t="s">
+      <c r="C823" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D822" s="2" t="s">
+      <c r="D823" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E822" s="2"/>
-    </row>
-    <row r="824" spans="1:5">
-      <c r="A824" s="2" t="s">
+      <c r="E823" s="2"/>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B824" s="2" t="s">
+      <c r="B825" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C824" s="2" t="s">
+      <c r="C825" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D824" s="2" t="s">
+      <c r="D825" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="E824" s="2"/>
-    </row>
-    <row r="826" spans="1:5">
-      <c r="A826" s="2" t="s">
+      <c r="E825" s="2"/>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B826" s="2" t="s">
+      <c r="B827" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C826" s="2" t="s">
+      <c r="C827" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D826" s="2" t="s">
+      <c r="D827" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="E826" s="2"/>
-    </row>
-    <row r="827" spans="1:5">
-      <c r="C827" t="s">
+      <c r="E827" s="2"/>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="C828" t="s">
         <v>940</v>
       </c>
-      <c r="D827" t="s">
+      <c r="D828" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
-      <c r="A829" s="2" t="s">
+    <row r="830" spans="1:5">
+      <c r="A830" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="B829" s="2" t="s">
+      <c r="B830" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C829" s="2" t="s">
+      <c r="C830" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D829" s="2" t="s">
+      <c r="D830" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="E829" s="2"/>
-    </row>
-    <row r="831" spans="1:5">
-      <c r="A831" s="2" t="s">
+      <c r="E830" s="2"/>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="B831" s="2" t="s">
+      <c r="B832" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C831" s="2" t="s">
+      <c r="C832" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D831" s="2" t="s">
+      <c r="D832" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="E831" s="2"/>
-    </row>
-    <row r="833" spans="1:5">
-      <c r="A833" s="2" t="s">
+      <c r="E832" s="2"/>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B833" s="2" t="s">
+      <c r="B834" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C833" s="2" t="s">
+      <c r="C834" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D833" s="2" t="s">
+      <c r="D834" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E833" s="2"/>
-    </row>
-    <row r="834" spans="1:5">
-      <c r="C834" t="s">
+      <c r="E834" s="2"/>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="C835" t="s">
         <v>847</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D835" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
-      <c r="A836" s="2" t="s">
+    <row r="837" spans="1:5">
+      <c r="A837" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B836" s="2" t="s">
+      <c r="B837" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C836" s="2" t="s">
+      <c r="C837" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D836" s="2" t="s">
+      <c r="D837" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E836" s="2"/>
-    </row>
-    <row r="837" spans="1:5">
-      <c r="C837" t="s">
+      <c r="E837" s="2"/>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="C838" t="s">
         <v>847</v>
       </c>
-      <c r="D837" t="s">
+      <c r="D838" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
-      <c r="A839" s="2" t="s">
+    <row r="840" spans="1:5">
+      <c r="A840" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B839" s="2" t="s">
+      <c r="B840" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C839" s="2" t="s">
+      <c r="C840" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D839" s="2" t="s">
+      <c r="D840" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="E839" s="2"/>
-    </row>
-    <row r="840" spans="1:5">
-      <c r="C840" t="s">
+      <c r="E840" s="2"/>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="C841" t="s">
         <v>927</v>
       </c>
-      <c r="D840" t="s">
+      <c r="D841" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
-      <c r="A842" s="2" t="s">
+    <row r="843" spans="1:5">
+      <c r="A843" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B842" s="2" t="s">
+      <c r="B843" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C842" s="2" t="s">
+      <c r="C843" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D842" s="2" t="s">
+      <c r="D843" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="E842" s="2"/>
-    </row>
-    <row r="843" spans="1:5">
-      <c r="C843" t="s">
+      <c r="E843" s="2"/>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="C844" t="s">
         <v>917</v>
       </c>
-      <c r="D843" t="s">
+      <c r="D844" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
-      <c r="A845" s="2" t="s">
+    <row r="846" spans="1:5">
+      <c r="A846" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B845" s="2" t="s">
+      <c r="B846" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C845" s="2" t="s">
+      <c r="C846" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D845" s="2" t="s">
+      <c r="D846" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="E845" s="2"/>
+      <c r="E846" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="959">
   <si>
     <t>Sigla</t>
   </si>
@@ -151,10 +151,10 @@
     <t xml:space="preserve"> Ciência, Tecnologia e Sociedade</t>
   </si>
   <si>
-    <t>948230</t>
-  </si>
-  <si>
-    <t>Francisco Sodero Toledo</t>
+    <t>6376612</t>
+  </si>
+  <si>
+    <t>Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>LOB1009</t>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Direito  Aplicado à Engenharia</t>
-  </si>
-  <si>
-    <t>5840618</t>
-  </si>
-  <si>
-    <t>José Antonio Nunes Romeiro</t>
   </si>
   <si>
     <t>LOB1011</t>
@@ -3495,49 +3489,49 @@
         <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>45</v>
@@ -3549,250 +3543,250 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>41</v>
@@ -3804,116 +3798,116 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5">
       <c r="C79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="C82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>45</v>
@@ -3925,498 +3919,498 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="C123" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>49</v>
@@ -4428,10 +4422,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>33</v>
@@ -4443,177 +4437,177 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5">
       <c r="C160" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5">
       <c r="C163" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E165" s="2"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5">
       <c r="C168" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5">
       <c r="C177" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -4621,300 +4615,300 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E183" s="2"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E187" s="2"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5">
       <c r="C192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="C193" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D193" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5">
       <c r="C196" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5">
       <c r="C199" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D199" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="C200" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D200" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="C201" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D201" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5">
       <c r="C204" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D204" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="C205" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D205" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="C206" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D206" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5">
       <c r="C209" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D209" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5">
       <c r="C212" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D212" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="C213" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5">
       <c r="C216" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -4928,675 +4922,675 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5">
       <c r="C222" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D222" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E224" s="2"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E226" s="2"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5">
       <c r="C229" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D229" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5">
       <c r="C232" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D232" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E234" s="2"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5">
       <c r="C237" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D237" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E239" s="2"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5">
       <c r="C242" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D242" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E244" s="2"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5">
       <c r="C247" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D247" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="D249" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="E249" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E253" s="2"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E255" s="2"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5">
       <c r="C258" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D258" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5">
       <c r="C261" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="C262" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D262" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5">
       <c r="C265" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D265" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5">
       <c r="C268" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D268" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E270" s="2"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E272" s="2"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5">
       <c r="C275" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D275" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="C276" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D276" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="C277" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D277" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5">
       <c r="C280" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D280" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E282" s="2"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5">
       <c r="C285" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D285" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5">
       <c r="C288" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D288" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="C289" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D289" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="C290" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D290" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5">
       <c r="C293" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D293" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="C294" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D294" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="C295" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D295" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5">
       <c r="C298" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D298" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="C299" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D299" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5">
       <c r="C302" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D302" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E304" s="2"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -5604,1421 +5598,1421 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E310" s="2"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E312" s="2"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="D314" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5">
       <c r="C315" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D315" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5">
       <c r="C318" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D318" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5">
       <c r="C321" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D321" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5">
       <c r="C324" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D324" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="C325" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D325" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E327" s="2"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D330" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="C331" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D331" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5">
       <c r="C334" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D334" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5">
       <c r="C337" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D337" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="C338" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D338" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5">
       <c r="C341" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D341" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5">
       <c r="C344" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D344" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5">
       <c r="C347" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D347" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="C348" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D348" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="C349" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D349" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5">
       <c r="C352" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D352" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="C353" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D353" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5">
       <c r="C356" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D356" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5">
       <c r="C359" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D359" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="C360" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D360" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5">
       <c r="C363" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D363" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D366" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="C367" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D367" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5">
       <c r="C370" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D370" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E372" s="2"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="E374" s="2"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E376" s="2"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5">
       <c r="C379" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D379" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D382" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="C383" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D383" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="C384" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D384" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E386" s="2"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E388" s="2"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E392" s="2"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E394" s="2"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E396" s="2"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E398" s="2"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E400" s="2"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
       <c r="C403" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D403" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="C404" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D404" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E406" s="2"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E408" s="2"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E410" s="2"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E412" s="2"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E414" s="2"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="D416" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5">
       <c r="C417" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D417" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E419" s="2"/>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E421" s="2"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E423" s="2"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5">
       <c r="C426" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D426" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="C427" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D427" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="C428" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D428" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="C429" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D429" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5">
       <c r="C432" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D432" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="C433" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D433" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E435" s="2"/>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="1:5">
       <c r="C438" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D438" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E440" s="2"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E442" s="2"/>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E444" s="2"/>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E446" s="2"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5">
       <c r="C449" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D449" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="C450" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D450" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E452" s="2"/>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E454" s="2"/>
     </row>
     <row r="455" spans="1:5">
       <c r="C455" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D455" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E457" s="2"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E459" s="2"/>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E461" s="2"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E463" s="2"/>
     </row>
     <row r="464" spans="1:5">
       <c r="C464" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D464" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E466" s="2"/>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E468" s="2"/>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E470" s="2"/>
     </row>
     <row r="471" spans="1:5">
       <c r="C471" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D471" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="1:5">
       <c r="C474" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D474" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E476" s="2"/>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E478" s="2"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E480" s="2"/>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E482" s="2"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E484" s="2"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E486" s="2"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E488" s="2"/>
     </row>
     <row r="489" spans="1:5">
       <c r="C489" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D489" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="C490" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D490" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="C491" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D491" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E493" s="2"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -7026,208 +7020,208 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E497" s="2"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:5">
       <c r="C500" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D500" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="C501" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D501" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="C502" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D502" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E504" s="2"/>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E506" s="2"/>
     </row>
     <row r="507" spans="1:5">
       <c r="C507" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D507" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="C508" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D508" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E510" s="2"/>
     </row>
     <row r="511" spans="1:5">
       <c r="C511" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D511" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C513" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="D513" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="E513" s="2"/>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="D515" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="E515" s="2"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="D517" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="E517" s="2"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="D519" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E519" s="2"/>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="D521" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D521" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="E521" s="2"/>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>29</v>
@@ -7239,85 +7233,85 @@
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="D525" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="E525" s="2"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="E527" s="2"/>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E529" s="2"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="E531" s="2"/>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="E533" s="2"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>13</v>
@@ -7329,63 +7323,63 @@
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="E537" s="2"/>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="E539" s="2"/>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="E541" s="2"/>
     </row>
     <row r="542" spans="1:5">
       <c r="C542" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D542" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>13</v>
@@ -7397,55 +7391,55 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E546" s="2"/>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E548" s="2"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E550" s="2"/>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>13</v>
@@ -7457,10 +7451,10 @@
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>7</v>
@@ -7472,491 +7466,491 @@
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="D556" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="E556" s="2"/>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C558" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="D558" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D558" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="E558" s="2"/>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D560" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="E560" s="2"/>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="E562" s="2"/>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D564" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="E564" s="2"/>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="E566" s="2"/>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="E568" s="2"/>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E570" s="2"/>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="D572" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="C572" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="E572" s="2"/>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C574" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="E574" s="2"/>
     </row>
     <row r="575" spans="1:5">
       <c r="C575" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D575" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="D577" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="E577" s="2"/>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E579" s="2"/>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E581" s="2"/>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E583" s="2"/>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E585" s="2"/>
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E587" s="2"/>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E589" s="2"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E591" s="2"/>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E593" s="2"/>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E595" s="2"/>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="D597" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="E597" s="2"/>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C599" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="E599" s="2"/>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E601" s="2"/>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="D603" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="E603" s="2"/>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="E605" s="2"/>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E607" s="2"/>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E609" s="2"/>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E611" s="2"/>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E613" s="2"/>
     </row>
     <row r="614" spans="1:5">
       <c r="C614" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D614" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E616" s="2"/>
     </row>
     <row r="618" spans="1:5">
       <c r="A618" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E618" s="2"/>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>13</v>
@@ -7968,117 +7962,117 @@
     </row>
     <row r="621" spans="1:5">
       <c r="C621" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D621" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="C622" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D622" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="C623" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D623" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E625" s="2"/>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C631" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="D631" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="C631" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D631" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="E631" s="2"/>
     </row>
     <row r="632" spans="1:5">
       <c r="C632" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D632" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E634" s="2"/>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>13</v>
@@ -8090,214 +8084,214 @@
     </row>
     <row r="637" spans="1:5">
       <c r="C637" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D637" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E639" s="2"/>
     </row>
     <row r="640" spans="1:5">
       <c r="C640" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D640" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E642" s="2"/>
     </row>
     <row r="644" spans="1:5">
       <c r="A644" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E644" s="2"/>
     </row>
     <row r="645" spans="1:5">
       <c r="C645" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D645" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C647" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="D647" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D647" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="E647" s="2"/>
     </row>
     <row r="649" spans="1:5">
       <c r="A649" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E649" s="2"/>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E651" s="2"/>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E653" s="2"/>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C655" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="D655" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="C655" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D655" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="E655" s="2"/>
     </row>
     <row r="657" spans="1:5">
       <c r="A657" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E657" s="2"/>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E659" s="2"/>
     </row>
     <row r="661" spans="1:5">
       <c r="A661" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E661" s="2"/>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C663" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="D663" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C663" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D663" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="E663" s="2"/>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>7</v>
@@ -8309,70 +8303,70 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E667" s="2"/>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E669" s="2"/>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E671" s="2"/>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E673" s="2"/>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>13</v>
@@ -8384,10 +8378,10 @@
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>7</v>
@@ -8399,40 +8393,40 @@
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E679" s="2"/>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E681" s="2"/>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>29</v>
@@ -8444,10 +8438,10 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>7</v>
@@ -8459,10 +8453,10 @@
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>7</v>
@@ -8474,10 +8468,10 @@
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>7</v>
@@ -8489,10 +8483,10 @@
     </row>
     <row r="691" spans="1:5">
       <c r="A691" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>7</v>
@@ -8504,10 +8498,10 @@
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>7</v>
@@ -8519,16 +8513,16 @@
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E695" s="2"/>
     </row>
@@ -8542,115 +8536,115 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E698" s="2"/>
     </row>
     <row r="700" spans="1:5">
       <c r="A700" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E700" s="2"/>
     </row>
     <row r="702" spans="1:5">
       <c r="A702" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E702" s="2"/>
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E704" s="2"/>
     </row>
     <row r="706" spans="1:5">
       <c r="A706" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E706" s="2"/>
     </row>
     <row r="708" spans="1:5">
       <c r="A708" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E708" s="2"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E710" s="2"/>
     </row>
     <row r="712" spans="1:5">
       <c r="A712" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>7</v>
@@ -8662,10 +8656,10 @@
     </row>
     <row r="714" spans="1:5">
       <c r="A714" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>7</v>
@@ -8677,10 +8671,10 @@
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>13</v>
@@ -8692,40 +8686,40 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E718" s="2"/>
     </row>
     <row r="720" spans="1:5">
       <c r="A720" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E720" s="2"/>
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>7</v>
@@ -8737,70 +8731,70 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E724" s="2"/>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E726" s="2"/>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E728" s="2"/>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E730" s="2"/>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>7</v>
@@ -8812,85 +8806,85 @@
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E734" s="2"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E740" s="2"/>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E742" s="2"/>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>7</v>
@@ -8902,772 +8896,772 @@
     </row>
     <row r="745" spans="1:5">
       <c r="C745" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D745" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E747" s="2"/>
     </row>
     <row r="749" spans="1:5">
       <c r="A749" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E749" s="2"/>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E751" s="2"/>
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E753" s="2"/>
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C755" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B755" s="2" t="s">
+      <c r="D755" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="C755" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D755" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="E755" s="2"/>
     </row>
     <row r="756" spans="1:5">
       <c r="C756" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D756" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C758" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="D758" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="C758" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D758" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="E758" s="2"/>
     </row>
     <row r="759" spans="1:5">
       <c r="C759" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D759" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C761" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B761" s="2" t="s">
+      <c r="D761" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D761" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="E761" s="2"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C763" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="D763" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="C763" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="E763" s="2"/>
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E765" s="2"/>
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C767" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="D767" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="C767" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D767" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="E767" s="2"/>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E769" s="2"/>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C771" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B771" s="2" t="s">
+      <c r="D771" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="C771" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D771" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="E771" s="2"/>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C773" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="D773" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="C773" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D773" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="E773" s="2"/>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C775" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="D775" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="C775" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="D775" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="E775" s="2"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E777" s="2"/>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C779" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="D779" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="C779" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="D779" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="E779" s="2"/>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C781" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B781" s="2" t="s">
+      <c r="D781" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="C781" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D781" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="E781" s="2"/>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C783" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B783" s="2" t="s">
+      <c r="D783" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="C783" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D783" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="E783" s="2"/>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E785" s="2"/>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C787" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="B787" s="2" t="s">
+      <c r="D787" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="C787" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D787" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="E787" s="2"/>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E789" s="2"/>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E791" s="2"/>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E793" s="2"/>
     </row>
     <row r="794" spans="1:5">
       <c r="C794" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D794" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C796" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B796" s="2" t="s">
+      <c r="D796" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="C796" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="D796" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="E796" s="2"/>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C798" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B798" s="2" t="s">
+      <c r="D798" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="C798" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D798" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="E798" s="2"/>
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E800" s="2"/>
     </row>
     <row r="802" spans="1:5">
       <c r="A802" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E802" s="2"/>
     </row>
     <row r="803" spans="1:5">
       <c r="C803" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D803" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E805" s="2"/>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E807" s="2"/>
     </row>
     <row r="808" spans="1:5">
       <c r="C808" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D808" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="810" spans="1:5">
       <c r="A810" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E810" s="2"/>
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E812" s="2"/>
     </row>
     <row r="814" spans="1:5">
       <c r="A814" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E814" s="2"/>
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E816" s="2"/>
     </row>
     <row r="818" spans="1:5">
       <c r="A818" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E818" s="2"/>
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C820" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="D820" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="C820" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="D820" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="E820" s="2"/>
     </row>
     <row r="821" spans="1:5">
       <c r="C821" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D821" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="823" spans="1:5">
       <c r="A823" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E823" s="2"/>
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E825" s="2"/>
     </row>
     <row r="827" spans="1:5">
       <c r="A827" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E827" s="2"/>
     </row>
     <row r="828" spans="1:5">
       <c r="C828" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D828" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="830" spans="1:5">
       <c r="A830" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E830" s="2"/>
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E832" s="2"/>
     </row>
     <row r="834" spans="1:5">
       <c r="A834" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E834" s="2"/>
     </row>
     <row r="835" spans="1:5">
       <c r="C835" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D835" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="837" spans="1:5">
       <c r="A837" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C837" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E837" s="2"/>
     </row>
     <row r="838" spans="1:5">
       <c r="C838" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D838" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="840" spans="1:5">
       <c r="A840" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E840" s="2"/>
     </row>
     <row r="841" spans="1:5">
       <c r="C841" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D841" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="843" spans="1:5">
       <c r="A843" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E843" s="2"/>
     </row>
     <row r="844" spans="1:5">
       <c r="C844" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D844" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="846" spans="1:5">
       <c r="A846" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E846" s="2"/>
     </row>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="959">
   <si>
     <t>Sigla</t>
   </si>
@@ -3241,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E846"/>
+  <dimension ref="A1:E847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5141,4529 +5141,4537 @@
         <v>336</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="C250" t="s">
         <v>337</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D250" t="s">
         <v>338</v>
       </c>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="2" t="s">
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D252" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="2" t="s">
+      <c r="E252" s="2"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B254" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="2" t="s">
+      <c r="E254" s="2"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="2" t="s">
+      <c r="E256" s="2"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D258" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="C258" t="s">
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="C259" t="s">
         <v>337</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="2" t="s">
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="C261" t="s">
-        <v>337</v>
-      </c>
-      <c r="D261" t="s">
-        <v>338</v>
-      </c>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5">
       <c r="C262" t="s">
+        <v>337</v>
+      </c>
+      <c r="D262" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="C263" t="s">
         <v>303</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="2" t="s">
+    <row r="265" spans="1:5">
+      <c r="A265" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D265" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="C265" t="s">
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="C266" t="s">
         <v>333</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="2" t="s">
+    <row r="268" spans="1:5">
+      <c r="A268" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="C268" t="s">
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="C269" t="s">
         <v>303</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="2" t="s">
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D271" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="2" t="s">
+      <c r="E271" s="2"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="2" t="s">
+      <c r="E273" s="2"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D275" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="C275" t="s">
-        <v>361</v>
-      </c>
-      <c r="D275" t="s">
-        <v>362</v>
-      </c>
+      <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5">
       <c r="C276" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="D276" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="C277" t="s">
+        <v>259</v>
+      </c>
+      <c r="D277" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="C278" t="s">
         <v>363</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D278" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="2" t="s">
+    <row r="280" spans="1:5">
+      <c r="A280" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B280" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D280" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="C280" t="s">
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="C281" t="s">
         <v>303</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="2" t="s">
+    <row r="283" spans="1:5">
+      <c r="A283" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B283" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D283" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="2" t="s">
+      <c r="E283" s="2"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C285" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D285" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="C285" t="s">
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" t="s">
         <v>259</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D286" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="2" t="s">
+    <row r="288" spans="1:5">
+      <c r="A288" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B288" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D288" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
-        <v>299</v>
-      </c>
-      <c r="D288" t="s">
-        <v>300</v>
-      </c>
+      <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5">
       <c r="C289" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D289" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="C290" t="s">
+        <v>285</v>
+      </c>
+      <c r="D290" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="C291" t="s">
         <v>255</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="2" t="s">
+    <row r="293" spans="1:5">
+      <c r="A293" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="C293" t="s">
-        <v>341</v>
-      </c>
-      <c r="D293" t="s">
-        <v>342</v>
-      </c>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5">
       <c r="C294" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D294" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="C295" t="s">
+        <v>337</v>
+      </c>
+      <c r="D295" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="C296" t="s">
         <v>259</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D296" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="2" t="s">
+    <row r="298" spans="1:5">
+      <c r="A298" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B298" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D298" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="C298" t="s">
-        <v>275</v>
-      </c>
-      <c r="D298" t="s">
-        <v>276</v>
-      </c>
+      <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5">
       <c r="C299" t="s">
+        <v>275</v>
+      </c>
+      <c r="D299" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="C300" t="s">
         <v>263</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="2" t="s">
+    <row r="302" spans="1:5">
+      <c r="A302" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B302" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C302" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D302" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="C302" t="s">
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="C303" t="s">
         <v>337</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D303" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="2" t="s">
+    <row r="305" spans="1:5">
+      <c r="A305" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B305" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="D305" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="2" t="s">
+      <c r="E305" s="2"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D307" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E306" s="2"/>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="2" t="s">
+      <c r="E307" s="2"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B309" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="2" t="s">
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C311" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D311" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E310" s="2"/>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="2" t="s">
+      <c r="E311" s="2"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B313" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C313" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D313" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="2" t="s">
+      <c r="E313" s="2"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B315" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C315" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D315" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="C315" t="s">
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="C316" t="s">
         <v>393</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D316" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
+    <row r="318" spans="1:5">
+      <c r="A318" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B318" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D317" s="2" t="s">
+      <c r="D318" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="C318" t="s">
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="C319" t="s">
         <v>333</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D319" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="2" t="s">
+    <row r="321" spans="1:5">
+      <c r="A321" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D321" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="C321" t="s">
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="C322" t="s">
         <v>399</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D322" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
+    <row r="324" spans="1:5">
+      <c r="A324" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D323" s="2" t="s">
+      <c r="D324" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="C324" t="s">
-        <v>259</v>
-      </c>
-      <c r="D324" t="s">
-        <v>260</v>
-      </c>
+      <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5">
       <c r="C325" t="s">
+        <v>259</v>
+      </c>
+      <c r="D325" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="C326" t="s">
         <v>363</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D326" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="2" t="s">
+    <row r="328" spans="1:5">
+      <c r="A328" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B328" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C328" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D328" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="2" t="s">
+      <c r="E328" s="2"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C330" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D330" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="C330" t="s">
-        <v>361</v>
-      </c>
-      <c r="D330" t="s">
-        <v>362</v>
-      </c>
+      <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5">
       <c r="C331" t="s">
+        <v>361</v>
+      </c>
+      <c r="D331" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="C332" t="s">
         <v>363</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D332" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="2" t="s">
+    <row r="334" spans="1:5">
+      <c r="A334" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B334" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C334" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D334" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="C334" t="s">
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="C335" t="s">
         <v>269</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D335" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
+    <row r="337" spans="1:5">
+      <c r="A337" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B337" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C337" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D337" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="C337" t="s">
-        <v>411</v>
-      </c>
-      <c r="D337" t="s">
-        <v>412</v>
-      </c>
+      <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5">
       <c r="C338" t="s">
+        <v>411</v>
+      </c>
+      <c r="D338" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="C339" t="s">
         <v>303</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D339" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="2" t="s">
+    <row r="341" spans="1:5">
+      <c r="A341" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B341" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C341" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D341" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="C341" t="s">
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="C342" t="s">
         <v>363</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D342" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="2" t="s">
+    <row r="344" spans="1:5">
+      <c r="A344" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C344" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D344" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="C344" t="s">
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="C345" t="s">
         <v>291</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="2" t="s">
+    <row r="347" spans="1:5">
+      <c r="A347" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D347" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="C347" t="s">
-        <v>361</v>
-      </c>
-      <c r="D347" t="s">
-        <v>362</v>
-      </c>
+      <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5">
       <c r="C348" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="D348" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="C349" t="s">
+        <v>259</v>
+      </c>
+      <c r="D349" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="C350" t="s">
         <v>363</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D350" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="2" t="s">
+    <row r="352" spans="1:5">
+      <c r="A352" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C352" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D352" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="C352" t="s">
-        <v>411</v>
-      </c>
-      <c r="D352" t="s">
-        <v>412</v>
-      </c>
+      <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5">
       <c r="C353" t="s">
+        <v>411</v>
+      </c>
+      <c r="D353" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="C354" t="s">
         <v>303</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D354" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="2" t="s">
+    <row r="356" spans="1:5">
+      <c r="A356" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B356" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C356" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D355" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="C356" t="s">
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="C357" t="s">
         <v>393</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D357" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="2" t="s">
+    <row r="359" spans="1:5">
+      <c r="A359" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B359" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="C359" t="s">
-        <v>411</v>
-      </c>
-      <c r="D359" t="s">
-        <v>412</v>
-      </c>
+      <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5">
       <c r="C360" t="s">
+        <v>411</v>
+      </c>
+      <c r="D360" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="C361" t="s">
         <v>303</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D361" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="2" t="s">
+    <row r="363" spans="1:5">
+      <c r="A363" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B363" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C363" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D363" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="C363" t="s">
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364" t="s">
         <v>303</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D364" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="2" t="s">
+    <row r="366" spans="1:5">
+      <c r="A366" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B366" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C366" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D366" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="C366" t="s">
-        <v>411</v>
-      </c>
-      <c r="D366" t="s">
-        <v>412</v>
-      </c>
+      <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5">
       <c r="C367" t="s">
+        <v>411</v>
+      </c>
+      <c r="D367" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="C368" t="s">
         <v>303</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D368" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="2" t="s">
+    <row r="370" spans="1:5">
+      <c r="A370" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B370" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C370" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E369" s="2"/>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="C370" t="s">
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="C371" t="s">
         <v>303</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D371" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:5">
+      <c r="A373" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B373" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C373" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D373" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2" t="s">
+      <c r="E373" s="2"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B375" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C375" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D375" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E374" s="2"/>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="2" t="s">
+      <c r="E375" s="2"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B377" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C377" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D377" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E376" s="2"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="2" t="s">
+      <c r="E377" s="2"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B379" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C379" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D379" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E378" s="2"/>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="C379" t="s">
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="C380" t="s">
         <v>399</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D380" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="2" t="s">
+    <row r="382" spans="1:5">
+      <c r="A382" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B382" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C382" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D382" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="C382" t="s">
-        <v>285</v>
-      </c>
-      <c r="D382" t="s">
-        <v>286</v>
-      </c>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5">
       <c r="C383" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="D383" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="C384" t="s">
+        <v>393</v>
+      </c>
+      <c r="D384" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="C385" t="s">
         <v>319</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D385" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="2" t="s">
+    <row r="387" spans="1:5">
+      <c r="A387" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B387" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C387" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E386" s="2"/>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="2" t="s">
+      <c r="E387" s="2"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B389" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C389" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D388" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E388" s="2"/>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="2" t="s">
+      <c r="E389" s="2"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B391" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C391" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="2" t="s">
+      <c r="E391" s="2"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B393" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C393" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D393" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E392" s="2"/>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="2" t="s">
+      <c r="E393" s="2"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B395" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C395" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D394" s="2" t="s">
+      <c r="D395" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E394" s="2"/>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="2" t="s">
+      <c r="E395" s="2"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B397" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C397" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D396" s="2" t="s">
+      <c r="D397" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E396" s="2"/>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="A398" s="2" t="s">
+      <c r="E397" s="2"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B399" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C399" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D399" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E398" s="2"/>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="2" t="s">
+      <c r="E399" s="2"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B401" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C401" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D400" s="2" t="s">
+      <c r="D401" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E400" s="2"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="2" t="s">
+      <c r="E401" s="2"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B403" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="C403" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D402" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="C403" t="s">
-        <v>285</v>
-      </c>
-      <c r="D403" t="s">
-        <v>286</v>
-      </c>
+      <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5">
       <c r="C404" t="s">
+        <v>285</v>
+      </c>
+      <c r="D404" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="C405" t="s">
         <v>393</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D405" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="2" t="s">
+    <row r="407" spans="1:5">
+      <c r="A407" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B407" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C406" s="2" t="s">
+      <c r="C407" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D406" s="2" t="s">
+      <c r="D407" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="2" t="s">
+      <c r="E407" s="2"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C409" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D409" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E408" s="2"/>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
+      <c r="E409" s="2"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B411" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C411" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D410" s="2" t="s">
+      <c r="D411" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E410" s="2"/>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
+      <c r="E411" s="2"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B413" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D413" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E412" s="2"/>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
+      <c r="E413" s="2"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D414" s="2" t="s">
+      <c r="D415" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E414" s="2"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="2" t="s">
+      <c r="E415" s="2"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C417" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D416" s="2" t="s">
+      <c r="D417" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E416" s="2"/>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="C417" t="s">
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="C418" t="s">
         <v>391</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D418" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="2" t="s">
+    <row r="420" spans="1:5">
+      <c r="A420" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B420" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C420" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D419" s="2" t="s">
+      <c r="D420" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E419" s="2"/>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="2" t="s">
+      <c r="E420" s="2"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C422" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D421" s="2" t="s">
+      <c r="D422" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E421" s="2"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="2" t="s">
+      <c r="E422" s="2"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B424" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C424" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D423" s="2" t="s">
+      <c r="D424" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E423" s="2"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="2" t="s">
+      <c r="E424" s="2"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B426" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C426" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D425" s="2" t="s">
+      <c r="D426" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E425" s="2"/>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="C426" t="s">
-        <v>482</v>
-      </c>
-      <c r="D426" t="s">
-        <v>483</v>
-      </c>
+      <c r="E426" s="2"/>
     </row>
     <row r="427" spans="1:5">
       <c r="C427" t="s">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="D427" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="C428" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D428" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="C429" t="s">
+        <v>291</v>
+      </c>
+      <c r="D429" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="C430" t="s">
         <v>393</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D430" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="2" t="s">
+    <row r="432" spans="1:5">
+      <c r="A432" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B432" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="C432" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D431" s="2" t="s">
+      <c r="D432" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E431" s="2"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="C432" t="s">
-        <v>291</v>
-      </c>
-      <c r="D432" t="s">
-        <v>292</v>
-      </c>
+      <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
       <c r="C433" t="s">
+        <v>291</v>
+      </c>
+      <c r="D433" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="C434" t="s">
         <v>363</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D434" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="2" t="s">
+    <row r="436" spans="1:5">
+      <c r="A436" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B436" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C436" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D435" s="2" t="s">
+      <c r="D436" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E435" s="2"/>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="2" t="s">
+      <c r="E436" s="2"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B438" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="C438" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D437" s="2" t="s">
+      <c r="D438" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E437" s="2"/>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="C438" t="s">
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="C439" t="s">
         <v>319</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D439" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="2" t="s">
+    <row r="441" spans="1:5">
+      <c r="A441" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="C441" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D441" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E440" s="2"/>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" s="2" t="s">
+      <c r="E441" s="2"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="C443" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E442" s="2"/>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" s="2" t="s">
+      <c r="E443" s="2"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B445" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="C445" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D444" s="2" t="s">
+      <c r="D445" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E444" s="2"/>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="2" t="s">
+      <c r="E445" s="2"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B447" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="C447" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E446" s="2"/>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="A448" s="2" t="s">
+      <c r="E447" s="2"/>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="C449" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="D449" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E448" s="2"/>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="C449" t="s">
-        <v>393</v>
-      </c>
-      <c r="D449" t="s">
-        <v>394</v>
-      </c>
+      <c r="E449" s="2"/>
     </row>
     <row r="450" spans="1:5">
       <c r="C450" t="s">
+        <v>393</v>
+      </c>
+      <c r="D450" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="C451" t="s">
         <v>319</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D451" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
-      <c r="A452" s="2" t="s">
+    <row r="453" spans="1:5">
+      <c r="A453" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B453" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="C453" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="D453" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E452" s="2"/>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454" s="2" t="s">
+      <c r="E453" s="2"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B455" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="C455" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D454" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E454" s="2"/>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="C455" t="s">
+      <c r="E455" s="2"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="C456" t="s">
         <v>399</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D456" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
-      <c r="A457" s="2" t="s">
+    <row r="458" spans="1:5">
+      <c r="A458" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B458" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="C458" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D457" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E457" s="2"/>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="2" t="s">
+      <c r="E458" s="2"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B460" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="C460" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D459" s="2" t="s">
+      <c r="D460" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E459" s="2"/>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="A461" s="2" t="s">
+      <c r="E460" s="2"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B462" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="C462" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D461" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E461" s="2"/>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="A463" s="2" t="s">
+      <c r="E462" s="2"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B464" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="C464" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D463" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E463" s="2"/>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="C464" t="s">
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="C465" t="s">
         <v>341</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D465" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="2" t="s">
+    <row r="467" spans="1:5">
+      <c r="A467" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B467" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="C467" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D466" s="2" t="s">
+      <c r="D467" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E466" s="2"/>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" s="2" t="s">
+      <c r="E467" s="2"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B469" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="C469" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D468" s="2" t="s">
+      <c r="D469" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E468" s="2"/>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="A470" s="2" t="s">
+      <c r="E469" s="2"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B471" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C470" s="2" t="s">
+      <c r="C471" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D470" s="2" t="s">
+      <c r="D471" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E470" s="2"/>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="C471" t="s">
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="C472" t="s">
         <v>391</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D472" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="2" t="s">
+    <row r="474" spans="1:5">
+      <c r="A474" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B474" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C473" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="D474" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="C474" t="s">
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="C475" t="s">
         <v>319</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D475" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="2" t="s">
+    <row r="477" spans="1:5">
+      <c r="A477" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B477" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C476" s="2" t="s">
+      <c r="C477" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D476" s="2" t="s">
+      <c r="D477" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E476" s="2"/>
-    </row>
-    <row r="478" spans="1:5">
-      <c r="A478" s="2" t="s">
+      <c r="E477" s="2"/>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B479" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="C479" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D478" s="2" t="s">
+      <c r="D479" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E478" s="2"/>
-    </row>
-    <row r="480" spans="1:5">
-      <c r="A480" s="2" t="s">
+      <c r="E479" s="2"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B481" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C480" s="2" t="s">
+      <c r="C481" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D480" s="2" t="s">
+      <c r="D481" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E480" s="2"/>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" s="2" t="s">
+      <c r="E481" s="2"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B483" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C482" s="2" t="s">
+      <c r="C483" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="D483" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E482" s="2"/>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" s="2" t="s">
+      <c r="E483" s="2"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B485" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C484" s="2" t="s">
+      <c r="C485" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D484" s="2" t="s">
+      <c r="D485" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E484" s="2"/>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="A486" s="2" t="s">
+      <c r="E485" s="2"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B487" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="C487" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E486" s="2"/>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="A488" s="2" t="s">
+      <c r="E487" s="2"/>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B489" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C488" s="2" t="s">
+      <c r="C489" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D488" s="2" t="s">
+      <c r="D489" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E488" s="2"/>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="C489" t="s">
-        <v>285</v>
-      </c>
-      <c r="D489" t="s">
-        <v>286</v>
-      </c>
+      <c r="E489" s="2"/>
     </row>
     <row r="490" spans="1:5">
       <c r="C490" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="D490" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="C491" t="s">
+        <v>393</v>
+      </c>
+      <c r="D491" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="C492" t="s">
         <v>319</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D492" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="2" t="s">
+    <row r="494" spans="1:5">
+      <c r="A494" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B494" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C493" s="2" t="s">
+      <c r="C494" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D493" s="2" t="s">
+      <c r="D494" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E493" s="2"/>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="A495" s="2" t="s">
+      <c r="E494" s="2"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B496" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497" s="2" t="s">
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B498" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C497" s="2" t="s">
+      <c r="C498" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="D498" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E497" s="2"/>
-    </row>
-    <row r="499" spans="1:5">
-      <c r="A499" s="2" t="s">
+      <c r="E498" s="2"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B500" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C499" s="2" t="s">
+      <c r="C500" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D499" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E499" s="2"/>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="C500" t="s">
-        <v>85</v>
-      </c>
-      <c r="D500" t="s">
-        <v>86</v>
-      </c>
+      <c r="E500" s="2"/>
     </row>
     <row r="501" spans="1:5">
       <c r="C501" t="s">
-        <v>363</v>
+        <v>85</v>
       </c>
       <c r="D501" t="s">
-        <v>364</v>
+        <v>86</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="C502" t="s">
+        <v>363</v>
+      </c>
+      <c r="D502" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="C503" t="s">
         <v>542</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D503" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
-      <c r="A504" s="2" t="s">
+    <row r="505" spans="1:5">
+      <c r="A505" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B505" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C504" s="2" t="s">
+      <c r="C505" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D504" s="2" t="s">
+      <c r="D505" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E504" s="2"/>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" s="2" t="s">
+      <c r="E505" s="2"/>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B507" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C506" s="2" t="s">
+      <c r="C507" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="D507" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E506" s="2"/>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="C507" t="s">
-        <v>472</v>
-      </c>
-      <c r="D507" t="s">
-        <v>473</v>
-      </c>
+      <c r="E507" s="2"/>
     </row>
     <row r="508" spans="1:5">
       <c r="C508" t="s">
+        <v>472</v>
+      </c>
+      <c r="D508" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="C509" t="s">
         <v>333</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D509" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
-      <c r="A510" s="2" t="s">
+    <row r="511" spans="1:5">
+      <c r="A511" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B511" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C510" s="2" t="s">
+      <c r="C511" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="D511" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="C511" t="s">
+      <c r="E511" s="2"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="C512" t="s">
         <v>291</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D512" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="2" t="s">
+    <row r="514" spans="1:5">
+      <c r="A514" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B514" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C514" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="2" t="s">
+      <c r="E514" s="2"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B516" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C515" s="2" t="s">
+      <c r="C516" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E515" s="2"/>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="2" t="s">
+      <c r="E516" s="2"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B518" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C517" s="2" t="s">
+      <c r="C518" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E517" s="2"/>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="A519" s="2" t="s">
+      <c r="E518" s="2"/>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B520" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C519" s="2" t="s">
+      <c r="C520" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="D520" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E519" s="2"/>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="2" t="s">
+      <c r="E520" s="2"/>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B522" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C521" s="2" t="s">
+      <c r="C522" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="D522" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E521" s="2"/>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="2" t="s">
+      <c r="E522" s="2"/>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B524" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C523" s="2" t="s">
+      <c r="C524" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="D524" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E523" s="2"/>
-    </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="2" t="s">
+      <c r="E524" s="2"/>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C525" s="2" t="s">
+      <c r="C526" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E525" s="2"/>
-    </row>
-    <row r="527" spans="1:5">
-      <c r="A527" s="2" t="s">
+      <c r="E526" s="2"/>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B528" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C527" s="2" t="s">
+      <c r="C528" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D527" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E527" s="2"/>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="2" t="s">
+      <c r="E528" s="2"/>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B530" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C529" s="2" t="s">
+      <c r="C530" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E529" s="2"/>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="A531" s="2" t="s">
+      <c r="E530" s="2"/>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B532" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="C532" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E531" s="2"/>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="A533" s="2" t="s">
+      <c r="E532" s="2"/>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B534" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="C534" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="D534" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E533" s="2"/>
-    </row>
-    <row r="535" spans="1:5">
-      <c r="A535" s="2" t="s">
+      <c r="E534" s="2"/>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B536" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C535" s="2" t="s">
+      <c r="C536" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E535" s="2"/>
-    </row>
-    <row r="537" spans="1:5">
-      <c r="A537" s="2" t="s">
+      <c r="E536" s="2"/>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B538" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="C538" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D537" s="2" t="s">
+      <c r="D538" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E537" s="2"/>
-    </row>
-    <row r="539" spans="1:5">
-      <c r="A539" s="2" t="s">
+      <c r="E538" s="2"/>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B540" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="C540" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E539" s="2"/>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="A541" s="2" t="s">
+      <c r="E540" s="2"/>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B542" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="C542" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D541" s="2" t="s">
+      <c r="D542" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E541" s="2"/>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="C542" t="s">
+      <c r="E542" s="2"/>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="C543" t="s">
         <v>588</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D543" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
-      <c r="A544" s="2" t="s">
+    <row r="545" spans="1:5">
+      <c r="A545" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B545" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="C545" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D544" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E544" s="2"/>
-    </row>
-    <row r="546" spans="1:5">
-      <c r="A546" s="2" t="s">
+      <c r="E545" s="2"/>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B547" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="C547" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D546" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E546" s="2"/>
-    </row>
-    <row r="548" spans="1:5">
-      <c r="A548" s="2" t="s">
+      <c r="E547" s="2"/>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B549" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="C549" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="D549" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E548" s="2"/>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="A550" s="2" t="s">
+      <c r="E549" s="2"/>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B551" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C550" s="2" t="s">
+      <c r="C551" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D550" s="2" t="s">
+      <c r="D551" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E550" s="2"/>
-    </row>
-    <row r="552" spans="1:5">
-      <c r="A552" s="2" t="s">
+      <c r="E551" s="2"/>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B553" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C552" s="2" t="s">
+      <c r="C553" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D552" s="2" t="s">
+      <c r="D553" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E552" s="2"/>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="A554" s="2" t="s">
+      <c r="E553" s="2"/>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B555" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C554" s="2" t="s">
+      <c r="C555" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D554" s="2" t="s">
+      <c r="D555" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E554" s="2"/>
-    </row>
-    <row r="556" spans="1:5">
-      <c r="A556" s="2" t="s">
+      <c r="E555" s="2"/>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B557" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C556" s="2" t="s">
+      <c r="C557" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D556" s="2" t="s">
+      <c r="D557" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E556" s="2"/>
-    </row>
-    <row r="558" spans="1:5">
-      <c r="A558" s="2" t="s">
+      <c r="E557" s="2"/>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B559" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C558" s="2" t="s">
+      <c r="C559" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D558" s="2" t="s">
+      <c r="D559" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E558" s="2"/>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="A560" s="2" t="s">
+      <c r="E559" s="2"/>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B561" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="C561" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D560" s="2" t="s">
+      <c r="D561" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E560" s="2"/>
-    </row>
-    <row r="562" spans="1:5">
-      <c r="A562" s="2" t="s">
+      <c r="E561" s="2"/>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B563" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C562" s="2" t="s">
+      <c r="C563" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D562" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E562" s="2"/>
-    </row>
-    <row r="564" spans="1:5">
-      <c r="A564" s="2" t="s">
+      <c r="E563" s="2"/>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B565" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="C565" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D564" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E564" s="2"/>
-    </row>
-    <row r="566" spans="1:5">
-      <c r="A566" s="2" t="s">
+      <c r="E565" s="2"/>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B567" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="C567" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D566" s="2" t="s">
+      <c r="D567" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E566" s="2"/>
-    </row>
-    <row r="568" spans="1:5">
-      <c r="A568" s="2" t="s">
+      <c r="E567" s="2"/>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B569" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="C569" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D568" s="2" t="s">
+      <c r="D569" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E568" s="2"/>
-    </row>
-    <row r="570" spans="1:5">
-      <c r="A570" s="2" t="s">
+      <c r="E569" s="2"/>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B571" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C570" s="2" t="s">
+      <c r="C571" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D570" s="2" t="s">
+      <c r="D571" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E570" s="2"/>
-    </row>
-    <row r="572" spans="1:5">
-      <c r="A572" s="2" t="s">
+      <c r="E571" s="2"/>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B573" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="C573" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D572" s="2" t="s">
+      <c r="D573" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E572" s="2"/>
-    </row>
-    <row r="574" spans="1:5">
-      <c r="A574" s="2" t="s">
+      <c r="E573" s="2"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B575" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="C575" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D574" s="2" t="s">
+      <c r="D575" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E574" s="2"/>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="C575" t="s">
+      <c r="E575" s="2"/>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="C576" t="s">
         <v>633</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D576" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
-      <c r="A577" s="2" t="s">
+    <row r="578" spans="1:5">
+      <c r="A578" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B578" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C577" s="2" t="s">
+      <c r="C578" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D577" s="2" t="s">
+      <c r="D578" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E577" s="2"/>
-    </row>
-    <row r="579" spans="1:5">
-      <c r="A579" s="2" t="s">
+      <c r="E578" s="2"/>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B580" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C579" s="2" t="s">
+      <c r="C580" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D579" s="2" t="s">
+      <c r="D580" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E579" s="2"/>
-    </row>
-    <row r="581" spans="1:5">
-      <c r="A581" s="2" t="s">
+      <c r="E580" s="2"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B582" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C581" s="2" t="s">
+      <c r="C582" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D581" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E581" s="2"/>
-    </row>
-    <row r="583" spans="1:5">
-      <c r="A583" s="2" t="s">
+      <c r="E582" s="2"/>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B584" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="C584" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D583" s="2" t="s">
+      <c r="D584" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E583" s="2"/>
-    </row>
-    <row r="585" spans="1:5">
-      <c r="A585" s="2" t="s">
+      <c r="E584" s="2"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B586" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C585" s="2" t="s">
+      <c r="C586" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D585" s="2" t="s">
+      <c r="D586" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E585" s="2"/>
-    </row>
-    <row r="587" spans="1:5">
-      <c r="A587" s="2" t="s">
+      <c r="E586" s="2"/>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="B588" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="C588" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D587" s="2" t="s">
+      <c r="D588" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E587" s="2"/>
-    </row>
-    <row r="589" spans="1:5">
-      <c r="A589" s="2" t="s">
+      <c r="E588" s="2"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B590" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C589" s="2" t="s">
+      <c r="C590" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D589" s="2" t="s">
+      <c r="D590" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E589" s="2"/>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="A591" s="2" t="s">
+      <c r="E590" s="2"/>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B591" s="2" t="s">
+      <c r="B592" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C591" s="2" t="s">
+      <c r="C592" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D591" s="2" t="s">
+      <c r="D592" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E591" s="2"/>
-    </row>
-    <row r="593" spans="1:5">
-      <c r="A593" s="2" t="s">
+      <c r="E592" s="2"/>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B594" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="C594" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D593" s="2" t="s">
+      <c r="D594" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E593" s="2"/>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="A595" s="2" t="s">
+      <c r="E594" s="2"/>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B596" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="C596" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D595" s="2" t="s">
+      <c r="D596" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E595" s="2"/>
-    </row>
-    <row r="597" spans="1:5">
-      <c r="A597" s="2" t="s">
+      <c r="E596" s="2"/>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B598" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="C598" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D597" s="2" t="s">
+      <c r="D598" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E597" s="2"/>
-    </row>
-    <row r="599" spans="1:5">
-      <c r="A599" s="2" t="s">
+      <c r="E598" s="2"/>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="B600" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="C600" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D599" s="2" t="s">
+      <c r="D600" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E599" s="2"/>
-    </row>
-    <row r="601" spans="1:5">
-      <c r="A601" s="2" t="s">
+      <c r="E600" s="2"/>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B602" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="C602" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D601" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="603" spans="1:5">
-      <c r="A603" s="2" t="s">
+      <c r="E602" s="2"/>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="B604" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="C604" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D603" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="605" spans="1:5">
-      <c r="A605" s="2" t="s">
+      <c r="E604" s="2"/>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B606" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="C606" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D605" s="2" t="s">
+      <c r="D606" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="607" spans="1:5">
-      <c r="A607" s="2" t="s">
+      <c r="E606" s="2"/>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B608" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="C608" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D607" s="2" t="s">
+      <c r="D608" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E607" s="2"/>
-    </row>
-    <row r="609" spans="1:5">
-      <c r="A609" s="2" t="s">
+      <c r="E608" s="2"/>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B609" s="2" t="s">
+      <c r="B610" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C609" s="2" t="s">
+      <c r="C610" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D609" s="2" t="s">
+      <c r="D610" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E609" s="2"/>
-    </row>
-    <row r="611" spans="1:5">
-      <c r="A611" s="2" t="s">
+      <c r="E610" s="2"/>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B612" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C611" s="2" t="s">
+      <c r="C612" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D611" s="2" t="s">
+      <c r="D612" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E611" s="2"/>
-    </row>
-    <row r="613" spans="1:5">
-      <c r="A613" s="2" t="s">
+      <c r="E612" s="2"/>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B614" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C613" s="2" t="s">
+      <c r="C614" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D613" s="2" t="s">
+      <c r="D614" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E613" s="2"/>
-    </row>
-    <row r="614" spans="1:5">
-      <c r="C614" t="s">
+      <c r="E614" s="2"/>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="C615" t="s">
         <v>633</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D615" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
-      <c r="A616" s="2" t="s">
+    <row r="617" spans="1:5">
+      <c r="A617" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B616" s="2" t="s">
+      <c r="B617" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C616" s="2" t="s">
+      <c r="C617" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D616" s="2" t="s">
+      <c r="D617" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E616" s="2"/>
-    </row>
-    <row r="618" spans="1:5">
-      <c r="A618" s="2" t="s">
+      <c r="E617" s="2"/>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B619" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C618" s="2" t="s">
+      <c r="C619" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D618" s="2" t="s">
+      <c r="D619" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E618" s="2"/>
-    </row>
-    <row r="620" spans="1:5">
-      <c r="A620" s="2" t="s">
+      <c r="E619" s="2"/>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B620" s="2" t="s">
+      <c r="B621" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C620" s="2" t="s">
+      <c r="C621" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D620" s="2" t="s">
+      <c r="D621" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E620" s="2"/>
-    </row>
-    <row r="621" spans="1:5">
-      <c r="C621" t="s">
-        <v>617</v>
-      </c>
-      <c r="D621" t="s">
-        <v>618</v>
-      </c>
+      <c r="E621" s="2"/>
     </row>
     <row r="622" spans="1:5">
       <c r="C622" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
       <c r="D622" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="C623" t="s">
+        <v>691</v>
+      </c>
+      <c r="D623" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="C624" t="s">
         <v>578</v>
       </c>
-      <c r="D623" t="s">
+      <c r="D624" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
-      <c r="A625" s="2" t="s">
+    <row r="626" spans="1:5">
+      <c r="A626" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B626" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C625" s="2" t="s">
+      <c r="C626" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D625" s="2" t="s">
+      <c r="D626" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E625" s="2"/>
-    </row>
-    <row r="627" spans="1:5">
-      <c r="A627" s="2" t="s">
+      <c r="E626" s="2"/>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B627" s="2" t="s">
+      <c r="B628" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C627" s="2" t="s">
+      <c r="C628" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D627" s="2" t="s">
+      <c r="D628" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E627" s="2"/>
-    </row>
-    <row r="629" spans="1:5">
-      <c r="A629" s="2" t="s">
+      <c r="E628" s="2"/>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B630" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C629" s="2" t="s">
+      <c r="C630" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D629" s="2" t="s">
+      <c r="D630" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E629" s="2"/>
-    </row>
-    <row r="631" spans="1:5">
-      <c r="A631" s="2" t="s">
+      <c r="E630" s="2"/>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B632" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C631" s="2" t="s">
+      <c r="C632" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D631" s="2" t="s">
+      <c r="D632" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E631" s="2"/>
-    </row>
-    <row r="632" spans="1:5">
-      <c r="C632" t="s">
+      <c r="E632" s="2"/>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="C633" t="s">
         <v>717</v>
       </c>
-      <c r="D632" t="s">
+      <c r="D633" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
-      <c r="A634" s="2" t="s">
+    <row r="635" spans="1:5">
+      <c r="A635" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B634" s="2" t="s">
+      <c r="B635" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C634" s="2" t="s">
+      <c r="C635" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D634" s="2" t="s">
+      <c r="D635" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E634" s="2"/>
-    </row>
-    <row r="636" spans="1:5">
-      <c r="A636" s="2" t="s">
+      <c r="E635" s="2"/>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B637" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C636" s="2" t="s">
+      <c r="C637" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D636" s="2" t="s">
+      <c r="D637" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E636" s="2"/>
-    </row>
-    <row r="637" spans="1:5">
-      <c r="C637" t="s">
+      <c r="E637" s="2"/>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="C638" t="s">
         <v>723</v>
       </c>
-      <c r="D637" t="s">
+      <c r="D638" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
-      <c r="A639" s="2" t="s">
+    <row r="640" spans="1:5">
+      <c r="A640" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B640" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C639" s="2" t="s">
+      <c r="C640" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D639" s="2" t="s">
+      <c r="D640" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E639" s="2"/>
-    </row>
-    <row r="640" spans="1:5">
-      <c r="C640" t="s">
+      <c r="E640" s="2"/>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="C641" t="s">
         <v>723</v>
       </c>
-      <c r="D640" t="s">
+      <c r="D641" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
-      <c r="A642" s="2" t="s">
+    <row r="643" spans="1:5">
+      <c r="A643" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B643" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C642" s="2" t="s">
+      <c r="C643" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D642" s="2" t="s">
+      <c r="D643" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E642" s="2"/>
-    </row>
-    <row r="644" spans="1:5">
-      <c r="A644" s="2" t="s">
+      <c r="E643" s="2"/>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B645" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C644" s="2" t="s">
+      <c r="C645" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D644" s="2" t="s">
+      <c r="D645" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E644" s="2"/>
-    </row>
-    <row r="645" spans="1:5">
-      <c r="C645" t="s">
+      <c r="E645" s="2"/>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="C646" t="s">
         <v>717</v>
       </c>
-      <c r="D645" t="s">
+      <c r="D646" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
-      <c r="A647" s="2" t="s">
+    <row r="648" spans="1:5">
+      <c r="A648" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B648" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C647" s="2" t="s">
+      <c r="C648" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D647" s="2" t="s">
+      <c r="D648" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E647" s="2"/>
-    </row>
-    <row r="649" spans="1:5">
-      <c r="A649" s="2" t="s">
+      <c r="E648" s="2"/>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B649" s="2" t="s">
+      <c r="B650" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C649" s="2" t="s">
+      <c r="C650" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D649" s="2" t="s">
+      <c r="D650" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E649" s="2"/>
-    </row>
-    <row r="651" spans="1:5">
-      <c r="A651" s="2" t="s">
+      <c r="E650" s="2"/>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B651" s="2" t="s">
+      <c r="B652" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C651" s="2" t="s">
+      <c r="C652" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D651" s="2" t="s">
+      <c r="D652" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E651" s="2"/>
-    </row>
-    <row r="653" spans="1:5">
-      <c r="A653" s="2" t="s">
+      <c r="E652" s="2"/>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B653" s="2" t="s">
+      <c r="B654" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C653" s="2" t="s">
+      <c r="C654" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D653" s="2" t="s">
+      <c r="D654" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E653" s="2"/>
-    </row>
-    <row r="655" spans="1:5">
-      <c r="A655" s="2" t="s">
+      <c r="E654" s="2"/>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B656" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C655" s="2" t="s">
+      <c r="C656" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D655" s="2" t="s">
+      <c r="D656" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E655" s="2"/>
-    </row>
-    <row r="657" spans="1:5">
-      <c r="A657" s="2" t="s">
+      <c r="E656" s="2"/>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B657" s="2" t="s">
+      <c r="B658" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C657" s="2" t="s">
+      <c r="C658" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D657" s="2" t="s">
+      <c r="D658" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E657" s="2"/>
-    </row>
-    <row r="659" spans="1:5">
-      <c r="A659" s="2" t="s">
+      <c r="E658" s="2"/>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B659" s="2" t="s">
+      <c r="B660" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C659" s="2" t="s">
+      <c r="C660" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D659" s="2" t="s">
+      <c r="D660" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E659" s="2"/>
-    </row>
-    <row r="661" spans="1:5">
-      <c r="A661" s="2" t="s">
+      <c r="E660" s="2"/>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B662" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C661" s="2" t="s">
+      <c r="C662" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D661" s="2" t="s">
+      <c r="D662" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E661" s="2"/>
-    </row>
-    <row r="663" spans="1:5">
-      <c r="A663" s="2" t="s">
+      <c r="E662" s="2"/>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B664" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C663" s="2" t="s">
+      <c r="C664" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D663" s="2" t="s">
+      <c r="D664" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E663" s="2"/>
-    </row>
-    <row r="665" spans="1:5">
-      <c r="A665" s="2" t="s">
+      <c r="E664" s="2"/>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B666" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C665" s="2" t="s">
+      <c r="C666" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D665" s="2" t="s">
+      <c r="D666" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E665" s="2"/>
-    </row>
-    <row r="667" spans="1:5">
-      <c r="A667" s="2" t="s">
+      <c r="E666" s="2"/>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B667" s="2" t="s">
+      <c r="B668" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C667" s="2" t="s">
+      <c r="C668" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D667" s="2" t="s">
+      <c r="D668" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E667" s="2"/>
-    </row>
-    <row r="669" spans="1:5">
-      <c r="A669" s="2" t="s">
+      <c r="E668" s="2"/>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B670" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C669" s="2" t="s">
+      <c r="C670" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D669" s="2" t="s">
+      <c r="D670" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E669" s="2"/>
-    </row>
-    <row r="671" spans="1:5">
-      <c r="A671" s="2" t="s">
+      <c r="E670" s="2"/>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B672" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C671" s="2" t="s">
+      <c r="C672" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D671" s="2" t="s">
+      <c r="D672" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E671" s="2"/>
-    </row>
-    <row r="673" spans="1:5">
-      <c r="A673" s="2" t="s">
+      <c r="E672" s="2"/>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="B674" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C673" s="2" t="s">
+      <c r="C674" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D673" s="2" t="s">
+      <c r="D674" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E673" s="2"/>
-    </row>
-    <row r="675" spans="1:5">
-      <c r="A675" s="2" t="s">
+      <c r="E674" s="2"/>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B676" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C675" s="2" t="s">
+      <c r="C676" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D675" s="2" t="s">
+      <c r="D676" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E675" s="2"/>
-    </row>
-    <row r="677" spans="1:5">
-      <c r="A677" s="2" t="s">
+      <c r="E676" s="2"/>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="B678" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C677" s="2" t="s">
+      <c r="C678" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D677" s="2" t="s">
+      <c r="D678" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E677" s="2"/>
-    </row>
-    <row r="679" spans="1:5">
-      <c r="A679" s="2" t="s">
+      <c r="E678" s="2"/>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="B680" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C679" s="2" t="s">
+      <c r="C680" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D679" s="2" t="s">
+      <c r="D680" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E679" s="2"/>
-    </row>
-    <row r="681" spans="1:5">
-      <c r="A681" s="2" t="s">
+      <c r="E680" s="2"/>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B682" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C681" s="2" t="s">
+      <c r="C682" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D681" s="2" t="s">
+      <c r="D682" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E681" s="2"/>
-    </row>
-    <row r="683" spans="1:5">
-      <c r="A683" s="2" t="s">
+      <c r="E682" s="2"/>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B684" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C683" s="2" t="s">
+      <c r="C684" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D683" s="2" t="s">
+      <c r="D684" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E683" s="2"/>
-    </row>
-    <row r="685" spans="1:5">
-      <c r="A685" s="2" t="s">
+      <c r="E684" s="2"/>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B686" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C685" s="2" t="s">
+      <c r="C686" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D685" s="2" t="s">
+      <c r="D686" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E685" s="2"/>
-    </row>
-    <row r="687" spans="1:5">
-      <c r="A687" s="2" t="s">
+      <c r="E686" s="2"/>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B688" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C687" s="2" t="s">
+      <c r="C688" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D687" s="2" t="s">
+      <c r="D688" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E687" s="2"/>
-    </row>
-    <row r="689" spans="1:5">
-      <c r="A689" s="2" t="s">
+      <c r="E688" s="2"/>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B690" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C689" s="2" t="s">
+      <c r="C690" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D689" s="2" t="s">
+      <c r="D690" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E689" s="2"/>
-    </row>
-    <row r="691" spans="1:5">
-      <c r="A691" s="2" t="s">
+      <c r="E690" s="2"/>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B692" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C691" s="2" t="s">
+      <c r="C692" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D691" s="2" t="s">
+      <c r="D692" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E691" s="2"/>
-    </row>
-    <row r="693" spans="1:5">
-      <c r="A693" s="2" t="s">
+      <c r="E692" s="2"/>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B694" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C693" s="2" t="s">
+      <c r="C694" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D693" s="2" t="s">
+      <c r="D694" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E693" s="2"/>
-    </row>
-    <row r="695" spans="1:5">
-      <c r="A695" s="2" t="s">
+      <c r="E694" s="2"/>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B695" s="2" t="s">
+      <c r="B696" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C695" s="2" t="s">
+      <c r="C696" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D695" s="2" t="s">
+      <c r="D696" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E695" s="2"/>
-    </row>
-    <row r="696" spans="1:5">
-      <c r="C696" t="s">
+      <c r="E696" s="2"/>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="C697" t="s">
         <v>7</v>
       </c>
-      <c r="D696" t="s">
+      <c r="D697" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
-      <c r="A698" s="2" t="s">
+    <row r="699" spans="1:5">
+      <c r="A699" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B699" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C698" s="2" t="s">
+      <c r="C699" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D698" s="2" t="s">
+      <c r="D699" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E698" s="2"/>
-    </row>
-    <row r="700" spans="1:5">
-      <c r="A700" s="2" t="s">
+      <c r="E699" s="2"/>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B701" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C700" s="2" t="s">
+      <c r="C701" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D700" s="2" t="s">
+      <c r="D701" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E700" s="2"/>
-    </row>
-    <row r="702" spans="1:5">
-      <c r="A702" s="2" t="s">
+      <c r="E701" s="2"/>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C702" s="2" t="s">
+      <c r="C703" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D702" s="2" t="s">
+      <c r="D703" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E702" s="2"/>
-    </row>
-    <row r="704" spans="1:5">
-      <c r="A704" s="2" t="s">
+      <c r="E703" s="2"/>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B705" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C704" s="2" t="s">
+      <c r="C705" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D704" s="2" t="s">
+      <c r="D705" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E704" s="2"/>
-    </row>
-    <row r="706" spans="1:5">
-      <c r="A706" s="2" t="s">
+      <c r="E705" s="2"/>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B707" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C706" s="2" t="s">
+      <c r="C707" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D706" s="2" t="s">
+      <c r="D707" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E706" s="2"/>
-    </row>
-    <row r="708" spans="1:5">
-      <c r="A708" s="2" t="s">
+      <c r="E707" s="2"/>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B708" s="2" t="s">
+      <c r="B709" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C708" s="2" t="s">
+      <c r="C709" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D708" s="2" t="s">
+      <c r="D709" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E708" s="2"/>
-    </row>
-    <row r="710" spans="1:5">
-      <c r="A710" s="2" t="s">
+      <c r="E709" s="2"/>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B710" s="2" t="s">
+      <c r="B711" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C710" s="2" t="s">
+      <c r="C711" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D710" s="2" t="s">
+      <c r="D711" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E710" s="2"/>
-    </row>
-    <row r="712" spans="1:5">
-      <c r="A712" s="2" t="s">
+      <c r="E711" s="2"/>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B712" s="2" t="s">
+      <c r="B713" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C712" s="2" t="s">
+      <c r="C713" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D712" s="2" t="s">
+      <c r="D713" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E712" s="2"/>
-    </row>
-    <row r="714" spans="1:5">
-      <c r="A714" s="2" t="s">
+      <c r="E713" s="2"/>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B714" s="2" t="s">
+      <c r="B715" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C714" s="2" t="s">
+      <c r="C715" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D714" s="2" t="s">
+      <c r="D715" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E714" s="2"/>
-    </row>
-    <row r="716" spans="1:5">
-      <c r="A716" s="2" t="s">
+      <c r="E715" s="2"/>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B716" s="2" t="s">
+      <c r="B717" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C716" s="2" t="s">
+      <c r="C717" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D716" s="2" t="s">
+      <c r="D717" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E716" s="2"/>
-    </row>
-    <row r="718" spans="1:5">
-      <c r="A718" s="2" t="s">
+      <c r="E717" s="2"/>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B719" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C718" s="2" t="s">
+      <c r="C719" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D718" s="2" t="s">
+      <c r="D719" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E718" s="2"/>
-    </row>
-    <row r="720" spans="1:5">
-      <c r="A720" s="2" t="s">
+      <c r="E719" s="2"/>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B720" s="2" t="s">
+      <c r="B721" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C720" s="2" t="s">
+      <c r="C721" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D720" s="2" t="s">
+      <c r="D721" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E720" s="2"/>
-    </row>
-    <row r="722" spans="1:5">
-      <c r="A722" s="2" t="s">
+      <c r="E721" s="2"/>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B723" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C722" s="2" t="s">
+      <c r="C723" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D722" s="2" t="s">
+      <c r="D723" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E722" s="2"/>
-    </row>
-    <row r="724" spans="1:5">
-      <c r="A724" s="2" t="s">
+      <c r="E723" s="2"/>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B724" s="2" t="s">
+      <c r="B725" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C724" s="2" t="s">
+      <c r="C725" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D724" s="2" t="s">
+      <c r="D725" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="726" spans="1:5">
-      <c r="A726" s="2" t="s">
+      <c r="E725" s="2"/>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B726" s="2" t="s">
+      <c r="B727" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C726" s="2" t="s">
+      <c r="C727" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D726" s="2" t="s">
+      <c r="D727" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E726" s="2"/>
-    </row>
-    <row r="728" spans="1:5">
-      <c r="A728" s="2" t="s">
+      <c r="E727" s="2"/>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B728" s="2" t="s">
+      <c r="B729" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C728" s="2" t="s">
+      <c r="C729" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D728" s="2" t="s">
+      <c r="D729" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E728" s="2"/>
-    </row>
-    <row r="730" spans="1:5">
-      <c r="A730" s="2" t="s">
+      <c r="E729" s="2"/>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="B731" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C730" s="2" t="s">
+      <c r="C731" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D730" s="2" t="s">
+      <c r="D731" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E730" s="2"/>
-    </row>
-    <row r="732" spans="1:5">
-      <c r="A732" s="2" t="s">
+      <c r="E731" s="2"/>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B732" s="2" t="s">
+      <c r="B733" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C732" s="2" t="s">
+      <c r="C733" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D732" s="2" t="s">
+      <c r="D733" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E732" s="2"/>
-    </row>
-    <row r="734" spans="1:5">
-      <c r="A734" s="2" t="s">
+      <c r="E733" s="2"/>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B735" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C734" s="2" t="s">
+      <c r="C735" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D734" s="2" t="s">
+      <c r="D735" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E734" s="2"/>
-    </row>
-    <row r="736" spans="1:5">
-      <c r="A736" s="2" t="s">
+      <c r="E735" s="2"/>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B736" s="2" t="s">
+      <c r="B737" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C736" s="2" t="s">
+      <c r="C737" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D736" s="2" t="s">
+      <c r="D737" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="738" spans="1:5">
-      <c r="A738" s="2" t="s">
+      <c r="E737" s="2"/>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B738" s="2" t="s">
+      <c r="B739" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C738" s="2" t="s">
+      <c r="C739" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D738" s="2" t="s">
+      <c r="D739" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E738" s="2"/>
-    </row>
-    <row r="740" spans="1:5">
-      <c r="A740" s="2" t="s">
+      <c r="E739" s="2"/>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B740" s="2" t="s">
+      <c r="B741" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C740" s="2" t="s">
+      <c r="C741" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D740" s="2" t="s">
+      <c r="D741" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E740" s="2"/>
-    </row>
-    <row r="742" spans="1:5">
-      <c r="A742" s="2" t="s">
+      <c r="E741" s="2"/>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B743" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C742" s="2" t="s">
+      <c r="C743" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D742" s="2" t="s">
+      <c r="D743" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E742" s="2"/>
-    </row>
-    <row r="744" spans="1:5">
-      <c r="A744" s="2" t="s">
+      <c r="E743" s="2"/>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B744" s="2" t="s">
+      <c r="B745" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C744" s="2" t="s">
+      <c r="C745" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D744" s="2" t="s">
+      <c r="D745" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E744" s="2"/>
-    </row>
-    <row r="745" spans="1:5">
-      <c r="C745" t="s">
+      <c r="E745" s="2"/>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="C746" t="s">
         <v>588</v>
       </c>
-      <c r="D745" t="s">
+      <c r="D746" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
-      <c r="A747" s="2" t="s">
+    <row r="748" spans="1:5">
+      <c r="A748" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B747" s="2" t="s">
+      <c r="B748" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C747" s="2" t="s">
+      <c r="C748" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D747" s="2" t="s">
+      <c r="D748" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E747" s="2"/>
-    </row>
-    <row r="749" spans="1:5">
-      <c r="A749" s="2" t="s">
+      <c r="E748" s="2"/>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="B750" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C749" s="2" t="s">
+      <c r="C750" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D749" s="2" t="s">
+      <c r="D750" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E749" s="2"/>
-    </row>
-    <row r="751" spans="1:5">
-      <c r="A751" s="2" t="s">
+      <c r="E750" s="2"/>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="B751" s="2" t="s">
+      <c r="B752" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C751" s="2" t="s">
+      <c r="C752" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D751" s="2" t="s">
+      <c r="D752" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E751" s="2"/>
-    </row>
-    <row r="753" spans="1:5">
-      <c r="A753" s="2" t="s">
+      <c r="E752" s="2"/>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="B753" s="2" t="s">
+      <c r="B754" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C753" s="2" t="s">
+      <c r="C754" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D753" s="2" t="s">
+      <c r="D754" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E753" s="2"/>
-    </row>
-    <row r="755" spans="1:5">
-      <c r="A755" s="2" t="s">
+      <c r="E754" s="2"/>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B755" s="2" t="s">
+      <c r="B756" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C755" s="2" t="s">
+      <c r="C756" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D755" s="2" t="s">
+      <c r="D756" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E755" s="2"/>
-    </row>
-    <row r="756" spans="1:5">
-      <c r="C756" t="s">
+      <c r="E756" s="2"/>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="C757" t="s">
         <v>845</v>
       </c>
-      <c r="D756" t="s">
+      <c r="D757" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
-      <c r="A758" s="2" t="s">
+    <row r="759" spans="1:5">
+      <c r="A759" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="B759" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="C758" s="2" t="s">
+      <c r="C759" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D758" s="2" t="s">
+      <c r="D759" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E758" s="2"/>
-    </row>
-    <row r="759" spans="1:5">
-      <c r="C759" t="s">
+      <c r="E759" s="2"/>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="C760" t="s">
         <v>851</v>
       </c>
-      <c r="D759" t="s">
+      <c r="D760" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
-      <c r="A761" s="2" t="s">
+    <row r="762" spans="1:5">
+      <c r="A762" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B761" s="2" t="s">
+      <c r="B762" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C761" s="2" t="s">
+      <c r="C762" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D761" s="2" t="s">
+      <c r="D762" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E761" s="2"/>
-    </row>
-    <row r="763" spans="1:5">
-      <c r="A763" s="2" t="s">
+      <c r="E762" s="2"/>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="B764" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C763" s="2" t="s">
+      <c r="C764" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D763" s="2" t="s">
+      <c r="D764" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E763" s="2"/>
-    </row>
-    <row r="765" spans="1:5">
-      <c r="A765" s="2" t="s">
+      <c r="E764" s="2"/>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="B766" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C765" s="2" t="s">
+      <c r="C766" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D765" s="2" t="s">
+      <c r="D766" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E765" s="2"/>
-    </row>
-    <row r="767" spans="1:5">
-      <c r="A767" s="2" t="s">
+      <c r="E766" s="2"/>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B768" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C767" s="2" t="s">
+      <c r="C768" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D767" s="2" t="s">
+      <c r="D768" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E767" s="2"/>
-    </row>
-    <row r="769" spans="1:5">
-      <c r="A769" s="2" t="s">
+      <c r="E768" s="2"/>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B770" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C769" s="2" t="s">
+      <c r="C770" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D769" s="2" t="s">
+      <c r="D770" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E769" s="2"/>
-    </row>
-    <row r="771" spans="1:5">
-      <c r="A771" s="2" t="s">
+      <c r="E770" s="2"/>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B771" s="2" t="s">
+      <c r="B772" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="C771" s="2" t="s">
+      <c r="C772" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D771" s="2" t="s">
+      <c r="D772" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="E771" s="2"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="A773" s="2" t="s">
+      <c r="E772" s="2"/>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="B774" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C773" s="2" t="s">
+      <c r="C774" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D773" s="2" t="s">
+      <c r="D774" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E773" s="2"/>
-    </row>
-    <row r="775" spans="1:5">
-      <c r="A775" s="2" t="s">
+      <c r="E774" s="2"/>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="B776" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C775" s="2" t="s">
+      <c r="C776" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D775" s="2" t="s">
+      <c r="D776" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E775" s="2"/>
-    </row>
-    <row r="777" spans="1:5">
-      <c r="A777" s="2" t="s">
+      <c r="E776" s="2"/>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B777" s="2" t="s">
+      <c r="B778" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C777" s="2" t="s">
+      <c r="C778" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D777" s="2" t="s">
+      <c r="D778" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E777" s="2"/>
-    </row>
-    <row r="779" spans="1:5">
-      <c r="A779" s="2" t="s">
+      <c r="E778" s="2"/>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="B780" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C779" s="2" t="s">
+      <c r="C780" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D779" s="2" t="s">
+      <c r="D780" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="E779" s="2"/>
-    </row>
-    <row r="781" spans="1:5">
-      <c r="A781" s="2" t="s">
+      <c r="E780" s="2"/>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B781" s="2" t="s">
+      <c r="B782" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="C781" s="2" t="s">
+      <c r="C782" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D781" s="2" t="s">
+      <c r="D782" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="E781" s="2"/>
-    </row>
-    <row r="783" spans="1:5">
-      <c r="A783" s="2" t="s">
+      <c r="E782" s="2"/>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="B783" s="2" t="s">
+      <c r="B784" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C783" s="2" t="s">
+      <c r="C784" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D783" s="2" t="s">
+      <c r="D784" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="E783" s="2"/>
-    </row>
-    <row r="785" spans="1:5">
-      <c r="A785" s="2" t="s">
+      <c r="E784" s="2"/>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B785" s="2" t="s">
+      <c r="B786" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C785" s="2" t="s">
+      <c r="C786" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D785" s="2" t="s">
+      <c r="D786" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="E785" s="2"/>
-    </row>
-    <row r="787" spans="1:5">
-      <c r="A787" s="2" t="s">
+      <c r="E786" s="2"/>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B787" s="2" t="s">
+      <c r="B788" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C787" s="2" t="s">
+      <c r="C788" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D787" s="2" t="s">
+      <c r="D788" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="E787" s="2"/>
-    </row>
-    <row r="789" spans="1:5">
-      <c r="A789" s="2" t="s">
+      <c r="E788" s="2"/>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B789" s="2" t="s">
+      <c r="B790" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C789" s="2" t="s">
+      <c r="C790" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D789" s="2" t="s">
+      <c r="D790" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E789" s="2"/>
-    </row>
-    <row r="791" spans="1:5">
-      <c r="A791" s="2" t="s">
+      <c r="E790" s="2"/>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B791" s="2" t="s">
+      <c r="B792" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C791" s="2" t="s">
+      <c r="C792" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D791" s="2" t="s">
+      <c r="D792" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="E791" s="2"/>
-    </row>
-    <row r="793" spans="1:5">
-      <c r="A793" s="2" t="s">
+      <c r="E792" s="2"/>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B793" s="2" t="s">
+      <c r="B794" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C793" s="2" t="s">
+      <c r="C794" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D793" s="2" t="s">
+      <c r="D794" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E793" s="2"/>
-    </row>
-    <row r="794" spans="1:5">
-      <c r="C794" t="s">
+      <c r="E794" s="2"/>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="C795" t="s">
         <v>907</v>
       </c>
-      <c r="D794" t="s">
+      <c r="D795" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
-      <c r="A796" s="2" t="s">
+    <row r="797" spans="1:5">
+      <c r="A797" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="B796" s="2" t="s">
+      <c r="B797" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C796" s="2" t="s">
+      <c r="C797" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D796" s="2" t="s">
+      <c r="D797" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="E796" s="2"/>
-    </row>
-    <row r="798" spans="1:5">
-      <c r="A798" s="2" t="s">
+      <c r="E797" s="2"/>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B798" s="2" t="s">
+      <c r="B799" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C798" s="2" t="s">
+      <c r="C799" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D798" s="2" t="s">
+      <c r="D799" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="E798" s="2"/>
-    </row>
-    <row r="800" spans="1:5">
-      <c r="A800" s="2" t="s">
+      <c r="E799" s="2"/>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B800" s="2" t="s">
+      <c r="B801" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C800" s="2" t="s">
+      <c r="C801" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D800" s="2" t="s">
+      <c r="D801" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E800" s="2"/>
-    </row>
-    <row r="802" spans="1:5">
-      <c r="A802" s="2" t="s">
+      <c r="E801" s="2"/>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B802" s="2" t="s">
+      <c r="B803" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C802" s="2" t="s">
+      <c r="C803" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D802" s="2" t="s">
+      <c r="D803" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="E802" s="2"/>
-    </row>
-    <row r="803" spans="1:5">
-      <c r="C803" t="s">
+      <c r="E803" s="2"/>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="C804" t="s">
         <v>911</v>
       </c>
-      <c r="D803" t="s">
+      <c r="D804" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
-      <c r="A805" s="2" t="s">
+    <row r="806" spans="1:5">
+      <c r="A806" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B805" s="2" t="s">
+      <c r="B806" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C805" s="2" t="s">
+      <c r="C806" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D805" s="2" t="s">
+      <c r="D806" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="E805" s="2"/>
-    </row>
-    <row r="807" spans="1:5">
-      <c r="A807" s="2" t="s">
+      <c r="E806" s="2"/>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B807" s="2" t="s">
+      <c r="B808" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C807" s="2" t="s">
+      <c r="C808" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D807" s="2" t="s">
+      <c r="D808" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E807" s="2"/>
-    </row>
-    <row r="808" spans="1:5">
-      <c r="C808" t="s">
+      <c r="E808" s="2"/>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="C809" t="s">
         <v>925</v>
       </c>
-      <c r="D808" t="s">
+      <c r="D809" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
-      <c r="A810" s="2" t="s">
+    <row r="811" spans="1:5">
+      <c r="A811" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B810" s="2" t="s">
+      <c r="B811" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C810" s="2" t="s">
+      <c r="C811" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D810" s="2" t="s">
+      <c r="D811" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E810" s="2"/>
-    </row>
-    <row r="812" spans="1:5">
-      <c r="A812" s="2" t="s">
+      <c r="E811" s="2"/>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B812" s="2" t="s">
+      <c r="B813" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C812" s="2" t="s">
+      <c r="C813" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D812" s="2" t="s">
+      <c r="D813" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E812" s="2"/>
-    </row>
-    <row r="814" spans="1:5">
-      <c r="A814" s="2" t="s">
+      <c r="E813" s="2"/>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B814" s="2" t="s">
+      <c r="B815" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C814" s="2" t="s">
+      <c r="C815" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D814" s="2" t="s">
+      <c r="D815" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E814" s="2"/>
-    </row>
-    <row r="816" spans="1:5">
-      <c r="A816" s="2" t="s">
+      <c r="E815" s="2"/>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B816" s="2" t="s">
+      <c r="B817" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C816" s="2" t="s">
+      <c r="C817" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D816" s="2" t="s">
+      <c r="D817" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="E816" s="2"/>
-    </row>
-    <row r="818" spans="1:5">
-      <c r="A818" s="2" t="s">
+      <c r="E817" s="2"/>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="B818" s="2" t="s">
+      <c r="B819" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C818" s="2" t="s">
+      <c r="C819" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D818" s="2" t="s">
+      <c r="D819" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E818" s="2"/>
-    </row>
-    <row r="820" spans="1:5">
-      <c r="A820" s="2" t="s">
+      <c r="E819" s="2"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="B821" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C820" s="2" t="s">
+      <c r="C821" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D820" s="2" t="s">
+      <c r="D821" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="E820" s="2"/>
-    </row>
-    <row r="821" spans="1:5">
-      <c r="C821" t="s">
+      <c r="E821" s="2"/>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="C822" t="s">
         <v>845</v>
       </c>
-      <c r="D821" t="s">
+      <c r="D822" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
-      <c r="A823" s="2" t="s">
+    <row r="824" spans="1:5">
+      <c r="A824" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B823" s="2" t="s">
+      <c r="B824" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C823" s="2" t="s">
+      <c r="C824" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D823" s="2" t="s">
+      <c r="D824" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E823" s="2"/>
-    </row>
-    <row r="825" spans="1:5">
-      <c r="A825" s="2" t="s">
+      <c r="E824" s="2"/>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B825" s="2" t="s">
+      <c r="B826" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C825" s="2" t="s">
+      <c r="C826" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D825" s="2" t="s">
+      <c r="D826" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="E825" s="2"/>
-    </row>
-    <row r="827" spans="1:5">
-      <c r="A827" s="2" t="s">
+      <c r="E826" s="2"/>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B827" s="2" t="s">
+      <c r="B828" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C827" s="2" t="s">
+      <c r="C828" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D827" s="2" t="s">
+      <c r="D828" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E827" s="2"/>
-    </row>
-    <row r="828" spans="1:5">
-      <c r="C828" t="s">
+      <c r="E828" s="2"/>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="C829" t="s">
         <v>938</v>
       </c>
-      <c r="D828" t="s">
+      <c r="D829" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
-      <c r="A830" s="2" t="s">
+    <row r="831" spans="1:5">
+      <c r="A831" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B830" s="2" t="s">
+      <c r="B831" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C830" s="2" t="s">
+      <c r="C831" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D830" s="2" t="s">
+      <c r="D831" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E830" s="2"/>
-    </row>
-    <row r="832" spans="1:5">
-      <c r="A832" s="2" t="s">
+      <c r="E831" s="2"/>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="B832" s="2" t="s">
+      <c r="B833" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C832" s="2" t="s">
+      <c r="C833" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D832" s="2" t="s">
+      <c r="D833" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="E832" s="2"/>
-    </row>
-    <row r="834" spans="1:5">
-      <c r="A834" s="2" t="s">
+      <c r="E833" s="2"/>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="B834" s="2" t="s">
+      <c r="B835" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C834" s="2" t="s">
+      <c r="C835" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D834" s="2" t="s">
+      <c r="D835" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E834" s="2"/>
-    </row>
-    <row r="835" spans="1:5">
-      <c r="C835" t="s">
+      <c r="E835" s="2"/>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="C836" t="s">
         <v>845</v>
       </c>
-      <c r="D835" t="s">
+      <c r="D836" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
-      <c r="A837" s="2" t="s">
+    <row r="838" spans="1:5">
+      <c r="A838" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B837" s="2" t="s">
+      <c r="B838" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="C837" s="2" t="s">
+      <c r="C838" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="D837" s="2" t="s">
+      <c r="D838" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E837" s="2"/>
-    </row>
-    <row r="838" spans="1:5">
-      <c r="C838" t="s">
+      <c r="E838" s="2"/>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="C839" t="s">
         <v>845</v>
       </c>
-      <c r="D838" t="s">
+      <c r="D839" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
-      <c r="A840" s="2" t="s">
+    <row r="841" spans="1:5">
+      <c r="A841" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B840" s="2" t="s">
+      <c r="B841" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C840" s="2" t="s">
+      <c r="C841" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D840" s="2" t="s">
+      <c r="D841" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="E840" s="2"/>
-    </row>
-    <row r="841" spans="1:5">
-      <c r="C841" t="s">
+      <c r="E841" s="2"/>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="C842" t="s">
         <v>925</v>
       </c>
-      <c r="D841" t="s">
+      <c r="D842" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
-      <c r="A843" s="2" t="s">
+    <row r="844" spans="1:5">
+      <c r="A844" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B843" s="2" t="s">
+      <c r="B844" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C843" s="2" t="s">
+      <c r="C844" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D843" s="2" t="s">
+      <c r="D844" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="E843" s="2"/>
-    </row>
-    <row r="844" spans="1:5">
-      <c r="C844" t="s">
+      <c r="E844" s="2"/>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="C845" t="s">
         <v>915</v>
       </c>
-      <c r="D844" t="s">
+      <c r="D845" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
-      <c r="A846" s="2" t="s">
+    <row r="847" spans="1:5">
+      <c r="A847" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B846" s="2" t="s">
+      <c r="B847" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C846" s="2" t="s">
+      <c r="C847" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D846" s="2" t="s">
+      <c r="D847" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E846" s="2"/>
+      <c r="E847" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="961">
   <si>
     <t>Sigla</t>
   </si>
@@ -1418,6 +1418,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Introdução à Spintrônica</t>
+  </si>
+  <si>
+    <t>7290967</t>
+  </si>
+  <si>
+    <t>Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>LOM3221</t>
@@ -3241,7 +3247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E847"/>
+  <dimension ref="A1:E854"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6248,133 +6254,134 @@
       </c>
       <c r="E393" s="2"/>
     </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="2" t="s">
+    <row r="394" spans="1:5">
+      <c r="C394" t="s">
+        <v>291</v>
+      </c>
+      <c r="D394" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B396" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C396" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D395" s="2" t="s">
+      <c r="D396" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E395" s="2"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
+      <c r="E396" s="2"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C398" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D398" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E397" s="2"/>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="2" t="s">
+      <c r="E398" s="2"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C400" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D400" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E399" s="2"/>
+      <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E401" s="2"/>
+      <c r="C401" t="s">
+        <v>291</v>
+      </c>
+      <c r="D401" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B405" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C405" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D405" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="C404" t="s">
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="C406" t="s">
         <v>285</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D406" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
-      <c r="C405" t="s">
+    <row r="407" spans="1:5">
+      <c r="C407" t="s">
         <v>393</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D407" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E407" s="2"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E409" s="2"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>333</v>
@@ -6386,10 +6393,10 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>333</v>
@@ -6401,148 +6408,148 @@
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="C416" t="s">
         <v>468</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="D416" t="s">
         <v>469</v>
       </c>
-      <c r="C415" s="2" t="s">
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D418" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E415" s="2"/>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="C418" t="s">
-        <v>391</v>
-      </c>
-      <c r="D418" t="s">
-        <v>392</v>
-      </c>
+      <c r="E418" s="2"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="D420" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="C421" t="s">
         <v>391</v>
       </c>
-      <c r="D420" s="2" t="s">
+      <c r="D421" t="s">
         <v>392</v>
       </c>
-      <c r="E420" s="2"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="2" t="s">
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B423" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E422" s="2"/>
+      <c r="C423" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E424" s="2"/>
+      <c r="C424" t="s">
+        <v>391</v>
+      </c>
+      <c r="D424" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B428" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E426" s="2"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="C427" t="s">
+      <c r="C428" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D427" t="s">
+      <c r="B430" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="C428" t="s">
+      <c r="C430" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="C431" t="s">
+        <v>484</v>
+      </c>
+      <c r="D431" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="C432" t="s">
         <v>285</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D432" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="C429" t="s">
-        <v>291</v>
-      </c>
-      <c r="D429" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="C430" t="s">
-        <v>393</v>
-      </c>
-      <c r="D430" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
       <c r="C433" t="s">
@@ -6554,10 +6561,10 @@
     </row>
     <row r="434" spans="1:5">
       <c r="C434" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="D434" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -6568,87 +6575,88 @@
         <v>487</v>
       </c>
       <c r="C436" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="C437" t="s">
+        <v>291</v>
+      </c>
+      <c r="D437" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="C438" t="s">
+        <v>363</v>
+      </c>
+      <c r="D438" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D436" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E436" s="2"/>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C438" s="2" t="s">
+      <c r="E440" s="2"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D438" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E438" s="2"/>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="C439" t="s">
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443" t="s">
         <v>319</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D443" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E441" s="2"/>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E443" s="2"/>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>260</v>
+        <v>392</v>
       </c>
       <c r="E445" s="2"/>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>333</v>
@@ -6660,34 +6668,33 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E449" s="2"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="C451" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D449" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E449" s="2"/>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="C450" t="s">
-        <v>393</v>
-      </c>
-      <c r="D450" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="C451" t="s">
-        <v>319</v>
-      </c>
-      <c r="D451" t="s">
-        <v>320</v>
-      </c>
+      <c r="E451" s="2"/>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
@@ -6697,246 +6704,248 @@
         <v>501</v>
       </c>
       <c r="C453" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="C454" t="s">
+        <v>393</v>
+      </c>
+      <c r="D454" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="C455" t="s">
+        <v>319</v>
+      </c>
+      <c r="D455" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E453" s="2"/>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C455" s="2" t="s">
+      <c r="E457" s="2"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D455" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E455" s="2"/>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="C456" t="s">
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="C460" t="s">
         <v>399</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D460" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E458" s="2"/>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E460" s="2"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E462" s="2"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="C463" t="s">
+        <v>399</v>
+      </c>
+      <c r="D463" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B465" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E462" s="2"/>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="A464" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E464" s="2"/>
-    </row>
-    <row r="465" spans="1:5">
-      <c r="C465" t="s">
-        <v>341</v>
-      </c>
-      <c r="D465" t="s">
-        <v>342</v>
-      </c>
+      <c r="C465" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E465" s="2"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="E467" s="2"/>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="C470" t="s">
+        <v>341</v>
+      </c>
+      <c r="D470" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B472" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E469" s="2"/>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="A471" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E471" s="2"/>
-    </row>
-    <row r="472" spans="1:5">
-      <c r="C472" t="s">
-        <v>391</v>
-      </c>
-      <c r="D472" t="s">
-        <v>392</v>
-      </c>
+      <c r="C472" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E472" s="2"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
       <c r="C475" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="D475" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="C478" t="s">
+        <v>391</v>
+      </c>
+      <c r="D478" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B480" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="C480" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D480" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E477" s="2"/>
-    </row>
-    <row r="479" spans="1:5">
-      <c r="A479" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E479" s="2"/>
+      <c r="E480" s="2"/>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E481" s="2"/>
+      <c r="C481" t="s">
+        <v>319</v>
+      </c>
+      <c r="D481" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>472</v>
+        <v>285</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>473</v>
+        <v>286</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>333</v>
@@ -6948,2730 +6957,2783 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E487" s="2"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="C488" t="s">
+        <v>333</v>
+      </c>
+      <c r="D488" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E490" s="2"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B492" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C492" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="D492" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E487" s="2"/>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="A489" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E489" s="2"/>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="C490" t="s">
-        <v>285</v>
-      </c>
-      <c r="D490" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="C491" t="s">
-        <v>393</v>
-      </c>
-      <c r="D491" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="C492" t="s">
-        <v>319</v>
-      </c>
-      <c r="D492" t="s">
-        <v>320</v>
-      </c>
+      <c r="E492" s="2"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>436</v>
+        <v>334</v>
       </c>
       <c r="E494" s="2"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E496" s="2"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="C497" t="s">
+        <v>285</v>
+      </c>
+      <c r="D497" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="C498" t="s">
+        <v>393</v>
+      </c>
+      <c r="D498" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="C499" t="s">
+        <v>319</v>
+      </c>
+      <c r="D499" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B501" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="A498" s="2" t="s">
+      <c r="C501" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E501" s="2"/>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B503" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E498" s="2"/>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="A500" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E500" s="2"/>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="C501" t="s">
-        <v>85</v>
-      </c>
-      <c r="D501" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
-      <c r="C502" t="s">
-        <v>363</v>
-      </c>
-      <c r="D502" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="C503" t="s">
-        <v>542</v>
-      </c>
-      <c r="D503" t="s">
-        <v>543</v>
-      </c>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="E505" s="2"/>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>273</v>
+        <v>474</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="E507" s="2"/>
     </row>
     <row r="508" spans="1:5">
       <c r="C508" t="s">
-        <v>472</v>
+        <v>85</v>
       </c>
       <c r="D508" t="s">
-        <v>473</v>
+        <v>86</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="C509" t="s">
+        <v>363</v>
+      </c>
+      <c r="D509" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="C510" t="s">
+        <v>544</v>
+      </c>
+      <c r="D510" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D512" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="C512" t="s">
-        <v>291</v>
-      </c>
-      <c r="D512" t="s">
-        <v>292</v>
-      </c>
+      <c r="E512" s="2"/>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>552</v>
+        <v>273</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>553</v>
+        <v>274</v>
       </c>
       <c r="E514" s="2"/>
     </row>
+    <row r="515" spans="1:5">
+      <c r="C515" t="s">
+        <v>474</v>
+      </c>
+      <c r="D515" t="s">
+        <v>475</v>
+      </c>
+    </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E516" s="2"/>
+      <c r="C516" t="s">
+        <v>333</v>
+      </c>
+      <c r="D516" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E518" s="2"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="C519" t="s">
+        <v>291</v>
+      </c>
+      <c r="D519" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E521" s="2"/>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="D523" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C518" s="2" t="s">
+      <c r="E523" s="2"/>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="B525" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E518" s="2"/>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="2" t="s">
+      <c r="C525" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="D525" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C520" s="2" t="s">
+      <c r="E525" s="2"/>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="B527" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E520" s="2"/>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="2" t="s">
+      <c r="C527" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C522" s="2" t="s">
+      <c r="E527" s="2"/>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="B529" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E522" s="2"/>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="2" t="s">
+      <c r="C529" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="D529" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C524" s="2" t="s">
+      <c r="E529" s="2"/>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E524" s="2"/>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C526" s="2" t="s">
+      <c r="E531" s="2"/>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="B533" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E526" s="2"/>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="2" t="s">
+      <c r="C533" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="E533" s="2"/>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="B535" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E528" s="2"/>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="2" t="s">
+      <c r="C535" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C530" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E530" s="2"/>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="2" t="s">
+      <c r="E535" s="2"/>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="C537" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E537" s="2"/>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="B539" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E532" s="2"/>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="A534" s="2" t="s">
+      <c r="C539" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="E539" s="2"/>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="B541" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E534" s="2"/>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="2" t="s">
+      <c r="C541" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D536" s="2" t="s">
+      <c r="D543" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E536" s="2"/>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E540" s="2"/>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="A542" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E542" s="2"/>
-    </row>
-    <row r="543" spans="1:5">
-      <c r="C543" t="s">
-        <v>588</v>
-      </c>
-      <c r="D543" t="s">
-        <v>589</v>
-      </c>
+      <c r="E543" s="2"/>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="2" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>14</v>
+        <v>597</v>
       </c>
       <c r="E545" s="2"/>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E547" s="2"/>
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E549" s="2"/>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="C550" t="s">
+        <v>590</v>
+      </c>
+      <c r="D550" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E552" s="2"/>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B554" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C549" s="2" t="s">
+      <c r="C554" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E554" s="2"/>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D549" s="2" t="s">
+      <c r="D556" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E549" s="2"/>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="A551" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C551" s="2" t="s">
+      <c r="E556" s="2"/>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C558" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D551" s="2" t="s">
+      <c r="D558" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E551" s="2"/>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="A553" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B553" s="2" t="s">
+      <c r="E558" s="2"/>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B560" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C553" s="2" t="s">
+      <c r="C560" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D553" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E553" s="2"/>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="A555" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C555" s="2" t="s">
+      <c r="E560" s="2"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D555" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E555" s="2"/>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="A557" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C557" s="2" t="s">
+      <c r="E562" s="2"/>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D557" s="2" t="s">
+      <c r="B564" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E557" s="2"/>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="2" t="s">
+      <c r="C564" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="E564" s="2"/>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D559" s="2" t="s">
+      <c r="B566" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E559" s="2"/>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="2" t="s">
+      <c r="C566" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="E566" s="2"/>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D561" s="2" t="s">
+      <c r="B568" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E561" s="2"/>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="A563" s="2" t="s">
+      <c r="C568" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="E568" s="2"/>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D563" s="2" t="s">
+      <c r="B570" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E563" s="2"/>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="A565" s="2" t="s">
+      <c r="C570" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="D570" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="E570" s="2"/>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D565" s="2" t="s">
+      <c r="B572" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E565" s="2"/>
-    </row>
-    <row r="567" spans="1:5">
-      <c r="A567" s="2" t="s">
+      <c r="C572" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="D572" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="E572" s="2"/>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D567" s="2" t="s">
+      <c r="B574" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E567" s="2"/>
-    </row>
-    <row r="569" spans="1:5">
-      <c r="A569" s="2" t="s">
+      <c r="C574" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="E574" s="2"/>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D569" s="2" t="s">
+      <c r="B576" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E569" s="2"/>
-    </row>
-    <row r="571" spans="1:5">
-      <c r="A571" s="2" t="s">
+      <c r="C576" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C571" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E571" s="2"/>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E573" s="2"/>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="A575" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E575" s="2"/>
-    </row>
-    <row r="576" spans="1:5">
-      <c r="C576" t="s">
-        <v>633</v>
-      </c>
-      <c r="D576" t="s">
-        <v>634</v>
-      </c>
+      <c r="E576" s="2"/>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>655</v>
+        <v>586</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>656</v>
+        <v>587</v>
       </c>
       <c r="E578" s="2"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E580" s="2"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E582" s="2"/>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="C583" t="s">
+        <v>635</v>
+      </c>
+      <c r="D583" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E585" s="2"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B587" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C582" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E582" s="2"/>
-    </row>
-    <row r="584" spans="1:5">
-      <c r="A584" s="2" t="s">
+      <c r="C587" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E587" s="2"/>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B589" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C584" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E584" s="2"/>
-    </row>
-    <row r="586" spans="1:5">
-      <c r="A586" s="2" t="s">
+      <c r="C589" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E589" s="2"/>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B591" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C586" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E586" s="2"/>
-    </row>
-    <row r="588" spans="1:5">
-      <c r="A588" s="2" t="s">
+      <c r="C591" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E591" s="2"/>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B593" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C588" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E588" s="2"/>
-    </row>
-    <row r="590" spans="1:5">
-      <c r="A590" s="2" t="s">
+      <c r="C593" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E593" s="2"/>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B595" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C590" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D590" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E590" s="2"/>
-    </row>
-    <row r="592" spans="1:5">
-      <c r="A592" s="2" t="s">
+      <c r="C595" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E595" s="2"/>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B597" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C592" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E592" s="2"/>
-    </row>
-    <row r="594" spans="1:5">
-      <c r="A594" s="2" t="s">
+      <c r="C597" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E597" s="2"/>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C594" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E594" s="2"/>
-    </row>
-    <row r="596" spans="1:5">
-      <c r="A596" s="2" t="s">
+      <c r="C599" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E599" s="2"/>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B601" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C596" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E596" s="2"/>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="A598" s="2" t="s">
+      <c r="C601" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E601" s="2"/>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B603" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="C603" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E603" s="2"/>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D598" s="2" t="s">
+      <c r="B605" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E598" s="2"/>
-    </row>
-    <row r="600" spans="1:5">
-      <c r="A600" s="2" t="s">
+      <c r="C605" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="E605" s="2"/>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D600" s="2" t="s">
+      <c r="B607" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E600" s="2"/>
-    </row>
-    <row r="602" spans="1:5">
-      <c r="A602" s="2" t="s">
+      <c r="C607" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="D607" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C602" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E602" s="2"/>
-    </row>
-    <row r="604" spans="1:5">
-      <c r="A604" s="2" t="s">
+      <c r="E607" s="2"/>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B609" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="C609" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E609" s="2"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D604" s="2" t="s">
+      <c r="B611" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E604" s="2"/>
-    </row>
-    <row r="606" spans="1:5">
-      <c r="A606" s="2" t="s">
+      <c r="C611" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="D611" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="E611" s="2"/>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D606" s="2" t="s">
+      <c r="B613" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E606" s="2"/>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="A608" s="2" t="s">
+      <c r="C613" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="D613" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C608" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E608" s="2"/>
-    </row>
-    <row r="610" spans="1:5">
-      <c r="A610" s="2" t="s">
+      <c r="E613" s="2"/>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B615" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C610" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D610" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="612" spans="1:5">
-      <c r="A612" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D612" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E612" s="2"/>
-    </row>
-    <row r="614" spans="1:5">
-      <c r="A614" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B614" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E614" s="2"/>
-    </row>
-    <row r="615" spans="1:5">
-      <c r="C615" t="s">
-        <v>633</v>
-      </c>
-      <c r="D615" t="s">
-        <v>634</v>
-      </c>
+      <c r="C615" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E615" s="2"/>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E617" s="2"/>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="E619" s="2"/>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>13</v>
+        <v>653</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>14</v>
+        <v>654</v>
       </c>
       <c r="E621" s="2"/>
     </row>
     <row r="622" spans="1:5">
       <c r="C622" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="D622" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="623" spans="1:5">
-      <c r="C623" t="s">
-        <v>691</v>
-      </c>
-      <c r="D623" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
     </row>
     <row r="624" spans="1:5">
-      <c r="C624" t="s">
-        <v>578</v>
-      </c>
-      <c r="D624" t="s">
-        <v>579</v>
-      </c>
+      <c r="A624" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E624" s="2"/>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E626" s="2"/>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E628" s="2"/>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="C629" t="s">
+        <v>619</v>
+      </c>
+      <c r="D629" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="C630" t="s">
+        <v>693</v>
+      </c>
+      <c r="D630" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="C631" t="s">
+        <v>580</v>
+      </c>
+      <c r="D631" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B628" s="2" t="s">
+      <c r="B633" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C628" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D628" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E628" s="2"/>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="A630" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B630" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E630" s="2"/>
-    </row>
-    <row r="632" spans="1:5">
-      <c r="A632" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B632" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D632" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E632" s="2"/>
-    </row>
-    <row r="633" spans="1:5">
-      <c r="C633" t="s">
-        <v>717</v>
-      </c>
-      <c r="D633" t="s">
-        <v>718</v>
-      </c>
+      <c r="C633" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E633" s="2"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E635" s="2"/>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E637" s="2"/>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E639" s="2"/>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="C640" t="s">
+        <v>719</v>
+      </c>
+      <c r="D640" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C637" s="2" t="s">
+      <c r="C642" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E642" s="2"/>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C644" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D637" s="2" t="s">
+      <c r="D644" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E637" s="2"/>
-    </row>
-    <row r="638" spans="1:5">
-      <c r="C638" t="s">
-        <v>723</v>
-      </c>
-      <c r="D638" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5">
-      <c r="A640" s="2" t="s">
+      <c r="E644" s="2"/>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="C645" t="s">
         <v>725</v>
       </c>
-      <c r="B640" s="2" t="s">
+      <c r="D645" t="s">
         <v>726</v>
       </c>
-      <c r="C640" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D640" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E640" s="2"/>
-    </row>
-    <row r="641" spans="1:5">
-      <c r="C641" t="s">
-        <v>723</v>
-      </c>
-      <c r="D641" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="643" spans="1:5">
-      <c r="A643" s="2" t="s">
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B647" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C643" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D643" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E643" s="2"/>
-    </row>
-    <row r="645" spans="1:5">
-      <c r="A645" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C645" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D645" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E645" s="2"/>
-    </row>
-    <row r="646" spans="1:5">
-      <c r="C646" t="s">
+      <c r="C647" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D646" t="s">
+      <c r="D647" s="2" t="s">
         <v>718</v>
       </c>
+      <c r="E647" s="2"/>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B648" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D648" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E648" s="2"/>
+      <c r="C648" t="s">
+        <v>725</v>
+      </c>
+      <c r="D648" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="E650" s="2"/>
     </row>
     <row r="652" spans="1:5">
       <c r="A652" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E652" s="2"/>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="C653" t="s">
+        <v>719</v>
+      </c>
+      <c r="D653" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E655" s="2"/>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="B657" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C652" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D652" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E652" s="2"/>
-    </row>
-    <row r="654" spans="1:5">
-      <c r="A654" s="2" t="s">
+      <c r="C657" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E657" s="2"/>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B659" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C654" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D654" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E654" s="2"/>
-    </row>
-    <row r="656" spans="1:5">
-      <c r="A656" s="2" t="s">
+      <c r="C659" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E659" s="2"/>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B661" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C656" s="2" t="s">
+      <c r="C661" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E661" s="2"/>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D656" s="2" t="s">
+      <c r="B663" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E656" s="2"/>
-    </row>
-    <row r="658" spans="1:5">
-      <c r="A658" s="2" t="s">
+      <c r="C663" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="D663" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C658" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D658" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E658" s="2"/>
-    </row>
-    <row r="660" spans="1:5">
-      <c r="A660" s="2" t="s">
+      <c r="E663" s="2"/>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B660" s="2" t="s">
+      <c r="B665" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C660" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D660" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E660" s="2"/>
-    </row>
-    <row r="662" spans="1:5">
-      <c r="A662" s="2" t="s">
+      <c r="C665" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E665" s="2"/>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B667" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C662" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D662" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E662" s="2"/>
-    </row>
-    <row r="664" spans="1:5">
-      <c r="A664" s="2" t="s">
+      <c r="C667" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E667" s="2"/>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B669" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C664" s="2" t="s">
+      <c r="C669" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E669" s="2"/>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D664" s="2" t="s">
+      <c r="B671" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E664" s="2"/>
-    </row>
-    <row r="666" spans="1:5">
-      <c r="A666" s="2" t="s">
+      <c r="C671" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="D671" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C666" s="2" t="s">
+      <c r="E671" s="2"/>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C673" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D666" s="2" t="s">
+      <c r="D673" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E666" s="2"/>
-    </row>
-    <row r="668" spans="1:5">
-      <c r="A668" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B668" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C668" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D668" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="E668" s="2"/>
-    </row>
-    <row r="670" spans="1:5">
-      <c r="A670" s="2" t="s">
+      <c r="E673" s="2"/>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B675" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C670" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D670" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E670" s="2"/>
-    </row>
-    <row r="672" spans="1:5">
-      <c r="A672" s="2" t="s">
+      <c r="C675" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E675" s="2"/>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B677" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C672" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D672" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E672" s="2"/>
-    </row>
-    <row r="674" spans="1:5">
-      <c r="A674" s="2" t="s">
+      <c r="C677" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E677" s="2"/>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B674" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D674" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E674" s="2"/>
-    </row>
-    <row r="676" spans="1:5">
-      <c r="A676" s="2" t="s">
+      <c r="B679" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="C679" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E679" s="2"/>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C676" s="2" t="s">
+      <c r="B681" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E681" s="2"/>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C683" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D676" s="2" t="s">
+      <c r="D683" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E676" s="2"/>
-    </row>
-    <row r="678" spans="1:5">
-      <c r="A678" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B678" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C678" s="2" t="s">
+      <c r="E683" s="2"/>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C685" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D678" s="2" t="s">
+      <c r="D685" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E678" s="2"/>
-    </row>
-    <row r="680" spans="1:5">
-      <c r="A680" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B680" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C680" s="2" t="s">
+      <c r="E685" s="2"/>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C687" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D680" s="2" t="s">
+      <c r="D687" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E680" s="2"/>
-    </row>
-    <row r="682" spans="1:5">
-      <c r="A682" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="B682" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D682" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E682" s="2"/>
-    </row>
-    <row r="684" spans="1:5">
-      <c r="A684" s="2" t="s">
+      <c r="E687" s="2"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B689" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C684" s="2" t="s">
+      <c r="C689" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E689" s="2"/>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C691" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D684" s="2" t="s">
+      <c r="D691" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E684" s="2"/>
-    </row>
-    <row r="686" spans="1:5">
-      <c r="A686" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B686" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C686" s="2" t="s">
+      <c r="E691" s="2"/>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C693" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D686" s="2" t="s">
+      <c r="D693" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E686" s="2"/>
-    </row>
-    <row r="688" spans="1:5">
-      <c r="A688" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B688" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C688" s="2" t="s">
+      <c r="E693" s="2"/>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C695" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D688" s="2" t="s">
+      <c r="D695" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E688" s="2"/>
-    </row>
-    <row r="690" spans="1:5">
-      <c r="A690" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B690" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C690" s="2" t="s">
+      <c r="E695" s="2"/>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C697" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D690" s="2" t="s">
+      <c r="D697" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E690" s="2"/>
-    </row>
-    <row r="692" spans="1:5">
-      <c r="A692" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B692" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C692" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D692" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E692" s="2"/>
-    </row>
-    <row r="694" spans="1:5">
-      <c r="A694" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B694" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C694" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D694" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E694" s="2"/>
-    </row>
-    <row r="696" spans="1:5">
-      <c r="A696" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B696" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C696" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D696" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E696" s="2"/>
-    </row>
-    <row r="697" spans="1:5">
-      <c r="C697" t="s">
-        <v>7</v>
-      </c>
-      <c r="D697" t="s">
-        <v>8</v>
-      </c>
+      <c r="E697" s="2"/>
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>733</v>
+        <v>7</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>734</v>
+        <v>8</v>
       </c>
       <c r="E699" s="2"/>
     </row>
     <row r="701" spans="1:5">
       <c r="A701" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>743</v>
+        <v>7</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>744</v>
+        <v>8</v>
       </c>
       <c r="E701" s="2"/>
     </row>
     <row r="703" spans="1:5">
       <c r="A703" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E703" s="2"/>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="C704" t="s">
+        <v>7</v>
+      </c>
+      <c r="D704" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E706" s="2"/>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B708" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C703" s="2" t="s">
+      <c r="C708" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E708" s="2"/>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C710" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D703" s="2" t="s">
+      <c r="D710" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E703" s="2"/>
-    </row>
-    <row r="705" spans="1:5">
-      <c r="A705" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B705" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C705" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D705" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E705" s="2"/>
-    </row>
-    <row r="707" spans="1:5">
-      <c r="A707" s="2" t="s">
+      <c r="E710" s="2"/>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B712" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C707" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D707" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E707" s="2"/>
-    </row>
-    <row r="709" spans="1:5">
-      <c r="A709" s="2" t="s">
+      <c r="C712" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E712" s="2"/>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B714" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C709" s="2" t="s">
+      <c r="C714" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E714" s="2"/>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C716" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D709" s="2" t="s">
+      <c r="D716" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E709" s="2"/>
-    </row>
-    <row r="711" spans="1:5">
-      <c r="A711" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B711" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C711" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D711" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E711" s="2"/>
-    </row>
-    <row r="713" spans="1:5">
-      <c r="A713" s="2" t="s">
+      <c r="E716" s="2"/>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B713" s="2" t="s">
+      <c r="B718" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C713" s="2" t="s">
+      <c r="C718" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E718" s="2"/>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C720" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D713" s="2" t="s">
+      <c r="D720" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E713" s="2"/>
-    </row>
-    <row r="715" spans="1:5">
-      <c r="A715" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C715" s="2" t="s">
+      <c r="E720" s="2"/>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C722" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D715" s="2" t="s">
+      <c r="D722" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E715" s="2"/>
-    </row>
-    <row r="717" spans="1:5">
-      <c r="A717" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B717" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C717" s="2" t="s">
+      <c r="E722" s="2"/>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C724" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D717" s="2" t="s">
+      <c r="D724" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E717" s="2"/>
-    </row>
-    <row r="719" spans="1:5">
-      <c r="A719" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C719" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D719" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="E719" s="2"/>
-    </row>
-    <row r="721" spans="1:5">
-      <c r="A721" s="2" t="s">
+      <c r="E724" s="2"/>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="B726" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C721" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D721" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E721" s="2"/>
-    </row>
-    <row r="723" spans="1:5">
-      <c r="A723" s="2" t="s">
+      <c r="C726" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E726" s="2"/>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B723" s="2" t="s">
+      <c r="B728" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C723" s="2" t="s">
+      <c r="C728" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E728" s="2"/>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C730" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D723" s="2" t="s">
+      <c r="D730" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E723" s="2"/>
-    </row>
-    <row r="725" spans="1:5">
-      <c r="A725" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C725" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D725" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="E725" s="2"/>
-    </row>
-    <row r="727" spans="1:5">
-      <c r="A727" s="2" t="s">
+      <c r="E730" s="2"/>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B732" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C727" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D727" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="E727" s="2"/>
-    </row>
-    <row r="729" spans="1:5">
-      <c r="A729" s="2" t="s">
+      <c r="C732" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E732" s="2"/>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="B734" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C729" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D729" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E729" s="2"/>
-    </row>
-    <row r="731" spans="1:5">
-      <c r="A731" s="2" t="s">
+      <c r="C734" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E734" s="2"/>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="B736" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C731" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D731" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E731" s="2"/>
-    </row>
-    <row r="733" spans="1:5">
-      <c r="A733" s="2" t="s">
+      <c r="C736" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E736" s="2"/>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B738" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C733" s="2" t="s">
+      <c r="C738" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E738" s="2"/>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C740" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D733" s="2" t="s">
+      <c r="D740" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="735" spans="1:5">
-      <c r="A735" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B735" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D735" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E735" s="2"/>
-    </row>
-    <row r="737" spans="1:5">
-      <c r="A737" s="2" t="s">
+      <c r="E740" s="2"/>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B742" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C737" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D737" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="E737" s="2"/>
-    </row>
-    <row r="739" spans="1:5">
-      <c r="A739" s="2" t="s">
+      <c r="C742" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E742" s="2"/>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="B744" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C739" s="2" t="s">
+      <c r="C744" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E744" s="2"/>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D739" s="2" t="s">
+      <c r="D746" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E739" s="2"/>
-    </row>
-    <row r="741" spans="1:5">
-      <c r="A741" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C741" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D741" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E741" s="2"/>
-    </row>
-    <row r="743" spans="1:5">
-      <c r="A743" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D743" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E743" s="2"/>
-    </row>
-    <row r="745" spans="1:5">
-      <c r="A745" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B745" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C745" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D745" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E745" s="2"/>
-    </row>
-    <row r="746" spans="1:5">
-      <c r="C746" t="s">
-        <v>588</v>
-      </c>
-      <c r="D746" t="s">
-        <v>589</v>
-      </c>
+      <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>733</v>
+        <v>570</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>734</v>
+        <v>571</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>836</v>
+        <v>797</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>733</v>
+        <v>570</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>734</v>
+        <v>571</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E752" s="2"/>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="C753" t="s">
+        <v>590</v>
+      </c>
+      <c r="D753" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E755" s="2"/>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="B757" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C752" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E752" s="2"/>
-    </row>
-    <row r="754" spans="1:5">
-      <c r="A754" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B754" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E754" s="2"/>
-    </row>
-    <row r="756" spans="1:5">
-      <c r="A756" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D756" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="E756" s="2"/>
-    </row>
-    <row r="757" spans="1:5">
-      <c r="C757" t="s">
-        <v>845</v>
-      </c>
-      <c r="D757" t="s">
-        <v>846</v>
-      </c>
+      <c r="C757" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E757" s="2"/>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E759" s="2"/>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E761" s="2"/>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E763" s="2"/>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="C764" t="s">
         <v>847</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="D764" t="s">
         <v>848</v>
       </c>
-      <c r="C759" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D759" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E759" s="2"/>
-    </row>
-    <row r="760" spans="1:5">
-      <c r="C760" t="s">
-        <v>851</v>
-      </c>
-      <c r="D760" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="762" spans="1:5">
-      <c r="A762" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B762" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D762" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="E762" s="2"/>
-    </row>
-    <row r="764" spans="1:5">
-      <c r="A764" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B764" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C764" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D764" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E764" s="2"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E766" s="2"/>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="C767" t="s">
+        <v>853</v>
+      </c>
+      <c r="D767" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E769" s="2"/>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C771" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="D771" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="C766" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="E766" s="2"/>
-    </row>
-    <row r="768" spans="1:5">
-      <c r="A768" s="2" t="s">
+      <c r="E771" s="2"/>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B773" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C768" s="2" t="s">
+      <c r="C773" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E773" s="2"/>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D768" s="2" t="s">
+      <c r="B775" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="770" spans="1:5">
-      <c r="A770" s="2" t="s">
+      <c r="C775" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="D775" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C770" s="2" t="s">
+      <c r="E775" s="2"/>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C777" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D770" s="2" t="s">
+      <c r="D777" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E770" s="2"/>
-    </row>
-    <row r="772" spans="1:5">
-      <c r="A772" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C772" s="2" t="s">
+      <c r="E777" s="2"/>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D772" s="2" t="s">
+      <c r="B779" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="E772" s="2"/>
-    </row>
-    <row r="774" spans="1:5">
-      <c r="A774" s="2" t="s">
+      <c r="C779" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="D779" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C774" s="2" t="s">
+      <c r="E779" s="2"/>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="D774" s="2" t="s">
+      <c r="B781" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="E774" s="2"/>
-    </row>
-    <row r="776" spans="1:5">
-      <c r="A776" s="2" t="s">
+      <c r="C781" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B776" s="2" t="s">
+      <c r="D781" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C776" s="2" t="s">
+      <c r="E781" s="2"/>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D776" s="2" t="s">
+      <c r="B783" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E776" s="2"/>
-    </row>
-    <row r="778" spans="1:5">
-      <c r="A778" s="2" t="s">
+      <c r="C783" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="D783" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C778" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D778" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E778" s="2"/>
-    </row>
-    <row r="780" spans="1:5">
-      <c r="A780" s="2" t="s">
+      <c r="E783" s="2"/>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B785" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C780" s="2" t="s">
+      <c r="C785" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E785" s="2"/>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D780" s="2" t="s">
+      <c r="B787" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="E780" s="2"/>
-    </row>
-    <row r="782" spans="1:5">
-      <c r="A782" s="2" t="s">
+      <c r="C787" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B782" s="2" t="s">
+      <c r="D787" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="C782" s="2" t="s">
+      <c r="E787" s="2"/>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D782" s="2" t="s">
+      <c r="B789" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="E782" s="2"/>
-    </row>
-    <row r="784" spans="1:5">
-      <c r="A784" s="2" t="s">
+      <c r="C789" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="D789" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C784" s="2" t="s">
+      <c r="E789" s="2"/>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D784" s="2" t="s">
+      <c r="B791" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="E784" s="2"/>
-    </row>
-    <row r="786" spans="1:5">
-      <c r="A786" s="2" t="s">
+      <c r="C791" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="D791" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C786" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E786" s="2"/>
-    </row>
-    <row r="788" spans="1:5">
-      <c r="A788" s="2" t="s">
+      <c r="E791" s="2"/>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="B793" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C788" s="2" t="s">
+      <c r="C793" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E793" s="2"/>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="D788" s="2" t="s">
+      <c r="B795" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="E788" s="2"/>
-    </row>
-    <row r="790" spans="1:5">
-      <c r="A790" s="2" t="s">
+      <c r="C795" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B790" s="2" t="s">
+      <c r="D795" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C790" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D790" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E790" s="2"/>
-    </row>
-    <row r="792" spans="1:5">
-      <c r="A792" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B792" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C792" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D792" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="E792" s="2"/>
-    </row>
-    <row r="794" spans="1:5">
-      <c r="A794" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C794" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="E794" s="2"/>
-    </row>
-    <row r="795" spans="1:5">
-      <c r="C795" t="s">
-        <v>907</v>
-      </c>
-      <c r="D795" t="s">
-        <v>908</v>
-      </c>
+      <c r="E795" s="2"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>911</v>
+        <v>239</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>912</v>
+        <v>240</v>
       </c>
       <c r="E797" s="2"/>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E799" s="2"/>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="E801" s="2"/>
     </row>
-    <row r="803" spans="1:5">
-      <c r="A803" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B803" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="C803" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D803" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="E803" s="2"/>
+    <row r="802" spans="1:5">
+      <c r="C802" t="s">
+        <v>909</v>
+      </c>
+      <c r="D802" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="804" spans="1:5">
-      <c r="C804" t="s">
+      <c r="A804" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D804" t="s">
+      <c r="B804" s="2" t="s">
         <v>912</v>
       </c>
+      <c r="C804" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E804" s="2"/>
     </row>
     <row r="806" spans="1:5">
       <c r="A806" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>886</v>
+        <v>918</v>
       </c>
       <c r="E806" s="2"/>
     </row>
     <row r="808" spans="1:5">
       <c r="A808" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="E808" s="2"/>
     </row>
-    <row r="809" spans="1:5">
-      <c r="C809" t="s">
-        <v>925</v>
-      </c>
-      <c r="D809" t="s">
-        <v>926</v>
-      </c>
+    <row r="810" spans="1:5">
+      <c r="A810" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E810" s="2"/>
     </row>
     <row r="811" spans="1:5">
-      <c r="A811" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C811" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D811" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="E811" s="2"/>
+      <c r="C811" t="s">
+        <v>913</v>
+      </c>
+      <c r="D811" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="2" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>844</v>
+        <v>888</v>
       </c>
       <c r="E813" s="2"/>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E815" s="2"/>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="C816" t="s">
+        <v>927</v>
+      </c>
+      <c r="D816" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E818" s="2"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B815" s="2" t="s">
+      <c r="B820" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C815" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D815" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="E815" s="2"/>
-    </row>
-    <row r="817" spans="1:5">
-      <c r="A817" s="2" t="s">
+      <c r="C820" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E820" s="2"/>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B817" s="2" t="s">
+      <c r="B822" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C817" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D817" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="E817" s="2"/>
-    </row>
-    <row r="819" spans="1:5">
-      <c r="A819" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C819" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D819" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E819" s="2"/>
-    </row>
-    <row r="821" spans="1:5">
-      <c r="A821" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B821" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C821" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="D821" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E821" s="2"/>
-    </row>
-    <row r="822" spans="1:5">
-      <c r="C822" t="s">
+      <c r="C822" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D822" t="s">
+      <c r="D822" s="2" t="s">
         <v>846</v>
       </c>
+      <c r="E822" s="2"/>
     </row>
     <row r="824" spans="1:5">
       <c r="A824" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="E824" s="2"/>
     </row>
     <row r="826" spans="1:5">
       <c r="A826" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>911</v>
+        <v>851</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>912</v>
+        <v>852</v>
       </c>
       <c r="E826" s="2"/>
     </row>
     <row r="828" spans="1:5">
       <c r="A828" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>879</v>
+        <v>940</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="E828" s="2"/>
     </row>
     <row r="829" spans="1:5">
       <c r="C829" t="s">
-        <v>938</v>
+        <v>847</v>
       </c>
       <c r="D829" t="s">
-        <v>939</v>
+        <v>848</v>
       </c>
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="E831" s="2"/>
     </row>
     <row r="833" spans="1:5">
       <c r="A833" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="E833" s="2"/>
     </row>
     <row r="835" spans="1:5">
       <c r="A835" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>605</v>
+        <v>947</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>843</v>
+        <v>881</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>844</v>
+        <v>882</v>
       </c>
       <c r="E835" s="2"/>
     </row>
     <row r="836" spans="1:5">
       <c r="C836" t="s">
-        <v>845</v>
+        <v>940</v>
       </c>
       <c r="D836" t="s">
-        <v>846</v>
+        <v>941</v>
       </c>
     </row>
     <row r="838" spans="1:5">
       <c r="A838" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E838" s="2"/>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B840" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B838" s="2" t="s">
+      <c r="C840" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E840" s="2"/>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="C838" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D838" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="E838" s="2"/>
-    </row>
-    <row r="839" spans="1:5">
-      <c r="C839" t="s">
+      <c r="B842" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C842" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D839" t="s">
+      <c r="D842" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="841" spans="1:5">
-      <c r="A841" s="2" t="s">
+      <c r="E842" s="2"/>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="C843" t="s">
+        <v>847</v>
+      </c>
+      <c r="D843" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="B841" s="2" t="s">
+      <c r="B845" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C841" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D841" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="E841" s="2"/>
-    </row>
-    <row r="842" spans="1:5">
-      <c r="C842" t="s">
-        <v>925</v>
-      </c>
-      <c r="D842" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="844" spans="1:5">
-      <c r="A844" s="2" t="s">
+      <c r="C845" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E845" s="2"/>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="C846" t="s">
+        <v>847</v>
+      </c>
+      <c r="D846" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B844" s="2" t="s">
+      <c r="B848" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C844" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D844" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="E844" s="2"/>
-    </row>
-    <row r="845" spans="1:5">
-      <c r="C845" t="s">
-        <v>915</v>
-      </c>
-      <c r="D845" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="847" spans="1:5">
-      <c r="A847" s="2" t="s">
+      <c r="C848" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E848" s="2"/>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="C849" t="s">
+        <v>927</v>
+      </c>
+      <c r="D849" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B847" s="2" t="s">
+      <c r="B851" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C847" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D847" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E847" s="2"/>
+      <c r="C851" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E851" s="2"/>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="C852" t="s">
+        <v>917</v>
+      </c>
+      <c r="D852" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E854" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="703">
   <si>
     <t>Sigla</t>
   </si>
@@ -931,22 +931,22 @@
     <t xml:space="preserve"> Tratamentos de Minérios e Hidrometalurgia</t>
   </si>
   <si>
-    <t>LOM3201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biofísica Molecular</t>
-  </si>
-  <si>
-    <t>LOM3202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Circuitos Elétricos</t>
-  </si>
-  <si>
-    <t>LOM3203</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Controle e Automação</t>
+    <t>LOM3114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estatística Aplicada à Engenharia</t>
+  </si>
+  <si>
+    <t>LOM3115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aplicações Tecnológicas Avançadas de Materiais Poliméricos</t>
+  </si>
+  <si>
+    <t>LOM3116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Análise de Falhas de Materiais e Componentes</t>
   </si>
   <si>
     <t>LOM3204</t>
@@ -961,18 +961,6 @@
     <t xml:space="preserve"> Eletromagnetismo</t>
   </si>
   <si>
-    <t>LOM3206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eletrônica</t>
-  </si>
-  <si>
-    <t>LOM3207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eletrônica de Potência</t>
-  </si>
-  <si>
     <t>LOM3208</t>
   </si>
   <si>
@@ -982,12 +970,6 @@
     <t>LOM3210</t>
   </si>
   <si>
-    <t>LOM3211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Estruturas e Propriedades de Materiais</t>
-  </si>
-  <si>
     <t>LOM3212</t>
   </si>
   <si>
@@ -1000,12 +982,6 @@
     <t xml:space="preserve"> Fenômenos de Transporte B</t>
   </si>
   <si>
-    <t>LOM3214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Física de Superfícies</t>
-  </si>
-  <si>
     <t>LOM3215</t>
   </si>
   <si>
@@ -1036,36 +1012,12 @@
     <t xml:space="preserve"> Introdução à Spintrônica</t>
   </si>
   <si>
-    <t>LOM3221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Eletrônica</t>
-  </si>
-  <si>
-    <t>LOM3222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais e Dispositivos Dielétricos e Piezelétricos</t>
-  </si>
-  <si>
     <t>LOM3223</t>
   </si>
   <si>
     <t xml:space="preserve"> Materiais e Dispositivos Magnéticos e Supercondutores</t>
   </si>
   <si>
-    <t>LOM3224</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais e Dispositivos Ópticos e Fotônicos</t>
-  </si>
-  <si>
-    <t>LOM3225</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais e Dispositivos Semicondutores</t>
-  </si>
-  <si>
     <t>LOM3226</t>
   </si>
   <si>
@@ -1102,12 +1054,6 @@
     <t xml:space="preserve"> Métodos Experimentais da Física III</t>
   </si>
   <si>
-    <t>LOM3231</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Métodos Experimentais da Física IV</t>
-  </si>
-  <si>
     <t>LOM3232</t>
   </si>
   <si>
@@ -1126,12 +1072,6 @@
     <t xml:space="preserve"> Óptica Física</t>
   </si>
   <si>
-    <t>LOM3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processamento de Materiais</t>
-  </si>
-  <si>
     <t>LOM3236</t>
   </si>
   <si>
@@ -1141,13 +1081,7 @@
     <t>LOM3238</t>
   </si>
   <si>
-    <t xml:space="preserve"> Projeto Integrado I</t>
-  </si>
-  <si>
-    <t>LOM3239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto Integrado II</t>
+    <t xml:space="preserve"> Projeto Integrado</t>
   </si>
   <si>
     <t>LOM3240</t>
@@ -1174,30 +1108,12 @@
     <t xml:space="preserve"> Seminários em Engenharia Física</t>
   </si>
   <si>
-    <t>LOM3244</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sensores e Transdutores</t>
-  </si>
-  <si>
-    <t>LOM3245</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas Avançadas de Caracterização de Materiais</t>
-  </si>
-  <si>
     <t>LOM3246</t>
   </si>
   <si>
     <t xml:space="preserve"> Técnicas de Caracterização de Materiais</t>
   </si>
   <si>
-    <t>LOM3247</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas de Análises Espectroscópicas</t>
-  </si>
-  <si>
     <t>LOM3248</t>
   </si>
   <si>
@@ -1213,37 +1129,16 @@
     <t>LOM3250</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trabalho de Graduação</t>
-  </si>
-  <si>
-    <t>LOM3251</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vibração e Acústica</t>
-  </si>
-  <si>
     <t>LOM3253</t>
   </si>
   <si>
     <t xml:space="preserve"> Física Matemática</t>
   </si>
   <si>
-    <t>LOM3254</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratório de Circuitos Elétricos</t>
-  </si>
-  <si>
-    <t>LOM3255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução a Projetos de Engenharia</t>
-  </si>
-  <si>
     <t>LOM3256</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tópicos em Cálculo de Estrutura Eletrônica dos Materiais</t>
+    <t xml:space="preserve"> Tópicos em Cálculo de Estrutura Eletrônica</t>
   </si>
   <si>
     <t>LOM3257</t>
@@ -1270,6 +1165,51 @@
     <t xml:space="preserve"> Computação Científica em Python</t>
   </si>
   <si>
+    <t>LOM3261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Métodos Numéricos e Aplicações</t>
+  </si>
+  <si>
+    <t>LOM3262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Circuitos Elétricos - teoria e prática</t>
+  </si>
+  <si>
+    <t>LOM3263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eletrônica Fundamental e Aplicada</t>
+  </si>
+  <si>
+    <t>LOM3264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Controle</t>
+  </si>
+  <si>
+    <t>LOM3265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automação</t>
+  </si>
+  <si>
+    <t>LOM3266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fotônica Integrada</t>
+  </si>
+  <si>
+    <t>LOM3267</t>
+  </si>
+  <si>
+    <t>LOM3268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Computacional</t>
+  </si>
+  <si>
     <t>LOQ4001</t>
   </si>
   <si>
@@ -1334,12 +1274,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Processos Químicos Industriais II</t>
-  </si>
-  <si>
-    <t>LOQ4031</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Química Geral I</t>
   </si>
   <si>
     <t>LOQ4037</t>
@@ -2539,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E724"/>
+  <dimension ref="A1:E704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3843,23 +3777,23 @@
         <v>317</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -3870,7 +3804,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
@@ -3878,7 +3812,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
@@ -3886,7 +3820,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
@@ -3894,7 +3828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
@@ -3902,7 +3836,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
@@ -3910,86 +3844,86 @@
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C332" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D348" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E348" s="2"/>
-    </row>
-    <row r="350" spans="1:5">
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
         <v>354</v>
       </c>
@@ -3997,7 +3931,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
         <v>356</v>
       </c>
@@ -4005,7 +3939,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>358</v>
       </c>
@@ -4013,7 +3947,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>360</v>
       </c>
@@ -4021,7 +3955,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>362</v>
       </c>
@@ -4029,7 +3963,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
         <v>364</v>
       </c>
@@ -4037,7 +3971,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
         <v>366</v>
       </c>
@@ -4045,7 +3979,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
         <v>368</v>
       </c>
@@ -4053,1453 +3987,1373 @@
         <v>369</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="2" t="s">
+      <c r="B368" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="2" t="s">
+      <c r="B370" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B370" s="2" t="s">
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="2" t="s">
+      <c r="B372" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B374" s="2" t="s">
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B376" s="2" t="s">
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B378" s="2" t="s">
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="2" t="s">
+      <c r="B380" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B380" s="2" t="s">
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="2" t="s">
+      <c r="B382" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B382" s="2" t="s">
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B384" s="2" t="s">
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="2" t="s">
+      <c r="B386" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B386" s="2" t="s">
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="2" t="s">
+      <c r="B388" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B388" s="2" t="s">
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="2" t="s">
+      <c r="B390" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B390" s="2" t="s">
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="2" t="s">
+      <c r="B392" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B394" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="2" t="s">
+    <row r="396" spans="1:2">
+      <c r="A396" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B396" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="2" t="s">
+    <row r="398" spans="1:2">
+      <c r="A398" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
-      <c r="A398" s="2" t="s">
+    <row r="400" spans="1:2">
+      <c r="A400" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="2" t="s">
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B402" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="2" t="s">
+    <row r="404" spans="1:2">
+      <c r="A404" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B404" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="2" t="s">
+    <row r="406" spans="1:2">
+      <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B406" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="2" t="s">
+    <row r="408" spans="1:2">
+      <c r="A408" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B408" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="2" t="s">
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B410" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
+    <row r="412" spans="1:2">
+      <c r="A412" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B412" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
+    <row r="414" spans="1:2">
+      <c r="A414" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
+    <row r="416" spans="1:2">
+      <c r="A416" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>437</v>
+        <v>238</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B498" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" s="2" t="s">
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B500" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
-      <c r="A500" s="2" t="s">
+    <row r="502" spans="1:5">
+      <c r="A502" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B502" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
-      <c r="A502" s="2" t="s">
+    <row r="504" spans="1:5">
+      <c r="A504" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
-      <c r="A504" s="2" t="s">
+    <row r="506" spans="1:5">
+      <c r="A506" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B506" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
-      <c r="A506" s="2" t="s">
+    <row r="508" spans="1:5">
+      <c r="A508" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B508" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
-      <c r="A508" s="2" t="s">
+    <row r="510" spans="1:5">
+      <c r="A510" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B510" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
-      <c r="A510" s="2" t="s">
+    <row r="512" spans="1:5">
+      <c r="A512" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B512" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
-      <c r="A512" s="2" t="s">
+    <row r="514" spans="1:2">
+      <c r="A514" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B514" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="2" t="s">
+    <row r="516" spans="1:2">
+      <c r="A516" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B516" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="2" t="s">
+    <row r="518" spans="1:2">
+      <c r="A518" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B518" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="2" t="s">
+    <row r="520" spans="1:2">
+      <c r="A520" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B520" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="2" t="s">
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B522" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="2" t="s">
+    <row r="524" spans="1:2">
+      <c r="A524" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B524" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="2" t="s">
+    <row r="526" spans="1:2">
+      <c r="A526" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="2" t="s">
+    <row r="528" spans="1:2">
+      <c r="A528" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B528" s="2" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>548</v>
+        <v>415</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>435</v>
+        <v>565</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>676</v>
+        <v>238</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>238</v>
+        <v>693</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>697</v>
+        <v>427</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B706" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B708" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B710" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B712" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B714" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B718" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B720" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="701">
   <si>
     <t>Sigla</t>
   </si>
@@ -1022,12 +1022,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Mecânica Quântica</t>
-  </si>
-  <si>
-    <t>6279110</t>
-  </si>
-  <si>
-    <t>Carlos Alberto Moreira dos Santos</t>
   </si>
   <si>
     <t>LOM3227</t>
@@ -3804,7 +3798,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
@@ -3820,7 +3814,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
@@ -3828,7 +3822,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
@@ -3836,7 +3830,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
@@ -3844,152 +3838,145 @@
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C332" s="2" t="s">
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="B334" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="2" t="s">
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B336" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>124</v>
@@ -3997,109 +3984,106 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B372" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
+    <row r="374" spans="1:2">
+      <c r="A374" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2" t="s">
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="2" t="s">
+    <row r="378" spans="1:2">
+      <c r="A378" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="2" t="s">
+    <row r="380" spans="1:2">
+      <c r="A380" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B380" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="2" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B382" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="2" t="s">
+    <row r="384" spans="1:2">
+      <c r="A384" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>116</v>
@@ -4107,159 +4091,159 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>238</v>
@@ -4267,266 +4251,266 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -4534,703 +4518,703 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B674" s="2" t="s">
         <v>238</v>
@@ -5238,122 +5222,122 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="933">
   <si>
     <t>Sigla</t>
   </si>
@@ -961,34 +961,34 @@
     <t xml:space="preserve"> Química Inorgânica</t>
   </si>
   <si>
+    <t>LOM3043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seleção de Materiais</t>
+  </si>
+  <si>
+    <t>LOM3046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Técnicas de Análise Microestrutural</t>
+  </si>
+  <si>
+    <t>1643715</t>
+  </si>
+  <si>
+    <t>Paulo Atsushi Suzuki</t>
+  </si>
+  <si>
+    <t>LOM3047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Técnicas de Análise Química</t>
+  </si>
+  <si>
     <t>5840712</t>
   </si>
   <si>
     <t>Ângelo Capri Neto</t>
-  </si>
-  <si>
-    <t>LOM3043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seleção de Materiais</t>
-  </si>
-  <si>
-    <t>LOM3046</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas de Análise Microestrutural</t>
-  </si>
-  <si>
-    <t>1643715</t>
-  </si>
-  <si>
-    <t>Paulo Atsushi Suzuki</t>
-  </si>
-  <si>
-    <t>LOM3047</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Técnicas de Análise Química</t>
   </si>
   <si>
     <t>5840521</t>
@@ -3163,7 +3163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E840"/>
+  <dimension ref="A1:E839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4926,4632 +4926,4624 @@
         <v>314</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5">
       <c r="C232" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D232" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="C233" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="C237" t="s">
+        <v>319</v>
+      </c>
+      <c r="D237" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="C240" t="s">
+        <v>325</v>
+      </c>
+      <c r="D240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="C243" t="s">
         <v>303</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D243" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="C238" t="s">
-        <v>321</v>
-      </c>
-      <c r="D238" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="C241" t="s">
+    <row r="245" spans="1:5">
+      <c r="A245" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D245" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="C244" t="s">
-        <v>303</v>
-      </c>
-      <c r="D244" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E246" s="2"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="C249" t="s">
+      <c r="C248" t="s">
         <v>333</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D248" t="s">
         <v>334</v>
       </c>
     </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E250" s="2"/>
+    </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s">
+        <v>339</v>
+      </c>
+      <c r="D251" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="C252" t="s">
+      <c r="E253" s="2"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D255" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C254" s="2" t="s">
+      <c r="E255" s="2"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D257" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C256" s="2" t="s">
+      <c r="E257" s="2"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="C260" t="s">
         <v>339</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D260" t="s">
         <v>340</v>
       </c>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="C261" t="s">
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="C263" t="s">
         <v>339</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D263" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5">
       <c r="C264" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="D264" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="C265" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="C267" t="s">
+        <v>333</v>
+      </c>
+      <c r="D267" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="C270" t="s">
         <v>303</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D270" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="C268" t="s">
-        <v>333</v>
-      </c>
-      <c r="D268" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C270" s="2" t="s">
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D272" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="C271" t="s">
-        <v>303</v>
-      </c>
-      <c r="D271" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="2" t="s">
+      <c r="E272" s="2"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E277" s="2"/>
+      <c r="C277" t="s">
+        <v>361</v>
+      </c>
+      <c r="D277" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="278" spans="1:5">
       <c r="C278" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="D278" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="C279" t="s">
+        <v>363</v>
+      </c>
+      <c r="D279" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" t="s">
+        <v>303</v>
+      </c>
+      <c r="D282" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="C287" t="s">
         <v>259</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D287" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="C280" t="s">
-        <v>363</v>
-      </c>
-      <c r="D280" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="C283" t="s">
-        <v>303</v>
-      </c>
-      <c r="D283" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E285" s="2"/>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
-        <v>259</v>
-      </c>
-      <c r="D288" t="s">
-        <v>260</v>
-      </c>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E290" s="2"/>
+      <c r="C290" t="s">
+        <v>299</v>
+      </c>
+      <c r="D290" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="291" spans="1:5">
       <c r="C291" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D291" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="C292" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D292" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="C293" t="s">
-        <v>255</v>
-      </c>
-      <c r="D293" t="s">
         <v>256</v>
       </c>
     </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E294" s="2"/>
+    </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E295" s="2"/>
+      <c r="C295" t="s">
+        <v>337</v>
+      </c>
+      <c r="D295" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="C296" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D296" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="C297" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="D297" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="C298" t="s">
-        <v>259</v>
-      </c>
-      <c r="D298" t="s">
         <v>260</v>
       </c>
     </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E299" s="2"/>
+    </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E300" s="2"/>
+      <c r="C300" t="s">
+        <v>275</v>
+      </c>
+      <c r="D300" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="301" spans="1:5">
       <c r="C301" t="s">
+        <v>263</v>
+      </c>
+      <c r="D301" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="C304" t="s">
+        <v>339</v>
+      </c>
+      <c r="D304" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="C317" t="s">
+        <v>393</v>
+      </c>
+      <c r="D317" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D319" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="C302" t="s">
-        <v>263</v>
-      </c>
-      <c r="D302" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="C305" t="s">
-        <v>339</v>
-      </c>
-      <c r="D305" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C307" s="2" t="s">
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="C320" t="s">
         <v>333</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D320" t="s">
         <v>334</v>
       </c>
-      <c r="E307" s="2"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E313" s="2"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E315" s="2"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="C318" t="s">
-        <v>393</v>
-      </c>
-      <c r="D318" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="C321" t="s">
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D322" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="C324" t="s">
+      <c r="C323" t="s">
         <v>399</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D323" t="s">
         <v>400</v>
       </c>
     </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E325" s="2"/>
+    </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E326" s="2"/>
+      <c r="C326" t="s">
+        <v>259</v>
+      </c>
+      <c r="D326" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="C327" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="D327" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="C328" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D329" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E330" s="2"/>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E332" s="2"/>
+      <c r="C332" t="s">
+        <v>361</v>
+      </c>
+      <c r="D332" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="333" spans="1:5">
       <c r="C333" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D333" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="C334" t="s">
-        <v>363</v>
-      </c>
-      <c r="D334" t="s">
         <v>364</v>
       </c>
     </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E335" s="2"/>
+    </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="C337" t="s">
+      <c r="C336" t="s">
         <v>269</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D336" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E338" s="2"/>
+    </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E339" s="2"/>
+      <c r="C339" t="s">
+        <v>411</v>
+      </c>
+      <c r="D339" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="340" spans="1:5">
       <c r="C340" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="D340" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="C341" t="s">
-        <v>303</v>
-      </c>
-      <c r="D341" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E342" s="2"/>
+    </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" t="s">
+        <v>363</v>
+      </c>
+      <c r="D343" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="C346" t="s">
         <v>291</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D346" t="s">
         <v>292</v>
       </c>
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="C344" t="s">
-        <v>363</v>
-      </c>
-      <c r="D344" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C346" s="2" t="s">
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="C349" t="s">
         <v>361</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D349" t="s">
         <v>362</v>
       </c>
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="C347" t="s">
-        <v>291</v>
-      </c>
-      <c r="D347" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5">
       <c r="C350" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="D350" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="C351" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="D351" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="C352" t="s">
-        <v>363</v>
-      </c>
-      <c r="D352" t="s">
         <v>364</v>
       </c>
     </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E353" s="2"/>
+    </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E354" s="2"/>
+      <c r="C354" t="s">
+        <v>411</v>
+      </c>
+      <c r="D354" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="355" spans="1:5">
       <c r="C355" t="s">
+        <v>303</v>
+      </c>
+      <c r="D355" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="C358" t="s">
+        <v>393</v>
+      </c>
+      <c r="D358" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="C361" t="s">
         <v>411</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D361" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="C356" t="s">
-        <v>303</v>
-      </c>
-      <c r="D356" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="C359" t="s">
-        <v>393</v>
-      </c>
-      <c r="D359" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5">
       <c r="C362" t="s">
+        <v>303</v>
+      </c>
+      <c r="D362" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="C365" t="s">
+        <v>303</v>
+      </c>
+      <c r="D365" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="C368" t="s">
         <v>411</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D368" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="C363" t="s">
-        <v>303</v>
-      </c>
-      <c r="D363" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="C366" t="s">
-        <v>303</v>
-      </c>
-      <c r="D366" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5">
       <c r="C369" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="D369" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="C370" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="C372" t="s">
         <v>303</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D372" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="C373" t="s">
-        <v>303</v>
-      </c>
-      <c r="D373" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="2" t="s">
+    <row r="374" spans="1:5">
+      <c r="A374" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C374" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E375" s="2"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="2" t="s">
+      <c r="E374" s="2"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C376" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D376" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E377" s="2"/>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E379" s="2"/>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="C380" t="s">
+      <c r="C379" t="s">
         <v>281</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D379" t="s">
         <v>282</v>
       </c>
     </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E381" s="2"/>
+    </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="C383" t="s">
+      <c r="C382" t="s">
         <v>399</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D382" t="s">
         <v>400</v>
       </c>
     </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E384" s="2"/>
+    </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E385" s="2"/>
+      <c r="C385" t="s">
+        <v>285</v>
+      </c>
+      <c r="D385" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="386" spans="1:5">
       <c r="C386" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="D386" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="C387" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="D387" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="C388" t="s">
-        <v>321</v>
-      </c>
-      <c r="D388" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B389" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C389" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="2" t="s">
+      <c r="E389" s="2"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B391" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C391" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E392" s="2"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" t="s">
+        <v>291</v>
+      </c>
+      <c r="D394" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D394" s="2" t="s">
+      <c r="D398" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E394" s="2"/>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="C395" t="s">
-        <v>291</v>
-      </c>
-      <c r="D395" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E397" s="2"/>
+      <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E399" s="2"/>
+      <c r="C399" t="s">
+        <v>391</v>
+      </c>
+      <c r="D399" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="400" spans="1:5">
       <c r="C400" t="s">
+        <v>393</v>
+      </c>
+      <c r="D400" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="C403" t="s">
+        <v>319</v>
+      </c>
+      <c r="D403" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="C406" t="s">
+        <v>291</v>
+      </c>
+      <c r="D406" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="C409" t="s">
+        <v>291</v>
+      </c>
+      <c r="D409" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="C412" t="s">
+        <v>458</v>
+      </c>
+      <c r="D412" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="C415" t="s">
         <v>391</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D415" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
-      <c r="C401" t="s">
-        <v>393</v>
-      </c>
-      <c r="D401" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="A403" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C403" s="2" t="s">
+    <row r="417" spans="1:5">
+      <c r="A417" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="C418" t="s">
         <v>291</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D418" t="s">
         <v>292</v>
       </c>
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="C404" t="s">
-        <v>321</v>
-      </c>
-      <c r="D404" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="C407" t="s">
-        <v>291</v>
-      </c>
-      <c r="D407" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="C410" t="s">
-        <v>291</v>
-      </c>
-      <c r="D410" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="C413" t="s">
-        <v>458</v>
-      </c>
-      <c r="D413" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="C416" t="s">
-        <v>391</v>
-      </c>
-      <c r="D416" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5">
       <c r="C419" t="s">
+        <v>393</v>
+      </c>
+      <c r="D419" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="C422" t="s">
         <v>291</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D422" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
-      <c r="C420" t="s">
+    <row r="424" spans="1:5">
+      <c r="A424" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="C427" t="s">
+        <v>319</v>
+      </c>
+      <c r="D427" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="C436" t="s">
         <v>393</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D436" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="C423" t="s">
-        <v>291</v>
-      </c>
-      <c r="D423" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E425" s="2"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E427" s="2"/>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="C428" t="s">
-        <v>321</v>
-      </c>
-      <c r="D428" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E430" s="2"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E432" s="2"/>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E434" s="2"/>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E436" s="2"/>
     </row>
     <row r="437" spans="1:5">
       <c r="C437" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="D437" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="C438" t="s">
-        <v>321</v>
-      </c>
-      <c r="D438" t="s">
-        <v>322</v>
-      </c>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E439" s="2"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C440" s="2" t="s">
+      <c r="C440" t="s">
+        <v>399</v>
+      </c>
+      <c r="D440" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E440" s="2"/>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="C441" t="s">
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443" t="s">
         <v>399</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D443" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C443" s="2" t="s">
+    <row r="445" spans="1:5">
+      <c r="A445" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="C448" t="s">
+        <v>337</v>
+      </c>
+      <c r="D448" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E450" s="2"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E452" s="2"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="C453" t="s">
+        <v>291</v>
+      </c>
+      <c r="D453" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E455" s="2"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="C458" t="s">
         <v>333</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="D458" t="s">
         <v>334</v>
       </c>
-      <c r="E443" s="2"/>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="C444" t="s">
-        <v>399</v>
-      </c>
-      <c r="D444" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E446" s="2"/>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="A448" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C448" s="2" t="s">
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="D460" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E448" s="2"/>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="C449" t="s">
-        <v>337</v>
-      </c>
-      <c r="D449" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E451" s="2"/>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E453" s="2"/>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="C454" t="s">
+      <c r="E460" s="2"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E462" s="2"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="C463" t="s">
         <v>291</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D463" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C456" s="2" t="s">
+    <row r="465" spans="1:5">
+      <c r="A465" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="C466" t="s">
         <v>285</v>
       </c>
-      <c r="D456" s="2" t="s">
+      <c r="D466" t="s">
         <v>286</v>
       </c>
-      <c r="E456" s="2"/>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E458" s="2"/>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="C459" t="s">
-        <v>333</v>
-      </c>
-      <c r="D459" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="A461" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E461" s="2"/>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="A463" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E463" s="2"/>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="C464" t="s">
-        <v>291</v>
-      </c>
-      <c r="D464" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E466" s="2"/>
     </row>
     <row r="467" spans="1:5">
       <c r="C467" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="D467" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="C468" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="D468" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="C469" t="s">
-        <v>321</v>
-      </c>
-      <c r="D469" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="A471" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B470" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="C470" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D471" s="2" t="s">
+      <c r="D470" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E471" s="2"/>
+      <c r="E470" s="2"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E472" s="2"/>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C473" s="2" t="s">
+      <c r="C473" t="s">
+        <v>291</v>
+      </c>
+      <c r="D473" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E475" s="2"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="C478" t="s">
         <v>446</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="D478" t="s">
         <v>447</v>
       </c>
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="C474" t="s">
-        <v>291</v>
-      </c>
-      <c r="D474" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E476" s="2"/>
-    </row>
-    <row r="478" spans="1:5">
-      <c r="A478" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E478" s="2"/>
     </row>
     <row r="479" spans="1:5">
       <c r="C479" t="s">
+        <v>333</v>
+      </c>
+      <c r="D479" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E481" s="2"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="C482" t="s">
+        <v>291</v>
+      </c>
+      <c r="D482" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E484" s="2"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="C485" t="s">
+        <v>291</v>
+      </c>
+      <c r="D485" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E487" s="2"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="C488" t="s">
+        <v>458</v>
+      </c>
+      <c r="D488" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E490" s="2"/>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="C491" t="s">
+        <v>458</v>
+      </c>
+      <c r="D491" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E493" s="2"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="C494" t="s">
+        <v>458</v>
+      </c>
+      <c r="D494" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E496" s="2"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="C497" t="s">
+        <v>458</v>
+      </c>
+      <c r="D497" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E499" s="2"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="C500" t="s">
+        <v>458</v>
+      </c>
+      <c r="D500" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D502" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="480" spans="1:5">
-      <c r="C480" t="s">
-        <v>333</v>
-      </c>
-      <c r="D480" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C482" s="2" t="s">
+      <c r="E502" s="2"/>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="C503" t="s">
+        <v>291</v>
+      </c>
+      <c r="D503" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="D505" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E482" s="2"/>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="C483" t="s">
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="C506" t="s">
         <v>291</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D506" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E485" s="2"/>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="C486" t="s">
-        <v>291</v>
-      </c>
-      <c r="D486" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="A488" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E488" s="2"/>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="C489" t="s">
-        <v>458</v>
-      </c>
-      <c r="D489" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E491" s="2"/>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="C492" t="s">
-        <v>458</v>
-      </c>
-      <c r="D492" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
-      <c r="A494" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E494" s="2"/>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="C495" t="s">
-        <v>458</v>
-      </c>
-      <c r="D495" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E497" s="2"/>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="C498" t="s">
-        <v>458</v>
-      </c>
-      <c r="D498" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="A500" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E500" s="2"/>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="C501" t="s">
-        <v>458</v>
-      </c>
-      <c r="D501" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E503" s="2"/>
-    </row>
-    <row r="504" spans="1:5">
-      <c r="C504" t="s">
-        <v>291</v>
-      </c>
-      <c r="D504" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E506" s="2"/>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="C507" t="s">
-        <v>291</v>
-      </c>
-      <c r="D507" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="A509" s="2" t="s">
+    <row r="508" spans="1:5">
+      <c r="A508" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B508" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C509" s="2" t="s">
+      <c r="C508" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="D508" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E509" s="2"/>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511" s="2" t="s">
+      <c r="E508" s="2"/>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B510" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C511" s="2" t="s">
+      <c r="C510" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="D510" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="2" t="s">
+      <c r="E510" s="2"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B512" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C512" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="D512" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="2" t="s">
+      <c r="E512" s="2"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B514" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C515" s="2" t="s">
+      <c r="C514" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E515" s="2"/>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="2" t="s">
+      <c r="E514" s="2"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B516" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C517" s="2" t="s">
+      <c r="C516" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E517" s="2"/>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="A519" s="2" t="s">
+      <c r="E516" s="2"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B518" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C519" s="2" t="s">
+      <c r="C518" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E519" s="2"/>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="2" t="s">
+      <c r="E518" s="2"/>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B520" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C521" s="2" t="s">
+      <c r="C520" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="D520" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E521" s="2"/>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="2" t="s">
+      <c r="E520" s="2"/>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B522" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C523" s="2" t="s">
+      <c r="C522" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="D522" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E523" s="2"/>
-    </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="2" t="s">
+      <c r="E522" s="2"/>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B524" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C525" s="2" t="s">
+      <c r="C524" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="D524" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E525" s="2"/>
-    </row>
-    <row r="527" spans="1:5">
-      <c r="A527" s="2" t="s">
+      <c r="E524" s="2"/>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C527" s="2" t="s">
+      <c r="C526" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D527" s="2" t="s">
+      <c r="D526" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E527" s="2"/>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="2" t="s">
+      <c r="E526" s="2"/>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B528" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C529" s="2" t="s">
+      <c r="C528" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="D528" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E529" s="2"/>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="A531" s="2" t="s">
+      <c r="E528" s="2"/>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B530" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C531" s="2" t="s">
+      <c r="C530" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="D530" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E531" s="2"/>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="A533" s="2" t="s">
+      <c r="E530" s="2"/>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B532" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="C532" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="D532" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E533" s="2"/>
+      <c r="E532" s="2"/>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E534" s="2"/>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E535" s="2"/>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="C536" t="s">
+      <c r="C535" t="s">
         <v>564</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D535" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="2" t="s">
+    <row r="537" spans="1:5">
+      <c r="A537" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="C537" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D538" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="A540" s="2" t="s">
+      <c r="E537" s="2"/>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B539" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="C539" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E540" s="2"/>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="A542" s="2" t="s">
+      <c r="E539" s="2"/>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B541" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C542" s="2" t="s">
+      <c r="C541" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D542" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E542" s="2"/>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="A544" s="2" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B543" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="C543" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D544" s="2" t="s">
+      <c r="D543" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E544" s="2"/>
-    </row>
-    <row r="546" spans="1:5">
-      <c r="A546" s="2" t="s">
+      <c r="E543" s="2"/>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B545" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="C545" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D546" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E546" s="2"/>
-    </row>
-    <row r="548" spans="1:5">
-      <c r="A548" s="2" t="s">
+      <c r="E545" s="2"/>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B547" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C548" s="2" t="s">
+      <c r="C547" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="D547" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E548" s="2"/>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="A550" s="2" t="s">
+      <c r="E547" s="2"/>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B549" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C550" s="2" t="s">
+      <c r="C549" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D550" s="2" t="s">
+      <c r="D549" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E550" s="2"/>
-    </row>
-    <row r="552" spans="1:5">
-      <c r="A552" s="2" t="s">
+      <c r="E549" s="2"/>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B551" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C552" s="2" t="s">
+      <c r="C551" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D552" s="2" t="s">
+      <c r="D551" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E552" s="2"/>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="A554" s="2" t="s">
+      <c r="E551" s="2"/>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B553" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C554" s="2" t="s">
+      <c r="C553" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D554" s="2" t="s">
+      <c r="D553" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="E554" s="2"/>
-    </row>
-    <row r="556" spans="1:5">
-      <c r="A556" s="2" t="s">
+      <c r="E553" s="2"/>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B555" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C556" s="2" t="s">
+      <c r="C555" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D556" s="2" t="s">
+      <c r="D555" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E556" s="2"/>
-    </row>
-    <row r="558" spans="1:5">
-      <c r="A558" s="2" t="s">
+      <c r="E555" s="2"/>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B557" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C558" s="2" t="s">
+      <c r="C557" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D558" s="2" t="s">
+      <c r="D557" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E558" s="2"/>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="A560" s="2" t="s">
+      <c r="E557" s="2"/>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B559" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="C559" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D560" s="2" t="s">
+      <c r="D559" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E560" s="2"/>
-    </row>
-    <row r="562" spans="1:5">
-      <c r="A562" s="2" t="s">
+      <c r="E559" s="2"/>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B561" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C562" s="2" t="s">
+      <c r="C561" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D562" s="2" t="s">
+      <c r="D561" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E562" s="2"/>
-    </row>
-    <row r="564" spans="1:5">
-      <c r="A564" s="2" t="s">
+      <c r="E561" s="2"/>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B563" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="C563" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D564" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E564" s="2"/>
-    </row>
-    <row r="566" spans="1:5">
-      <c r="A566" s="2" t="s">
+      <c r="E563" s="2"/>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B565" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="C565" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D566" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E566" s="2"/>
+      <c r="E565" s="2"/>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E567" s="2"/>
     </row>
     <row r="568" spans="1:5">
-      <c r="A568" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C568" s="2" t="s">
+      <c r="C568" t="s">
+        <v>607</v>
+      </c>
+      <c r="D568" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E570" s="2"/>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E572" s="2"/>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E574" s="2"/>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E576" s="2"/>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E578" s="2"/>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E580" s="2"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D568" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E568" s="2"/>
-    </row>
-    <row r="569" spans="1:5">
-      <c r="C569" t="s">
+      <c r="E582" s="2"/>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E584" s="2"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E586" s="2"/>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E588" s="2"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E590" s="2"/>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E592" s="2"/>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E594" s="2"/>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E596" s="2"/>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E598" s="2"/>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E600" s="2"/>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E602" s="2"/>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E604" s="2"/>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E606" s="2"/>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="C607" t="s">
         <v>607</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D607" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
-      <c r="A571" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E571" s="2"/>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E573" s="2"/>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="A575" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E575" s="2"/>
-    </row>
-    <row r="577" spans="1:5">
-      <c r="A577" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E577" s="2"/>
-    </row>
-    <row r="579" spans="1:5">
-      <c r="A579" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D579" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E579" s="2"/>
-    </row>
-    <row r="581" spans="1:5">
-      <c r="A581" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D581" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E581" s="2"/>
-    </row>
-    <row r="583" spans="1:5">
-      <c r="A583" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B583" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E583" s="2"/>
-    </row>
-    <row r="585" spans="1:5">
-      <c r="A585" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B585" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D585" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E585" s="2"/>
-    </row>
-    <row r="587" spans="1:5">
-      <c r="A587" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B587" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D587" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E587" s="2"/>
-    </row>
-    <row r="589" spans="1:5">
-      <c r="A589" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E589" s="2"/>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="A591" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C591" s="2" t="s">
+    <row r="609" spans="1:5">
+      <c r="A609" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C609" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D591" s="2" t="s">
+      <c r="D609" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E591" s="2"/>
-    </row>
-    <row r="593" spans="1:5">
-      <c r="A593" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B593" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E593" s="2"/>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="A595" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B595" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E595" s="2"/>
-    </row>
-    <row r="597" spans="1:5">
-      <c r="A597" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B597" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E597" s="2"/>
-    </row>
-    <row r="599" spans="1:5">
-      <c r="A599" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B599" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E599" s="2"/>
-    </row>
-    <row r="601" spans="1:5">
-      <c r="A601" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B601" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C601" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D601" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="603" spans="1:5">
-      <c r="A603" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B603" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="605" spans="1:5">
-      <c r="A605" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C605" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="607" spans="1:5">
-      <c r="A607" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E607" s="2"/>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="C608" t="s">
-        <v>607</v>
-      </c>
-      <c r="D608" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="610" spans="1:5">
-      <c r="A610" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C610" s="2" t="s">
+      <c r="E609" s="2"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C611" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D610" s="2" t="s">
+      <c r="D611" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="612" spans="1:5">
-      <c r="A612" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D612" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E612" s="2"/>
+      <c r="E611" s="2"/>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E613" s="2"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B614" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E614" s="2"/>
+      <c r="C614" t="s">
+        <v>591</v>
+      </c>
+      <c r="D614" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="615" spans="1:5">
       <c r="C615" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="D615" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
     </row>
     <row r="616" spans="1:5">
       <c r="C616" t="s">
+        <v>554</v>
+      </c>
+      <c r="D616" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E618" s="2"/>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E620" s="2"/>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E622" s="2"/>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E624" s="2"/>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="C625" t="s">
+        <v>691</v>
+      </c>
+      <c r="D625" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E627" s="2"/>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E629" s="2"/>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="C630" t="s">
+        <v>697</v>
+      </c>
+      <c r="D630" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E632" s="2"/>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="C633" t="s">
+        <v>697</v>
+      </c>
+      <c r="D633" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E635" s="2"/>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C637" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D616" t="s">
+      <c r="D637" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="617" spans="1:5">
-      <c r="C617" t="s">
-        <v>554</v>
-      </c>
-      <c r="D617" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="619" spans="1:5">
-      <c r="A619" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B619" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C619" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D619" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E619" s="2"/>
-    </row>
-    <row r="621" spans="1:5">
-      <c r="A621" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B621" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C621" s="2" t="s">
+      <c r="E637" s="2"/>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="C638" t="s">
+        <v>691</v>
+      </c>
+      <c r="D638" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E640" s="2"/>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E642" s="2"/>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E644" s="2"/>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E646" s="2"/>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E648" s="2"/>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E650" s="2"/>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E652" s="2"/>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E654" s="2"/>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E656" s="2"/>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E658" s="2"/>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E660" s="2"/>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E662" s="2"/>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E664" s="2"/>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E666" s="2"/>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E668" s="2"/>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E670" s="2"/>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E672" s="2"/>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E674" s="2"/>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E676" s="2"/>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E678" s="2"/>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E680" s="2"/>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E682" s="2"/>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E684" s="2"/>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E686" s="2"/>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E688" s="2"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="C689" t="s">
+        <v>7</v>
+      </c>
+      <c r="D689" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E691" s="2"/>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E693" s="2"/>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E695" s="2"/>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E697" s="2"/>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E699" s="2"/>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E701" s="2"/>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E703" s="2"/>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E705" s="2"/>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E707" s="2"/>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E709" s="2"/>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E711" s="2"/>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C713" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D621" s="2" t="s">
+      <c r="D713" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E621" s="2"/>
-    </row>
-    <row r="623" spans="1:5">
-      <c r="A623" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B623" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C623" s="2" t="s">
+      <c r="E713" s="2"/>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E715" s="2"/>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E717" s="2"/>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E719" s="2"/>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E721" s="2"/>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E723" s="2"/>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E725" s="2"/>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E727" s="2"/>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E729" s="2"/>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E731" s="2"/>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E733" s="2"/>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E735" s="2"/>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E737" s="2"/>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="C738" t="s">
         <v>564</v>
       </c>
-      <c r="D623" s="2" t="s">
+      <c r="D738" t="s">
         <v>565</v>
       </c>
-      <c r="E623" s="2"/>
-    </row>
-    <row r="625" spans="1:5">
-      <c r="A625" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B625" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C625" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D625" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E625" s="2"/>
-    </row>
-    <row r="626" spans="1:5">
-      <c r="C626" t="s">
-        <v>691</v>
-      </c>
-      <c r="D626" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="628" spans="1:5">
-      <c r="A628" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B628" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C628" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D628" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E628" s="2"/>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="A630" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B630" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E630" s="2"/>
-    </row>
-    <row r="631" spans="1:5">
-      <c r="C631" t="s">
-        <v>697</v>
-      </c>
-      <c r="D631" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5">
-      <c r="A633" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B633" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C633" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D633" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E633" s="2"/>
-    </row>
-    <row r="634" spans="1:5">
-      <c r="C634" t="s">
-        <v>697</v>
-      </c>
-      <c r="D634" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5">
-      <c r="A636" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B636" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C636" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D636" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E636" s="2"/>
-    </row>
-    <row r="638" spans="1:5">
-      <c r="A638" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B638" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C638" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D638" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E638" s="2"/>
-    </row>
-    <row r="639" spans="1:5">
-      <c r="C639" t="s">
-        <v>691</v>
-      </c>
-      <c r="D639" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5">
-      <c r="A641" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B641" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C641" s="2" t="s">
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C740" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D641" s="2" t="s">
+      <c r="D740" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E641" s="2"/>
-    </row>
-    <row r="643" spans="1:5">
-      <c r="A643" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B643" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C643" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D643" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E643" s="2"/>
-    </row>
-    <row r="645" spans="1:5">
-      <c r="A645" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C645" s="2" t="s">
+      <c r="E740" s="2"/>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C742" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D645" s="2" t="s">
+      <c r="D742" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E645" s="2"/>
-    </row>
-    <row r="647" spans="1:5">
-      <c r="A647" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B647" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D647" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E647" s="2"/>
-    </row>
-    <row r="649" spans="1:5">
-      <c r="A649" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B649" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C649" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D649" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E649" s="2"/>
-    </row>
-    <row r="651" spans="1:5">
-      <c r="A651" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B651" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C651" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D651" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E651" s="2"/>
-    </row>
-    <row r="653" spans="1:5">
-      <c r="A653" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B653" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C653" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D653" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E653" s="2"/>
-    </row>
-    <row r="655" spans="1:5">
-      <c r="A655" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B655" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C655" s="2" t="s">
+      <c r="E742" s="2"/>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C744" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D655" s="2" t="s">
+      <c r="D744" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E655" s="2"/>
-    </row>
-    <row r="657" spans="1:5">
-      <c r="A657" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B657" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C657" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D657" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E657" s="2"/>
-    </row>
-    <row r="659" spans="1:5">
-      <c r="A659" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B659" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C659" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D659" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E659" s="2"/>
-    </row>
-    <row r="661" spans="1:5">
-      <c r="A661" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B661" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C661" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D661" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E661" s="2"/>
-    </row>
-    <row r="663" spans="1:5">
-      <c r="A663" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B663" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C663" s="2" t="s">
+      <c r="E744" s="2"/>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D663" s="2" t="s">
+      <c r="D746" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E663" s="2"/>
-    </row>
-    <row r="665" spans="1:5">
-      <c r="A665" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B665" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D665" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E665" s="2"/>
-    </row>
-    <row r="667" spans="1:5">
-      <c r="A667" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B667" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C667" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D667" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E667" s="2"/>
-    </row>
-    <row r="669" spans="1:5">
-      <c r="A669" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B669" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C669" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D669" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E669" s="2"/>
-    </row>
-    <row r="671" spans="1:5">
-      <c r="A671" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B671" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C671" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D671" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E671" s="2"/>
-    </row>
-    <row r="673" spans="1:5">
-      <c r="A673" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B673" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C673" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D673" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E673" s="2"/>
-    </row>
-    <row r="675" spans="1:5">
-      <c r="A675" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B675" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D675" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E675" s="2"/>
-    </row>
-    <row r="677" spans="1:5">
-      <c r="A677" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D677" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E677" s="2"/>
-    </row>
-    <row r="679" spans="1:5">
-      <c r="A679" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B679" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D679" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E679" s="2"/>
-    </row>
-    <row r="681" spans="1:5">
-      <c r="A681" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B681" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D681" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E681" s="2"/>
-    </row>
-    <row r="683" spans="1:5">
-      <c r="A683" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B683" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D683" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E683" s="2"/>
-    </row>
-    <row r="685" spans="1:5">
-      <c r="A685" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B685" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D685" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E685" s="2"/>
-    </row>
-    <row r="687" spans="1:5">
-      <c r="A687" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B687" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D687" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E687" s="2"/>
-    </row>
-    <row r="689" spans="1:5">
-      <c r="A689" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B689" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E689" s="2"/>
-    </row>
-    <row r="690" spans="1:5">
-      <c r="C690" t="s">
-        <v>7</v>
-      </c>
-      <c r="D690" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="692" spans="1:5">
-      <c r="A692" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B692" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C692" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D692" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E692" s="2"/>
-    </row>
-    <row r="694" spans="1:5">
-      <c r="A694" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B694" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C694" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D694" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E694" s="2"/>
-    </row>
-    <row r="696" spans="1:5">
-      <c r="A696" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B696" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C696" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D696" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E696" s="2"/>
-    </row>
-    <row r="698" spans="1:5">
-      <c r="A698" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B698" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C698" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D698" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E698" s="2"/>
-    </row>
-    <row r="700" spans="1:5">
-      <c r="A700" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B700" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C700" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D700" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E700" s="2"/>
-    </row>
-    <row r="702" spans="1:5">
-      <c r="A702" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="B702" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C702" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D702" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E702" s="2"/>
-    </row>
-    <row r="704" spans="1:5">
-      <c r="A704" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B704" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D704" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E704" s="2"/>
-    </row>
-    <row r="706" spans="1:5">
-      <c r="A706" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B706" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C706" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D706" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E706" s="2"/>
-    </row>
-    <row r="708" spans="1:5">
-      <c r="A708" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B708" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C708" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D708" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E708" s="2"/>
-    </row>
-    <row r="710" spans="1:5">
-      <c r="A710" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B710" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C710" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D710" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E710" s="2"/>
-    </row>
-    <row r="712" spans="1:5">
-      <c r="A712" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B712" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C712" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D712" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E712" s="2"/>
-    </row>
-    <row r="714" spans="1:5">
-      <c r="A714" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B714" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C714" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D714" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E714" s="2"/>
-    </row>
-    <row r="716" spans="1:5">
-      <c r="A716" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D716" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E716" s="2"/>
-    </row>
-    <row r="718" spans="1:5">
-      <c r="A718" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B718" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C718" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D718" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E718" s="2"/>
-    </row>
-    <row r="720" spans="1:5">
-      <c r="A720" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="B720" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="C720" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D720" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E720" s="2"/>
-    </row>
-    <row r="722" spans="1:5">
-      <c r="A722" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C722" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D722" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E722" s="2"/>
-    </row>
-    <row r="724" spans="1:5">
-      <c r="A724" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C724" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D724" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="726" spans="1:5">
-      <c r="A726" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D726" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E726" s="2"/>
-    </row>
-    <row r="728" spans="1:5">
-      <c r="A728" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D728" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E728" s="2"/>
-    </row>
-    <row r="730" spans="1:5">
-      <c r="A730" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B730" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D730" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E730" s="2"/>
-    </row>
-    <row r="732" spans="1:5">
-      <c r="A732" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B732" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C732" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D732" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E732" s="2"/>
-    </row>
-    <row r="734" spans="1:5">
-      <c r="A734" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B734" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C734" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D734" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E734" s="2"/>
-    </row>
-    <row r="736" spans="1:5">
-      <c r="A736" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B736" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D736" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="738" spans="1:5">
-      <c r="A738" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D738" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E738" s="2"/>
-    </row>
-    <row r="739" spans="1:5">
-      <c r="C739" t="s">
-        <v>564</v>
-      </c>
-      <c r="D739" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="741" spans="1:5">
-      <c r="A741" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C741" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D741" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E741" s="2"/>
-    </row>
-    <row r="743" spans="1:5">
-      <c r="A743" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D743" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E743" s="2"/>
-    </row>
-    <row r="745" spans="1:5">
-      <c r="A745" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B745" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C745" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D745" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E745" s="2"/>
-    </row>
-    <row r="747" spans="1:5">
-      <c r="A747" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B747" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C747" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D747" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E747" s="2"/>
+      <c r="E746" s="2"/>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E748" s="2"/>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B749" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C749" s="2" t="s">
+      <c r="C749" t="s">
+        <v>819</v>
+      </c>
+      <c r="D749" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E751" s="2"/>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="C752" t="s">
+        <v>825</v>
+      </c>
+      <c r="D752" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E754" s="2"/>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E756" s="2"/>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E758" s="2"/>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E760" s="2"/>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E762" s="2"/>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E764" s="2"/>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E766" s="2"/>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E768" s="2"/>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E770" s="2"/>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E772" s="2"/>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E774" s="2"/>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E776" s="2"/>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E778" s="2"/>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E780" s="2"/>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E782" s="2"/>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E784" s="2"/>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E786" s="2"/>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="C787" t="s">
+        <v>881</v>
+      </c>
+      <c r="D787" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E789" s="2"/>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E791" s="2"/>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E793" s="2"/>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E795" s="2"/>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="C796" t="s">
+        <v>885</v>
+      </c>
+      <c r="D796" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E798" s="2"/>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E800" s="2"/>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="C801" t="s">
+        <v>899</v>
+      </c>
+      <c r="D801" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E803" s="2"/>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C805" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D749" s="2" t="s">
+      <c r="D805" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E749" s="2"/>
-    </row>
-    <row r="750" spans="1:5">
-      <c r="C750" t="s">
+      <c r="E805" s="2"/>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E807" s="2"/>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E809" s="2"/>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E811" s="2"/>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E813" s="2"/>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="C814" t="s">
         <v>819</v>
       </c>
-      <c r="D750" t="s">
+      <c r="D814" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
-      <c r="A752" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C752" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="E752" s="2"/>
-    </row>
-    <row r="753" spans="1:5">
-      <c r="C753" t="s">
+    <row r="816" spans="1:5">
+      <c r="A816" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E816" s="2"/>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E818" s="2"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E820" s="2"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="C821" t="s">
+        <v>912</v>
+      </c>
+      <c r="D821" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E823" s="2"/>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E825" s="2"/>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E827" s="2"/>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="C828" t="s">
+        <v>819</v>
+      </c>
+      <c r="D828" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E830" s="2"/>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="C831" t="s">
+        <v>819</v>
+      </c>
+      <c r="D831" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E833" s="2"/>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="C834" t="s">
+        <v>899</v>
+      </c>
+      <c r="D834" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E836" s="2"/>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="C837" t="s">
+        <v>889</v>
+      </c>
+      <c r="D837" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C839" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="D753" t="s">
+      <c r="D839" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="755" spans="1:5">
-      <c r="A755" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B755" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C755" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D755" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="E755" s="2"/>
-    </row>
-    <row r="757" spans="1:5">
-      <c r="A757" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B757" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D757" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="E757" s="2"/>
-    </row>
-    <row r="759" spans="1:5">
-      <c r="A759" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B759" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C759" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D759" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="E759" s="2"/>
-    </row>
-    <row r="761" spans="1:5">
-      <c r="A761" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D761" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="E761" s="2"/>
-    </row>
-    <row r="763" spans="1:5">
-      <c r="A763" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B763" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C763" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E763" s="2"/>
-    </row>
-    <row r="765" spans="1:5">
-      <c r="A765" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B765" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C765" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D765" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="E765" s="2"/>
-    </row>
-    <row r="767" spans="1:5">
-      <c r="A767" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C767" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D767" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E767" s="2"/>
-    </row>
-    <row r="769" spans="1:5">
-      <c r="A769" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B769" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C769" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D769" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="E769" s="2"/>
-    </row>
-    <row r="771" spans="1:5">
-      <c r="A771" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C771" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D771" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="E771" s="2"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="A773" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C773" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D773" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E773" s="2"/>
-    </row>
-    <row r="775" spans="1:5">
-      <c r="A775" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C775" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D775" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E775" s="2"/>
-    </row>
-    <row r="777" spans="1:5">
-      <c r="A777" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C777" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D777" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="E777" s="2"/>
-    </row>
-    <row r="779" spans="1:5">
-      <c r="A779" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C779" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D779" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="E779" s="2"/>
-    </row>
-    <row r="781" spans="1:5">
-      <c r="A781" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B781" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C781" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D781" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="E781" s="2"/>
-    </row>
-    <row r="783" spans="1:5">
-      <c r="A783" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C783" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D783" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E783" s="2"/>
-    </row>
-    <row r="785" spans="1:5">
-      <c r="A785" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B785" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C785" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D785" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="E785" s="2"/>
-    </row>
-    <row r="787" spans="1:5">
-      <c r="A787" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C787" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D787" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E787" s="2"/>
-    </row>
-    <row r="788" spans="1:5">
-      <c r="C788" t="s">
-        <v>881</v>
-      </c>
-      <c r="D788" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="790" spans="1:5">
-      <c r="A790" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B790" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="C790" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D790" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="E790" s="2"/>
-    </row>
-    <row r="792" spans="1:5">
-      <c r="A792" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B792" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C792" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D792" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="E792" s="2"/>
-    </row>
-    <row r="794" spans="1:5">
-      <c r="A794" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C794" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="E794" s="2"/>
-    </row>
-    <row r="796" spans="1:5">
-      <c r="A796" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="B796" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="C796" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D796" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="E796" s="2"/>
-    </row>
-    <row r="797" spans="1:5">
-      <c r="C797" t="s">
-        <v>885</v>
-      </c>
-      <c r="D797" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="799" spans="1:5">
-      <c r="A799" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C799" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D799" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E799" s="2"/>
-    </row>
-    <row r="801" spans="1:5">
-      <c r="A801" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="B801" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C801" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D801" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E801" s="2"/>
-    </row>
-    <row r="802" spans="1:5">
-      <c r="C802" t="s">
-        <v>899</v>
-      </c>
-      <c r="D802" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="804" spans="1:5">
-      <c r="A804" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B804" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C804" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D804" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E804" s="2"/>
-    </row>
-    <row r="806" spans="1:5">
-      <c r="A806" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C806" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D806" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E806" s="2"/>
-    </row>
-    <row r="808" spans="1:5">
-      <c r="A808" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C808" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D808" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E808" s="2"/>
-    </row>
-    <row r="810" spans="1:5">
-      <c r="A810" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B810" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C810" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="D810" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E810" s="2"/>
-    </row>
-    <row r="812" spans="1:5">
-      <c r="A812" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C812" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D812" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="E812" s="2"/>
-    </row>
-    <row r="814" spans="1:5">
-      <c r="A814" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B814" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C814" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D814" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="E814" s="2"/>
-    </row>
-    <row r="815" spans="1:5">
-      <c r="C815" t="s">
-        <v>819</v>
-      </c>
-      <c r="D815" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="817" spans="1:5">
-      <c r="A817" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="B817" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="C817" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D817" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E817" s="2"/>
-    </row>
-    <row r="819" spans="1:5">
-      <c r="A819" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C819" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D819" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="E819" s="2"/>
-    </row>
-    <row r="821" spans="1:5">
-      <c r="A821" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B821" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C821" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="D821" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="E821" s="2"/>
-    </row>
-    <row r="822" spans="1:5">
-      <c r="C822" t="s">
-        <v>912</v>
-      </c>
-      <c r="D822" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="824" spans="1:5">
-      <c r="A824" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="B824" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C824" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D824" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E824" s="2"/>
-    </row>
-    <row r="826" spans="1:5">
-      <c r="A826" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="B826" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C826" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D826" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="E826" s="2"/>
-    </row>
-    <row r="828" spans="1:5">
-      <c r="A828" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C828" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D828" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E828" s="2"/>
-    </row>
-    <row r="829" spans="1:5">
-      <c r="C829" t="s">
-        <v>819</v>
-      </c>
-      <c r="D829" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="831" spans="1:5">
-      <c r="A831" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B831" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C831" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D831" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E831" s="2"/>
-    </row>
-    <row r="832" spans="1:5">
-      <c r="C832" t="s">
-        <v>819</v>
-      </c>
-      <c r="D832" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="834" spans="1:5">
-      <c r="A834" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="B834" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C834" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="D834" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="E834" s="2"/>
-    </row>
-    <row r="835" spans="1:5">
-      <c r="C835" t="s">
-        <v>899</v>
-      </c>
-      <c r="D835" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="837" spans="1:5">
-      <c r="A837" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B837" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C837" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D837" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="E837" s="2"/>
-    </row>
-    <row r="838" spans="1:5">
-      <c r="C838" t="s">
-        <v>889</v>
-      </c>
-      <c r="D838" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="840" spans="1:5">
-      <c r="A840" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B840" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="C840" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D840" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E840" s="2"/>
+      <c r="E839" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3172,8 +3172,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3172,7 +3172,8 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3055,8 +3055,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3055,7 +3055,8 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -7393,601 +7393,601 @@
         <v>638</v>
       </c>
       <c r="C570" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E570" s="2"/>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="C571" t="s">
         <v>613</v>
       </c>
-      <c r="D570" s="2" t="s">
+      <c r="D571" t="s">
         <v>614</v>
       </c>
-      <c r="E570" s="2"/>
-    </row>
-    <row r="572" spans="1:5">
-      <c r="A572" s="2" t="s">
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B573" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="C573" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D572" s="2" t="s">
+      <c r="D573" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E572" s="2"/>
-    </row>
-    <row r="574" spans="1:5">
-      <c r="A574" s="2" t="s">
+      <c r="E573" s="2"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B575" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="C575" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D574" s="2" t="s">
+      <c r="D575" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E574" s="2"/>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="C575" t="s">
-        <v>563</v>
-      </c>
-      <c r="D575" t="s">
-        <v>564</v>
-      </c>
+      <c r="E575" s="2"/>
     </row>
     <row r="576" spans="1:5">
       <c r="C576" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="D576" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="C577" t="s">
+        <v>627</v>
+      </c>
+      <c r="D577" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="C578" t="s">
         <v>526</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D578" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
-      <c r="A579" s="2" t="s">
+    <row r="580" spans="1:5">
+      <c r="A580" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B580" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C579" s="2" t="s">
+      <c r="C580" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D579" s="2" t="s">
+      <c r="D580" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E579" s="2"/>
-    </row>
-    <row r="581" spans="1:5">
-      <c r="A581" s="2" t="s">
+      <c r="E580" s="2"/>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B582" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C581" s="2" t="s">
+      <c r="C582" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D581" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E581" s="2"/>
-    </row>
-    <row r="583" spans="1:5">
-      <c r="A583" s="2" t="s">
+      <c r="E582" s="2"/>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B584" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="C584" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D583" s="2" t="s">
+      <c r="D584" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E583" s="2"/>
-    </row>
-    <row r="585" spans="1:5">
-      <c r="A585" s="2" t="s">
+      <c r="E584" s="2"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B586" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C585" s="2" t="s">
+      <c r="C586" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D585" s="2" t="s">
+      <c r="D586" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E585" s="2"/>
-    </row>
-    <row r="586" spans="1:5">
-      <c r="C586" t="s">
+      <c r="E586" s="2"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="C587" t="s">
         <v>653</v>
       </c>
-      <c r="D586" t="s">
+      <c r="D587" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
-      <c r="A588" s="2" t="s">
+    <row r="589" spans="1:5">
+      <c r="A589" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B589" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C588" s="2" t="s">
+      <c r="C589" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D588" s="2" t="s">
+      <c r="D589" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E588" s="2"/>
-    </row>
-    <row r="590" spans="1:5">
-      <c r="A590" s="2" t="s">
+      <c r="E589" s="2"/>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B591" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C590" s="2" t="s">
+      <c r="C591" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D590" s="2" t="s">
+      <c r="D591" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E590" s="2"/>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="C591" t="s">
+      <c r="E591" s="2"/>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="C592" t="s">
         <v>659</v>
       </c>
-      <c r="D591" t="s">
+      <c r="D592" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
-      <c r="A593" s="2" t="s">
+    <row r="594" spans="1:5">
+      <c r="A594" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B594" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="C594" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D593" s="2" t="s">
+      <c r="D594" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E593" s="2"/>
-    </row>
-    <row r="594" spans="1:5">
-      <c r="C594" t="s">
+      <c r="E594" s="2"/>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="C595" t="s">
         <v>659</v>
       </c>
-      <c r="D594" t="s">
+      <c r="D595" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
-      <c r="A596" s="2" t="s">
+    <row r="597" spans="1:5">
+      <c r="A597" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B597" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="C597" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D596" s="2" t="s">
+      <c r="D597" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E596" s="2"/>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="A598" s="2" t="s">
+      <c r="E597" s="2"/>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="C599" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D598" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E598" s="2"/>
-    </row>
-    <row r="599" spans="1:5">
-      <c r="C599" t="s">
+      <c r="E599" s="2"/>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="C600" t="s">
         <v>653</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D600" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
-      <c r="A601" s="2" t="s">
+    <row r="602" spans="1:5">
+      <c r="A602" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B602" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="C602" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D601" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="603" spans="1:5">
-      <c r="A603" s="2" t="s">
+      <c r="E602" s="2"/>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="B604" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="C604" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D603" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E603" s="2"/>
-    </row>
-    <row r="605" spans="1:5">
-      <c r="A605" s="2" t="s">
+      <c r="E604" s="2"/>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B606" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="C606" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D605" s="2" t="s">
+      <c r="D606" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E605" s="2"/>
-    </row>
-    <row r="607" spans="1:5">
-      <c r="A607" s="2" t="s">
+      <c r="E606" s="2"/>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B608" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="C608" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D607" s="2" t="s">
+      <c r="D608" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E607" s="2"/>
-    </row>
-    <row r="609" spans="1:5">
-      <c r="A609" s="2" t="s">
+      <c r="E608" s="2"/>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B609" s="2" t="s">
+      <c r="B610" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C609" s="2" t="s">
+      <c r="C610" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D609" s="2" t="s">
+      <c r="D610" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E609" s="2"/>
-    </row>
-    <row r="611" spans="1:5">
-      <c r="A611" s="2" t="s">
+      <c r="E610" s="2"/>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B612" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C611" s="2" t="s">
+      <c r="C612" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D611" s="2" t="s">
+      <c r="D612" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E611" s="2"/>
-    </row>
-    <row r="613" spans="1:5">
-      <c r="A613" s="2" t="s">
+      <c r="E612" s="2"/>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B614" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C613" s="2" t="s">
+      <c r="C614" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D613" s="2" t="s">
+      <c r="D614" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E613" s="2"/>
-    </row>
-    <row r="615" spans="1:5">
-      <c r="A615" s="2" t="s">
+      <c r="E614" s="2"/>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B616" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C615" s="2" t="s">
+      <c r="C616" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D615" s="2" t="s">
+      <c r="D616" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E615" s="2"/>
-    </row>
-    <row r="617" spans="1:5">
-      <c r="A617" s="2" t="s">
+      <c r="E616" s="2"/>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B618" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C617" s="2" t="s">
+      <c r="C618" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D617" s="2" t="s">
+      <c r="D618" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E617" s="2"/>
-    </row>
-    <row r="619" spans="1:5">
-      <c r="A619" s="2" t="s">
+      <c r="E618" s="2"/>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B620" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C619" s="2" t="s">
+      <c r="C620" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D619" s="2" t="s">
+      <c r="D620" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E619" s="2"/>
-    </row>
-    <row r="621" spans="1:5">
-      <c r="A621" s="2" t="s">
+      <c r="E620" s="2"/>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B621" s="2" t="s">
+      <c r="B622" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C621" s="2" t="s">
+      <c r="C622" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D621" s="2" t="s">
+      <c r="D622" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E621" s="2"/>
-    </row>
-    <row r="623" spans="1:5">
-      <c r="A623" s="2" t="s">
+      <c r="E622" s="2"/>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B623" s="2" t="s">
+      <c r="B624" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C623" s="2" t="s">
+      <c r="C624" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D623" s="2" t="s">
+      <c r="D624" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E623" s="2"/>
-    </row>
-    <row r="625" spans="1:5">
-      <c r="A625" s="2" t="s">
+      <c r="E624" s="2"/>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B626" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C625" s="2" t="s">
+      <c r="C626" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D625" s="2" t="s">
+      <c r="D626" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E625" s="2"/>
-    </row>
-    <row r="627" spans="1:5">
-      <c r="A627" s="2" t="s">
+      <c r="E626" s="2"/>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B627" s="2" t="s">
+      <c r="B628" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C627" s="2" t="s">
+      <c r="C628" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D627" s="2" t="s">
+      <c r="D628" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E627" s="2"/>
-    </row>
-    <row r="629" spans="1:5">
-      <c r="A629" s="2" t="s">
+      <c r="E628" s="2"/>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B630" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C629" s="2" t="s">
+      <c r="C630" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D629" s="2" t="s">
+      <c r="D630" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E629" s="2"/>
-    </row>
-    <row r="631" spans="1:5">
-      <c r="A631" s="2" t="s">
+      <c r="E630" s="2"/>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B632" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C631" s="2" t="s">
+      <c r="C632" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D631" s="2" t="s">
+      <c r="D632" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E631" s="2"/>
-    </row>
-    <row r="633" spans="1:5">
-      <c r="A633" s="2" t="s">
+      <c r="E632" s="2"/>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B634" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C633" s="2" t="s">
+      <c r="C634" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D633" s="2" t="s">
+      <c r="D634" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E633" s="2"/>
-    </row>
-    <row r="635" spans="1:5">
-      <c r="A635" s="2" t="s">
+      <c r="E634" s="2"/>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B636" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C635" s="2" t="s">
+      <c r="C636" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D635" s="2" t="s">
+      <c r="D636" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E635" s="2"/>
-    </row>
-    <row r="637" spans="1:5">
-      <c r="A637" s="2" t="s">
+      <c r="E636" s="2"/>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B638" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C637" s="2" t="s">
+      <c r="C638" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D637" s="2" t="s">
+      <c r="D638" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E637" s="2"/>
-    </row>
-    <row r="639" spans="1:5">
-      <c r="A639" s="2" t="s">
+      <c r="E638" s="2"/>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B640" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C639" s="2" t="s">
+      <c r="C640" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D639" s="2" t="s">
+      <c r="D640" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E639" s="2"/>
-    </row>
-    <row r="641" spans="1:5">
-      <c r="A641" s="2" t="s">
+      <c r="E640" s="2"/>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C641" s="2" t="s">
+      <c r="C642" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D641" s="2" t="s">
+      <c r="D642" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E641" s="2"/>
-    </row>
-    <row r="643" spans="1:5">
-      <c r="A643" s="2" t="s">
+      <c r="E642" s="2"/>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B644" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C643" s="2" t="s">
+      <c r="C644" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D643" s="2" t="s">
+      <c r="D644" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E643" s="2"/>
-    </row>
-    <row r="645" spans="1:5">
-      <c r="A645" s="2" t="s">
+      <c r="E644" s="2"/>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B646" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C645" s="2" t="s">
+      <c r="C646" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D645" s="2" t="s">
+      <c r="D646" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E645" s="2"/>
-    </row>
-    <row r="647" spans="1:5">
-      <c r="A647" s="2" t="s">
+      <c r="E646" s="2"/>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B648" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C647" s="2" t="s">
+      <c r="C648" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D647" s="2" t="s">
+      <c r="D648" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E647" s="2"/>
-    </row>
-    <row r="648" spans="1:5">
-      <c r="C648" t="s">
-        <v>559</v>
-      </c>
-      <c r="D648" t="s">
-        <v>560</v>
-      </c>
+      <c r="E648" s="2"/>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="2" t="s">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="898">
   <si>
     <t>Sigla</t>
   </si>
@@ -745,6 +745,12 @@
     <t xml:space="preserve"> Epidemiologia Ambiental</t>
   </si>
   <si>
+    <t>LOB1266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução à Ciência de Dados e Aprendizado de Máquinas</t>
+  </si>
+  <si>
     <t>LOM3003</t>
   </si>
   <si>
@@ -1282,10 +1288,10 @@
     <t>LOM3210</t>
   </si>
   <si>
-    <t>LOM3212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte A</t>
+    <t>LOM3215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Física do Estado Sólido</t>
   </si>
   <si>
     <t>5840730</t>
@@ -1294,18 +1300,6 @@
     <t>Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
-    <t>LOM3213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fenômenos de Transporte B</t>
-  </si>
-  <si>
-    <t>LOM3215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Física do Estado Sólido</t>
-  </si>
-  <si>
     <t>LOM3217</t>
   </si>
   <si>
@@ -1528,6 +1522,12 @@
     <t xml:space="preserve"> Projeto Computacional</t>
   </si>
   <si>
+    <t>LOM3269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenômenos de Transporte</t>
+  </si>
+  <si>
     <t>LOQ4001</t>
   </si>
   <si>
@@ -2077,10 +2077,166 @@
     <t xml:space="preserve"> Contabilidade e Custos</t>
   </si>
   <si>
-    <t>LOQ4216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto da Fábrica</t>
+    <t>LOQ4217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logística e Cadeia de Suprimento</t>
+  </si>
+  <si>
+    <t>LOQ4222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia Econômica e Finanças</t>
+  </si>
+  <si>
+    <t>LOQ4223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelagem e Simulação de Sistemas</t>
+  </si>
+  <si>
+    <t>LOQ4228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trabalho de Graduação em Engenharia de Produção I</t>
+  </si>
+  <si>
+    <t>LOQ4230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estágio em Engenharia de Produção</t>
+  </si>
+  <si>
+    <t>LOQ4231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introdução à Econômia</t>
+  </si>
+  <si>
+    <t>LOQ4233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão de Negócios</t>
+  </si>
+  <si>
+    <t>LOQ4234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empreendedorismo e Inovação</t>
+  </si>
+  <si>
+    <t>LOQ4235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tópicos Especiais de Gestão de Negócios</t>
+  </si>
+  <si>
+    <t>LOQ4236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado de Engenharia de Produção I</t>
+  </si>
+  <si>
+    <t>LOQ4237</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado de Engenharia de Produção II</t>
+  </si>
+  <si>
+    <t>LOQ4238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto Integrado em Engenharia de Produção III</t>
+  </si>
+  <si>
+    <t>LOQ4239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administração e Organização I</t>
+  </si>
+  <si>
+    <t>LOQ4240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administração e Organização II</t>
+  </si>
+  <si>
+    <t>LOQ4241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistemas de Apoio à Decisão</t>
+  </si>
+  <si>
+    <t>LOQ4243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia de Sistemas Eletrônicos</t>
+  </si>
+  <si>
+    <t>LOQ4244</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lean Six Sigma</t>
+  </si>
+  <si>
+    <t>LOQ4246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia da Sustentabilidade</t>
+  </si>
+  <si>
+    <t>LOQ4247</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desenho Assistido por Computador</t>
+  </si>
+  <si>
+    <t>LOQ4248</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marketing Estratégico</t>
+  </si>
+  <si>
+    <t>LOQ4249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oficina de Inovação</t>
+  </si>
+  <si>
+    <t>LOQ4250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Administração da Produção</t>
+  </si>
+  <si>
+    <t>LOQ4251</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Química</t>
+  </si>
+  <si>
+    <t>LOQ4252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentos de Fenômenos de Transporte</t>
+  </si>
+  <si>
+    <t>LOQ4253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processos Industriais I</t>
+  </si>
+  <si>
+    <t>LOQ4254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processos Industriais II</t>
+  </si>
+  <si>
+    <t>LOQ4255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inovação Tecnológica</t>
   </si>
   <si>
     <t>5701460</t>
@@ -2089,259 +2245,115 @@
     <t>Antonio Iacono</t>
   </si>
   <si>
-    <t>LOQ4217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Logística e Cadeia de Suprimento</t>
-  </si>
-  <si>
-    <t>LOQ4219</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto do Produto e Processo</t>
-  </si>
-  <si>
-    <t>LOQ4222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia Econômica e Finanças</t>
-  </si>
-  <si>
-    <t>LOQ4223</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modelagem e Simulação de Sistemas</t>
-  </si>
-  <si>
-    <t>LOQ4224</t>
+    <t>LOQ4256</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão Estratégica de Produção</t>
+  </si>
+  <si>
+    <t>LOQ4257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão de Projetos</t>
+  </si>
+  <si>
+    <t>LOQ4258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pesquisa Operacional II</t>
+  </si>
+  <si>
+    <t>LOQ4259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processos de Desenvolvimento de Serviços</t>
+  </si>
+  <si>
+    <t>LOQ4260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controle Estatístico da Qualidade</t>
+  </si>
+  <si>
+    <t>LOQ4261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejamento, Programação e Controle da Produção I</t>
+  </si>
+  <si>
+    <t>LOQ4262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automação e Controle</t>
+  </si>
+  <si>
+    <t>LOQ4263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejamento e Gestão da Manutenção</t>
+  </si>
+  <si>
+    <t>LOQ4264</t>
+  </si>
+  <si>
+    <t>LOQ4265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trabalho de Graduação em Engenharia de Produção II</t>
+  </si>
+  <si>
+    <t>LOQ4266</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Produção I</t>
+  </si>
+  <si>
+    <t>LOQ4267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Produção II</t>
+  </si>
+  <si>
+    <t>LOQ4268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão da Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>LOQ4269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejamento e Gestão Estratégica</t>
+  </si>
+  <si>
+    <t>LOQ4270</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejamento, Programação e Controle da Produção II</t>
+  </si>
+  <si>
+    <t>LOQ4271</t>
   </si>
   <si>
     <t xml:space="preserve"> Planejamento de Experimentos</t>
   </si>
   <si>
-    <t>LOQ4228</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trabalho de Graduação em Engenharia de Produção I</t>
-  </si>
-  <si>
-    <t>LOQ4230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Estágio em Engenharia de Produção</t>
-  </si>
-  <si>
-    <t>LOQ4231</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introdução à Econômia</t>
-  </si>
-  <si>
-    <t>LOQ4233</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão de Negócios</t>
-  </si>
-  <si>
-    <t>LOQ4234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empreendedorismo</t>
-  </si>
-  <si>
-    <t>LOQ4235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais de Gestão de Negócios</t>
-  </si>
-  <si>
-    <t>LOQ4236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto Integrado de Engenharia de Produção I</t>
-  </si>
-  <si>
-    <t>LOQ4237</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto Integrado de Engenharia de Produção II</t>
-  </si>
-  <si>
-    <t>LOQ4238</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Projeto Integrado em Engenharia de Produção III</t>
-  </si>
-  <si>
-    <t>LOQ4239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Administração e Organização I</t>
-  </si>
-  <si>
-    <t>LOQ4240</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Administração e Organização II</t>
-  </si>
-  <si>
-    <t>LOQ4241</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sistemas de Apoio à Decisão</t>
-  </si>
-  <si>
-    <t>LOQ4243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia de Sistemas Eletrônicos</t>
-  </si>
-  <si>
-    <t>LOQ4244</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lean Six Sigma</t>
-  </si>
-  <si>
-    <t>LOQ4246</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia da Sustentabilidade</t>
-  </si>
-  <si>
-    <t>LOQ4247</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desenho Assistido por Computador</t>
-  </si>
-  <si>
-    <t>LOQ4248</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marketing Estratégico</t>
-  </si>
-  <si>
-    <t>LOQ4249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oficina de Inovação</t>
-  </si>
-  <si>
-    <t>LOQ4250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fundamentos de Administração da Produção</t>
-  </si>
-  <si>
-    <t>LOQ4251</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fundamentos de Química</t>
-  </si>
-  <si>
-    <t>LOQ4252</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fundamentos de Fenômenos de Transporte</t>
-  </si>
-  <si>
-    <t>LOQ4253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processos Industriais I</t>
-  </si>
-  <si>
-    <t>LOQ4254</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processos Industriais II</t>
-  </si>
-  <si>
-    <t>LOQ4255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inovação Tecnológica</t>
-  </si>
-  <si>
-    <t>LOQ4256</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão Estratégica de Produção</t>
-  </si>
-  <si>
-    <t>LOQ4257</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão de Projetos</t>
-  </si>
-  <si>
-    <t>LOQ4258</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pesquisa Operacional II</t>
-  </si>
-  <si>
-    <t>LOQ4259</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processos de Desenvolvimento de Serviços</t>
-  </si>
-  <si>
-    <t>LOQ4260</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Controle Estatístico da Qualidade</t>
-  </si>
-  <si>
-    <t>LOQ4261</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planejamento, Programação e Controle da Produção</t>
-  </si>
-  <si>
-    <t>LOQ4262</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automação e Controle</t>
-  </si>
-  <si>
-    <t>LOQ4263</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planejamento e Gestão da Manutenção</t>
-  </si>
-  <si>
-    <t>LOQ4264</t>
-  </si>
-  <si>
-    <t>LOQ4265</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trabalho de Graduação em Engenharia de Produção II</t>
-  </si>
-  <si>
-    <t>LOQ4266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Produção I</t>
-  </si>
-  <si>
-    <t>LOQ4267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tópicos Especiais em Engenharia de Produção II</t>
-  </si>
-  <si>
-    <t>LOQ4268</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gestão da Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>LOQ4269</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planejamento e Gestão Estratégica</t>
+    <t>LOQ4272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projeto da Fabrica</t>
+  </si>
+  <si>
+    <t>LOQ4273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gestão de Novos Produtos</t>
+  </si>
+  <si>
+    <t>LOQ4274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia de Sistemas</t>
   </si>
   <si>
     <t>LOT2002</t>
@@ -3046,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E798"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4395,359 +4407,355 @@
       <c r="B177" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="E183" s="2"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="C184" t="s">
+      <c r="C185" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="C186" t="s">
         <v>129</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="C185" t="s">
-        <v>259</v>
-      </c>
-      <c r="D185" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="2" t="s">
+      <c r="C187" t="s">
         <v>261</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="D187" t="s">
         <v>262</v>
       </c>
-      <c r="C187" s="2" t="s">
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="C188" t="s">
+      <c r="C189" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="2" t="s">
+      <c r="C190" t="s">
         <v>267</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="D190" t="s">
         <v>268</v>
       </c>
-      <c r="C190" s="2" t="s">
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="C191" t="s">
+      <c r="C192" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="C192" t="s">
-        <v>259</v>
-      </c>
-      <c r="D192" t="s">
-        <v>260</v>
-      </c>
+      <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5">
       <c r="C193" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D193" t="s">
-        <v>250</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="C194" t="s">
+        <v>261</v>
+      </c>
+      <c r="D194" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s">
+        <v>251</v>
+      </c>
+      <c r="D195" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="C196" t="s">
+      <c r="C197" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="C197" t="s">
-        <v>245</v>
-      </c>
-      <c r="D197" t="s">
-        <v>246</v>
-      </c>
+      <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5">
       <c r="C198" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D198" t="s">
-        <v>260</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="C199" t="s">
+        <v>247</v>
+      </c>
+      <c r="D199" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="2" t="s">
+      <c r="C200" t="s">
+        <v>261</v>
+      </c>
+      <c r="D200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="C203" t="s">
+        <v>283</v>
+      </c>
+      <c r="D203" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="C206" t="s">
         <v>279</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="D206" t="s">
         <v>280</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="C201" t="s">
-        <v>281</v>
-      </c>
-      <c r="D201" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="C204" t="s">
-        <v>277</v>
-      </c>
-      <c r="D204" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="C205" t="s">
-        <v>259</v>
-      </c>
-      <c r="D205" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="C208" t="s">
-        <v>259</v>
-      </c>
-      <c r="D208" t="s">
-        <v>260</v>
-      </c>
+      <c r="C207" t="s">
+        <v>261</v>
+      </c>
+      <c r="D207" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" t="s">
+        <v>261</v>
+      </c>
+      <c r="D210" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="C211" t="s">
+      <c r="C212" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="C213" t="s">
         <v>43</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D213" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="2" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="C216" t="s">
+        <v>295</v>
+      </c>
+      <c r="D216" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="C219" t="s">
+        <v>299</v>
+      </c>
+      <c r="D219" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="C214" t="s">
-        <v>293</v>
-      </c>
-      <c r="D214" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2" t="s">
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="C222" t="s">
         <v>295</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="D222" t="s">
         <v>296</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="C217" t="s">
-        <v>297</v>
-      </c>
-      <c r="D217" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="C220" t="s">
-        <v>293</v>
-      </c>
-      <c r="D220" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E222" s="2"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
@@ -4757,81 +4765,81 @@
         <v>304</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5">
-      <c r="C225" t="s">
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D225" t="s">
+      <c r="B226" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="C226" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="2" t="s">
+      <c r="C227" t="s">
         <v>307</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="D227" t="s">
         <v>308</v>
       </c>
-      <c r="C227" s="2" t="s">
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="C228" t="s">
+      <c r="C229" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D229" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="2" t="s">
+      <c r="C230" t="s">
         <v>313</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="D230" t="s">
         <v>314</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="C231" t="s">
-        <v>293</v>
-      </c>
-      <c r="D231" t="s">
-        <v>294</v>
-      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E233" s="2"/>
+      <c r="C233" t="s">
+        <v>295</v>
+      </c>
+      <c r="D233" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
@@ -4841,58 +4849,58 @@
         <v>318</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5">
-      <c r="C236" t="s">
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D236" t="s">
+      <c r="B237" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="C237" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="2" t="s">
+      <c r="C238" t="s">
         <v>321</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="D238" t="s">
         <v>322</v>
       </c>
-      <c r="C238" s="2" t="s">
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="C239" t="s">
+      <c r="C240" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
+      <c r="C241" t="s">
         <v>327</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="D241" t="s">
         <v>328</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E241" s="2"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
@@ -4917,10 +4925,10 @@
         <v>332</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E245" s="2"/>
     </row>
@@ -4932,128 +4940,127 @@
         <v>334</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5">
-      <c r="C248" t="s">
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="C251" t="s">
-        <v>325</v>
-      </c>
-      <c r="D251" t="s">
-        <v>326</v>
+      <c r="C250" t="s">
+        <v>327</v>
+      </c>
+      <c r="D250" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="C252" t="s">
-        <v>293</v>
-      </c>
-      <c r="D252" t="s">
-        <v>294</v>
+      <c r="A252" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="C253" t="s">
+        <v>327</v>
+      </c>
+      <c r="D253" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="C255" t="s">
-        <v>319</v>
-      </c>
-      <c r="D255" t="s">
-        <v>320</v>
-      </c>
+      <c r="C254" t="s">
+        <v>295</v>
+      </c>
+      <c r="D254" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="C258" t="s">
-        <v>293</v>
-      </c>
-      <c r="D258" t="s">
-        <v>294</v>
-      </c>
+      <c r="C257" t="s">
+        <v>321</v>
+      </c>
+      <c r="D257" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="C261" t="s">
+      <c r="C260" t="s">
+        <v>295</v>
+      </c>
+      <c r="D260" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D261" t="s">
+      <c r="B262" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="C262" t="s">
-        <v>249</v>
-      </c>
-      <c r="D262" t="s">
-        <v>250</v>
-      </c>
+      <c r="C262" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5">
       <c r="C263" t="s">
@@ -5063,43 +5070,44 @@
         <v>346</v>
       </c>
     </row>
+    <row r="264" spans="1:5">
+      <c r="C264" t="s">
+        <v>251</v>
+      </c>
+      <c r="D264" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="2" t="s">
+      <c r="C265" t="s">
         <v>347</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="D265" t="s">
         <v>348</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="C266" t="s">
-        <v>293</v>
-      </c>
-      <c r="D266" t="s">
-        <v>294</v>
-      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E268" s="2"/>
+      <c r="C268" t="s">
+        <v>295</v>
+      </c>
+      <c r="D268" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
@@ -5109,167 +5117,167 @@
         <v>352</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="1:5">
-      <c r="C271" t="s">
-        <v>249</v>
-      </c>
-      <c r="D271" t="s">
-        <v>250</v>
-      </c>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="C274" t="s">
-        <v>289</v>
-      </c>
-      <c r="D274" t="s">
-        <v>290</v>
+      <c r="C273" t="s">
+        <v>251</v>
+      </c>
+      <c r="D273" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="C275" t="s">
-        <v>275</v>
-      </c>
-      <c r="D275" t="s">
-        <v>276</v>
-      </c>
+      <c r="A275" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5">
       <c r="C276" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="D276" t="s">
-        <v>246</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="C277" t="s">
+        <v>277</v>
+      </c>
+      <c r="D277" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="C279" t="s">
-        <v>323</v>
-      </c>
-      <c r="D279" t="s">
-        <v>324</v>
+      <c r="C278" t="s">
+        <v>247</v>
+      </c>
+      <c r="D278" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="C280" t="s">
-        <v>325</v>
-      </c>
-      <c r="D280" t="s">
-        <v>326</v>
-      </c>
+      <c r="A280" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5">
       <c r="C281" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="D281" t="s">
-        <v>250</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" t="s">
+        <v>327</v>
+      </c>
+      <c r="D282" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="C284" t="s">
+      <c r="C283" t="s">
+        <v>251</v>
+      </c>
+      <c r="D283" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D285" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="C285" t="s">
-        <v>253</v>
-      </c>
-      <c r="D285" t="s">
-        <v>254</v>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" t="s">
+        <v>267</v>
+      </c>
+      <c r="D286" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
+      <c r="C287" t="s">
+        <v>255</v>
+      </c>
+      <c r="D287" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D289" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E290" s="2"/>
+      <c r="C290" t="s">
+        <v>327</v>
+      </c>
+      <c r="D290" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
@@ -5278,8 +5286,12 @@
       <c r="B292" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="C292" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E292" s="2"/>
     </row>
     <row r="294" spans="1:5">
@@ -5289,12 +5301,8 @@
       <c r="B294" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
       <c r="E294" s="2"/>
     </row>
     <row r="296" spans="1:5">
@@ -5305,10 +5313,10 @@
         <v>368</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="E296" s="2"/>
     </row>
@@ -5320,89 +5328,89 @@
         <v>370</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="C299" t="s">
+      <c r="C300" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="2" t="s">
+      <c r="C301" t="s">
         <v>375</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="D301" t="s">
         <v>376</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="C302" t="s">
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D302" t="s">
+      <c r="B303" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="C303" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="2" t="s">
+      <c r="C304" t="s">
         <v>379</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="D304" t="s">
         <v>380</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="C305" t="s">
-        <v>249</v>
-      </c>
-      <c r="D305" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="C306" t="s">
-        <v>345</v>
-      </c>
-      <c r="D306" t="s">
-        <v>346</v>
+      <c r="A306" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="C307" t="s">
+        <v>251</v>
+      </c>
+      <c r="D307" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E308" s="2"/>
+      <c r="C308" t="s">
+        <v>347</v>
+      </c>
+      <c r="D308" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
@@ -5412,159 +5420,158 @@
         <v>384</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="1:5">
-      <c r="C311" t="s">
-        <v>343</v>
-      </c>
-      <c r="D311" t="s">
-        <v>344</v>
-      </c>
-    </row>
     <row r="312" spans="1:5">
-      <c r="C312" t="s">
+      <c r="A312" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="C313" t="s">
         <v>345</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D313" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="C315" t="s">
-        <v>259</v>
-      </c>
-      <c r="D315" t="s">
-        <v>260</v>
-      </c>
+      <c r="C314" t="s">
+        <v>347</v>
+      </c>
+      <c r="D314" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="C318" t="s">
+      <c r="C317" t="s">
+        <v>261</v>
+      </c>
+      <c r="D317" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D318" t="s">
+      <c r="B319" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="C319" t="s">
-        <v>293</v>
-      </c>
-      <c r="D319" t="s">
-        <v>294</v>
+      <c r="C319" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="C320" t="s">
+        <v>391</v>
+      </c>
+      <c r="D320" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="C322" t="s">
+      <c r="C321" t="s">
+        <v>295</v>
+      </c>
+      <c r="D321" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="C324" t="s">
+        <v>347</v>
+      </c>
+      <c r="D324" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D326" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="C325" t="s">
-        <v>281</v>
-      </c>
-      <c r="D325" t="s">
-        <v>282</v>
-      </c>
+      <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="C328" t="s">
-        <v>343</v>
-      </c>
-      <c r="D328" t="s">
-        <v>344</v>
+      <c r="C327" t="s">
+        <v>283</v>
+      </c>
+      <c r="D327" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="C329" t="s">
-        <v>249</v>
-      </c>
-      <c r="D329" t="s">
-        <v>250</v>
-      </c>
+      <c r="A329" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
@@ -5574,182 +5581,183 @@
         <v>346</v>
       </c>
     </row>
+    <row r="331" spans="1:5">
+      <c r="C331" t="s">
+        <v>251</v>
+      </c>
+      <c r="D331" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="C333" t="s">
-        <v>389</v>
-      </c>
-      <c r="D333" t="s">
-        <v>390</v>
+      <c r="C332" t="s">
+        <v>347</v>
+      </c>
+      <c r="D332" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="C334" t="s">
-        <v>293</v>
-      </c>
-      <c r="D334" t="s">
-        <v>294</v>
+      <c r="A334" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="C335" t="s">
+        <v>391</v>
+      </c>
+      <c r="D335" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="C337" t="s">
+      <c r="C336" t="s">
+        <v>295</v>
+      </c>
+      <c r="D336" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="C340" t="s">
-        <v>389</v>
-      </c>
-      <c r="D340" t="s">
-        <v>390</v>
+      <c r="C339" t="s">
+        <v>375</v>
+      </c>
+      <c r="D339" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="C341" t="s">
-        <v>293</v>
-      </c>
-      <c r="D341" t="s">
-        <v>294</v>
+      <c r="A341" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="C342" t="s">
+        <v>391</v>
+      </c>
+      <c r="D342" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="C344" t="s">
-        <v>293</v>
-      </c>
-      <c r="D344" t="s">
-        <v>294</v>
-      </c>
+      <c r="C343" t="s">
+        <v>295</v>
+      </c>
+      <c r="D343" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="C347" t="s">
-        <v>389</v>
-      </c>
-      <c r="D347" t="s">
-        <v>390</v>
+      <c r="C346" t="s">
+        <v>295</v>
+      </c>
+      <c r="D346" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="C348" t="s">
-        <v>293</v>
-      </c>
-      <c r="D348" t="s">
-        <v>294</v>
+      <c r="A348" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="C349" t="s">
+        <v>391</v>
+      </c>
+      <c r="D349" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="C351" t="s">
-        <v>293</v>
-      </c>
-      <c r="D351" t="s">
-        <v>294</v>
-      </c>
+      <c r="C350" t="s">
+        <v>295</v>
+      </c>
+      <c r="D350" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E353" s="2"/>
+      <c r="C353" t="s">
+        <v>295</v>
+      </c>
+      <c r="D353" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
@@ -5759,10 +5767,10 @@
         <v>412</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -5774,180 +5782,180 @@
         <v>414</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="E357" s="2"/>
     </row>
-    <row r="358" spans="1:5">
-      <c r="C358" t="s">
+    <row r="359" spans="1:5">
+      <c r="A359" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D359" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E360" s="2"/>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="C361" t="s">
-        <v>377</v>
-      </c>
-      <c r="D361" t="s">
-        <v>378</v>
-      </c>
+      <c r="C360" t="s">
+        <v>273</v>
+      </c>
+      <c r="D360" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E363" s="2"/>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="C364" t="s">
-        <v>275</v>
-      </c>
-      <c r="D364" t="s">
-        <v>276</v>
+      <c r="C363" t="s">
+        <v>379</v>
+      </c>
+      <c r="D363" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="C365" t="s">
+      <c r="A365" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D366" t="s">
-        <v>306</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="C367" t="s">
+        <v>375</v>
+      </c>
+      <c r="D367" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E368" s="2"/>
+      <c r="C368" t="s">
+        <v>307</v>
+      </c>
+      <c r="D368" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E370" s="2"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="C372" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="C373" t="s">
-        <v>281</v>
-      </c>
-      <c r="D373" t="s">
-        <v>282</v>
-      </c>
+      <c r="C374" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E375" s="2"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="2" t="s">
+      <c r="C375" t="s">
+        <v>373</v>
+      </c>
+      <c r="D375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="C376" t="s">
+        <v>375</v>
+      </c>
+      <c r="D376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="C378" t="s">
-        <v>371</v>
-      </c>
-      <c r="D378" t="s">
-        <v>372</v>
-      </c>
+      <c r="C378" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5">
       <c r="C379" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="D379" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -5958,19 +5966,19 @@
         <v>431</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D382" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -5981,42 +5989,42 @@
         <v>433</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
       <c r="C385" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D385" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
       <c r="C388" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="D388" t="s">
-        <v>282</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6027,19 +6035,19 @@
         <v>439</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
       <c r="C391" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D391" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -6050,50 +6058,50 @@
         <v>441</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
       <c r="C394" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="D394" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="C395" t="s">
+        <v>375</v>
+      </c>
+      <c r="D395" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B397" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="C397" t="s">
-        <v>281</v>
-      </c>
-      <c r="D397" t="s">
-        <v>282</v>
-      </c>
+      <c r="C397" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
       <c r="C398" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="D398" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -6104,35 +6112,35 @@
         <v>445</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>437</v>
+        <v>278</v>
       </c>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="1:5">
-      <c r="C401" t="s">
-        <v>281</v>
-      </c>
-      <c r="D401" t="s">
-        <v>282</v>
-      </c>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E403" s="2"/>
+      <c r="C403" t="s">
+        <v>307</v>
+      </c>
+      <c r="D403" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
@@ -6142,95 +6150,95 @@
         <v>449</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="1:5">
-      <c r="C406" t="s">
-        <v>305</v>
-      </c>
-      <c r="D406" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="2" t="s">
+    <row r="407" spans="1:5">
+      <c r="A407" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B407" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C408" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E408" s="2"/>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
+      <c r="C407" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E410" s="2"/>
+      <c r="C409" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E412" s="2"/>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
+      <c r="C412" t="s">
+        <v>375</v>
+      </c>
+      <c r="D412" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="C413" t="s">
+        <v>307</v>
+      </c>
+      <c r="D413" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C414" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E414" s="2"/>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="C415" t="s">
-        <v>373</v>
-      </c>
-      <c r="D415" t="s">
-        <v>374</v>
-      </c>
+      <c r="C415" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5">
       <c r="C416" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="D416" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -6241,19 +6249,19 @@
         <v>459</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5">
       <c r="C419" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D419" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -6264,35 +6272,35 @@
         <v>461</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="1:5">
-      <c r="C422" t="s">
-        <v>377</v>
-      </c>
-      <c r="D422" t="s">
-        <v>378</v>
-      </c>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E424" s="2"/>
+      <c r="C424" t="s">
+        <v>325</v>
+      </c>
+      <c r="D424" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
@@ -6302,35 +6310,35 @@
         <v>465</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="1:5">
-      <c r="C427" t="s">
-        <v>323</v>
-      </c>
-      <c r="D427" t="s">
-        <v>324</v>
-      </c>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E429" s="2"/>
+      <c r="C429" t="s">
+        <v>283</v>
+      </c>
+      <c r="D429" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
@@ -6340,35 +6348,35 @@
         <v>469</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="1:5">
-      <c r="C432" t="s">
-        <v>281</v>
-      </c>
-      <c r="D432" t="s">
-        <v>282</v>
-      </c>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E434" s="2"/>
+      <c r="C434" t="s">
+        <v>321</v>
+      </c>
+      <c r="D434" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
@@ -6378,112 +6386,112 @@
         <v>473</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E436" s="2"/>
     </row>
-    <row r="437" spans="1:5">
-      <c r="C437" t="s">
-        <v>319</v>
-      </c>
-      <c r="D437" t="s">
-        <v>320</v>
-      </c>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E438" s="2"/>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E439" s="2"/>
+      <c r="C439" t="s">
+        <v>283</v>
+      </c>
+      <c r="D439" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C441" s="2" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="E441" s="2"/>
     </row>
     <row r="442" spans="1:5">
       <c r="C442" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D442" t="s">
-        <v>282</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443" t="s">
+        <v>375</v>
+      </c>
+      <c r="D443" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="2" t="s">
+      <c r="C444" t="s">
+        <v>307</v>
+      </c>
+      <c r="D444" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B446" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E444" s="2"/>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="C445" t="s">
-        <v>275</v>
-      </c>
-      <c r="D445" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="C446" t="s">
-        <v>373</v>
-      </c>
-      <c r="D446" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
-      <c r="C447" t="s">
-        <v>305</v>
-      </c>
-      <c r="D447" t="s">
-        <v>306</v>
-      </c>
+      <c r="C446" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E446" s="2"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5">
-      <c r="A449" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E449" s="2"/>
+      <c r="C449" t="s">
+        <v>283</v>
+      </c>
+      <c r="D449" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
@@ -6493,65 +6501,65 @@
         <v>482</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="E451" s="2"/>
     </row>
-    <row r="452" spans="1:5">
-      <c r="C452" t="s">
-        <v>281</v>
-      </c>
-      <c r="D452" t="s">
-        <v>282</v>
-      </c>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E454" s="2"/>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="2" t="s">
+      <c r="C454" t="s">
+        <v>426</v>
+      </c>
+      <c r="D454" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="C455" t="s">
+        <v>321</v>
+      </c>
+      <c r="D455" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B457" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E456" s="2"/>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="C457" t="s">
-        <v>424</v>
-      </c>
-      <c r="D457" t="s">
-        <v>425</v>
-      </c>
+      <c r="C457" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5">
       <c r="C458" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="D458" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -6562,19 +6570,19 @@
         <v>488</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5">
       <c r="C461" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D461" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -6585,19 +6593,19 @@
         <v>490</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="E463" s="2"/>
     </row>
     <row r="464" spans="1:5">
       <c r="C464" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="D464" t="s">
-        <v>282</v>
+        <v>435</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -6608,19 +6616,19 @@
         <v>492</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E466" s="2"/>
     </row>
     <row r="467" spans="1:5">
       <c r="C467" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D467" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -6631,19 +6639,19 @@
         <v>494</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E469" s="2"/>
     </row>
     <row r="470" spans="1:5">
       <c r="C470" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D470" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -6654,19 +6662,19 @@
         <v>496</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E472" s="2"/>
     </row>
     <row r="473" spans="1:5">
       <c r="C473" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D473" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -6677,19 +6685,19 @@
         <v>498</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E475" s="2"/>
     </row>
     <row r="476" spans="1:5">
       <c r="C476" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D476" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -6697,45 +6705,45 @@
         <v>499</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>320</v>
+        <v>427</v>
       </c>
       <c r="E478" s="2"/>
     </row>
     <row r="479" spans="1:5">
       <c r="C479" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="D479" t="s">
-        <v>437</v>
+        <v>284</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B481" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C481" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="E481" s="2"/>
     </row>
     <row r="482" spans="1:5">
       <c r="C482" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D482" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -6745,1592 +6753,1588 @@
       <c r="B484" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>437</v>
-      </c>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
       <c r="E484" s="2"/>
     </row>
-    <row r="485" spans="1:5">
-      <c r="C485" t="s">
-        <v>281</v>
-      </c>
-      <c r="D485" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="A487" s="2" t="s">
+    <row r="486" spans="1:5">
+      <c r="A486" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B486" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C486" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E487" s="2"/>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="A489" s="2" t="s">
+      <c r="E486" s="2"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B488" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C489" s="2" t="s">
+      <c r="C488" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D489" s="2" t="s">
+      <c r="D488" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E489" s="2"/>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="2" t="s">
+      <c r="E488" s="2"/>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B490" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C491" s="2" t="s">
+      <c r="C490" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D491" s="2" t="s">
+      <c r="D490" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E491" s="2"/>
-    </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="2" t="s">
+      <c r="E490" s="2"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B492" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C493" s="2" t="s">
+      <c r="C492" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D493" s="2" t="s">
+      <c r="D492" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E493" s="2"/>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="A495" s="2" t="s">
+      <c r="E492" s="2"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B494" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C495" s="2" t="s">
+      <c r="C494" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D495" s="2" t="s">
+      <c r="D494" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E495" s="2"/>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497" s="2" t="s">
+      <c r="E494" s="2"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B496" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C497" s="2" t="s">
+      <c r="C496" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="D496" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E497" s="2"/>
-    </row>
-    <row r="499" spans="1:5">
-      <c r="A499" s="2" t="s">
+      <c r="E496" s="2"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B498" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C499" s="2" t="s">
+      <c r="C498" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D499" s="2" t="s">
+      <c r="D498" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E499" s="2"/>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="A501" s="2" t="s">
+      <c r="E498" s="2"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B500" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C501" s="2" t="s">
+      <c r="C500" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D501" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E501" s="2"/>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503" s="2" t="s">
+      <c r="E500" s="2"/>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B502" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C503" s="2" t="s">
+      <c r="C502" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D503" s="2" t="s">
+      <c r="D502" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E503" s="2"/>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="2" t="s">
+      <c r="E502" s="2"/>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C505" s="2" t="s">
+      <c r="C504" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="D504" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E505" s="2"/>
+      <c r="E504" s="2"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E506" s="2"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E507" s="2"/>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="C508" t="s">
+      <c r="C507" t="s">
         <v>534</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D507" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
-      <c r="A510" s="2" t="s">
+    <row r="509" spans="1:5">
+      <c r="A509" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B509" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C510" s="2" t="s">
+      <c r="C509" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="D509" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="A512" s="2" t="s">
+      <c r="E509" s="2"/>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B511" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="C511" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="D511" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E512" s="2"/>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="2" t="s">
+      <c r="E511" s="2"/>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C514" s="2" t="s">
+      <c r="C513" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="D513" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E514" s="2"/>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="2" t="s">
+      <c r="E513" s="2"/>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B515" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C516" s="2" t="s">
+      <c r="C515" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="D515" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E516" s="2"/>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="2" t="s">
+      <c r="E515" s="2"/>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C518" s="2" t="s">
+      <c r="B517" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="D517" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E518" s="2"/>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="2" t="s">
+      <c r="E517" s="2"/>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B519" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C520" s="2" t="s">
+      <c r="C519" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="D519" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E520" s="2"/>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="2" t="s">
+      <c r="E519" s="2"/>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B521" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C522" s="2" t="s">
+      <c r="C521" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="D521" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E522" s="2"/>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="2" t="s">
+      <c r="E521" s="2"/>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B523" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C524" s="2" t="s">
+      <c r="C523" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="D523" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E524" s="2"/>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="2" t="s">
+      <c r="E523" s="2"/>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B525" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="C525" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="D525" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E526" s="2"/>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="2" t="s">
+      <c r="E525" s="2"/>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B527" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="C527" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E528" s="2"/>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="2" t="s">
+      <c r="E527" s="2"/>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B529" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="C529" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="D529" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E530" s="2"/>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="2" t="s">
+      <c r="E529" s="2"/>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B531" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C532" s="2" t="s">
+      <c r="C531" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="D531" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E532" s="2"/>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="A534" s="2" t="s">
+      <c r="E531" s="2"/>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B533" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C534" s="2" t="s">
+      <c r="C533" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="D533" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E534" s="2"/>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="2" t="s">
+      <c r="E533" s="2"/>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B535" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="C535" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D536" s="2" t="s">
+      <c r="D535" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E536" s="2"/>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="2" t="s">
+      <c r="E535" s="2"/>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="C537" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D538" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E538" s="2"/>
+      <c r="E537" s="2"/>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E539" s="2"/>
     </row>
     <row r="540" spans="1:5">
-      <c r="A540" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C540" s="2" t="s">
+      <c r="C540" t="s">
+        <v>579</v>
+      </c>
+      <c r="D540" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E542" s="2"/>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E544" s="2"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E546" s="2"/>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E548" s="2"/>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E550" s="2"/>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E552" s="2"/>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E554" s="2"/>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E556" s="2"/>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E558" s="2"/>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E560" s="2"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E562" s="2"/>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E540" s="2"/>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="C541" t="s">
+      <c r="E564" s="2"/>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E566" s="2"/>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="C567" t="s">
         <v>579</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D567" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
-      <c r="A543" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B543" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E543" s="2"/>
-    </row>
-    <row r="545" spans="1:5">
-      <c r="A545" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E545" s="2"/>
-    </row>
-    <row r="547" spans="1:5">
-      <c r="A547" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E547" s="2"/>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="A549" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E549" s="2"/>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="A551" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C551" s="2" t="s">
+    <row r="569" spans="1:5">
+      <c r="A569" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E569" s="2"/>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="C570" t="s">
         <v>613</v>
       </c>
-      <c r="D551" s="2" t="s">
+      <c r="D570" t="s">
         <v>614</v>
       </c>
-      <c r="E551" s="2"/>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="A553" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D553" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E553" s="2"/>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="A555" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E555" s="2"/>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="A557" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E557" s="2"/>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E559" s="2"/>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E561" s="2"/>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="A563" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E563" s="2"/>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="A565" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="E565" s="2"/>
-    </row>
-    <row r="567" spans="1:5">
-      <c r="A567" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="E567" s="2"/>
-    </row>
-    <row r="568" spans="1:5">
-      <c r="C568" t="s">
-        <v>579</v>
-      </c>
-      <c r="D568" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
-      <c r="A570" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B570" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E570" s="2"/>
-    </row>
-    <row r="571" spans="1:5">
-      <c r="C571" t="s">
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D571" t="s">
+      <c r="D572" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E573" s="2"/>
+      <c r="E572" s="2"/>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" s="2"/>
     </row>
     <row r="575" spans="1:5">
-      <c r="A575" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E575" s="2"/>
+      <c r="C575" t="s">
+        <v>563</v>
+      </c>
+      <c r="D575" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="576" spans="1:5">
       <c r="C576" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="D576" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="C577" t="s">
+        <v>526</v>
+      </c>
+      <c r="D577" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E579" s="2"/>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E581" s="2"/>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E583" s="2"/>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E585" s="2"/>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="C586" t="s">
+        <v>653</v>
+      </c>
+      <c r="D586" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E588" s="2"/>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E590" s="2"/>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="C591" t="s">
+        <v>659</v>
+      </c>
+      <c r="D591" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E593" s="2"/>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="C594" t="s">
+        <v>659</v>
+      </c>
+      <c r="D594" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E596" s="2"/>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D598" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="578" spans="1:5">
-      <c r="C578" t="s">
-        <v>526</v>
-      </c>
-      <c r="D578" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5">
-      <c r="A580" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B580" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C580" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D580" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E580" s="2"/>
-    </row>
-    <row r="582" spans="1:5">
-      <c r="A582" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C582" s="2" t="s">
+      <c r="E598" s="2"/>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="C599" t="s">
+        <v>653</v>
+      </c>
+      <c r="D599" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E601" s="2"/>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E603" s="2"/>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E605" s="2"/>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E607" s="2"/>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E609" s="2"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E611" s="2"/>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E613" s="2"/>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E615" s="2"/>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E617" s="2"/>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E619" s="2"/>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E621" s="2"/>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E623" s="2"/>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E625" s="2"/>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E627" s="2"/>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E629" s="2"/>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E631" s="2"/>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E633" s="2"/>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E635" s="2"/>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E637" s="2"/>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E639" s="2"/>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E641" s="2"/>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E643" s="2"/>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E645" s="2"/>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E647" s="2"/>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E649" s="2"/>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E651" s="2"/>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E653" s="2"/>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E655" s="2"/>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E657" s="2"/>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E659" s="2"/>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E661" s="2"/>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E663" s="2"/>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C665" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D582" s="2" t="s">
+      <c r="D665" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E582" s="2"/>
-    </row>
-    <row r="584" spans="1:5">
-      <c r="A584" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C584" s="2" t="s">
+      <c r="E665" s="2"/>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E667" s="2"/>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E669" s="2"/>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E671" s="2"/>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E673" s="2"/>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E675" s="2"/>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E677" s="2"/>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E679" s="2"/>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E681" s="2"/>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E683" s="2"/>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E685" s="2"/>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E687" s="2"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E689" s="2"/>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="C690" t="s">
         <v>534</v>
       </c>
-      <c r="D584" s="2" t="s">
+      <c r="D690" t="s">
         <v>535</v>
       </c>
-      <c r="E584" s="2"/>
-    </row>
-    <row r="586" spans="1:5">
-      <c r="A586" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E586" s="2"/>
-    </row>
-    <row r="587" spans="1:5">
-      <c r="C587" t="s">
-        <v>653</v>
-      </c>
-      <c r="D587" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5">
-      <c r="A589" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E589" s="2"/>
-    </row>
-    <row r="591" spans="1:5">
-      <c r="A591" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E591" s="2"/>
-    </row>
-    <row r="592" spans="1:5">
-      <c r="C592" t="s">
-        <v>659</v>
-      </c>
-      <c r="D592" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="594" spans="1:5">
-      <c r="A594" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B594" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C594" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E594" s="2"/>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="C595" t="s">
-        <v>659</v>
-      </c>
-      <c r="D595" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5">
-      <c r="A597" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B597" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E597" s="2"/>
-    </row>
-    <row r="599" spans="1:5">
-      <c r="A599" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B599" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E599" s="2"/>
-    </row>
-    <row r="600" spans="1:5">
-      <c r="C600" t="s">
-        <v>653</v>
-      </c>
-      <c r="D600" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="602" spans="1:5">
-      <c r="A602" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B602" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C602" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E602" s="2"/>
-    </row>
-    <row r="604" spans="1:5">
-      <c r="A604" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C604" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E604" s="2"/>
-    </row>
-    <row r="606" spans="1:5">
-      <c r="A606" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B606" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C606" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E606" s="2"/>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="A608" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E608" s="2"/>
-    </row>
-    <row r="610" spans="1:5">
-      <c r="A610" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C610" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D610" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="612" spans="1:5">
-      <c r="A612" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D612" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E612" s="2"/>
-    </row>
-    <row r="614" spans="1:5">
-      <c r="A614" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B614" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E614" s="2"/>
-    </row>
-    <row r="616" spans="1:5">
-      <c r="A616" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B616" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C616" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D616" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E616" s="2"/>
-    </row>
-    <row r="618" spans="1:5">
-      <c r="A618" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B618" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C618" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D618" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E618" s="2"/>
-    </row>
-    <row r="620" spans="1:5">
-      <c r="A620" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B620" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C620" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E620" s="2"/>
-    </row>
-    <row r="622" spans="1:5">
-      <c r="A622" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B622" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C622" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D622" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E622" s="2"/>
-    </row>
-    <row r="624" spans="1:5">
-      <c r="A624" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B624" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C624" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D624" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E624" s="2"/>
-    </row>
-    <row r="626" spans="1:5">
-      <c r="A626" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B626" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C626" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D626" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E626" s="2"/>
-    </row>
-    <row r="628" spans="1:5">
-      <c r="A628" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B628" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C628" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D628" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E628" s="2"/>
-    </row>
-    <row r="630" spans="1:5">
-      <c r="A630" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B630" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C630" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E630" s="2"/>
-    </row>
-    <row r="632" spans="1:5">
-      <c r="A632" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B632" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C632" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D632" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E632" s="2"/>
-    </row>
-    <row r="634" spans="1:5">
-      <c r="A634" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D634" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E634" s="2"/>
-    </row>
-    <row r="636" spans="1:5">
-      <c r="A636" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="B636" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C636" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D636" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E636" s="2"/>
-    </row>
-    <row r="638" spans="1:5">
-      <c r="A638" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B638" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C638" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D638" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E638" s="2"/>
-    </row>
-    <row r="640" spans="1:5">
-      <c r="A640" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B640" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C640" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D640" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E640" s="2"/>
-    </row>
-    <row r="642" spans="1:5">
-      <c r="A642" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B642" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C642" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D642" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E642" s="2"/>
-    </row>
-    <row r="644" spans="1:5">
-      <c r="A644" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B644" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C644" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D644" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E644" s="2"/>
-    </row>
-    <row r="646" spans="1:5">
-      <c r="A646" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B646" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C646" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D646" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E646" s="2"/>
-    </row>
-    <row r="648" spans="1:5">
-      <c r="A648" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B648" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D648" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E648" s="2"/>
-    </row>
-    <row r="650" spans="1:5">
-      <c r="A650" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B650" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C650" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D650" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E650" s="2"/>
-    </row>
-    <row r="652" spans="1:5">
-      <c r="A652" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B652" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C652" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D652" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E652" s="2"/>
-    </row>
-    <row r="654" spans="1:5">
-      <c r="A654" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B654" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C654" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D654" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E654" s="2"/>
-    </row>
-    <row r="656" spans="1:5">
-      <c r="A656" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B656" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C656" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D656" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E656" s="2"/>
-    </row>
-    <row r="658" spans="1:5">
-      <c r="A658" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B658" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C658" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D658" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E658" s="2"/>
-    </row>
-    <row r="660" spans="1:5">
-      <c r="A660" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B660" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C660" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D660" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E660" s="2"/>
-    </row>
-    <row r="662" spans="1:5">
-      <c r="A662" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B662" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D662" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E662" s="2"/>
-    </row>
-    <row r="664" spans="1:5">
-      <c r="A664" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B664" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C664" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D664" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E664" s="2"/>
-    </row>
-    <row r="666" spans="1:5">
-      <c r="A666" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B666" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C666" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D666" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E666" s="2"/>
-    </row>
-    <row r="668" spans="1:5">
-      <c r="A668" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B668" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C668" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D668" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E668" s="2"/>
-    </row>
-    <row r="670" spans="1:5">
-      <c r="A670" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B670" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D670" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E670" s="2"/>
-    </row>
-    <row r="672" spans="1:5">
-      <c r="A672" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B672" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C672" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D672" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E672" s="2"/>
-    </row>
-    <row r="674" spans="1:5">
-      <c r="A674" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B674" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D674" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E674" s="2"/>
-    </row>
-    <row r="676" spans="1:5">
-      <c r="A676" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B676" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C676" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D676" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E676" s="2"/>
-    </row>
-    <row r="678" spans="1:5">
-      <c r="A678" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B678" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C678" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D678" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E678" s="2"/>
-    </row>
-    <row r="680" spans="1:5">
-      <c r="A680" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B680" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C680" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D680" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E680" s="2"/>
-    </row>
-    <row r="682" spans="1:5">
-      <c r="A682" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B682" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D682" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E682" s="2"/>
-    </row>
-    <row r="684" spans="1:5">
-      <c r="A684" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B684" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C684" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D684" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E684" s="2"/>
-    </row>
-    <row r="686" spans="1:5">
-      <c r="A686" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B686" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C686" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D686" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E686" s="2"/>
-    </row>
-    <row r="688" spans="1:5">
-      <c r="A688" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B688" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C688" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D688" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E688" s="2"/>
-    </row>
-    <row r="690" spans="1:5">
-      <c r="A690" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B690" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C690" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D690" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E690" s="2"/>
     </row>
     <row r="692" spans="1:5">
       <c r="A692" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B692" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B692" s="2" t="s">
-        <v>764</v>
-      </c>
       <c r="C692" s="2" t="s">
-        <v>609</v>
+        <v>669</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="E692" s="2"/>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B694" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B694" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="C694" s="2" t="s">
-        <v>609</v>
+        <v>669</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="E694" s="2"/>
     </row>
@@ -8342,389 +8346,368 @@
         <v>767</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>559</v>
+        <v>669</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="E696" s="2"/>
     </row>
-    <row r="697" spans="1:5">
-      <c r="C697" t="s">
-        <v>534</v>
-      </c>
-      <c r="D697" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="699" spans="1:5">
-      <c r="A699" s="2" t="s">
+    <row r="698" spans="1:5">
+      <c r="A698" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B698" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C699" s="2" t="s">
+      <c r="C698" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D699" s="2" t="s">
+      <c r="D698" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E699" s="2"/>
-    </row>
-    <row r="701" spans="1:5">
-      <c r="A701" s="2" t="s">
+      <c r="E698" s="2"/>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C701" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D701" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E701" s="2"/>
-    </row>
-    <row r="703" spans="1:5">
-      <c r="A703" s="2" t="s">
+      <c r="C700" s="2"/>
+      <c r="D700" s="2"/>
+      <c r="E700" s="2"/>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C703" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D703" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E703" s="2"/>
-    </row>
-    <row r="705" spans="1:5">
-      <c r="A705" s="2" t="s">
+      <c r="C702" s="2"/>
+      <c r="D702" s="2"/>
+      <c r="E702" s="2"/>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C705" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D705" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E705" s="2"/>
-    </row>
-    <row r="707" spans="1:5">
-      <c r="A707" s="2" t="s">
+      <c r="C704" s="2"/>
+      <c r="D704" s="2"/>
+      <c r="E704" s="2"/>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C707" s="2" t="s">
+      <c r="C706" s="2"/>
+      <c r="D706" s="2"/>
+      <c r="E706" s="2"/>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D707" s="2" t="s">
+      <c r="B708" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="E707" s="2"/>
-    </row>
-    <row r="708" spans="1:5">
-      <c r="C708" t="s">
-        <v>780</v>
-      </c>
-      <c r="D708" t="s">
-        <v>781</v>
-      </c>
+      <c r="C708" s="2"/>
+      <c r="D708" s="2"/>
+      <c r="E708" s="2"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C710" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B710" s="2" t="s">
+      <c r="D710" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="C710" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D710" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="E710" s="2"/>
     </row>
     <row r="711" spans="1:5">
       <c r="C711" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D711" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="713" spans="1:5">
       <c r="A713" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C713" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B713" s="2" t="s">
+      <c r="D713" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C713" s="2" t="s">
+      <c r="E713" s="2"/>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="C714" t="s">
         <v>790</v>
       </c>
-      <c r="D713" s="2" t="s">
+      <c r="D714" t="s">
         <v>791</v>
       </c>
-      <c r="E713" s="2"/>
-    </row>
-    <row r="715" spans="1:5">
-      <c r="A715" s="2" t="s">
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B715" s="2" t="s">
+      <c r="B716" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C715" s="2" t="s">
+      <c r="C716" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D715" s="2" t="s">
+      <c r="D716" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="E715" s="2"/>
-    </row>
-    <row r="717" spans="1:5">
-      <c r="A717" s="2" t="s">
+      <c r="E716" s="2"/>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="B718" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C717" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D717" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E717" s="2"/>
-    </row>
-    <row r="719" spans="1:5">
-      <c r="A719" s="2" t="s">
+      <c r="C718" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B719" s="2" t="s">
+      <c r="D718" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C719" s="2" t="s">
+      <c r="E718" s="2"/>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D719" s="2" t="s">
+      <c r="B720" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E719" s="2"/>
-    </row>
-    <row r="721" spans="1:5">
-      <c r="A721" s="2" t="s">
+      <c r="C720" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E720" s="2"/>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="B722" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C721" s="2" t="s">
+      <c r="C722" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E722" s="2"/>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C724" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D721" s="2" t="s">
+      <c r="D724" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E721" s="2"/>
-    </row>
-    <row r="723" spans="1:5">
-      <c r="A723" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B723" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C723" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D723" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="E723" s="2"/>
-    </row>
-    <row r="725" spans="1:5">
-      <c r="A725" s="2" t="s">
+      <c r="E724" s="2"/>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B725" s="2" t="s">
+      <c r="B726" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C725" s="2" t="s">
+      <c r="C726" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D725" s="2" t="s">
+      <c r="D726" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="E725" s="2"/>
-    </row>
-    <row r="727" spans="1:5">
-      <c r="A727" s="2" t="s">
+      <c r="E726" s="2"/>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B728" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C727" s="2" t="s">
+      <c r="C728" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D727" s="2" t="s">
+      <c r="D728" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E727" s="2"/>
-    </row>
-    <row r="729" spans="1:5">
-      <c r="A729" s="2" t="s">
+      <c r="E728" s="2"/>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="B730" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C729" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D729" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E729" s="2"/>
-    </row>
-    <row r="731" spans="1:5">
-      <c r="A731" s="2" t="s">
+      <c r="C730" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="D730" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C731" s="2" t="s">
+      <c r="E730" s="2"/>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D731" s="2" t="s">
+      <c r="B732" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E731" s="2"/>
-    </row>
-    <row r="733" spans="1:5">
-      <c r="A733" s="2" t="s">
+      <c r="C732" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E732" s="2"/>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B734" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C733" s="2" t="s">
+      <c r="C734" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D733" s="2" t="s">
+      <c r="D734" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="735" spans="1:5">
-      <c r="A735" s="2" t="s">
+      <c r="E734" s="2"/>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B736" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C735" s="2" t="s">
+      <c r="C736" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="D735" s="2" t="s">
+      <c r="D736" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="E735" s="2"/>
-    </row>
-    <row r="737" spans="1:5">
-      <c r="A737" s="2" t="s">
+      <c r="E736" s="2"/>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B738" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C737" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D737" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="E737" s="2"/>
-    </row>
-    <row r="739" spans="1:5">
-      <c r="A739" s="2" t="s">
+      <c r="C738" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="D738" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C739" s="2" t="s">
+      <c r="E738" s="2"/>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="D739" s="2" t="s">
+      <c r="B740" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="E739" s="2"/>
-    </row>
-    <row r="741" spans="1:5">
-      <c r="A741" s="2" t="s">
+      <c r="C740" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E740" s="2"/>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B742" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C741" s="2" t="s">
+      <c r="C742" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="E742" s="2"/>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C744" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D741" s="2" t="s">
+      <c r="D744" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E741" s="2"/>
-    </row>
-    <row r="743" spans="1:5">
-      <c r="A743" s="2" t="s">
+      <c r="E744" s="2"/>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B743" s="2" t="s">
+      <c r="D746" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C743" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D743" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E743" s="2"/>
-    </row>
-    <row r="745" spans="1:5">
-      <c r="A745" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B745" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C745" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D745" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="E745" s="2"/>
-    </row>
-    <row r="746" spans="1:5">
-      <c r="C746" t="s">
-        <v>842</v>
-      </c>
-      <c r="D746" t="s">
-        <v>843</v>
-      </c>
+      <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
@@ -8734,201 +8717,201 @@
         <v>845</v>
       </c>
       <c r="C748" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E748" s="2"/>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="C749" t="s">
         <v>846</v>
       </c>
-      <c r="D748" s="2" t="s">
+      <c r="D749" t="s">
         <v>847</v>
       </c>
-      <c r="E748" s="2"/>
-    </row>
-    <row r="750" spans="1:5">
-      <c r="A750" s="2" t="s">
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B751" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C750" s="2" t="s">
+      <c r="C751" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D750" s="2" t="s">
+      <c r="D751" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E750" s="2"/>
-    </row>
-    <row r="752" spans="1:5">
-      <c r="A752" s="2" t="s">
+      <c r="E751" s="2"/>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="B753" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C752" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="E752" s="2"/>
-    </row>
-    <row r="754" spans="1:5">
-      <c r="A754" s="2" t="s">
+      <c r="C753" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="D753" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C754" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="E754" s="2"/>
+      <c r="E753" s="2"/>
     </row>
     <row r="755" spans="1:5">
-      <c r="C755" t="s">
-        <v>846</v>
-      </c>
-      <c r="D755" t="s">
-        <v>847</v>
-      </c>
+      <c r="A755" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E755" s="2"/>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="E757" s="2"/>
     </row>
-    <row r="759" spans="1:5">
-      <c r="A759" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B759" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="C759" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D759" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="E759" s="2"/>
+    <row r="758" spans="1:5">
+      <c r="C758" t="s">
+        <v>850</v>
+      </c>
+      <c r="D758" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="760" spans="1:5">
-      <c r="C760" t="s">
+      <c r="A760" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D760" t="s">
+      <c r="B760" s="2" t="s">
         <v>861</v>
       </c>
+      <c r="C760" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E760" s="2"/>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
         <v>862</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>338</v>
+        <v>863</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E762" s="2"/>
     </row>
-    <row r="764" spans="1:5">
-      <c r="A764" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="B764" s="2" t="s">
+    <row r="763" spans="1:5">
+      <c r="C763" t="s">
         <v>864</v>
       </c>
-      <c r="C764" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D764" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="E764" s="2"/>
-    </row>
-    <row r="766" spans="1:5">
-      <c r="A766" s="2" t="s">
+      <c r="D763" t="s">
         <v>865</v>
       </c>
-      <c r="B766" s="2" t="s">
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C766" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="E766" s="2"/>
-    </row>
-    <row r="768" spans="1:5">
-      <c r="A768" s="2" t="s">
+      <c r="B765" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E765" s="2"/>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B767" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C768" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="E768" s="2"/>
-    </row>
-    <row r="770" spans="1:5">
-      <c r="A770" s="2" t="s">
+      <c r="C767" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E767" s="2"/>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B769" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="C770" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D770" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="E770" s="2"/>
-    </row>
-    <row r="772" spans="1:5">
-      <c r="A772" s="2" t="s">
+      <c r="C769" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E769" s="2"/>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B771" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="C772" s="2" t="s">
+      <c r="C771" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E771" s="2"/>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D772" s="2" t="s">
+      <c r="B773" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="E772" s="2"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="C773" t="s">
-        <v>780</v>
-      </c>
-      <c r="D773" t="s">
-        <v>781</v>
-      </c>
+      <c r="C773" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E773" s="2"/>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
@@ -8938,187 +8921,210 @@
         <v>876</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>810</v>
+        <v>877</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>811</v>
+        <v>878</v>
       </c>
       <c r="E775" s="2"/>
     </row>
-    <row r="777" spans="1:5">
-      <c r="A777" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C777" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D777" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="E777" s="2"/>
-    </row>
-    <row r="779" spans="1:5">
-      <c r="A779" s="2" t="s">
+    <row r="776" spans="1:5">
+      <c r="C776" t="s">
+        <v>784</v>
+      </c>
+      <c r="D776" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="B778" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C779" s="2" t="s">
+      <c r="C778" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D779" s="2" t="s">
+      <c r="D778" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E779" s="2"/>
+      <c r="E778" s="2"/>
     </row>
     <row r="780" spans="1:5">
-      <c r="C780" t="s">
-        <v>873</v>
-      </c>
-      <c r="D780" t="s">
-        <v>874</v>
-      </c>
+      <c r="A780" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E780" s="2"/>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
       <c r="E782" s="2"/>
     </row>
-    <row r="784" spans="1:5">
-      <c r="A784" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B784" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="C784" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D784" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E784" s="2"/>
-    </row>
-    <row r="786" spans="1:5">
-      <c r="A786" s="2" t="s">
+    <row r="783" spans="1:5">
+      <c r="C783" t="s">
+        <v>877</v>
+      </c>
+      <c r="D783" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="B786" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C786" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="E786" s="2"/>
+      <c r="B785" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E785" s="2"/>
     </row>
     <row r="787" spans="1:5">
-      <c r="C787" t="s">
-        <v>780</v>
-      </c>
-      <c r="D787" t="s">
-        <v>781</v>
-      </c>
+      <c r="A787" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E787" s="2"/>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="2" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>887</v>
+        <v>549</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E789" s="2"/>
     </row>
     <row r="790" spans="1:5">
       <c r="C790" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D790" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>842</v>
+        <v>782</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>843</v>
+        <v>783</v>
       </c>
       <c r="E792" s="2"/>
     </row>
     <row r="793" spans="1:5">
       <c r="C793" t="s">
-        <v>860</v>
+        <v>784</v>
       </c>
       <c r="D793" t="s">
-        <v>861</v>
+        <v>785</v>
       </c>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="E795" s="2"/>
     </row>
     <row r="796" spans="1:5">
       <c r="C796" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="D796" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>786</v>
+        <v>838</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="E798" s="2"/>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="C799" t="s">
+        <v>854</v>
+      </c>
+      <c r="D799" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E801" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="898">
   <si>
     <t>Sigla</t>
   </si>
@@ -103,28 +103,34 @@
     <t xml:space="preserve"> Ciência, Tecnologia e Sociedade</t>
   </si>
   <si>
+    <t>7043088</t>
+  </si>
+  <si>
+    <t>Ana Karine Furtado de Carvalho</t>
+  </si>
+  <si>
+    <t>LOB1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leitura e Interpretação de Desenho Técnico</t>
+  </si>
+  <si>
+    <t>5840820</t>
+  </si>
+  <si>
+    <t>Gustavo Aristides Santana Martinez</t>
+  </si>
+  <si>
+    <t>LOB1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Direito  Aplicado à Engenharia</t>
+  </si>
+  <si>
     <t>6376612</t>
   </si>
   <si>
     <t>Daisy Rafaela da Silva</t>
-  </si>
-  <si>
-    <t>LOB1009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Leitura e Interpretação de Desenho Técnico</t>
-  </si>
-  <si>
-    <t>5840820</t>
-  </si>
-  <si>
-    <t>Gustavo Aristides Santana Martinez</t>
-  </si>
-  <si>
-    <t>LOB1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Direito  Aplicado à Engenharia</t>
   </si>
   <si>
     <t>LOB1011</t>
@@ -3225,274 +3231,274 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -3504,619 +3510,619 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5">
       <c r="C65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5">
       <c r="C68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="C109" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>33</v>
@@ -4128,10 +4134,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -4143,177 +4149,177 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5">
       <c r="C146" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5">
       <c r="C149" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D149" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5">
       <c r="C154" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E158" s="2"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5">
       <c r="C163" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D163" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -4321,339 +4327,339 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5">
       <c r="C174" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5">
       <c r="C179" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="C180" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5">
       <c r="C183" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="C184" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D184" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5">
       <c r="C187" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D187" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5">
       <c r="C190" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D190" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="C191" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D191" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="C192" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D192" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5">
       <c r="C195" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D195" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="C196" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="C197" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5">
       <c r="C200" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D200" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5">
       <c r="C203" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D203" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="C204" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D204" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5">
       <c r="C207" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D207" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E209" s="2"/>
     </row>
@@ -4667,624 +4673,624 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5">
       <c r="C213" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D213" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5">
       <c r="C216" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D216" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5">
       <c r="C219" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D219" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E221" s="2"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5">
       <c r="C224" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D224" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5">
       <c r="C227" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D227" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5">
       <c r="C230" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D230" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E232" s="2"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5">
       <c r="C235" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D235" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5">
       <c r="C238" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D238" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5">
       <c r="C241" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D241" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E243" s="2"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E245" s="2"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5">
       <c r="C248" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D248" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="C251" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D251" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="C252" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D252" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5">
       <c r="C255" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D255" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5">
       <c r="C258" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D258" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5">
       <c r="C261" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="C262" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D262" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="C263" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D263" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5">
       <c r="C266" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D266" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E268" s="2"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5">
       <c r="C271" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D271" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5">
       <c r="C274" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D274" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="C275" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D275" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="C276" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D276" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5">
       <c r="C279" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D279" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="C280" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D280" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="C281" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D281" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5">
       <c r="C284" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D284" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="C285" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D285" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5">
       <c r="C288" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D288" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E290" s="2"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5292,3910 +5298,3910 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5">
       <c r="C295" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D295" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5">
       <c r="C298" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D298" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5">
       <c r="C301" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D301" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5">
       <c r="C304" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D304" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5">
       <c r="C307" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D307" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="C308" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D308" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E310" s="2"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5">
       <c r="C313" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D313" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="C314" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D314" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5">
       <c r="C317" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D317" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5">
       <c r="C320" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D320" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="C321" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D321" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5">
       <c r="C324" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D324" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5">
       <c r="C327" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D327" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D330" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="C331" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D331" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="C332" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D332" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5">
       <c r="C335" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D335" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="C336" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D336" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5">
       <c r="C339" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D339" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5">
       <c r="C342" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="C343" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D343" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5">
       <c r="C346" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D346" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5">
       <c r="C349" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D349" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="C350" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D350" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5">
       <c r="C353" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D353" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E355" s="2"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E357" s="2"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5">
       <c r="C360" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D360" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5">
       <c r="C363" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D363" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D366" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="C367" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D367" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="C368" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D368" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E370" s="2"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E372" s="2"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5">
       <c r="C375" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D375" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="C376" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D376" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5">
       <c r="C379" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D379" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D382" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
       <c r="C385" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D385" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
       <c r="C388" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D388" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
       <c r="C391" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D391" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
       <c r="C394" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D394" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="C395" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D395" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5">
       <c r="C398" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D398" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E400" s="2"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5">
       <c r="C403" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D403" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E405" s="2"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E407" s="2"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E409" s="2"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5">
       <c r="C412" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D412" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5">
       <c r="C415" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D415" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5">
       <c r="C418" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D418" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E420" s="2"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5">
       <c r="C423" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D423" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E425" s="2"/>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5">
       <c r="C428" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D428" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E430" s="2"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5">
       <c r="C433" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D433" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E435" s="2"/>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="1:5">
       <c r="C438" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D438" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E440" s="2"/>
     </row>
     <row r="441" spans="1:5">
       <c r="C441" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D441" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="C442" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D442" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="C443" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D443" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E445" s="2"/>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E447" s="2"/>
     </row>
     <row r="448" spans="1:5">
       <c r="C448" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D448" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E450" s="2"/>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E452" s="2"/>
     </row>
     <row r="453" spans="1:5">
       <c r="C453" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D453" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="C454" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D454" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5">
       <c r="C457" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D457" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5">
       <c r="C460" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D460" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
       <c r="C463" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D463" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E465" s="2"/>
     </row>
     <row r="466" spans="1:5">
       <c r="C466" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D466" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E468" s="2"/>
     </row>
     <row r="469" spans="1:5">
       <c r="C469" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D469" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
       <c r="C472" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D472" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
       <c r="C475" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D475" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="1:5">
       <c r="C478" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D478" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E480" s="2"/>
     </row>
     <row r="481" spans="1:5">
       <c r="C481" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D481" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:5">
       <c r="C484" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D484" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E486" s="2"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E488" s="2"/>
     </row>
     <row r="489" spans="1:5">
       <c r="C489" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D489" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E491" s="2"/>
     </row>
     <row r="492" spans="1:5">
       <c r="C492" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D492" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E494" s="2"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E496" s="2"/>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E498" s="2"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E500" s="2"/>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E502" s="2"/>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E504" s="2"/>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E506" s="2"/>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E508" s="2"/>
     </row>
     <row r="509" spans="1:5">
       <c r="C509" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D509" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E511" s="2"/>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E513" s="2"/>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E515" s="2"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E517" s="2"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E519" s="2"/>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E521" s="2"/>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E525" s="2"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E527" s="2"/>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E529" s="2"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E531" s="2"/>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E533" s="2"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E535" s="2"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E537" s="2"/>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E539" s="2"/>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E541" s="2"/>
     </row>
     <row r="542" spans="1:5">
       <c r="C542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D542" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E544" s="2"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="E546" s="2"/>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E548" s="2"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E550" s="2"/>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E552" s="2"/>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E554" s="2"/>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E556" s="2"/>
     </row>
     <row r="557" spans="1:5">
       <c r="C557" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D557" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E559" s="2"/>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E561" s="2"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E563" s="2"/>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E565" s="2"/>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E567" s="2"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E569" s="2"/>
     </row>
     <row r="570" spans="1:5">
       <c r="C570" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D570" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E572" s="2"/>
     </row>
     <row r="573" spans="1:5">
       <c r="C573" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D573" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="574" spans="1:5">
       <c r="C574" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D574" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="E576" s="2"/>
     </row>
     <row r="577" spans="1:5">
       <c r="C577" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D577" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E579" s="2"/>
     </row>
     <row r="580" spans="1:5">
       <c r="C580" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D580" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="C581" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D581" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="582" spans="1:5">
       <c r="C582" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D582" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E584" s="2"/>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E586" s="2"/>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E588" s="2"/>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E590" s="2"/>
     </row>
     <row r="591" spans="1:5">
       <c r="C591" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D591" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E593" s="2"/>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E595" s="2"/>
     </row>
     <row r="596" spans="1:5">
       <c r="C596" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D596" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E598" s="2"/>
     </row>
     <row r="599" spans="1:5">
       <c r="C599" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D599" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E601" s="2"/>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E603" s="2"/>
     </row>
     <row r="604" spans="1:5">
       <c r="C604" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D604" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E606" s="2"/>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E608" s="2"/>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E610" s="2"/>
     </row>
     <row r="611" spans="1:5">
       <c r="C611" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D611" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E613" s="2"/>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E615" s="2"/>
     </row>
     <row r="617" spans="1:5">
       <c r="A617" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E617" s="2"/>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E619" s="2"/>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E621" s="2"/>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E623" s="2"/>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E625" s="2"/>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E631" s="2"/>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E633" s="2"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E635" s="2"/>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E637" s="2"/>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E639" s="2"/>
     </row>
     <row r="641" spans="1:5">
       <c r="A641" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E641" s="2"/>
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E643" s="2"/>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E645" s="2"/>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E647" s="2"/>
     </row>
     <row r="649" spans="1:5">
       <c r="A649" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E649" s="2"/>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E651" s="2"/>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E653" s="2"/>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E655" s="2"/>
     </row>
     <row r="657" spans="1:5">
       <c r="A657" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E657" s="2"/>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E659" s="2"/>
     </row>
     <row r="661" spans="1:5">
       <c r="A661" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E661" s="2"/>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E663" s="2"/>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E665" s="2"/>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E667" s="2"/>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E669" s="2"/>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E671" s="2"/>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E673" s="2"/>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E675" s="2"/>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C677" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="D677" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D677" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="E677" s="2"/>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E679" s="2"/>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E681" s="2"/>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E683" s="2"/>
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E685" s="2"/>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E687" s="2"/>
     </row>
     <row r="689" spans="1:5">
       <c r="A689" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E689" s="2"/>
     </row>
     <row r="691" spans="1:5">
       <c r="A691" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E691" s="2"/>
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E693" s="2"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E695" s="2"/>
     </row>
     <row r="696" spans="1:5">
       <c r="C696" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D696" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="698" spans="1:5">
       <c r="A698" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E698" s="2"/>
     </row>
     <row r="700" spans="1:5">
       <c r="A700" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E700" s="2"/>
     </row>
     <row r="702" spans="1:5">
       <c r="A702" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E702" s="2"/>
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E704" s="2"/>
     </row>
     <row r="706" spans="1:5">
       <c r="A706" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E706" s="2"/>
     </row>
     <row r="708" spans="1:5">
       <c r="A708" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E708" s="2"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E710" s="2"/>
     </row>
     <row r="712" spans="1:5">
       <c r="A712" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E712" s="2"/>
     </row>
     <row r="714" spans="1:5">
       <c r="A714" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E714" s="2"/>
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E716" s="2"/>
     </row>
     <row r="717" spans="1:5">
       <c r="C717" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D717" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E719" s="2"/>
     </row>
     <row r="720" spans="1:5">
       <c r="C720" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D720" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E722" s="2"/>
     </row>
     <row r="724" spans="1:5">
       <c r="A724" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E724" s="2"/>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E726" s="2"/>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E728" s="2"/>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E730" s="2"/>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E732" s="2"/>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E734" s="2"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E740" s="2"/>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E742" s="2"/>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E744" s="2"/>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C746" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="D746" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C746" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D746" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E752" s="2"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E754" s="2"/>
     </row>
     <row r="755" spans="1:5">
       <c r="C755" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D755" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E757" s="2"/>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E759" s="2"/>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E761" s="2"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E763" s="2"/>
     </row>
     <row r="764" spans="1:5">
       <c r="C764" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D764" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E766" s="2"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E768" s="2"/>
     </row>
     <row r="769" spans="1:5">
       <c r="C769" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D769" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E771" s="2"/>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E773" s="2"/>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E775" s="2"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E777" s="2"/>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E779" s="2"/>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E781" s="2"/>
     </row>
     <row r="782" spans="1:5">
       <c r="C782" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D782" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E784" s="2"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E786" s="2"/>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E788" s="2"/>
     </row>
     <row r="789" spans="1:5">
       <c r="C789" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D789" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E791" s="2"/>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E793" s="2"/>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E795" s="2"/>
     </row>
     <row r="796" spans="1:5">
       <c r="C796" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D796" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E798" s="2"/>
     </row>
     <row r="799" spans="1:5">
       <c r="C799" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D799" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="1:5">
       <c r="C802" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D802" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E804" s="2"/>
     </row>
     <row r="805" spans="1:5">
       <c r="C805" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D805" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E807" s="2"/>
     </row>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3067,8 +3067,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="904">
   <si>
     <t>Sigla</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Docentes responsáveis - proposta</t>
   </si>
   <si>
+    <t>8800008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projetos Especiais em Engenharia I</t>
+  </si>
+  <si>
+    <t>198273</t>
+  </si>
+  <si>
+    <t>Domingos Savio Giordani</t>
+  </si>
+  <si>
     <t>8800009</t>
   </si>
   <si>
@@ -61,6 +73,24 @@
     <t xml:space="preserve"> Canto Coral IV</t>
   </si>
   <si>
+    <t>8800013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projetos Especiais em Engenharia II</t>
+  </si>
+  <si>
+    <t>8800014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projetos Especiais em Gestão da Inovação</t>
+  </si>
+  <si>
+    <t>849935</t>
+  </si>
+  <si>
+    <t>Humberto Felipe da Silva</t>
+  </si>
+  <si>
     <t>LOB1003</t>
   </si>
   <si>
@@ -1642,12 +1672,6 @@
     <t xml:space="preserve"> Trabalho de Conclusão de Curso I</t>
   </si>
   <si>
-    <t>198273</t>
-  </si>
-  <si>
-    <t>Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>LOQ4048</t>
   </si>
   <si>
@@ -2111,12 +2135,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Gestão de Negócios</t>
-  </si>
-  <si>
-    <t>849935</t>
-  </si>
-  <si>
-    <t>Humberto Felipe da Silva</t>
   </si>
   <si>
     <t>LOQ4234</t>
@@ -3058,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E807"/>
+  <dimension ref="A1:E813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3110,55 +3128,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3170,205 +3188,205 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -3395,70 +3413,70 @@
         <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -3485,10 +3503,10 @@
         <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -3500,40 +3518,40 @@
         <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -3545,103 +3563,103 @@
         <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="C68" t="s">
+      <c r="A68" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
+    <row r="71" spans="1:5">
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="2"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
@@ -3651,25 +3669,25 @@
         <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="E78" s="2"/>
     </row>
@@ -3681,115 +3699,115 @@
         <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3801,10 +3819,10 @@
         <v>158</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -3816,619 +3834,618 @@
         <v>160</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5">
-      <c r="C109" t="s">
-        <v>133</v>
-      </c>
-      <c r="D109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" s="2" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E113" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E115" s="2"/>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
-      <c r="C146" t="s">
-        <v>133</v>
-      </c>
-      <c r="D146" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E148" s="2"/>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="C149" t="s">
-        <v>117</v>
-      </c>
-      <c r="D149" t="s">
-        <v>118</v>
-      </c>
+      <c r="A149" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E149" s="2"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2"/>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E153" s="2"/>
+    <row r="152" spans="1:5">
+      <c r="C152" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="C154" t="s">
-        <v>133</v>
-      </c>
-      <c r="D154" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2" t="s">
+      <c r="A154" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E158" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="C155" t="s">
+        <v>127</v>
+      </c>
+      <c r="D155" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E160" s="2"/>
+      <c r="C160" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5">
-      <c r="C163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D163" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E167" s="2"/>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E169" s="2"/>
+      <c r="C169" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5">
-      <c r="C174" t="s">
-        <v>241</v>
-      </c>
-      <c r="D174" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="C179" t="s">
-        <v>239</v>
-      </c>
-      <c r="D179" t="s">
-        <v>240</v>
-      </c>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5">
       <c r="C180" t="s">
@@ -4453,59 +4470,59 @@
       </c>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5">
-      <c r="C183" t="s">
-        <v>121</v>
-      </c>
-      <c r="D183" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="184" spans="1:5">
-      <c r="C184" t="s">
+      <c r="A184" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D184" t="s">
+      <c r="B184" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="C184" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="C185" t="s">
+        <v>249</v>
+      </c>
+      <c r="D185" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" t="s">
         <v>261</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s">
         <v>262</v>
       </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="C187" t="s">
-        <v>249</v>
-      </c>
-      <c r="D187" t="s">
-        <v>250</v>
-      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E189" s="2"/>
+      <c r="C189" t="s">
+        <v>131</v>
+      </c>
+      <c r="D189" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="C190" t="s">
@@ -4515,290 +4532,290 @@
         <v>268</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="C191" t="s">
-        <v>257</v>
-      </c>
-      <c r="D191" t="s">
-        <v>258</v>
-      </c>
-    </row>
     <row r="192" spans="1:5">
-      <c r="C192" t="s">
-        <v>245</v>
-      </c>
-      <c r="D192" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2" t="s">
+      <c r="A192" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E194" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="C193" t="s">
+        <v>259</v>
+      </c>
+      <c r="D193" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="C195" t="s">
+      <c r="A195" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D195" t="s">
+      <c r="B195" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="C195" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5">
       <c r="C196" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D196" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="C197" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D197" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E199" s="2"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="C198" t="s">
+        <v>255</v>
+      </c>
+      <c r="D198" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="C200" t="s">
+      <c r="A200" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="C201" t="s">
+        <v>283</v>
+      </c>
+      <c r="D201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="C202" t="s">
         <v>251</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D202" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5">
       <c r="C203" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D203" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="C204" t="s">
-        <v>257</v>
-      </c>
-      <c r="D204" t="s">
-        <v>258</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="C207" t="s">
-        <v>257</v>
-      </c>
-      <c r="D207" t="s">
-        <v>258</v>
-      </c>
+      <c r="C206" t="s">
+        <v>261</v>
+      </c>
+      <c r="D206" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" t="s">
         <v>283</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>284</v>
       </c>
-      <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5">
       <c r="C210" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="D210" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5">
       <c r="C213" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D213" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5">
       <c r="C216" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="D216" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5">
       <c r="C219" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D219" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E221" s="2"/>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="2" t="s">
+    <row r="222" spans="1:5">
+      <c r="C222" t="s">
+        <v>301</v>
+      </c>
+      <c r="D222" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="C225" t="s">
         <v>297</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="D225" t="s">
         <v>298</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="C224" t="s">
-        <v>299</v>
-      </c>
-      <c r="D224" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2" t="s">
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="C227" t="s">
-        <v>305</v>
-      </c>
-      <c r="D227" t="s">
-        <v>306</v>
-      </c>
+      <c r="E227" s="2"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
@@ -4808,81 +4825,81 @@
         <v>308</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5">
       <c r="C230" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D230" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E232" s="2"/>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E234" s="2"/>
+    <row r="233" spans="1:5">
+      <c r="C233" t="s">
+        <v>315</v>
+      </c>
+      <c r="D233" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="C235" t="s">
-        <v>313</v>
-      </c>
-      <c r="D235" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
+      <c r="A235" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="C236" t="s">
+        <v>297</v>
+      </c>
+      <c r="D236" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="C238" t="s">
-        <v>319</v>
-      </c>
-      <c r="D238" t="s">
-        <v>320</v>
-      </c>
+      <c r="E238" s="2"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
@@ -4892,499 +4909,499 @@
         <v>322</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5">
       <c r="C241" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D241" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="C244" t="s">
+        <v>329</v>
+      </c>
+      <c r="D244" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="C247" t="s">
+        <v>329</v>
+      </c>
+      <c r="D247" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="C254" t="s">
+        <v>329</v>
+      </c>
+      <c r="D254" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="C248" t="s">
-        <v>319</v>
-      </c>
-      <c r="D248" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="2" t="s">
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="C257" t="s">
         <v>329</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="D257" t="s">
         <v>330</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="C251" t="s">
-        <v>319</v>
-      </c>
-      <c r="D251" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="C252" t="s">
-        <v>287</v>
-      </c>
-      <c r="D252" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="C255" t="s">
-        <v>313</v>
-      </c>
-      <c r="D255" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5">
       <c r="C258" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D258" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5">
       <c r="C261" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D261" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="C262" t="s">
-        <v>245</v>
-      </c>
-      <c r="D262" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="C263" t="s">
-        <v>339</v>
-      </c>
-      <c r="D263" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E265" s="2"/>
+      <c r="A263" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="C264" t="s">
+        <v>297</v>
+      </c>
+      <c r="D264" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="C266" t="s">
-        <v>287</v>
-      </c>
-      <c r="D266" t="s">
-        <v>288</v>
+      <c r="A266" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="C267" t="s">
+        <v>347</v>
+      </c>
+      <c r="D267" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E270" s="2"/>
+      <c r="C268" t="s">
+        <v>255</v>
+      </c>
+      <c r="D268" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="C269" t="s">
+        <v>349</v>
+      </c>
+      <c r="D269" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="C271" t="s">
-        <v>245</v>
-      </c>
-      <c r="D271" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E273" s="2"/>
+      <c r="A271" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="C272" t="s">
+        <v>297</v>
+      </c>
+      <c r="D272" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="C274" t="s">
-        <v>283</v>
-      </c>
-      <c r="D274" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="C275" t="s">
-        <v>271</v>
-      </c>
-      <c r="D275" t="s">
-        <v>272</v>
-      </c>
+      <c r="A274" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E274" s="2"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="C276" t="s">
-        <v>241</v>
-      </c>
-      <c r="D276" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E278" s="2"/>
+      <c r="A276" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="C277" t="s">
+        <v>255</v>
+      </c>
+      <c r="D277" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="C279" t="s">
-        <v>317</v>
-      </c>
-      <c r="D279" t="s">
-        <v>318</v>
-      </c>
+      <c r="A279" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5">
       <c r="C280" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="D280" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="C281" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="D281" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E283" s="2"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" t="s">
+        <v>251</v>
+      </c>
+      <c r="D282" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="C284" t="s">
-        <v>249</v>
-      </c>
-      <c r="D284" t="s">
-        <v>250</v>
-      </c>
+      <c r="A284" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5">
       <c r="C285" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="D285" t="s">
-        <v>240</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" t="s">
+        <v>329</v>
+      </c>
+      <c r="D286" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="C288" t="s">
-        <v>319</v>
-      </c>
-      <c r="D288" t="s">
-        <v>320</v>
-      </c>
+      <c r="C287" t="s">
+        <v>255</v>
+      </c>
+      <c r="D287" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
+      <c r="C290" t="s">
+        <v>259</v>
+      </c>
+      <c r="D290" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="C291" t="s">
+        <v>249</v>
+      </c>
+      <c r="D291" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="C295" t="s">
-        <v>241</v>
-      </c>
-      <c r="D295" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E297" s="2"/>
+      <c r="C294" t="s">
+        <v>329</v>
+      </c>
+      <c r="D294" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E296" s="2"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="C298" t="s">
-        <v>305</v>
-      </c>
-      <c r="D298" t="s">
-        <v>306</v>
-      </c>
+      <c r="A298" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5">
       <c r="C301" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D301" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5">
       <c r="C304" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="D304" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5395,1859 +5412,1860 @@
         <v>374</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5">
       <c r="C307" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="D307" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="C308" t="s">
-        <v>339</v>
-      </c>
-      <c r="D308" t="s">
-        <v>340</v>
-      </c>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E310" s="2"/>
+      <c r="C310" t="s">
+        <v>381</v>
+      </c>
+      <c r="D310" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5">
       <c r="C313" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D313" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="C314" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D314" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="1:5">
-      <c r="C317" t="s">
-        <v>257</v>
-      </c>
-      <c r="D317" t="s">
-        <v>258</v>
-      </c>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E319" s="2"/>
+      <c r="C319" t="s">
+        <v>347</v>
+      </c>
+      <c r="D319" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="320" spans="1:5">
       <c r="C320" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="D320" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="C321" t="s">
-        <v>287</v>
-      </c>
-      <c r="D321" t="s">
-        <v>288</v>
-      </c>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="C324" t="s">
-        <v>339</v>
-      </c>
-      <c r="D324" t="s">
-        <v>340</v>
-      </c>
+      <c r="C323" t="s">
+        <v>267</v>
+      </c>
+      <c r="D323" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E326" s="2"/>
+      <c r="C326" t="s">
+        <v>393</v>
+      </c>
+      <c r="D326" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="C327" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="D327" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D330" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="C331" t="s">
-        <v>245</v>
-      </c>
-      <c r="D331" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="C332" t="s">
-        <v>339</v>
-      </c>
-      <c r="D332" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E334" s="2"/>
+      <c r="A332" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="C333" t="s">
+        <v>261</v>
+      </c>
+      <c r="D333" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="C335" t="s">
-        <v>383</v>
-      </c>
-      <c r="D335" t="s">
-        <v>384</v>
-      </c>
+      <c r="A335" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5">
       <c r="C336" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="D336" t="s">
-        <v>288</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="C337" t="s">
+        <v>255</v>
+      </c>
+      <c r="D337" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="2" t="s">
+      <c r="C338" t="s">
+        <v>349</v>
+      </c>
+      <c r="D338" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="C341" t="s">
         <v>393</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="D341" t="s">
         <v>394</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="C339" t="s">
-        <v>367</v>
-      </c>
-      <c r="D339" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5">
       <c r="C342" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="D342" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="C343" t="s">
-        <v>287</v>
-      </c>
-      <c r="D343" t="s">
-        <v>288</v>
-      </c>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="C346" t="s">
-        <v>287</v>
-      </c>
-      <c r="D346" t="s">
-        <v>288</v>
-      </c>
+      <c r="C345" t="s">
+        <v>377</v>
+      </c>
+      <c r="D345" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E348" s="2"/>
+      <c r="C348" t="s">
+        <v>393</v>
+      </c>
+      <c r="D348" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="349" spans="1:5">
       <c r="C349" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="D349" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="C350" t="s">
-        <v>287</v>
-      </c>
-      <c r="D350" t="s">
-        <v>288</v>
-      </c>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="C353" t="s">
-        <v>287</v>
-      </c>
-      <c r="D353" t="s">
-        <v>288</v>
-      </c>
+      <c r="C352" t="s">
+        <v>297</v>
+      </c>
+      <c r="D352" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E355" s="2"/>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E357" s="2"/>
+      <c r="C355" t="s">
+        <v>393</v>
+      </c>
+      <c r="D355" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="C356" t="s">
+        <v>297</v>
+      </c>
+      <c r="D356" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="C360" t="s">
-        <v>267</v>
-      </c>
-      <c r="D360" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E362" s="2"/>
+      <c r="C359" t="s">
+        <v>297</v>
+      </c>
+      <c r="D359" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E361" s="2"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="C363" t="s">
-        <v>371</v>
-      </c>
-      <c r="D363" t="s">
-        <v>372</v>
-      </c>
+      <c r="A363" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E363" s="2"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
+        <v>277</v>
+      </c>
+      <c r="D366" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="C369" t="s">
+        <v>381</v>
+      </c>
+      <c r="D369" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="C372" t="s">
+        <v>281</v>
+      </c>
+      <c r="D372" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="C373" t="s">
+        <v>377</v>
+      </c>
+      <c r="D373" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="C374" t="s">
+        <v>309</v>
+      </c>
+      <c r="D374" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D376" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="C367" t="s">
-        <v>367</v>
-      </c>
-      <c r="D367" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="C368" t="s">
-        <v>299</v>
-      </c>
-      <c r="D368" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E370" s="2"/>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E374" s="2"/>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="C375" t="s">
-        <v>365</v>
-      </c>
-      <c r="D375" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="C376" t="s">
-        <v>367</v>
-      </c>
-      <c r="D376" t="s">
-        <v>368</v>
-      </c>
+      <c r="E376" s="2"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="1:5">
-      <c r="C379" t="s">
-        <v>299</v>
-      </c>
-      <c r="D379" t="s">
-        <v>300</v>
-      </c>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E381" s="2"/>
+      <c r="C381" t="s">
+        <v>375</v>
+      </c>
+      <c r="D381" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="D382" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
       <c r="C385" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="D385" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
       <c r="C388" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="D388" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
       <c r="C391" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="D391" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
       <c r="C394" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="D394" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="C395" t="s">
-        <v>367</v>
-      </c>
-      <c r="D395" t="s">
-        <v>368</v>
-      </c>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E397" s="2"/>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="C398" t="s">
-        <v>251</v>
-      </c>
-      <c r="D398" t="s">
-        <v>252</v>
-      </c>
+      <c r="C397" t="s">
+        <v>375</v>
+      </c>
+      <c r="D397" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="2" t="s">
+      <c r="C400" t="s">
+        <v>261</v>
+      </c>
+      <c r="D400" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="C401" t="s">
+        <v>377</v>
+      </c>
+      <c r="D401" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E400" s="2"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="C403" t="s">
-        <v>299</v>
-      </c>
-      <c r="D403" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E405" s="2"/>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E407" s="2"/>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="C404" t="s">
+        <v>261</v>
+      </c>
+      <c r="D404" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E409" s="2"/>
+      <c r="C409" t="s">
+        <v>309</v>
+      </c>
+      <c r="D409" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="1:5">
-      <c r="C412" t="s">
-        <v>299</v>
-      </c>
-      <c r="D412" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E414" s="2"/>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E413" s="2"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="C415" t="s">
-        <v>371</v>
-      </c>
-      <c r="D415" t="s">
-        <v>372</v>
-      </c>
+      <c r="A415" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E415" s="2"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5">
       <c r="C418" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="D418" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="E420" s="2"/>
     </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E422" s="2"/>
+    <row r="421" spans="1:5">
+      <c r="C421" t="s">
+        <v>381</v>
+      </c>
+      <c r="D421" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="423" spans="1:5">
-      <c r="C423" t="s">
-        <v>317</v>
-      </c>
-      <c r="D423" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E425" s="2"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E427" s="2"/>
+      <c r="A423" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="C424" t="s">
+        <v>381</v>
+      </c>
+      <c r="D424" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E426" s="2"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="C428" t="s">
-        <v>251</v>
-      </c>
-      <c r="D428" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E430" s="2"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E432" s="2"/>
+      <c r="A428" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="C429" t="s">
+        <v>327</v>
+      </c>
+      <c r="D429" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E431" s="2"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="C433" t="s">
-        <v>313</v>
-      </c>
-      <c r="D433" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E435" s="2"/>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E437" s="2"/>
+      <c r="A433" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="C434" t="s">
+        <v>261</v>
+      </c>
+      <c r="D434" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E436" s="2"/>
     </row>
     <row r="438" spans="1:5">
-      <c r="C438" t="s">
-        <v>251</v>
-      </c>
-      <c r="D438" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E440" s="2"/>
+      <c r="A438" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="C439" t="s">
+        <v>323</v>
+      </c>
+      <c r="D439" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="441" spans="1:5">
-      <c r="C441" t="s">
-        <v>271</v>
-      </c>
-      <c r="D441" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="C442" t="s">
-        <v>367</v>
-      </c>
-      <c r="D442" t="s">
-        <v>368</v>
-      </c>
+      <c r="A441" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E441" s="2"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="C443" t="s">
-        <v>299</v>
-      </c>
-      <c r="D443" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="A445" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E445" s="2"/>
+      <c r="A443" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="C444" t="s">
+        <v>261</v>
+      </c>
+      <c r="D444" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E446" s="2"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E447" s="2"/>
+      <c r="C447" t="s">
+        <v>281</v>
+      </c>
+      <c r="D447" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="448" spans="1:5">
       <c r="C448" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="D448" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E450" s="2"/>
-    </row>
-    <row r="452" spans="1:5">
-      <c r="A452" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C452" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="C449" t="s">
+        <v>309</v>
+      </c>
+      <c r="D449" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E452" s="2"/>
+      <c r="E451" s="2"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="C453" t="s">
-        <v>418</v>
-      </c>
-      <c r="D453" t="s">
-        <v>419</v>
-      </c>
+      <c r="A453" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
       <c r="C454" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="D454" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="E456" s="2"/>
     </row>
-    <row r="457" spans="1:5">
-      <c r="C457" t="s">
-        <v>251</v>
-      </c>
-      <c r="D457" t="s">
-        <v>252</v>
-      </c>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E459" s="2"/>
+      <c r="C459" t="s">
+        <v>428</v>
+      </c>
+      <c r="D459" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="460" spans="1:5">
       <c r="C460" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="D460" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>313</v>
+        <v>436</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>314</v>
+        <v>437</v>
       </c>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
       <c r="C463" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="D463" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="E465" s="2"/>
     </row>
     <row r="466" spans="1:5">
       <c r="C466" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="D466" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E468" s="2"/>
     </row>
     <row r="469" spans="1:5">
       <c r="C469" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D469" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
       <c r="C472" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D472" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
       <c r="C475" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D475" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>162</v>
+        <v>498</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="1:5">
       <c r="C478" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="D478" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="E480" s="2"/>
     </row>
     <row r="481" spans="1:5">
       <c r="C481" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="D481" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>495</v>
+        <v>172</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:5">
       <c r="C484" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D484" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="E486" s="2"/>
     </row>
-    <row r="488" spans="1:5">
-      <c r="A488" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E488" s="2"/>
+    <row r="487" spans="1:5">
+      <c r="C487" t="s">
+        <v>261</v>
+      </c>
+      <c r="D487" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="489" spans="1:5">
-      <c r="C489" t="s">
+      <c r="A489" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D489" t="s">
+      <c r="B489" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="2" t="s">
+      <c r="C489" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E489" s="2"/>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="C490" t="s">
+        <v>261</v>
+      </c>
+      <c r="D490" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B492" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C491" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E491" s="2"/>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="C492" t="s">
-        <v>504</v>
-      </c>
-      <c r="D492" t="s">
-        <v>505</v>
-      </c>
+      <c r="C492" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E492" s="2"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E494" s="2"/>
     </row>
-    <row r="496" spans="1:5">
-      <c r="A496" s="2" t="s">
+    <row r="495" spans="1:5">
+      <c r="C495" t="s">
+        <v>514</v>
+      </c>
+      <c r="D495" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="D497" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C496" s="2" t="s">
+      <c r="E497" s="2"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="C498" t="s">
         <v>514</v>
       </c>
-      <c r="D496" s="2" t="s">
+      <c r="D498" t="s">
         <v>515</v>
       </c>
-      <c r="E496" s="2"/>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="A498" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E498" s="2"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="E500" s="2"/>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="D502" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D502" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="E502" s="2"/>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="D504" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="E504" s="2"/>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="D506" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="E506" s="2"/>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="D508" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C508" s="2" t="s">
+      <c r="E508" s="2"/>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="B510" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E508" s="2"/>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="C509" t="s">
-        <v>526</v>
-      </c>
-      <c r="D509" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511" s="2" t="s">
+      <c r="C510" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="D510" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C511" s="2" t="s">
+      <c r="E510" s="2"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="B512" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="2" t="s">
+      <c r="C512" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="D512" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C513" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E513" s="2"/>
+      <c r="E512" s="2"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E514" s="2"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E515" s="2"/>
+      <c r="C515" t="s">
+        <v>536</v>
+      </c>
+      <c r="D515" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E517" s="2"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>332</v>
+        <v>553</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E519" s="2"/>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>554</v>
+        <v>104</v>
       </c>
       <c r="E521" s="2"/>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>557</v>
+        <v>103</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>558</v>
+        <v>104</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>560</v>
+        <v>342</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>561</v>
+        <v>7</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>562</v>
+        <v>8</v>
       </c>
       <c r="E525" s="2"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E527" s="2"/>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E529" s="2"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E531" s="2"/>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E533" s="2"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E535" s="2"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="E537" s="2"/>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="D539" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="E539" s="2"/>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="D541" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C541" s="2" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D541" s="2" t="s">
+      <c r="B543" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E541" s="2"/>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="C542" t="s">
-        <v>573</v>
-      </c>
-      <c r="D542" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="A544" s="2" t="s">
+      <c r="C543" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E543" s="2"/>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B545" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C544" s="2" t="s">
+      <c r="C545" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D544" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E544" s="2"/>
-    </row>
-    <row r="546" spans="1:5">
-      <c r="A546" s="2" t="s">
+      <c r="E545" s="2"/>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B547" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C546" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E546" s="2"/>
+      <c r="C547" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E547" s="2"/>
     </row>
     <row r="548" spans="1:5">
-      <c r="A548" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E548" s="2"/>
+      <c r="C548" t="s">
+        <v>581</v>
+      </c>
+      <c r="D548" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
@@ -7272,108 +7290,108 @@
         <v>606</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E552" s="2"/>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E554" s="2"/>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E556" s="2"/>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B558" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C556" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E556" s="2"/>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="C557" t="s">
-        <v>504</v>
-      </c>
-      <c r="D557" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="2" t="s">
+      <c r="C558" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="D558" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="E558" s="2"/>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D559" s="2" t="s">
+      <c r="B560" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E559" s="2"/>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="2" t="s">
+      <c r="C560" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="E560" s="2"/>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D561" s="2" t="s">
+      <c r="B562" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E561" s="2"/>
+      <c r="C562" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E562" s="2"/>
     </row>
     <row r="563" spans="1:5">
-      <c r="A563" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E563" s="2"/>
+      <c r="C563" t="s">
+        <v>514</v>
+      </c>
+      <c r="D563" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="E565" s="2"/>
     </row>
@@ -7385,393 +7403,393 @@
         <v>628</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="E567" s="2"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E569" s="2"/>
     </row>
-    <row r="570" spans="1:5">
-      <c r="C570" t="s">
-        <v>573</v>
-      </c>
-      <c r="D570" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5">
-      <c r="A572" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C572" s="2" t="s">
+    <row r="571" spans="1:5">
+      <c r="A571" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D572" s="2" t="s">
+      <c r="B571" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E572" s="2"/>
+      <c r="C571" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E571" s="2"/>
     </row>
     <row r="573" spans="1:5">
-      <c r="C573" t="s">
-        <v>577</v>
-      </c>
-      <c r="D573" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5">
-      <c r="C574" t="s">
-        <v>607</v>
-      </c>
-      <c r="D574" t="s">
-        <v>608</v>
-      </c>
+      <c r="A573" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E573" s="2"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E575" s="2"/>
     </row>
     <row r="576" spans="1:5">
-      <c r="A576" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B576" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E576" s="2"/>
-    </row>
-    <row r="577" spans="1:5">
-      <c r="C577" t="s">
-        <v>607</v>
-      </c>
-      <c r="D577" t="s">
-        <v>608</v>
-      </c>
+      <c r="C576" t="s">
+        <v>581</v>
+      </c>
+      <c r="D576" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E578" s="2"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D579" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E579" s="2"/>
+      <c r="C579" t="s">
+        <v>585</v>
+      </c>
+      <c r="D579" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="580" spans="1:5">
       <c r="C580" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="D580" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5">
-      <c r="C581" t="s">
-        <v>621</v>
-      </c>
-      <c r="D581" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:5">
-      <c r="C582" t="s">
-        <v>518</v>
-      </c>
-      <c r="D582" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5">
-      <c r="A584" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C584" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E584" s="2"/>
+      <c r="A582" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E582" s="2"/>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="C583" t="s">
+        <v>615</v>
+      </c>
+      <c r="D583" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E585" s="2"/>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E586" s="2"/>
+      <c r="C586" t="s">
+        <v>565</v>
+      </c>
+      <c r="D586" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="C587" t="s">
+        <v>629</v>
+      </c>
+      <c r="D587" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C588" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E588" s="2"/>
+      <c r="C588" t="s">
+        <v>528</v>
+      </c>
+      <c r="D588" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="E590" s="2"/>
     </row>
-    <row r="591" spans="1:5">
-      <c r="C591" t="s">
+    <row r="592" spans="1:5">
+      <c r="A592" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D591" t="s">
+      <c r="B592" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="593" spans="1:5">
-      <c r="A593" s="2" t="s">
+      <c r="C592" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E592" s="2"/>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B594" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C593" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E593" s="2"/>
-    </row>
-    <row r="595" spans="1:5">
-      <c r="A595" s="2" t="s">
+      <c r="C594" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E594" s="2"/>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B596" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C595" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E595" s="2"/>
-    </row>
-    <row r="596" spans="1:5">
-      <c r="C596" t="s">
+      <c r="C596" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D596" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="598" spans="1:5">
-      <c r="A598" s="2" t="s">
+      <c r="E596" s="2"/>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="C597" t="s">
         <v>657</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="D597" t="s">
         <v>658</v>
       </c>
-      <c r="C598" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D598" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E598" s="2"/>
     </row>
     <row r="599" spans="1:5">
-      <c r="C599" t="s">
-        <v>655</v>
-      </c>
-      <c r="D599" t="s">
-        <v>656</v>
-      </c>
+      <c r="A599" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E599" s="2"/>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>530</v>
+        <v>7</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>531</v>
+        <v>8</v>
       </c>
       <c r="E601" s="2"/>
     </row>
-    <row r="603" spans="1:5">
-      <c r="A603" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B603" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="E603" s="2"/>
+    <row r="602" spans="1:5">
+      <c r="C602" t="s">
+        <v>663</v>
+      </c>
+      <c r="D602" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="604" spans="1:5">
-      <c r="C604" t="s">
-        <v>649</v>
-      </c>
-      <c r="D604" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="606" spans="1:5">
-      <c r="A606" s="2" t="s">
+      <c r="A604" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E604" s="2"/>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="C605" t="s">
         <v>663</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="D605" t="s">
         <v>664</v>
       </c>
-      <c r="C606" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E606" s="2"/>
-    </row>
-    <row r="608" spans="1:5">
-      <c r="A608" s="2" t="s">
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B607" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C608" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E608" s="2"/>
+      <c r="C607" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E607" s="2"/>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E609" s="2"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C610" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D610" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E610" s="2"/>
-    </row>
-    <row r="611" spans="1:5">
-      <c r="C611" t="s">
+      <c r="C610" t="s">
+        <v>657</v>
+      </c>
+      <c r="D610" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D611" t="s">
+      <c r="B612" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="613" spans="1:5">
-      <c r="A613" s="2" t="s">
+      <c r="C612" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="D612" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C613" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D613" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E613" s="2"/>
-    </row>
-    <row r="615" spans="1:5">
-      <c r="A615" s="2" t="s">
+      <c r="E612" s="2"/>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B614" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C615" s="2" t="s">
+      <c r="C614" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E614" s="2"/>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D615" s="2" t="s">
+      <c r="B616" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E615" s="2"/>
+      <c r="C616" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E616" s="2"/>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="2" t="s">
+      <c r="C617" t="s">
         <v>679</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="D617" t="s">
         <v>680</v>
       </c>
-      <c r="C617" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D617" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E617" s="2"/>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="2" t="s">
@@ -7781,10 +7799,10 @@
         <v>682</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>677</v>
+        <v>611</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="E619" s="2"/>
     </row>
@@ -7796,115 +7814,115 @@
         <v>684</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="E621" s="2"/>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>671</v>
+        <v>611</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
       <c r="E623" s="2"/>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="E625" s="2"/>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E627" s="2"/>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>542</v>
+        <v>679</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>543</v>
+        <v>680</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>553</v>
+        <v>673</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>554</v>
+        <v>674</v>
       </c>
       <c r="E631" s="2"/>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>93</v>
+        <v>685</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>94</v>
+        <v>686</v>
       </c>
       <c r="E633" s="2"/>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>699</v>
+        <v>7</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>700</v>
+        <v>8</v>
       </c>
       <c r="E635" s="2"/>
     </row>
@@ -7916,10 +7934,10 @@
         <v>702</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>666</v>
+        <v>562</v>
       </c>
       <c r="E637" s="2"/>
     </row>
@@ -7931,10 +7949,10 @@
         <v>704</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>554</v>
+        <v>104</v>
       </c>
       <c r="E639" s="2"/>
     </row>
@@ -7946,10 +7964,10 @@
         <v>706</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>553</v>
+        <v>23</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>554</v>
+        <v>24</v>
       </c>
       <c r="E641" s="2"/>
     </row>
@@ -7961,10 +7979,10 @@
         <v>708</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>553</v>
+        <v>673</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>554</v>
+        <v>674</v>
       </c>
       <c r="E643" s="2"/>
     </row>
@@ -7976,10 +7994,10 @@
         <v>710</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="E645" s="2"/>
     </row>
@@ -7991,10 +8009,10 @@
         <v>712</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>666</v>
+        <v>562</v>
       </c>
       <c r="E647" s="2"/>
     </row>
@@ -8006,10 +8024,10 @@
         <v>714</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>666</v>
+        <v>562</v>
       </c>
       <c r="E649" s="2"/>
     </row>
@@ -8021,10 +8039,10 @@
         <v>716</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>671</v>
+        <v>561</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>672</v>
+        <v>562</v>
       </c>
       <c r="E651" s="2"/>
     </row>
@@ -8036,10 +8054,10 @@
         <v>718</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>105</v>
+        <v>673</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>106</v>
+        <v>674</v>
       </c>
       <c r="E653" s="2"/>
     </row>
@@ -8051,10 +8069,10 @@
         <v>720</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="E655" s="2"/>
     </row>
@@ -8066,10 +8084,10 @@
         <v>722</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="E657" s="2"/>
     </row>
@@ -8081,10 +8099,10 @@
         <v>724</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E659" s="2"/>
     </row>
@@ -8096,10 +8114,10 @@
         <v>726</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="E661" s="2"/>
     </row>
@@ -8111,10 +8129,10 @@
         <v>728</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="E663" s="2"/>
     </row>
@@ -8126,10 +8144,10 @@
         <v>730</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>553</v>
+        <v>115</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>554</v>
+        <v>116</v>
       </c>
       <c r="E665" s="2"/>
     </row>
@@ -8141,10 +8159,10 @@
         <v>732</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>542</v>
+        <v>673</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>543</v>
+        <v>674</v>
       </c>
       <c r="E667" s="2"/>
     </row>
@@ -8156,10 +8174,10 @@
         <v>734</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="E669" s="2"/>
     </row>
@@ -8171,10 +8189,10 @@
         <v>736</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="E671" s="2"/>
     </row>
@@ -8186,10 +8204,10 @@
         <v>738</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>553</v>
+        <v>7</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>554</v>
+        <v>8</v>
       </c>
       <c r="E673" s="2"/>
     </row>
@@ -8201,55 +8219,55 @@
         <v>740</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>741</v>
+        <v>532</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>742</v>
+        <v>533</v>
       </c>
       <c r="E675" s="2"/>
     </row>
     <row r="677" spans="1:5">
       <c r="A677" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>741</v>
+        <v>536</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>742</v>
+        <v>537</v>
       </c>
       <c r="E677" s="2"/>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>677</v>
+        <v>561</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="E679" s="2"/>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C681" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="D681" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D681" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E681" s="2"/>
     </row>
@@ -8261,10 +8279,10 @@
         <v>750</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>553</v>
+        <v>747</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>554</v>
+        <v>748</v>
       </c>
       <c r="E683" s="2"/>
     </row>
@@ -8276,10 +8294,10 @@
         <v>752</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E685" s="2"/>
     </row>
@@ -8291,10 +8309,10 @@
         <v>754</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>742</v>
+        <v>686</v>
       </c>
       <c r="E687" s="2"/>
     </row>
@@ -8306,10 +8324,10 @@
         <v>756</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>105</v>
+        <v>561</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>106</v>
+        <v>562</v>
       </c>
       <c r="E689" s="2"/>
     </row>
@@ -8321,10 +8339,10 @@
         <v>758</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="E691" s="2"/>
     </row>
@@ -8333,83 +8351,83 @@
         <v>759</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>603</v>
+        <v>747</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>604</v>
+        <v>748</v>
       </c>
       <c r="E693" s="2"/>
     </row>
     <row r="695" spans="1:5">
       <c r="A695" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>553</v>
+        <v>115</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>554</v>
+        <v>116</v>
       </c>
       <c r="E695" s="2"/>
     </row>
-    <row r="696" spans="1:5">
-      <c r="C696" t="s">
-        <v>526</v>
-      </c>
-      <c r="D696" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="698" spans="1:5">
-      <c r="A698" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B698" s="2" t="s">
+    <row r="697" spans="1:5">
+      <c r="A697" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C698" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D698" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E698" s="2"/>
-    </row>
-    <row r="700" spans="1:5">
-      <c r="A700" s="2" t="s">
+      <c r="B697" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="C697" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E697" s="2"/>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C700" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D700" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E700" s="2"/>
+      <c r="B699" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E699" s="2"/>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E701" s="2"/>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B702" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="C702" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D702" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E702" s="2"/>
+      <c r="C702" t="s">
+        <v>536</v>
+      </c>
+      <c r="D702" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="704" spans="1:5">
       <c r="A704" s="2" t="s">
@@ -8419,10 +8437,10 @@
         <v>769</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="E704" s="2"/>
     </row>
@@ -8434,10 +8452,10 @@
         <v>771</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="E706" s="2"/>
     </row>
@@ -8449,10 +8467,10 @@
         <v>773</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="E708" s="2"/>
     </row>
@@ -8464,10 +8482,10 @@
         <v>775</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="E710" s="2"/>
     </row>
@@ -8479,10 +8497,10 @@
         <v>777</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E712" s="2"/>
     </row>
@@ -8494,10 +8512,10 @@
         <v>779</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="E714" s="2"/>
     </row>
@@ -8509,275 +8527,275 @@
         <v>781</v>
       </c>
       <c r="C716" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E716" s="2"/>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D716" s="2" t="s">
+      <c r="B718" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="E716" s="2"/>
-    </row>
-    <row r="717" spans="1:5">
-      <c r="C717" t="s">
+      <c r="C718" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E718" s="2"/>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D717" t="s">
+      <c r="B720" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="719" spans="1:5">
-      <c r="A719" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C719" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D719" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E719" s="2"/>
-    </row>
-    <row r="720" spans="1:5">
-      <c r="C720" t="s">
-        <v>790</v>
-      </c>
-      <c r="D720" t="s">
-        <v>791</v>
-      </c>
+      <c r="C720" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E720" s="2"/>
     </row>
     <row r="722" spans="1:5">
       <c r="A722" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E722" s="2"/>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="C723" t="s">
+        <v>790</v>
+      </c>
+      <c r="D723" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B725" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C722" s="2" t="s">
+      <c r="C725" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D722" s="2" t="s">
+      <c r="D725" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="E722" s="2"/>
-    </row>
-    <row r="724" spans="1:5">
-      <c r="A724" s="2" t="s">
+      <c r="E725" s="2"/>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="C726" t="s">
         <v>796</v>
       </c>
-      <c r="B724" s="2" t="s">
+      <c r="D726" t="s">
         <v>797</v>
       </c>
-      <c r="C724" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D724" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="726" spans="1:5">
-      <c r="A726" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D726" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E726" s="2"/>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E728" s="2"/>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>221</v>
+        <v>804</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>222</v>
+        <v>805</v>
       </c>
       <c r="E730" s="2"/>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="E732" s="2"/>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E734" s="2"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>818</v>
+        <v>231</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>819</v>
+        <v>232</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E740" s="2"/>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E742" s="2"/>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="E744" s="2"/>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>221</v>
+        <v>838</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>222</v>
+        <v>839</v>
       </c>
       <c r="E750" s="2"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>838</v>
@@ -8789,190 +8807,190 @@
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C754" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="D754" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C754" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>815</v>
-      </c>
       <c r="E754" s="2"/>
     </row>
-    <row r="755" spans="1:5">
-      <c r="C755" t="s">
+    <row r="756" spans="1:5">
+      <c r="A756" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D755" t="s">
+      <c r="B756" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="757" spans="1:5">
-      <c r="A757" s="2" t="s">
+      <c r="C756" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E756" s="2"/>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="B758" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C757" s="2" t="s">
+      <c r="C758" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E758" s="2"/>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D757" s="2" t="s">
+      <c r="B760" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E757" s="2"/>
-    </row>
-    <row r="759" spans="1:5">
-      <c r="A759" s="2" t="s">
+      <c r="C760" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E760" s="2"/>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="C761" t="s">
         <v>852</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="D761" t="s">
         <v>853</v>
       </c>
-      <c r="C759" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="D759" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E759" s="2"/>
-    </row>
-    <row r="761" spans="1:5">
-      <c r="A761" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D761" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E761" s="2"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E763" s="2"/>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="B765" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C763" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="E763" s="2"/>
-    </row>
-    <row r="764" spans="1:5">
-      <c r="C764" t="s">
-        <v>850</v>
-      </c>
-      <c r="D764" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="766" spans="1:5">
-      <c r="A766" s="2" t="s">
+      <c r="C765" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="D765" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C766" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="E766" s="2"/>
-    </row>
-    <row r="768" spans="1:5">
-      <c r="A768" s="2" t="s">
+      <c r="E765" s="2"/>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B767" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C768" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E768" s="2"/>
+      <c r="C767" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E767" s="2"/>
     </row>
     <row r="769" spans="1:5">
-      <c r="C769" t="s">
+      <c r="A769" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="D769" t="s">
+      <c r="B769" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="771" spans="1:5">
-      <c r="A771" s="2" t="s">
+      <c r="C769" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E769" s="2"/>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="C770" t="s">
+        <v>856</v>
+      </c>
+      <c r="D770" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="B771" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C771" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D771" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E771" s="2"/>
-    </row>
-    <row r="773" spans="1:5">
-      <c r="A773" s="2" t="s">
+      <c r="B772" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="C772" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E772" s="2"/>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C773" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D773" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E773" s="2"/>
+      <c r="B774" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E774" s="2"/>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B775" s="2" t="s">
+      <c r="C775" t="s">
         <v>870</v>
       </c>
-      <c r="C775" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D775" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E775" s="2"/>
+      <c r="D775" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>872</v>
+        <v>342</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="E777" s="2"/>
     </row>
@@ -8999,210 +9017,255 @@
         <v>876</v>
       </c>
       <c r="C781" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E781" s="2"/>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D781" s="2" t="s">
+      <c r="B783" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="E781" s="2"/>
-    </row>
-    <row r="782" spans="1:5">
-      <c r="C782" t="s">
-        <v>784</v>
-      </c>
-      <c r="D782" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="784" spans="1:5">
-      <c r="A784" s="2" t="s">
+      <c r="C783" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E783" s="2"/>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B785" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C784" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D784" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E784" s="2"/>
-    </row>
-    <row r="786" spans="1:5">
-      <c r="A786" s="2" t="s">
+      <c r="C785" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E785" s="2"/>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="B787" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C786" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E786" s="2"/>
+      <c r="C787" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E787" s="2"/>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="2" t="s">
+      <c r="C788" t="s">
+        <v>790</v>
+      </c>
+      <c r="D788" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E790" s="2"/>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E792" s="2"/>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E794" s="2"/>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="C795" t="s">
         <v>883</v>
       </c>
-      <c r="B788" s="2" t="s">
+      <c r="D795" t="s">
         <v>884</v>
       </c>
-      <c r="C788" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D788" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="E788" s="2"/>
-    </row>
-    <row r="789" spans="1:5">
-      <c r="C789" t="s">
-        <v>877</v>
-      </c>
-      <c r="D789" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="791" spans="1:5">
-      <c r="A791" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="C791" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D791" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="E791" s="2"/>
-    </row>
-    <row r="793" spans="1:5">
-      <c r="A793" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B793" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C793" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="D793" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E793" s="2"/>
-    </row>
-    <row r="795" spans="1:5">
-      <c r="A795" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B795" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C795" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D795" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E795" s="2"/>
-    </row>
-    <row r="796" spans="1:5">
-      <c r="C796" t="s">
-        <v>784</v>
-      </c>
-      <c r="D796" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="798" spans="1:5">
-      <c r="A798" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B798" s="2" t="s">
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C798" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D798" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E798" s="2"/>
+      <c r="B797" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E797" s="2"/>
     </row>
     <row r="799" spans="1:5">
-      <c r="C799" t="s">
-        <v>784</v>
-      </c>
-      <c r="D799" t="s">
-        <v>785</v>
-      </c>
+      <c r="A799" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E799" s="2"/>
     </row>
     <row r="801" spans="1:5">
       <c r="A801" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>893</v>
+        <v>551</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>846</v>
+        <v>788</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>847</v>
+        <v>789</v>
       </c>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="1:5">
       <c r="C802" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
       <c r="D802" t="s">
-        <v>865</v>
+        <v>791</v>
       </c>
     </row>
     <row r="804" spans="1:5">
       <c r="A804" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="E804" s="2"/>
     </row>
     <row r="805" spans="1:5">
       <c r="C805" t="s">
-        <v>854</v>
+        <v>790</v>
       </c>
       <c r="D805" t="s">
-        <v>855</v>
+        <v>791</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
       <c r="E807" s="2"/>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="C808" t="s">
+        <v>870</v>
+      </c>
+      <c r="D808" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E810" s="2"/>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="C811" t="s">
+        <v>860</v>
+      </c>
+      <c r="D811" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E813" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="906">
   <si>
     <t>Sigla</t>
   </si>
@@ -2452,12 +2452,6 @@
     <t>Maria Eleonora Andrade de Carvalho</t>
   </si>
   <si>
-    <t>LOT2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia Ambiental</t>
-  </si>
-  <si>
     <t>LOT2013</t>
   </si>
   <si>
@@ -2726,6 +2720,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Tecnologia de Biopolímeros</t>
+  </si>
+  <si>
+    <t>LOT2061</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Química Analítica Aplicada a Bioprocessos</t>
+  </si>
+  <si>
+    <t>LOT2062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solução de Problemas de Engenharia</t>
   </si>
 </sst>
 </file>
@@ -3076,7 +3082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E813"/>
+  <dimension ref="A1:E815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8678,55 +8684,55 @@
         <v>813</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>231</v>
+        <v>814</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>232</v>
+        <v>815</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E740" s="2"/>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="E742" s="2"/>
     </row>
@@ -8738,55 +8744,55 @@
         <v>827</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="E744" s="2"/>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E746" s="2"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E748" s="2"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C750" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="D750" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="C750" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D750" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="E750" s="2"/>
     </row>
@@ -8798,25 +8804,25 @@
         <v>841</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="E752" s="2"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>844</v>
+        <v>231</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>845</v>
+        <v>232</v>
       </c>
       <c r="E754" s="2"/>
     </row>
@@ -8828,10 +8834,10 @@
         <v>847</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>231</v>
+        <v>842</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>232</v>
+        <v>843</v>
       </c>
       <c r="E756" s="2"/>
     </row>
@@ -8843,63 +8849,63 @@
         <v>849</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="E758" s="2"/>
     </row>
-    <row r="760" spans="1:5">
-      <c r="A760" s="2" t="s">
+    <row r="759" spans="1:5">
+      <c r="C759" t="s">
         <v>850</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="D759" t="s">
         <v>851</v>
       </c>
-      <c r="C760" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D760" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E760" s="2"/>
     </row>
     <row r="761" spans="1:5">
-      <c r="C761" t="s">
+      <c r="A761" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D761" t="s">
+      <c r="B761" s="2" t="s">
         <v>853</v>
       </c>
+      <c r="C761" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E761" s="2"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E763" s="2"/>
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>860</v>
+        <v>794</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>861</v>
+        <v>795</v>
       </c>
       <c r="E765" s="2"/>
     </row>
@@ -8911,35 +8917,35 @@
         <v>863</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>794</v>
+        <v>832</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>795</v>
+        <v>833</v>
       </c>
       <c r="E767" s="2"/>
     </row>
-    <row r="769" spans="1:5">
-      <c r="A769" s="2" t="s">
+    <row r="768" spans="1:5">
+      <c r="C768" t="s">
+        <v>854</v>
+      </c>
+      <c r="D768" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B770" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C769" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D769" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E769" s="2"/>
-    </row>
-    <row r="770" spans="1:5">
-      <c r="C770" t="s">
-        <v>856</v>
-      </c>
-      <c r="D770" t="s">
-        <v>857</v>
-      </c>
+      <c r="C770" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E770" s="2"/>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
@@ -8949,48 +8955,48 @@
         <v>867</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="E772" s="2"/>
     </row>
-    <row r="774" spans="1:5">
-      <c r="A774" s="2" t="s">
+    <row r="773" spans="1:5">
+      <c r="C773" t="s">
         <v>868</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="D773" t="s">
         <v>869</v>
       </c>
-      <c r="C774" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D774" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E774" s="2"/>
     </row>
     <row r="775" spans="1:5">
-      <c r="C775" t="s">
+      <c r="A775" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="D775" t="s">
-        <v>871</v>
-      </c>
+      <c r="B775" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E775" s="2"/>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B777" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B777" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C777" s="2" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="E777" s="2"/>
     </row>
@@ -9017,10 +9023,10 @@
         <v>876</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>788</v>
+        <v>850</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
       <c r="E781" s="2"/>
     </row>
@@ -9032,10 +9038,10 @@
         <v>878</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>852</v>
+        <v>794</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>853</v>
+        <v>795</v>
       </c>
       <c r="E783" s="2"/>
     </row>
@@ -9047,35 +9053,35 @@
         <v>880</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>794</v>
+        <v>881</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>795</v>
+        <v>882</v>
       </c>
       <c r="E785" s="2"/>
     </row>
-    <row r="787" spans="1:5">
-      <c r="A787" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C787" s="2" t="s">
+    <row r="786" spans="1:5">
+      <c r="C786" t="s">
+        <v>790</v>
+      </c>
+      <c r="D786" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D787" s="2" t="s">
+      <c r="B788" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="E787" s="2"/>
-    </row>
-    <row r="788" spans="1:5">
-      <c r="C788" t="s">
-        <v>790</v>
-      </c>
-      <c r="D788" t="s">
-        <v>791</v>
-      </c>
+      <c r="C788" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E788" s="2"/>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="2" t="s">
@@ -9085,10 +9091,10 @@
         <v>886</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="E790" s="2"/>
     </row>
@@ -9100,35 +9106,35 @@
         <v>888</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="E792" s="2"/>
     </row>
-    <row r="794" spans="1:5">
-      <c r="A794" s="2" t="s">
+    <row r="793" spans="1:5">
+      <c r="C793" t="s">
+        <v>881</v>
+      </c>
+      <c r="D793" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B794" s="2" t="s">
+      <c r="B795" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C794" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="E794" s="2"/>
-    </row>
-    <row r="795" spans="1:5">
-      <c r="C795" t="s">
-        <v>883</v>
-      </c>
-      <c r="D795" t="s">
-        <v>884</v>
-      </c>
+      <c r="C795" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E795" s="2"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="2" t="s">
@@ -9138,10 +9144,10 @@
         <v>892</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>790</v>
+        <v>868</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>791</v>
+        <v>869</v>
       </c>
       <c r="E797" s="2"/>
     </row>
@@ -9150,107 +9156,107 @@
         <v>893</v>
       </c>
       <c r="B799" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E799" s="2"/>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="C800" t="s">
+        <v>790</v>
+      </c>
+      <c r="D800" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C799" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D799" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E799" s="2"/>
-    </row>
-    <row r="801" spans="1:5">
-      <c r="A801" s="2" t="s">
+      <c r="B802" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B801" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C801" s="2" t="s">
+      <c r="C802" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D801" s="2" t="s">
+      <c r="D802" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="E801" s="2"/>
-    </row>
-    <row r="802" spans="1:5">
-      <c r="C802" t="s">
+      <c r="E802" s="2"/>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="C803" t="s">
         <v>790</v>
       </c>
-      <c r="D802" t="s">
+      <c r="D803" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
-      <c r="A804" s="2" t="s">
+    <row r="805" spans="1:5">
+      <c r="A805" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B804" s="2" t="s">
+      <c r="B805" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C804" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D804" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E804" s="2"/>
-    </row>
-    <row r="805" spans="1:5">
-      <c r="C805" t="s">
-        <v>790</v>
-      </c>
-      <c r="D805" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="807" spans="1:5">
-      <c r="A807" s="2" t="s">
+      <c r="C805" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E805" s="2"/>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="C806" t="s">
+        <v>868</v>
+      </c>
+      <c r="D806" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B807" s="2" t="s">
+      <c r="B808" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C807" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D807" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="E807" s="2"/>
-    </row>
-    <row r="808" spans="1:5">
-      <c r="C808" t="s">
-        <v>870</v>
-      </c>
-      <c r="D808" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="810" spans="1:5">
-      <c r="A810" s="2" t="s">
+      <c r="C808" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E808" s="2"/>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="C809" t="s">
+        <v>858</v>
+      </c>
+      <c r="D809" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B810" s="2" t="s">
+      <c r="B811" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C810" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D810" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E810" s="2"/>
-    </row>
-    <row r="811" spans="1:5">
-      <c r="C811" t="s">
-        <v>860</v>
-      </c>
-      <c r="D811" t="s">
-        <v>861</v>
-      </c>
+      <c r="C811" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E811" s="2"/>
     </row>
     <row r="813" spans="1:5">
       <c r="A813" s="2" t="s">
@@ -9259,13 +9265,20 @@
       <c r="B813" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C813" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D813" s="2" t="s">
-        <v>797</v>
-      </c>
+      <c r="C813" s="2"/>
+      <c r="D813" s="2"/>
       <c r="E813" s="2"/>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C815" s="2"/>
+      <c r="D815" s="2"/>
+      <c r="E815" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -3091,7 +3091,8 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/_python/docentes-responsaveis.xlsx
+++ b/_python/docentes-responsaveis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="906">
   <si>
     <t>Sigla</t>
   </si>
@@ -229,12 +229,6 @@
     <t xml:space="preserve"> Mecânica</t>
   </si>
   <si>
-    <t>5840650</t>
-  </si>
-  <si>
-    <t>Janaína Ferreira Batista</t>
-  </si>
-  <si>
     <t>LOB1031</t>
   </si>
   <si>
@@ -2398,162 +2392,180 @@
     <t xml:space="preserve"> Bioquímica</t>
   </si>
   <si>
+    <t>7516317</t>
+  </si>
+  <si>
+    <t>Anuj Kumar</t>
+  </si>
+  <si>
     <t>8711290</t>
   </si>
   <si>
     <t>Elisson Antônio da Costa Romanel</t>
   </si>
   <si>
+    <t>LOT2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioquímica Experimental I</t>
+  </si>
+  <si>
+    <t>427823</t>
+  </si>
+  <si>
+    <t>Adriane Maria Ferreira Milagres</t>
+  </si>
+  <si>
+    <t>5082401</t>
+  </si>
+  <si>
+    <t>André Moreni Lopes</t>
+  </si>
+  <si>
+    <t>LOT2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioquímica Experimental II</t>
+  </si>
+  <si>
+    <t>6007846</t>
+  </si>
+  <si>
+    <t>Júlio César dos Santos</t>
+  </si>
+  <si>
+    <t>LOT2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioquímica I</t>
+  </si>
+  <si>
+    <t>LOT2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioquímica II</t>
+  </si>
+  <si>
+    <t>LOT2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia Bioquímica I</t>
+  </si>
+  <si>
+    <t>1112574</t>
+  </si>
+  <si>
+    <t>Inês Conceição Roberto</t>
+  </si>
+  <si>
+    <t>5840876</t>
+  </si>
+  <si>
+    <t>Walter de Carvalho</t>
+  </si>
+  <si>
+    <t>LOT2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engenharia Bioquímica II</t>
+  </si>
+  <si>
+    <t>101761</t>
+  </si>
+  <si>
+    <t>Arnaldo Márcio Ramalho Prata</t>
+  </si>
+  <si>
+    <t>1814052</t>
+  </si>
+  <si>
+    <t>Silvio Silverio da Silva</t>
+  </si>
+  <si>
+    <t>LOT2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enzimologia</t>
+  </si>
+  <si>
+    <t>4873328</t>
+  </si>
+  <si>
+    <t>Fernando Segato</t>
+  </si>
+  <si>
+    <t>LOT2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelagem e Simulação de Processos Biotecnológicos</t>
+  </si>
+  <si>
+    <t>5817181</t>
+  </si>
+  <si>
+    <t>Valdeir Arantes</t>
+  </si>
+  <si>
+    <t>LOT2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processos Bioquímicos Industriais</t>
+  </si>
+  <si>
+    <t>LOT2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reatores Bioquímicos</t>
+  </si>
+  <si>
+    <t>LOT2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologia de Alimentos</t>
+  </si>
+  <si>
+    <t>3403572</t>
+  </si>
+  <si>
+    <t>Ismael Maciel de Mancilha</t>
+  </si>
+  <si>
+    <t>LOT2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologia de Processos Fermentativos</t>
+  </si>
+  <si>
+    <t>LOT2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tecnologia de Conversão de Biomassa Vegetal</t>
+  </si>
+  <si>
+    <t>2143261</t>
+  </si>
+  <si>
+    <t>André Luis Ferraz</t>
+  </si>
+  <si>
     <t>5111420</t>
   </si>
   <si>
     <t>Talita Martins Lacerda</t>
   </si>
   <si>
-    <t>LOT2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bioquímica Experimental I</t>
-  </si>
-  <si>
-    <t>427823</t>
-  </si>
-  <si>
-    <t>Adriane Maria Ferreira Milagres</t>
-  </si>
-  <si>
-    <t>LOT2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bioquímica Experimental II</t>
-  </si>
-  <si>
-    <t>6007846</t>
-  </si>
-  <si>
-    <t>Júlio César dos Santos</t>
-  </si>
-  <si>
-    <t>LOT2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bioquímica I</t>
-  </si>
-  <si>
-    <t>LOT2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bioquímica II</t>
-  </si>
-  <si>
-    <t>5840494</t>
-  </si>
-  <si>
-    <t>Maria Eleonora Andrade de Carvalho</t>
-  </si>
-  <si>
-    <t>LOT2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia Bioquímica I</t>
-  </si>
-  <si>
-    <t>5840876</t>
-  </si>
-  <si>
-    <t>Walter de Carvalho</t>
-  </si>
-  <si>
-    <t>LOT2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engenharia Bioquímica II</t>
-  </si>
-  <si>
-    <t>101761</t>
-  </si>
-  <si>
-    <t>Arnaldo Márcio Ramalho Prata</t>
-  </si>
-  <si>
-    <t>LOT2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enzimologia</t>
-  </si>
-  <si>
-    <t>4873328</t>
-  </si>
-  <si>
-    <t>Fernando Segato</t>
-  </si>
-  <si>
-    <t>LOT2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modelagem e Simulação de Processos Biotecnológicos</t>
-  </si>
-  <si>
-    <t>LOT2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processos Bioquímicos Industriais</t>
-  </si>
-  <si>
-    <t>1814052</t>
-  </si>
-  <si>
-    <t>Silvio Silverio da Silva</t>
-  </si>
-  <si>
-    <t>LOT2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reatores Bioquímicos</t>
-  </si>
-  <si>
-    <t>1112574</t>
-  </si>
-  <si>
-    <t>Inês Conceição Roberto</t>
-  </si>
-  <si>
-    <t>LOT2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologia de Alimentos</t>
-  </si>
-  <si>
-    <t>3403572</t>
-  </si>
-  <si>
-    <t>Ismael Maciel de Mancilha</t>
-  </si>
-  <si>
-    <t>LOT2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologia de Processos Fermentativos</t>
-  </si>
-  <si>
-    <t>LOT2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnologia de Conversão de Biomassa Vegetal</t>
-  </si>
-  <si>
-    <t>2143261</t>
-  </si>
-  <si>
-    <t>André Luis Ferraz</t>
-  </si>
-  <si>
     <t>LOT2035</t>
   </si>
   <si>
     <t xml:space="preserve"> Tratamento Biológico de Efluentes</t>
   </si>
   <si>
+    <t>5840639</t>
+  </si>
+  <si>
+    <t>Flávio José da Silva</t>
+  </si>
+  <si>
     <t>LOT2036</t>
   </si>
   <si>
@@ -2620,12 +2632,6 @@
     <t xml:space="preserve"> Introdução à Engenharia Bioquímica</t>
   </si>
   <si>
-    <t>5817181</t>
-  </si>
-  <si>
-    <t>Valdeir Arantes</t>
-  </si>
-  <si>
     <t>LOT2044</t>
   </si>
   <si>
@@ -2657,12 +2663,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Microbiologia Experimental</t>
-  </si>
-  <si>
-    <t>5840685</t>
-  </si>
-  <si>
-    <t>Maria Bernadete de Medeiros</t>
   </si>
   <si>
     <t>LOT2051</t>
@@ -3082,7 +3082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E815"/>
+  <dimension ref="A1:E842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3091,8 +3091,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3390,79 +3389,79 @@
         <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>51</v>
@@ -3474,10 +3473,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>67</v>
@@ -3489,25 +3488,25 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>67</v>
@@ -3519,40 +3518,40 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>55</v>
@@ -3564,10 +3563,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
@@ -3579,116 +3578,116 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5">
       <c r="C71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5">
       <c r="C74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>47</v>
@@ -3700,498 +3699,498 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5">
       <c r="C115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>43</v>
@@ -4203,10 +4202,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
@@ -4218,177 +4217,177 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5">
       <c r="C152" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D152" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5">
       <c r="C155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5">
       <c r="C160" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D160" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5">
       <c r="C169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -4396,339 +4395,339 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E177" s="2"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5">
       <c r="C180" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D180" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5">
       <c r="C185" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D185" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="C186" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D186" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5">
       <c r="C189" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D189" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="C190" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D190" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5">
       <c r="C193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D193" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5">
       <c r="C196" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="C197" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D197" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="C198" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D198" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5">
       <c r="C201" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D201" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="C202" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D202" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="C203" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5">
       <c r="C206" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D206" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5">
       <c r="C209" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D209" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="C210" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D210" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5">
       <c r="C213" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D213" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E215" s="2"/>
     </row>
@@ -4742,624 +4741,624 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5">
       <c r="C219" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D219" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5">
       <c r="C222" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D222" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5">
       <c r="C225" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D225" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E227" s="2"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5">
       <c r="C230" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D230" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5">
       <c r="C233" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D233" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5">
       <c r="C236" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D236" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E238" s="2"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5">
       <c r="C241" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D241" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5">
       <c r="C244" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D244" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5">
       <c r="C247" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D247" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E249" s="2"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5">
       <c r="C254" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D254" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5">
       <c r="C257" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D257" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="C258" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D258" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5">
       <c r="C261" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D261" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5">
       <c r="C264" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D264" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5">
       <c r="C267" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D267" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="C268" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D268" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="C269" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D269" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5">
       <c r="C272" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D272" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E274" s="2"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5">
       <c r="C277" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D277" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5">
       <c r="C280" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D280" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="C281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="C282" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D282" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5">
       <c r="C285" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D285" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="C286" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D286" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="C287" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D287" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5">
       <c r="C290" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D290" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="C291" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D291" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5">
       <c r="C294" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D294" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E296" s="2"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5367,1671 +5366,1671 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5">
       <c r="C301" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D301" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5">
       <c r="C304" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D304" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="D306" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5">
       <c r="C307" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D307" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5">
       <c r="C310" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D310" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5">
       <c r="C313" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D313" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="C314" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D314" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E316" s="2"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5">
       <c r="C319" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D319" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="C320" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D320" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5">
       <c r="C323" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D323" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5">
       <c r="C326" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D326" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="C327" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D327" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5">
       <c r="C330" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D330" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5">
       <c r="C333" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D333" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5">
       <c r="C336" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D336" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="C337" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D337" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="C338" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D338" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5">
       <c r="C341" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D341" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="C342" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D342" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5">
       <c r="C345" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D345" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5">
       <c r="C348" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D348" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="C349" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D349" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5">
       <c r="C352" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D352" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5">
       <c r="C355" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D355" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="C356" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D356" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5">
       <c r="C359" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D359" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E361" s="2"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E363" s="2"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5">
       <c r="C366" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D366" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5">
       <c r="C369" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D369" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5">
       <c r="C372" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D372" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="C373" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D373" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="C374" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D374" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E376" s="2"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E378" s="2"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="D380" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5">
       <c r="C381" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D381" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="C382" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D382" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5">
       <c r="C385" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D385" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5">
       <c r="C388" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D388" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5">
       <c r="C391" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D391" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5">
       <c r="C394" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D394" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5">
       <c r="C397" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D397" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5">
       <c r="C400" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D400" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="C401" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D401" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5">
       <c r="C404" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D404" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E406" s="2"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5">
       <c r="C409" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D409" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E411" s="2"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E413" s="2"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E415" s="2"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5">
       <c r="C418" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D418" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5">
       <c r="C421" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D421" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5">
       <c r="C424" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D424" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E426" s="2"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5">
       <c r="C429" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D429" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E431" s="2"/>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5">
       <c r="C434" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D434" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E436" s="2"/>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E438" s="2"/>
     </row>
     <row r="439" spans="1:5">
       <c r="C439" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D439" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E441" s="2"/>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E443" s="2"/>
     </row>
     <row r="444" spans="1:5">
       <c r="C444" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D444" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E446" s="2"/>
     </row>
     <row r="447" spans="1:5">
       <c r="C447" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D447" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="C448" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D448" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="C449" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D449" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E451" s="2"/>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5">
       <c r="C454" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D454" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E456" s="2"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5">
       <c r="C459" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D459" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="C460" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D460" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:5">
       <c r="C463" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D463" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E465" s="2"/>
     </row>
     <row r="466" spans="1:5">
       <c r="C466" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D466" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E468" s="2"/>
     </row>
     <row r="469" spans="1:5">
       <c r="C469" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D469" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="1:5">
       <c r="C472" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D472" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5">
       <c r="C475" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D475" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="1:5">
       <c r="C478" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D478" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E480" s="2"/>
     </row>
     <row r="481" spans="1:5">
       <c r="C481" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D481" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E483" s="2"/>
     </row>
     <row r="484" spans="1:5">
       <c r="C484" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D484" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E486" s="2"/>
     </row>
     <row r="487" spans="1:5">
       <c r="C487" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D487" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E489" s="2"/>
     </row>
     <row r="490" spans="1:5">
       <c r="C490" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D490" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="D492" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="E492" s="2"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="D494" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="E494" s="2"/>
     </row>
     <row r="495" spans="1:5">
       <c r="C495" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D495" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E497" s="2"/>
     </row>
     <row r="498" spans="1:5">
       <c r="C498" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D498" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="E500" s="2"/>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="D502" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D502" s="